--- a/期权做市盈亏跟踪.xlsx
+++ b/期权做市盈亏跟踪.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="17235" windowHeight="6705"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="17235" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OptionAccount_all" sheetId="1" r:id="rId1"/>
+    <sheet name="2017年盈亏情况" sheetId="2" r:id="rId1"/>
+    <sheet name="2017年盈亏情况_凌总" sheetId="3" r:id="rId2"/>
+    <sheet name="期权做市总盈亏" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>TotalRepo</t>
   </si>
@@ -33,15 +35,100 @@
   <si>
     <t>PnLMarketClose</t>
   </si>
+  <si>
+    <t>总回购收入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总交易费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc理论盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc盯市盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算价盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年情况</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>净理论盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金占用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总回购收入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总交易费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc理论盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>净理论盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金占用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金绝对收益率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对收益率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金加权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收盘价盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结算价盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +298,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +533,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -509,7 +656,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,8 +783,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,8 +799,98 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -677,6 +916,8 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="43"/>
+    <cellStyle name="常规 3" xfId="42"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -703,6 +944,3266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市总盈亏情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>理论盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('2017年盈亏情况'!$D$2:$D$19,'2017年盈亏情况'!$D$22:$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0_);[Red]\("¥"#,##0\)</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4233607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4531210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4778796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4798480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4967871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5134638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5202598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5212119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5280188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5888731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5676258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5952547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5992385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6311759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6031038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6135244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6316684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6098432</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6185798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6073553</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6169192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57652224"/>
+        <c:axId val="66537728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57652224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66537728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66537728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57652224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况'!$A$40:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况'!$D$40:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>297603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>662682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>564873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>734264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>968991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>978512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1046581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1655124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1442651</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1718940</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1758778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2078152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1797431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1901637</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2083077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4233607</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4233607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1864825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952191</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1839946</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1935585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="145233920"/>
+        <c:axId val="66542336"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="145233920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66542336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="66542336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145233920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市总盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>做市盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3960057.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4204921.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4321210.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4222891.2699999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4391044.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4555078.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4621123.1100000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4630173.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4696195.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5295402.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5079259.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5346728.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5380457.4699999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5691698.8600000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5406992.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5508217.5700000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5685144.6399999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5609213.8499999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5533283.0599999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5457352.2699999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5540811.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5426247.7199999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5515935.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5567265.2599999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5730394.0299999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5746662.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5845130.8200000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5967961.1899999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5958773.1899999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6506832.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6444119.3200000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6460168.9500000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6318337.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6334225.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6420445.3899999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5917021.8700000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6118398.7199999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5861534.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6067605.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6193907.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6349275.7299999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6629915.5700000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6704486.3899999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6865877.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7241694.3899999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7069348.6200000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7083273.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7110246.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7594112.8100000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7528284.3399999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7555140.9299999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7678167.8600000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7734616.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57654272"/>
+        <c:axId val="66542912"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="57654272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66542912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="66542912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3900000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57654272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="300000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2017</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>做市盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$E$91:$E$143</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>295200.05000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540063.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>656352.83000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>558034.06000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>726187.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>890221.21000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>956265.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965316.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1031337.9500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1630545.4100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1414402.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1681871.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1715600.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2026841.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1742134.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1843360.3599999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020287.4300000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1944330.6233333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1868373.816666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1792495.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1875954.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1761390.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1851078.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1902408.0499999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2065536.8199999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2081804.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2180273.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2303103.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2293915.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2841975.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2779262.11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2795311.7399999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2653480.09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2669368.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2755588.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2252164.6599999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2453541.5099999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2196676.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2402748.2399999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2529050.4099999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2684418.5199999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2965058.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3039629.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3201020.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3576837.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3404491.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3418415.94</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3445388.9699999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3929255.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3863427.13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3890283.72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4013310.65</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4069759.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="265545216"/>
+        <c:axId val="125813888"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="265545216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125813888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="125813888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="280000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="265545216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2017</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市绝对收益率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10842897637795276"/>
+          <c:y val="0.17819769654636775"/>
+          <c:w val="0.54757102362204735"/>
+          <c:h val="0.59217975298575531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017年盈亏情况_凌总'!$G$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>占用资金绝对收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$G$91:$G$143</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3.2441589711732356E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0456624131581147E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5386933032996024E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4837931448454922E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5057967364152408E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0481576215741001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1321940805918371E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1483968156034743E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2300299819817674E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9536697935411532E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7119092792446441E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0749186410748494E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1556914871249541E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5675796955267755E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2084787118367293E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2775914128689626E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.545509093253423E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4756083554414377E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3850765388475432E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2799021674873528E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.375286291002458E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2193066723587899E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3208020285673387E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3723492381441644E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5713664035360902E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5810265275023146E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6927447136176702E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8234619694297865E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.778911803443115E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4438494850492551E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3658007808952714E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3818079665969274E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1885693025058968E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1632041215704176E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1997466190741154E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5627960473913244E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7373711517998108E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4145704253045682E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6045624969027473E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7059272730876192E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8371693002589092E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0978338916794412E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1413881805482456E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2743695053805921E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6234095244210542E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4172049146044679E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4013287655381107E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3998196433347887E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.846776102311724E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7539709575252989E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7530313239902295E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8452738139712853E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8738983203955392E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017年盈亏情况_凌总'!$H$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>绝对收益率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$H$91:$H$143</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1.9680003333333337E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6004266000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3756855333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.720227066666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8412491333333337E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9348080666666676E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3751060000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4354409333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8755863333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0870302733333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4293471333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1212475E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1437335066666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3512277666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1614232466666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2289069066666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3468582866666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2962204155555554E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.245582544444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1949967066666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2506362933333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1742603400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2340522200000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2682720333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3770245466666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3878698666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4535157399999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5354026533333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.52927732E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8946503866666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8528414066666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8635411599999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7689867266666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7795788866666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8370587866666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5014431066666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6356943399999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4644511999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.60183216E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6860336066666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7896123466666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9767055733333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0264194533333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1340134600000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3845581199999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2696609400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2789439599999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2969259799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6195037333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5756180866666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.59352248E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6755404333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7131726933333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="265545728"/>
+        <c:axId val="125815616"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="265545728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125815616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="125815616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="265545728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市总盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>做市盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3960057.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4204921.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4321210.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4222891.2699999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4391044.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4555078.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4621123.1100000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4630173.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4696195.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5295402.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5079259.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5346728.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5380457.4699999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5691698.8600000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5406992.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5508217.5700000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5685144.6399999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5609213.8499999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5533283.0599999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5457352.2699999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5540811.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5426247.7199999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5515935.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5567265.2599999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5730394.0299999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5746662.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5845130.8200000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5967961.1899999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>结算价盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$G$3:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3914175.4279999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4165707.9679999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4318063.0779999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4189965.4759999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4373275.1560000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4567084.5060000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4492862.3219999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4966311.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4891010.8159999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5308864.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5099077.3119999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5177277.4330000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5255477.5539999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5719020.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5210213.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5617472.784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5565304.8653333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5513136.9466666672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5460969.0279999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5289661.5460000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5308333.6579999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5159203.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5391849.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5554980.0120000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5423183.8540000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5675104.1459999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6023085.2280000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5853590.7259999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>收盘价盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$H$3:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3882033.0619999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4154708.048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4322957.4340000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4180887.9360000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4377928.1660000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4543731.9359999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4503511.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4942217.9879999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4844404.0880000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5319363.0439999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5053461.892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5164084.523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5274707.1540000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5712394.7740000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5222307.9340000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5616519.182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5558764.9053333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5501010.6286666673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5443256.352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5271583.0839999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5312808.8080000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5162997.3779999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5379793.9939999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5568265.9560000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5455636.3799999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5656732.5360000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6025488.5439999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5866638.3660000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="265546240"/>
+        <c:axId val="125817920"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="265546240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125817920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="125817920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3900000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="265546240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="300000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>期权做市周盈亏</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>周盈亏</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$C$179:$C$183</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年盈亏情况_凌总'!$E$179:$E$183</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>483866.63000000035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418038.16000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444894.75000000047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567921.68000000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624370.0700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="265546752"/>
+        <c:axId val="125820224"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="265546752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125820224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="125820224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="265546752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1171574</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,13 +4493,6081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63:I66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>42734</v>
+      </c>
+      <c r="B2" s="6">
+        <v>652001.21</v>
+      </c>
+      <c r="C2" s="6">
+        <v>568749.79</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4233607</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4151737</v>
+      </c>
+      <c r="F2" s="6">
+        <f>D2-C2</f>
+        <v>3664857.21</v>
+      </c>
+      <c r="G2" s="6">
+        <f>E2-C2</f>
+        <v>3582987.21</v>
+      </c>
+      <c r="H2" s="11">
+        <f>D2-C2</f>
+        <v>3664857.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>42738</v>
+      </c>
+      <c r="B3" s="6">
+        <v>655405.80000000005</v>
+      </c>
+      <c r="C3" s="6">
+        <v>571152.74</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4531210</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4325830</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3914175.4279999998</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3882033.0619999999</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H23" si="0">D3-C3</f>
+        <v>3960057.26</v>
+      </c>
+      <c r="I3" s="33">
+        <v>90994323.219999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42739</v>
+      </c>
+      <c r="B4" s="6">
+        <v>661107.93000000005</v>
+      </c>
+      <c r="C4" s="6">
+        <v>573874.80000000005</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4778796</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4807766</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4165707.9679999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4154708.048</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>4204921.2</v>
+      </c>
+      <c r="I4" s="32">
+        <v>87667319.819999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42740</v>
+      </c>
+      <c r="B5" s="6">
+        <v>664045.86</v>
+      </c>
+      <c r="C5" s="6">
+        <v>575078.96</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4896289</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4867932</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4318063.0779999997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4322957.4340000004</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>4321210.04</v>
+      </c>
+      <c r="I5" s="31">
+        <v>82531963.170000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42741</v>
+      </c>
+      <c r="B6" s="6">
+        <v>665387.53</v>
+      </c>
+      <c r="C6" s="6">
+        <v>575588.73</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4798480</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4775652</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4189965.4759999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4180887.9360000002</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>4222891.2699999996</v>
+      </c>
+      <c r="I6" s="30">
+        <v>83070343.939999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>42744</v>
+      </c>
+      <c r="B7" s="6">
+        <v>666795.86</v>
+      </c>
+      <c r="C7" s="6">
+        <v>576826.42000000004</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4967871</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4984489</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4373275.1560000004</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4377928.1660000002</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>4391044.58</v>
+      </c>
+      <c r="I7" s="29">
+        <v>82613973.519999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>42745</v>
+      </c>
+      <c r="B8" s="6">
+        <v>667340.44999999995</v>
+      </c>
+      <c r="C8" s="6">
+        <v>579559.57999999996</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5134638</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5140689</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4567084.5060000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4543731.9359999998</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>4555078.42</v>
+      </c>
+      <c r="I8" s="28">
+        <v>82714064.219999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42746</v>
+      </c>
+      <c r="B9" s="6">
+        <v>668622.11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>581474.89</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5202598</v>
+      </c>
+      <c r="E9" s="7">
+        <v>67960</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4492862.3219999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4503511.47</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>4621123.1100000003</v>
+      </c>
+      <c r="I9" s="27">
+        <v>81637149.829999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42747</v>
+      </c>
+      <c r="B10" s="6">
+        <v>668622.11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>581945.65</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5212119</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5285502</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4966311.0999999996</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4942217.9879999999</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>4630173.3499999996</v>
+      </c>
+      <c r="I10" s="26">
+        <v>81232594.590000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42748</v>
+      </c>
+      <c r="B11" s="6">
+        <v>671283.79</v>
+      </c>
+      <c r="C11" s="6">
+        <v>583992.84</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5280188</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5493845</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4891010.8159999996</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4844404.0880000005</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>4696195.16</v>
+      </c>
+      <c r="I11" s="25">
+        <v>82157397.789999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42751</v>
+      </c>
+      <c r="B12" s="6">
+        <v>673371.3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>593328.38</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5888731</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5796880</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5308864.47</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5319363.0439999998</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>5295402.62</v>
+      </c>
+      <c r="I12" s="24">
+        <v>79987319.460000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42752</v>
+      </c>
+      <c r="B13" s="6">
+        <v>675536.3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>596998.72</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5676258</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5645342</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5099077.3119999999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5053461.892</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>5079259.28</v>
+      </c>
+      <c r="I13" s="23">
+        <v>74228087.329999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42753</v>
+      </c>
+      <c r="B14" s="6">
+        <v>682973.38</v>
+      </c>
+      <c r="C14" s="6">
+        <v>605818.54</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5952547</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6006580</v>
+      </c>
+      <c r="F14" s="8">
+        <v>7432590.9720000001</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7410401.4900000002</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>5346728.46</v>
+      </c>
+      <c r="I14" s="22">
+        <v>63852035.030000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42754</v>
+      </c>
+      <c r="B15" s="6">
+        <v>699478.38</v>
+      </c>
+      <c r="C15" s="6">
+        <v>611927.53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5992385</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5801626</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5255477.5539999995</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5274707.1540000001</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>5380457.4699999997</v>
+      </c>
+      <c r="I15" s="21">
+        <v>61914321.259999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42755</v>
+      </c>
+      <c r="B16" s="6">
+        <v>706711.29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>620060.14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6311759</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6145161</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5719020.21</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5712394.7740000002</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>5691698.8600000003</v>
+      </c>
+      <c r="I16" s="20">
+        <v>70555965.219999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42758</v>
+      </c>
+      <c r="B17" s="6">
+        <v>708170.03</v>
+      </c>
+      <c r="C17" s="6">
+        <v>624045.92000000004</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6031038</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5976473</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5210213.41</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5222307.9340000004</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>5406992.0800000001</v>
+      </c>
+      <c r="I17" s="19">
+        <v>78102138.390000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42759</v>
+      </c>
+      <c r="B18" s="6">
+        <v>714166.43</v>
+      </c>
+      <c r="C18" s="6">
+        <v>627026.43000000005</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6135244</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6221882</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5617472.784</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5616519.182</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>5508217.5700000003</v>
+      </c>
+      <c r="I18" s="18">
+        <v>111695207.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>42760</v>
+      </c>
+      <c r="B19" s="6">
+        <v>740980.7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>631539.36</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6316684</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6244065</v>
+      </c>
+      <c r="F19" s="8">
+        <v>-2163288.0299999998</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-2156216.4219999998</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>5685144.6399999997</v>
+      </c>
+      <c r="I19" s="17">
+        <v>54280272.939999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>42769</v>
+      </c>
+      <c r="B21" s="6">
+        <v>761612.08</v>
+      </c>
+      <c r="C21" s="6">
+        <v>637951.64</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5460969.0279999999</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5443256.352</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="0"/>
+        <v>-637951.64</v>
+      </c>
+      <c r="I21" s="16">
+        <v>74673061.780000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42772</v>
+      </c>
+      <c r="B22" s="6">
+        <v>764617.49</v>
+      </c>
+      <c r="C22" s="6">
+        <v>641079.73</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6098432</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5289661.5460000001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5271583.0839999998</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="0"/>
+        <v>5457352.2699999996</v>
+      </c>
+      <c r="I22" s="15">
+        <v>84047352.700000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42773</v>
+      </c>
+      <c r="B23" s="6">
+        <v>765193.33</v>
+      </c>
+      <c r="C23" s="6">
+        <v>644986.35</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6185798</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6042844</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5308333.6579999998</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5312808.8080000002</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="0"/>
+        <v>5540811.6500000004</v>
+      </c>
+      <c r="I23" s="14">
+        <v>86107177.359999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B24" s="6">
+        <v>765959.28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>647305.28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6073553</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6077123</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="I24" s="13">
+        <v>87528704.370000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B25" s="6">
+        <v>767032.2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>653256.46</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6169192</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6024815</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="13">
+        <v>88419131.659999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="36">
+        <v>42776</v>
+      </c>
+      <c r="B26" s="37">
+        <v>767899.15000000014</v>
+      </c>
+      <c r="C26" s="37">
+        <v>653883.74000000022</v>
+      </c>
+      <c r="I26" s="37">
+        <v>90094870.409999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="36">
+        <v>42779</v>
+      </c>
+      <c r="B27" s="37">
+        <v>769555.67000000016</v>
+      </c>
+      <c r="C27" s="37">
+        <v>658328.9700000002</v>
+      </c>
+      <c r="I27" s="37">
+        <v>83627905.520000011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="36">
+        <v>42780</v>
+      </c>
+      <c r="B28" s="37">
+        <v>771017.75000000012</v>
+      </c>
+      <c r="C28" s="37">
+        <v>663501.99000000022</v>
+      </c>
+      <c r="I28" s="37">
+        <v>88899078.060000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="36">
+        <v>42781</v>
+      </c>
+      <c r="B29" s="37">
+        <v>772364.84000000008</v>
+      </c>
+      <c r="C29" s="37">
+        <v>669933.18000000017</v>
+      </c>
+      <c r="I29" s="37">
+        <v>89039676.24000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>42738</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" ref="B40:G40" si="1">B3-B$2</f>
+        <v>3404.5900000000838</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="1"/>
+        <v>2402.9499999999534</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>297603</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="1"/>
+        <v>174093</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="1"/>
+        <v>249318.21799999988</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="1"/>
+        <v>299045.85199999996</v>
+      </c>
+      <c r="H40" s="5">
+        <f>D40-C40</f>
+        <v>295200.05000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>42739</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" ref="B41:B62" si="2">B4-$B$2</f>
+        <v>9106.7200000000885</v>
+      </c>
+      <c r="C41" s="6">
+        <f>C4-C$2</f>
+        <v>5125.0100000000093</v>
+      </c>
+      <c r="D41" s="6">
+        <f>D4-D$2</f>
+        <v>545189</v>
+      </c>
+      <c r="E41" s="6">
+        <f>E4-E$2</f>
+        <v>656029</v>
+      </c>
+      <c r="F41" s="6">
+        <f>F4-F$2</f>
+        <v>500850.75799999991</v>
+      </c>
+      <c r="G41" s="6">
+        <f>G4-G$2</f>
+        <v>571720.83799999999</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" ref="H41:H62" si="3">D41-C41</f>
+        <v>540063.99</v>
+      </c>
+      <c r="I41" s="33">
+        <v>90994323.219999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>42740</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="2"/>
+        <v>12044.650000000023</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C62" si="4">C5-C$2</f>
+        <v>6329.1699999999255</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:G62" si="5">D5-D$2</f>
+        <v>662682</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="5"/>
+        <v>716195</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="5"/>
+        <v>653205.86799999978</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="5"/>
+        <v>739970.22400000039</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="3"/>
+        <v>656352.83000000007</v>
+      </c>
+      <c r="I42" s="33">
+        <v>87667319.819999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42741</v>
+      </c>
+      <c r="B43" s="6">
+        <f t="shared" si="2"/>
+        <v>13386.320000000065</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="4"/>
+        <v>6838.9399999999441</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="5"/>
+        <v>564873</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="5"/>
+        <v>623915</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="5"/>
+        <v>525108.26599999983</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="5"/>
+        <v>597900.72600000026</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="3"/>
+        <v>558034.06000000006</v>
+      </c>
+      <c r="I43" s="33">
+        <v>82531963.170000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>42744</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="2"/>
+        <v>14794.650000000023</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="4"/>
+        <v>8076.6300000000047</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="5"/>
+        <v>734264</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="5"/>
+        <v>832752</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="5"/>
+        <v>708417.94600000046</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="5"/>
+        <v>794940.95600000024</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="3"/>
+        <v>726187.37</v>
+      </c>
+      <c r="I44" s="33">
+        <v>83070343.939999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>42745</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="2"/>
+        <v>15339.239999999991</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="4"/>
+        <v>10809.789999999921</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="5"/>
+        <v>901031</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="5"/>
+        <v>988952</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="5"/>
+        <v>902227.29600000009</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="5"/>
+        <v>960744.72599999979</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="3"/>
+        <v>890221.21000000008</v>
+      </c>
+      <c r="I45" s="33">
+        <v>82613973.519999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>42746</v>
+      </c>
+      <c r="B46" s="6">
+        <f t="shared" si="2"/>
+        <v>16620.900000000023</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="4"/>
+        <v>12725.099999999977</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="5"/>
+        <v>968991</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="5"/>
+        <v>-4083777</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="5"/>
+        <v>828005.11199999973</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="5"/>
+        <v>920524.25999999978</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="3"/>
+        <v>956265.9</v>
+      </c>
+      <c r="I46" s="33">
+        <v>82714064.219999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>42747</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="2"/>
+        <v>16620.900000000023</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="4"/>
+        <v>13195.859999999986</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="5"/>
+        <v>978512</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="5"/>
+        <v>1133765</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="5"/>
+        <v>1301453.8899999997</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="5"/>
+        <v>1359230.7779999999</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="3"/>
+        <v>965316.14</v>
+      </c>
+      <c r="I47" s="33">
+        <v>81637149.829999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>42748</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="2"/>
+        <v>19282.580000000075</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="4"/>
+        <v>15243.04999999993</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="5"/>
+        <v>1046581</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="5"/>
+        <v>1342108</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="5"/>
+        <v>1226153.6059999997</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="5"/>
+        <v>1261416.8780000005</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="3"/>
+        <v>1031337.9500000001</v>
+      </c>
+      <c r="I48" s="33">
+        <v>81232594.590000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42751</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="2"/>
+        <v>21370.090000000084</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="4"/>
+        <v>24578.589999999967</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="5"/>
+        <v>1655124</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="5"/>
+        <v>1645143</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="5"/>
+        <v>1644007.2599999998</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="5"/>
+        <v>1736375.8339999998</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="3"/>
+        <v>1630545.4100000001</v>
+      </c>
+      <c r="I49" s="33">
+        <v>82157397.789999992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42752</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="2"/>
+        <v>23535.090000000084</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" si="4"/>
+        <v>28248.929999999935</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="5"/>
+        <v>1442651</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="5"/>
+        <v>1493605</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="5"/>
+        <v>1434220.102</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="5"/>
+        <v>1470474.682</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="3"/>
+        <v>1414402.07</v>
+      </c>
+      <c r="I50" s="33">
+        <v>79987319.460000008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42753</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="2"/>
+        <v>30972.170000000042</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" si="4"/>
+        <v>37068.75</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="5"/>
+        <v>1718940</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="5"/>
+        <v>1854843</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="5"/>
+        <v>3767733.7620000001</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="5"/>
+        <v>3827414.2800000003</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="3"/>
+        <v>1681871.25</v>
+      </c>
+      <c r="I51" s="33">
+        <v>74228087.329999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42754</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="2"/>
+        <v>47477.170000000042</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="4"/>
+        <v>43177.739999999991</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="5"/>
+        <v>1758778</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="5"/>
+        <v>1649889</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="5"/>
+        <v>1590620.3439999996</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="5"/>
+        <v>1691719.9440000001</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="3"/>
+        <v>1715600.26</v>
+      </c>
+      <c r="I52" s="33">
+        <v>63852035.030000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42755</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="2"/>
+        <v>54710.080000000075</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="4"/>
+        <v>51310.349999999977</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="5"/>
+        <v>2078152</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="5"/>
+        <v>1993424</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="5"/>
+        <v>2054163</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="5"/>
+        <v>2129407.5640000002</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="3"/>
+        <v>2026841.65</v>
+      </c>
+      <c r="I53" s="33">
+        <v>61914321.259999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42758</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="2"/>
+        <v>56168.820000000065</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="4"/>
+        <v>55296.130000000005</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="5"/>
+        <v>1797431</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="5"/>
+        <v>1824736</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="5"/>
+        <v>1545356.2000000002</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="5"/>
+        <v>1639320.7240000004</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="3"/>
+        <v>1742134.87</v>
+      </c>
+      <c r="I54" s="33">
+        <v>70555965.219999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42759</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="2"/>
+        <v>62165.220000000088</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="4"/>
+        <v>58276.640000000014</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="5"/>
+        <v>1901637</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="5"/>
+        <v>2070145</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="5"/>
+        <v>1952615.574</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="5"/>
+        <v>2033531.9720000001</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="3"/>
+        <v>1843360.3599999999</v>
+      </c>
+      <c r="I55" s="33">
+        <v>78102138.390000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>42760</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="2"/>
+        <v>88979.489999999991</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="4"/>
+        <v>62789.569999999949</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="5"/>
+        <v>2083077</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="5"/>
+        <v>2092328</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="5"/>
+        <v>-5828145.2400000002</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="5"/>
+        <v>-5739203.6319999993</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="3"/>
+        <v>2020287.4300000002</v>
+      </c>
+      <c r="I56" s="33">
+        <v>111695207.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="2"/>
+        <v>-652001.21</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="4"/>
+        <v>-568749.79</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="5"/>
+        <v>-4233607</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="5"/>
+        <v>-4151737</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="5"/>
+        <v>-3664857.21</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="5"/>
+        <v>-3582987.21</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="3"/>
+        <v>-3664857.21</v>
+      </c>
+      <c r="I57" s="33">
+        <v>54280272.939999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42769</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="2"/>
+        <v>109610.87</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" si="4"/>
+        <v>69201.849999999977</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="5"/>
+        <v>-4233607</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="5"/>
+        <v>-4151737</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="5"/>
+        <v>1796111.818</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="5"/>
+        <v>1860269.142</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="3"/>
+        <v>-4302808.8499999996</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42772</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="2"/>
+        <v>112616.28000000003</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="4"/>
+        <v>72329.939999999944</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="5"/>
+        <v>1864825</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="5"/>
+        <v>-4151737</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="5"/>
+        <v>1624804.3360000001</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="5"/>
+        <v>1688595.8739999998</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="3"/>
+        <v>1792495.06</v>
+      </c>
+      <c r="I59" s="33">
+        <v>74673061.780000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42773</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="2"/>
+        <v>113192.12</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="4"/>
+        <v>76236.559999999939</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="5"/>
+        <v>1952191</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="5"/>
+        <v>1891107</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="5"/>
+        <v>1643476.4479999999</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="5"/>
+        <v>1729821.5980000002</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="3"/>
+        <v>1875954.44</v>
+      </c>
+      <c r="I60" s="33">
+        <v>84047352.700000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="2"/>
+        <v>113958.07000000007</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="4"/>
+        <v>78555.489999999991</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="5"/>
+        <v>1839946</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="5"/>
+        <v>1925386</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="5"/>
+        <v>-3664857.21</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="5"/>
+        <v>-3582987.21</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="3"/>
+        <v>1761390.51</v>
+      </c>
+      <c r="I61" s="33">
+        <v>86107177.359999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="2"/>
+        <v>115030.98999999999</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="4"/>
+        <v>84506.669999999925</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="5"/>
+        <v>1935585</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="5"/>
+        <v>1873078</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="5"/>
+        <v>-3664857.21</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="5"/>
+        <v>-3582987.21</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="3"/>
+        <v>1851078.33</v>
+      </c>
+      <c r="I62" s="33">
+        <v>87528704.370000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="36">
+        <v>42776</v>
+      </c>
+      <c r="B63" s="37">
+        <v>767899.15000000014</v>
+      </c>
+      <c r="C63" s="37">
+        <v>653883.74000000022</v>
+      </c>
+      <c r="I63" s="37">
+        <v>90094870.409999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="36">
+        <v>42779</v>
+      </c>
+      <c r="B64" s="37">
+        <v>769555.67000000016</v>
+      </c>
+      <c r="C64" s="37">
+        <v>658328.9700000002</v>
+      </c>
+      <c r="I64" s="37">
+        <v>83627905.520000011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="36">
+        <v>42780</v>
+      </c>
+      <c r="B65" s="37">
+        <v>771017.75000000012</v>
+      </c>
+      <c r="C65" s="37">
+        <v>663501.99000000022</v>
+      </c>
+      <c r="I65" s="37">
+        <v>88899078.060000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="36">
+        <v>42781</v>
+      </c>
+      <c r="B66" s="37">
+        <v>772364.84000000008</v>
+      </c>
+      <c r="C66" s="37">
+        <v>669933.18000000017</v>
+      </c>
+      <c r="I66" s="37">
+        <v>89039676.24000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E179" sqref="E179:E183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>42734</v>
+      </c>
+      <c r="B2" s="37">
+        <v>652001.21</v>
+      </c>
+      <c r="C2" s="37">
+        <v>568749.79</v>
+      </c>
+      <c r="D2" s="38">
+        <v>4233607</v>
+      </c>
+      <c r="E2" s="39">
+        <f t="shared" ref="E2:E19" si="0">D2-C2</f>
+        <v>3664857.21</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="39">
+        <v>3561150.16</v>
+      </c>
+      <c r="H2" s="39">
+        <v>3538075.3480000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
+        <v>42738</v>
+      </c>
+      <c r="B3" s="37">
+        <v>655405.80000000005</v>
+      </c>
+      <c r="C3" s="37">
+        <v>571152.74</v>
+      </c>
+      <c r="D3" s="38">
+        <v>4531210</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" si="0"/>
+        <v>3960057.26</v>
+      </c>
+      <c r="F3" s="44">
+        <v>90994323.219999999</v>
+      </c>
+      <c r="G3" s="39">
+        <v>3914175.4279999998</v>
+      </c>
+      <c r="H3" s="39">
+        <v>3882033.0619999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
+        <v>42739</v>
+      </c>
+      <c r="B4" s="37">
+        <v>661107.93000000005</v>
+      </c>
+      <c r="C4" s="37">
+        <v>573874.80000000005</v>
+      </c>
+      <c r="D4" s="38">
+        <v>4778796</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
+        <v>4204921.2</v>
+      </c>
+      <c r="F4" s="44">
+        <v>87667319.819999993</v>
+      </c>
+      <c r="G4" s="39">
+        <v>4165707.9679999999</v>
+      </c>
+      <c r="H4" s="39">
+        <v>4154708.048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>42740</v>
+      </c>
+      <c r="B5" s="37">
+        <v>664045.86</v>
+      </c>
+      <c r="C5" s="37">
+        <v>575078.96</v>
+      </c>
+      <c r="D5" s="38">
+        <v>4896289</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" si="0"/>
+        <v>4321210.04</v>
+      </c>
+      <c r="F5" s="44">
+        <v>82531963.170000002</v>
+      </c>
+      <c r="G5" s="39">
+        <v>4318063.0779999997</v>
+      </c>
+      <c r="H5" s="39">
+        <v>4322957.4340000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>42741</v>
+      </c>
+      <c r="B6" s="37">
+        <v>665387.53</v>
+      </c>
+      <c r="C6" s="37">
+        <v>575588.73</v>
+      </c>
+      <c r="D6" s="38">
+        <v>4798480</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>4222891.2699999996</v>
+      </c>
+      <c r="F6" s="44">
+        <v>83070343.939999998</v>
+      </c>
+      <c r="G6" s="39">
+        <v>4189965.4759999998</v>
+      </c>
+      <c r="H6" s="39">
+        <v>4180887.9360000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
+        <v>42744</v>
+      </c>
+      <c r="B7" s="37">
+        <v>666795.86</v>
+      </c>
+      <c r="C7" s="37">
+        <v>576826.42000000004</v>
+      </c>
+      <c r="D7" s="38">
+        <v>4967871</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>4391044.58</v>
+      </c>
+      <c r="F7" s="44">
+        <v>82613973.519999996</v>
+      </c>
+      <c r="G7" s="39">
+        <v>4373275.1560000004</v>
+      </c>
+      <c r="H7" s="39">
+        <v>4377928.1660000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
+        <v>42745</v>
+      </c>
+      <c r="B8" s="37">
+        <v>667340.44999999995</v>
+      </c>
+      <c r="C8" s="37">
+        <v>579559.57999999996</v>
+      </c>
+      <c r="D8" s="38">
+        <v>5134638</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>4555078.42</v>
+      </c>
+      <c r="F8" s="44">
+        <v>82714064.219999999</v>
+      </c>
+      <c r="G8" s="39">
+        <v>4567084.5060000001</v>
+      </c>
+      <c r="H8" s="39">
+        <v>4543731.9359999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
+        <v>42746</v>
+      </c>
+      <c r="B9" s="37">
+        <v>668622.11</v>
+      </c>
+      <c r="C9" s="37">
+        <v>581474.89</v>
+      </c>
+      <c r="D9" s="38">
+        <v>5202598</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>4621123.1100000003</v>
+      </c>
+      <c r="F9" s="44">
+        <v>81637149.829999998</v>
+      </c>
+      <c r="G9" s="39">
+        <v>4492862.3219999997</v>
+      </c>
+      <c r="H9" s="39">
+        <v>4503511.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
+        <v>42747</v>
+      </c>
+      <c r="B10" s="37">
+        <v>668622.11</v>
+      </c>
+      <c r="C10" s="37">
+        <v>581945.65</v>
+      </c>
+      <c r="D10" s="38">
+        <v>5212119</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="0"/>
+        <v>4630173.3499999996</v>
+      </c>
+      <c r="F10" s="44">
+        <v>81232594.590000004</v>
+      </c>
+      <c r="G10" s="39">
+        <v>4966311.0999999996</v>
+      </c>
+      <c r="H10" s="39">
+        <v>4942217.9879999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
+        <v>42748</v>
+      </c>
+      <c r="B11" s="37">
+        <v>671283.79</v>
+      </c>
+      <c r="C11" s="37">
+        <v>583992.84</v>
+      </c>
+      <c r="D11" s="38">
+        <v>5280188</v>
+      </c>
+      <c r="E11" s="39">
+        <f t="shared" si="0"/>
+        <v>4696195.16</v>
+      </c>
+      <c r="F11" s="44">
+        <v>82157397.789999992</v>
+      </c>
+      <c r="G11" s="39">
+        <v>4891010.8159999996</v>
+      </c>
+      <c r="H11" s="39">
+        <v>4844404.0880000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
+        <v>42751</v>
+      </c>
+      <c r="B12" s="37">
+        <v>673371.3</v>
+      </c>
+      <c r="C12" s="37">
+        <v>593328.38</v>
+      </c>
+      <c r="D12" s="38">
+        <v>5888731</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="0"/>
+        <v>5295402.62</v>
+      </c>
+      <c r="F12" s="44">
+        <v>79987319.460000008</v>
+      </c>
+      <c r="G12" s="39">
+        <v>5308864.47</v>
+      </c>
+      <c r="H12" s="39">
+        <v>5319363.0439999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
+        <v>42752</v>
+      </c>
+      <c r="B13" s="37">
+        <v>675536.3</v>
+      </c>
+      <c r="C13" s="37">
+        <v>596998.72</v>
+      </c>
+      <c r="D13" s="38">
+        <v>5676258</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="0"/>
+        <v>5079259.28</v>
+      </c>
+      <c r="F13" s="44">
+        <v>74228087.329999998</v>
+      </c>
+      <c r="G13" s="39">
+        <v>5099077.3119999999</v>
+      </c>
+      <c r="H13" s="39">
+        <v>5053461.892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
+        <v>42753</v>
+      </c>
+      <c r="B14" s="37">
+        <v>682973.38</v>
+      </c>
+      <c r="C14" s="37">
+        <v>605818.54</v>
+      </c>
+      <c r="D14" s="38">
+        <v>5952547</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="0"/>
+        <v>5346728.46</v>
+      </c>
+      <c r="F14" s="44">
+        <v>63852035.030000001</v>
+      </c>
+      <c r="G14" s="42">
+        <v>5177277.4330000002</v>
+      </c>
+      <c r="H14" s="42">
+        <v>5164084.523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
+        <v>42754</v>
+      </c>
+      <c r="B15" s="37">
+        <v>699478.38</v>
+      </c>
+      <c r="C15" s="37">
+        <v>611927.53</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5992385</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="0"/>
+        <v>5380457.4699999997</v>
+      </c>
+      <c r="F15" s="44">
+        <v>61914321.259999998</v>
+      </c>
+      <c r="G15" s="39">
+        <v>5255477.5539999995</v>
+      </c>
+      <c r="H15" s="39">
+        <v>5274707.1540000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
+        <v>42755</v>
+      </c>
+      <c r="B16" s="37">
+        <v>706711.29</v>
+      </c>
+      <c r="C16" s="37">
+        <v>620060.14</v>
+      </c>
+      <c r="D16" s="38">
+        <v>6311759</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="0"/>
+        <v>5691698.8600000003</v>
+      </c>
+      <c r="F16" s="44">
+        <v>70555965.219999999</v>
+      </c>
+      <c r="G16" s="39">
+        <v>5719020.21</v>
+      </c>
+      <c r="H16" s="39">
+        <v>5712394.7740000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
+        <v>42758</v>
+      </c>
+      <c r="B17" s="37">
+        <v>708170.03</v>
+      </c>
+      <c r="C17" s="37">
+        <v>624045.92000000004</v>
+      </c>
+      <c r="D17" s="38">
+        <v>6031038</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="0"/>
+        <v>5406992.0800000001</v>
+      </c>
+      <c r="F17" s="44">
+        <v>78102138.390000001</v>
+      </c>
+      <c r="G17" s="39">
+        <v>5210213.41</v>
+      </c>
+      <c r="H17" s="39">
+        <v>5222307.9340000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
+        <v>42759</v>
+      </c>
+      <c r="B18" s="37">
+        <v>714166.43</v>
+      </c>
+      <c r="C18" s="37">
+        <v>627026.43000000005</v>
+      </c>
+      <c r="D18" s="38">
+        <v>6135244</v>
+      </c>
+      <c r="E18" s="39">
+        <f t="shared" si="0"/>
+        <v>5508217.5700000003</v>
+      </c>
+      <c r="F18" s="44">
+        <v>111695207.61</v>
+      </c>
+      <c r="G18" s="39">
+        <v>5617472.784</v>
+      </c>
+      <c r="H18" s="39">
+        <v>5616519.182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
+        <v>42760</v>
+      </c>
+      <c r="B19" s="37">
+        <v>740980.7</v>
+      </c>
+      <c r="C19" s="37">
+        <v>631539.36</v>
+      </c>
+      <c r="D19" s="38">
+        <v>6316684</v>
+      </c>
+      <c r="E19" s="39">
+        <f t="shared" si="0"/>
+        <v>5685144.6399999997</v>
+      </c>
+      <c r="F19" s="44">
+        <v>54280272.939999998</v>
+      </c>
+      <c r="G19" s="42">
+        <v>5565304.8653333336</v>
+      </c>
+      <c r="H19" s="42">
+        <v>5558764.9053333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
+        <v>42761</v>
+      </c>
+      <c r="B20" s="37">
+        <v>752528.20000000019</v>
+      </c>
+      <c r="C20" s="40">
+        <v>634745.5</v>
+      </c>
+      <c r="D20" s="41">
+        <v>6243933.333333333</v>
+      </c>
+      <c r="E20" s="42">
+        <v>5609213.8499999996</v>
+      </c>
+      <c r="F20" s="40">
+        <v>64476667.359999999</v>
+      </c>
+      <c r="G20" s="42">
+        <v>5513136.9466666672</v>
+      </c>
+      <c r="H20" s="42">
+        <v>5501010.6286666673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
+        <v>42769</v>
+      </c>
+      <c r="B21" s="37">
+        <v>761612.08</v>
+      </c>
+      <c r="C21" s="37">
+        <v>637951.64</v>
+      </c>
+      <c r="D21" s="41">
+        <v>6171182.666666666</v>
+      </c>
+      <c r="E21" s="42">
+        <v>5533283.0599999996</v>
+      </c>
+      <c r="F21" s="44">
+        <v>74673061.780000001</v>
+      </c>
+      <c r="G21" s="39">
+        <v>5460969.0279999999</v>
+      </c>
+      <c r="H21" s="39">
+        <v>5443256.352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
+        <v>42772</v>
+      </c>
+      <c r="B22" s="37">
+        <v>764617.49</v>
+      </c>
+      <c r="C22" s="37">
+        <v>641079.73</v>
+      </c>
+      <c r="D22" s="38">
+        <v>6098432</v>
+      </c>
+      <c r="E22" s="39">
+        <f>D22-C22</f>
+        <v>5457352.2699999996</v>
+      </c>
+      <c r="F22" s="44">
+        <v>84047352.700000003</v>
+      </c>
+      <c r="G22" s="39">
+        <v>5289661.5460000001</v>
+      </c>
+      <c r="H22" s="39">
+        <v>5271583.0839999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="36">
+        <v>42773</v>
+      </c>
+      <c r="B23" s="37">
+        <v>765193.33</v>
+      </c>
+      <c r="C23" s="37">
+        <v>644986.35</v>
+      </c>
+      <c r="D23" s="38">
+        <v>6185798</v>
+      </c>
+      <c r="E23" s="39">
+        <f>D23-C23</f>
+        <v>5540811.6500000004</v>
+      </c>
+      <c r="F23" s="44">
+        <v>86107177.359999999</v>
+      </c>
+      <c r="G23" s="39">
+        <v>5308333.6579999998</v>
+      </c>
+      <c r="H23" s="39">
+        <v>5312808.8080000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="36">
+        <v>42774</v>
+      </c>
+      <c r="B24" s="37">
+        <v>765959.28</v>
+      </c>
+      <c r="C24" s="37">
+        <v>647305.28</v>
+      </c>
+      <c r="D24" s="38">
+        <v>6073553</v>
+      </c>
+      <c r="E24" s="39">
+        <f t="shared" ref="E24:E55" si="1">D24-C24</f>
+        <v>5426247.7199999997</v>
+      </c>
+      <c r="F24" s="44">
+        <v>87528704.370000005</v>
+      </c>
+      <c r="G24" s="39">
+        <v>5159203.97</v>
+      </c>
+      <c r="H24" s="39">
+        <v>5162997.3779999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="36">
+        <v>42775</v>
+      </c>
+      <c r="B25" s="37">
+        <v>767032.2</v>
+      </c>
+      <c r="C25" s="37">
+        <v>653256.46</v>
+      </c>
+      <c r="D25" s="38">
+        <v>6169192</v>
+      </c>
+      <c r="E25" s="39">
+        <f t="shared" si="1"/>
+        <v>5515935.54</v>
+      </c>
+      <c r="F25" s="44">
+        <v>88419131.659999996</v>
+      </c>
+      <c r="G25" s="39">
+        <v>5391849.1799999997</v>
+      </c>
+      <c r="H25" s="39">
+        <v>5379793.9939999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="36">
+        <v>42776</v>
+      </c>
+      <c r="B26" s="37">
+        <v>767899.15000000014</v>
+      </c>
+      <c r="C26" s="37">
+        <v>653883.74000000022</v>
+      </c>
+      <c r="D26" s="38">
+        <v>6221149</v>
+      </c>
+      <c r="E26" s="39">
+        <f t="shared" si="1"/>
+        <v>5567265.2599999998</v>
+      </c>
+      <c r="F26" s="37">
+        <v>90094870.409999996</v>
+      </c>
+      <c r="G26" s="39">
+        <v>5554980.0120000001</v>
+      </c>
+      <c r="H26" s="39">
+        <v>5568265.9560000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="36">
+        <v>42779</v>
+      </c>
+      <c r="B27" s="37">
+        <v>769555.67000000016</v>
+      </c>
+      <c r="C27" s="37">
+        <v>658328.9700000002</v>
+      </c>
+      <c r="D27" s="38">
+        <v>6388723</v>
+      </c>
+      <c r="E27" s="39">
+        <f t="shared" si="1"/>
+        <v>5730394.0299999993</v>
+      </c>
+      <c r="F27" s="37">
+        <v>83627905.520000011</v>
+      </c>
+      <c r="G27" s="39">
+        <v>5423183.8540000003</v>
+      </c>
+      <c r="H27" s="39">
+        <v>5455636.3799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="36">
+        <v>42780</v>
+      </c>
+      <c r="B28" s="37">
+        <v>771017.75000000012</v>
+      </c>
+      <c r="C28" s="37">
+        <v>663501.99000000022</v>
+      </c>
+      <c r="D28" s="38">
+        <v>6410164</v>
+      </c>
+      <c r="E28" s="39">
+        <f t="shared" si="1"/>
+        <v>5746662.0099999998</v>
+      </c>
+      <c r="F28" s="37">
+        <v>88899078.060000002</v>
+      </c>
+      <c r="G28" s="39">
+        <v>5675104.1459999997</v>
+      </c>
+      <c r="H28" s="39">
+        <v>5656732.5360000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="36">
+        <v>42781</v>
+      </c>
+      <c r="B29" s="37">
+        <v>772364.84000000008</v>
+      </c>
+      <c r="C29" s="37">
+        <v>669933.18000000017</v>
+      </c>
+      <c r="D29" s="38">
+        <v>6515064</v>
+      </c>
+      <c r="E29" s="39">
+        <f t="shared" si="1"/>
+        <v>5845130.8200000003</v>
+      </c>
+      <c r="F29" s="37">
+        <v>89039676.24000001</v>
+      </c>
+      <c r="G29" s="39">
+        <v>6023085.2280000001</v>
+      </c>
+      <c r="H29" s="39">
+        <v>6025488.5439999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="36">
+        <v>42782</v>
+      </c>
+      <c r="B30" s="37">
+        <v>775597.55</v>
+      </c>
+      <c r="C30" s="37">
+        <v>674468.81000000017</v>
+      </c>
+      <c r="D30" s="38">
+        <v>6642430</v>
+      </c>
+      <c r="E30" s="39">
+        <f t="shared" si="1"/>
+        <v>5967961.1899999995</v>
+      </c>
+      <c r="F30" s="37">
+        <v>97817898.450000003</v>
+      </c>
+      <c r="G30" s="39">
+        <v>5853590.7259999998</v>
+      </c>
+      <c r="H30" s="39">
+        <v>5866638.3660000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="36">
+        <v>42783</v>
+      </c>
+      <c r="B31" s="37">
+        <v>775597.55</v>
+      </c>
+      <c r="C31" s="37">
+        <v>695481.81000000017</v>
+      </c>
+      <c r="D31" s="38">
+        <v>6654255</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="1"/>
+        <v>5958773.1899999995</v>
+      </c>
+      <c r="F31" s="37">
+        <v>109904985.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="36">
+        <v>42786</v>
+      </c>
+      <c r="B32" s="37">
+        <v>780154.3600000001</v>
+      </c>
+      <c r="C32" s="37">
+        <v>703759.2100000002</v>
+      </c>
+      <c r="D32" s="38">
+        <v>7210592</v>
+      </c>
+      <c r="E32" s="39">
+        <f t="shared" si="1"/>
+        <v>6506832.79</v>
+      </c>
+      <c r="F32" s="37">
+        <v>81825693.890000001</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="36">
+        <v>42787</v>
+      </c>
+      <c r="B33" s="37">
+        <v>781696.8600000001</v>
+      </c>
+      <c r="C33" s="37">
+        <v>710270.68000000017</v>
+      </c>
+      <c r="D33" s="38">
+        <v>7154390</v>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" si="1"/>
+        <v>6444119.3200000003</v>
+      </c>
+      <c r="F33" s="37">
+        <v>84084215.689999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="36">
+        <v>42788</v>
+      </c>
+      <c r="B34" s="37">
+        <v>783484.3600000001</v>
+      </c>
+      <c r="C34" s="37">
+        <v>713363.05000000016</v>
+      </c>
+      <c r="D34" s="38">
+        <v>7173532</v>
+      </c>
+      <c r="E34" s="39">
+        <f t="shared" si="1"/>
+        <v>6460168.9500000002</v>
+      </c>
+      <c r="F34" s="37">
+        <v>85253255.560000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="36">
+        <v>42789</v>
+      </c>
+      <c r="B35" s="37">
+        <v>786279.3600000001</v>
+      </c>
+      <c r="C35" s="37">
+        <v>718971.70000000019</v>
+      </c>
+      <c r="D35" s="38">
+        <v>7037309</v>
+      </c>
+      <c r="E35" s="39">
+        <f t="shared" si="1"/>
+        <v>6318337.2999999998</v>
+      </c>
+      <c r="F35" s="37">
+        <v>101176911.78999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="36">
+        <v>42790</v>
+      </c>
+      <c r="B36" s="37">
+        <v>786779.3600000001</v>
+      </c>
+      <c r="C36" s="37">
+        <v>724594.46000000008</v>
+      </c>
+      <c r="D36" s="38">
+        <v>7058820</v>
+      </c>
+      <c r="E36" s="39">
+        <f t="shared" si="1"/>
+        <v>6334225.54</v>
+      </c>
+      <c r="F36" s="37">
+        <v>122984844.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="36">
+        <v>42793</v>
+      </c>
+      <c r="B37" s="37">
+        <v>792116.85000000009</v>
+      </c>
+      <c r="C37" s="37">
+        <v>728652.61000000022</v>
+      </c>
+      <c r="D37" s="38">
+        <v>7149098</v>
+      </c>
+      <c r="E37" s="39">
+        <f t="shared" si="1"/>
+        <v>6420445.3899999997</v>
+      </c>
+      <c r="F37" s="37">
+        <v>144967329.88999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="36">
+        <v>42794</v>
+      </c>
+      <c r="B38" s="37">
+        <v>796584.37000000011</v>
+      </c>
+      <c r="C38" s="37">
+        <v>731856.13000000024</v>
+      </c>
+      <c r="D38" s="38">
+        <v>6648878</v>
+      </c>
+      <c r="E38" s="39">
+        <f t="shared" si="1"/>
+        <v>5917021.8700000001</v>
+      </c>
+      <c r="F38" s="37">
+        <v>149487956.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="36">
+        <v>42795</v>
+      </c>
+      <c r="B39" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C39" s="37">
+        <v>737309.28000000026</v>
+      </c>
+      <c r="D39" s="38">
+        <v>6855708</v>
+      </c>
+      <c r="E39" s="39">
+        <f t="shared" si="1"/>
+        <v>6118398.7199999997</v>
+      </c>
+      <c r="F39" s="37">
+        <v>152707123.09999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="36">
+        <v>42796</v>
+      </c>
+      <c r="B40" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C40" s="37">
+        <v>743285.99</v>
+      </c>
+      <c r="D40" s="38">
+        <v>6604820</v>
+      </c>
+      <c r="E40" s="39">
+        <f t="shared" si="1"/>
+        <v>5861534.0099999998</v>
+      </c>
+      <c r="F40" s="37">
+        <v>140725291.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="36">
+        <v>42797</v>
+      </c>
+      <c r="B41" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C41" s="37">
+        <v>750862.55000000016</v>
+      </c>
+      <c r="D41" s="38">
+        <v>6818468</v>
+      </c>
+      <c r="E41" s="39">
+        <f t="shared" si="1"/>
+        <v>6067605.4500000002</v>
+      </c>
+      <c r="F41" s="37">
+        <v>119431343.56999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="36">
+        <v>42800</v>
+      </c>
+      <c r="B42" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C42" s="37">
+        <v>756259.38000000024</v>
+      </c>
+      <c r="D42" s="38">
+        <v>6950167</v>
+      </c>
+      <c r="E42" s="39">
+        <f t="shared" si="1"/>
+        <v>6193907.6200000001</v>
+      </c>
+      <c r="F42" s="37">
+        <v>102318051.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="36">
+        <v>42801</v>
+      </c>
+      <c r="B43" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C43" s="37">
+        <v>759320.27000000025</v>
+      </c>
+      <c r="D43" s="38">
+        <v>7108596</v>
+      </c>
+      <c r="E43" s="39">
+        <f t="shared" si="1"/>
+        <v>6349275.7299999995</v>
+      </c>
+      <c r="F43" s="37">
+        <v>102078607.68000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="36">
+        <v>42802</v>
+      </c>
+      <c r="B44" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C44" s="37">
+        <v>764267.43000000017</v>
+      </c>
+      <c r="D44" s="38">
+        <v>7394183</v>
+      </c>
+      <c r="E44" s="39">
+        <f t="shared" si="1"/>
+        <v>6629915.5700000003</v>
+      </c>
+      <c r="F44" s="37">
+        <v>99946073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="36">
+        <v>42803</v>
+      </c>
+      <c r="B45" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C45" s="37">
+        <v>768639.6100000001</v>
+      </c>
+      <c r="D45" s="38">
+        <v>7473126</v>
+      </c>
+      <c r="E45" s="39">
+        <f t="shared" si="1"/>
+        <v>6704486.3899999997</v>
+      </c>
+      <c r="F45" s="37">
+        <v>97807164.060000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="36">
+        <v>42804</v>
+      </c>
+      <c r="B46" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C46" s="37">
+        <v>773345.60000000009</v>
+      </c>
+      <c r="D46" s="38">
+        <v>7639223</v>
+      </c>
+      <c r="E46" s="39">
+        <f t="shared" si="1"/>
+        <v>6865877.4000000004</v>
+      </c>
+      <c r="F46" s="37">
+        <v>100367192.24000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="36">
+        <v>42807</v>
+      </c>
+      <c r="B47" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C47" s="37">
+        <v>782965.6100000001</v>
+      </c>
+      <c r="D47" s="38">
+        <v>8024660</v>
+      </c>
+      <c r="E47" s="39">
+        <f t="shared" si="1"/>
+        <v>7241694.3899999997</v>
+      </c>
+      <c r="F47" s="37">
+        <v>104802619.08000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="36">
+        <v>42808</v>
+      </c>
+      <c r="B48" s="37">
+        <v>797251.05000000016</v>
+      </c>
+      <c r="C48" s="37">
+        <v>786657.38000000012</v>
+      </c>
+      <c r="D48" s="38">
+        <v>7856006</v>
+      </c>
+      <c r="E48" s="39">
+        <f t="shared" si="1"/>
+        <v>7069348.6200000001</v>
+      </c>
+      <c r="F48" s="37">
+        <v>101641824.26000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="36">
+        <v>42809</v>
+      </c>
+      <c r="B49" s="37">
+        <v>797484.38000000012</v>
+      </c>
+      <c r="C49" s="37">
+        <v>791999.85000000009</v>
+      </c>
+      <c r="D49" s="38">
+        <v>7875273</v>
+      </c>
+      <c r="E49" s="39">
+        <f t="shared" si="1"/>
+        <v>7083273.1500000004</v>
+      </c>
+      <c r="F49" s="37">
+        <v>100681723.77000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="36">
+        <v>42810</v>
+      </c>
+      <c r="B50" s="37">
+        <v>801467.71000000008</v>
+      </c>
+      <c r="C50" s="37">
+        <v>800974.82000000007</v>
+      </c>
+      <c r="D50" s="38">
+        <v>7911221</v>
+      </c>
+      <c r="E50" s="39">
+        <f t="shared" si="1"/>
+        <v>7110246.1799999997</v>
+      </c>
+      <c r="F50" s="37">
+        <v>113302531.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="36">
+        <v>42811</v>
+      </c>
+      <c r="B51" s="37">
+        <v>801467.71000000008</v>
+      </c>
+      <c r="C51" s="37">
+        <v>819131.19</v>
+      </c>
+      <c r="D51" s="38">
+        <v>8413244</v>
+      </c>
+      <c r="E51" s="39">
+        <f t="shared" si="1"/>
+        <v>7594112.8100000005</v>
+      </c>
+      <c r="F51" s="37">
+        <v>148773745.91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="36">
+        <v>42814</v>
+      </c>
+      <c r="B52" s="37">
+        <v>805296.31</v>
+      </c>
+      <c r="C52" s="37">
+        <v>822140.66</v>
+      </c>
+      <c r="D52" s="38">
+        <v>8350425</v>
+      </c>
+      <c r="E52" s="39">
+        <f t="shared" si="1"/>
+        <v>7528284.3399999999</v>
+      </c>
+      <c r="F52" s="37">
+        <v>136126695.45999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="36">
+        <v>42815</v>
+      </c>
+      <c r="B53" s="37">
+        <v>808476.72000000009</v>
+      </c>
+      <c r="C53" s="37">
+        <v>832183.07</v>
+      </c>
+      <c r="D53" s="38">
+        <v>8387324</v>
+      </c>
+      <c r="E53" s="39">
+        <f t="shared" si="1"/>
+        <v>7555140.9299999997</v>
+      </c>
+      <c r="F53" s="37">
+        <v>108021477.46000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="36">
+        <v>42816</v>
+      </c>
+      <c r="B54" s="37">
+        <v>811322.56</v>
+      </c>
+      <c r="C54" s="37">
+        <v>840145.14</v>
+      </c>
+      <c r="D54" s="38">
+        <v>8518313</v>
+      </c>
+      <c r="E54" s="39">
+        <f t="shared" si="1"/>
+        <v>7678167.8600000003</v>
+      </c>
+      <c r="F54" s="37">
+        <v>57930360.810000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="36">
+        <v>42817</v>
+      </c>
+      <c r="B55" s="37">
+        <v>813620.47000000009</v>
+      </c>
+      <c r="C55" s="37">
+        <v>847839.75</v>
+      </c>
+      <c r="D55" s="38">
+        <v>8582456</v>
+      </c>
+      <c r="E55" s="39">
+        <f t="shared" si="1"/>
+        <v>7734616.25</v>
+      </c>
+      <c r="F55" s="37">
+        <v>63975940.670000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="37"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="37"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="37"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="37"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="37"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="37"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="37"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="36"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="37"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="37"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="37"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="37"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="37"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="37"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="37"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="37"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="37"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="37"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="37"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="37"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="36"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C86" s="45"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B90" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="36">
+        <v>42738</v>
+      </c>
+      <c r="B91" s="37">
+        <f>B3-B$2</f>
+        <v>3404.5900000000838</v>
+      </c>
+      <c r="C91" s="37">
+        <f>C3-C$2</f>
+        <v>2402.9499999999534</v>
+      </c>
+      <c r="D91" s="37">
+        <f>D3-D$2</f>
+        <v>297603</v>
+      </c>
+      <c r="E91" s="37">
+        <f t="shared" ref="E91:E109" si="2">D91-C91</f>
+        <v>295200.05000000005</v>
+      </c>
+      <c r="F91" s="44">
+        <v>90994323.219999999</v>
+      </c>
+      <c r="G91" s="46">
+        <f>E91/L91</f>
+        <v>3.2441589711732356E-3</v>
+      </c>
+      <c r="H91" s="46">
+        <f>E91/150000000</f>
+        <v>1.9680003333333337E-3</v>
+      </c>
+      <c r="I91" s="37">
+        <f>G3-$G$2</f>
+        <v>353025.26799999969</v>
+      </c>
+      <c r="J91" s="37">
+        <f>H3-$H$2</f>
+        <v>343957.71399999969</v>
+      </c>
+      <c r="K91" s="47">
+        <f>DATEDIF($A$83,A91,"D")+1</f>
+        <v>42739</v>
+      </c>
+      <c r="L91" s="5">
+        <f>AVERAGE(F91)</f>
+        <v>90994323.219999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92" s="36">
+        <v>42739</v>
+      </c>
+      <c r="B92" s="37">
+        <f>B4-$B$2</f>
+        <v>9106.7200000000885</v>
+      </c>
+      <c r="C92" s="37">
+        <f>C4-C$2</f>
+        <v>5125.0100000000093</v>
+      </c>
+      <c r="D92" s="37">
+        <f>D4-D$2</f>
+        <v>545189</v>
+      </c>
+      <c r="E92" s="37">
+        <f t="shared" si="2"/>
+        <v>540063.99</v>
+      </c>
+      <c r="F92" s="44">
+        <v>87667319.819999993</v>
+      </c>
+      <c r="G92" s="46">
+        <f>E92/L92</f>
+        <v>6.0456624131581147E-3</v>
+      </c>
+      <c r="H92" s="46">
+        <f t="shared" ref="H92:H118" si="3">E92/150000000</f>
+        <v>3.6004266000000001E-3</v>
+      </c>
+      <c r="I92" s="37">
+        <f>G4-$G$2</f>
+        <v>604557.80799999973</v>
+      </c>
+      <c r="J92" s="37">
+        <f>H4-$H$2</f>
+        <v>616632.69999999972</v>
+      </c>
+      <c r="K92" s="47">
+        <f>DATEDIF($A$83,A92,"D")+1</f>
+        <v>42740</v>
+      </c>
+      <c r="L92" s="5">
+        <f>AVERAGE($F$91:F92)</f>
+        <v>89330821.519999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93" s="36">
+        <v>42740</v>
+      </c>
+      <c r="B93" s="37">
+        <f>B5-$B$2</f>
+        <v>12044.650000000023</v>
+      </c>
+      <c r="C93" s="37">
+        <f>C5-C$2</f>
+        <v>6329.1699999999255</v>
+      </c>
+      <c r="D93" s="37">
+        <f>D5-D$2</f>
+        <v>662682</v>
+      </c>
+      <c r="E93" s="37">
+        <f t="shared" si="2"/>
+        <v>656352.83000000007</v>
+      </c>
+      <c r="F93" s="44">
+        <v>82531963.170000002</v>
+      </c>
+      <c r="G93" s="46">
+        <f t="shared" ref="G93:G118" si="4">E93/L93</f>
+        <v>7.5386933032996024E-3</v>
+      </c>
+      <c r="H93" s="46">
+        <f t="shared" si="3"/>
+        <v>4.3756855333333339E-3</v>
+      </c>
+      <c r="I93" s="37">
+        <f>G5-$G$2</f>
+        <v>756912.9179999996</v>
+      </c>
+      <c r="J93" s="37">
+        <f>H5-$H$2</f>
+        <v>784882.08600000013</v>
+      </c>
+      <c r="K93" s="47">
+        <f t="shared" ref="K93:K118" si="5">DATEDIF($A$83,A93,"D")+1</f>
+        <v>42741</v>
+      </c>
+      <c r="L93" s="5">
+        <f>AVERAGE($F$91:F93)</f>
+        <v>87064535.403333321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" s="36">
+        <v>42741</v>
+      </c>
+      <c r="B94" s="37">
+        <f>B6-$B$2</f>
+        <v>13386.320000000065</v>
+      </c>
+      <c r="C94" s="37">
+        <f>C6-C$2</f>
+        <v>6838.9399999999441</v>
+      </c>
+      <c r="D94" s="37">
+        <f>D6-D$2</f>
+        <v>564873</v>
+      </c>
+      <c r="E94" s="37">
+        <f t="shared" si="2"/>
+        <v>558034.06000000006</v>
+      </c>
+      <c r="F94" s="44">
+        <v>83070343.939999998</v>
+      </c>
+      <c r="G94" s="46">
+        <f t="shared" si="4"/>
+        <v>6.4837931448454922E-3</v>
+      </c>
+      <c r="H94" s="46">
+        <f t="shared" si="3"/>
+        <v>3.720227066666667E-3</v>
+      </c>
+      <c r="I94" s="37">
+        <f>G6-$G$2</f>
+        <v>628815.31599999964</v>
+      </c>
+      <c r="J94" s="37">
+        <f>H6-$H$2</f>
+        <v>642812.58799999999</v>
+      </c>
+      <c r="K94" s="47">
+        <f t="shared" si="5"/>
+        <v>42742</v>
+      </c>
+      <c r="L94" s="5">
+        <f>AVERAGE($F$91:F94)</f>
+        <v>86065987.537499994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" s="36">
+        <v>42744</v>
+      </c>
+      <c r="B95" s="37">
+        <f>B7-$B$2</f>
+        <v>14794.650000000023</v>
+      </c>
+      <c r="C95" s="37">
+        <f>C7-C$2</f>
+        <v>8076.6300000000047</v>
+      </c>
+      <c r="D95" s="37">
+        <f>D7-D$2</f>
+        <v>734264</v>
+      </c>
+      <c r="E95" s="37">
+        <f t="shared" si="2"/>
+        <v>726187.37</v>
+      </c>
+      <c r="F95" s="44">
+        <v>82613973.519999996</v>
+      </c>
+      <c r="G95" s="46">
+        <f t="shared" si="4"/>
+        <v>8.5057967364152408E-3</v>
+      </c>
+      <c r="H95" s="46">
+        <f t="shared" si="3"/>
+        <v>4.8412491333333337E-3</v>
+      </c>
+      <c r="I95" s="37">
+        <f>G7-$G$2</f>
+        <v>812124.99600000028</v>
+      </c>
+      <c r="J95" s="37">
+        <f>H7-$H$2</f>
+        <v>839852.81799999997</v>
+      </c>
+      <c r="K95" s="47">
+        <f t="shared" si="5"/>
+        <v>42745</v>
+      </c>
+      <c r="L95" s="5">
+        <f>AVERAGE($F$91:F95)</f>
+        <v>85375584.733999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" s="36">
+        <v>42745</v>
+      </c>
+      <c r="B96" s="37">
+        <f>B8-$B$2</f>
+        <v>15339.239999999991</v>
+      </c>
+      <c r="C96" s="37">
+        <f>C8-C$2</f>
+        <v>10809.789999999921</v>
+      </c>
+      <c r="D96" s="37">
+        <f>D8-D$2</f>
+        <v>901031</v>
+      </c>
+      <c r="E96" s="37">
+        <f t="shared" si="2"/>
+        <v>890221.21000000008</v>
+      </c>
+      <c r="F96" s="44">
+        <v>82714064.219999999</v>
+      </c>
+      <c r="G96" s="46">
+        <f t="shared" si="4"/>
+        <v>1.0481576215741001E-2</v>
+      </c>
+      <c r="H96" s="46">
+        <f t="shared" si="3"/>
+        <v>5.9348080666666676E-3</v>
+      </c>
+      <c r="I96" s="37">
+        <f>G8-$G$2</f>
+        <v>1005934.3459999999</v>
+      </c>
+      <c r="J96" s="37">
+        <f>H8-$H$2</f>
+        <v>1005656.5879999995</v>
+      </c>
+      <c r="K96" s="47">
+        <f t="shared" si="5"/>
+        <v>42746</v>
+      </c>
+      <c r="L96" s="5">
+        <f>AVERAGE($F$91:F96)</f>
+        <v>84931997.981666669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="36">
+        <v>42746</v>
+      </c>
+      <c r="B97" s="37">
+        <f>B9-$B$2</f>
+        <v>16620.900000000023</v>
+      </c>
+      <c r="C97" s="37">
+        <f>C9-C$2</f>
+        <v>12725.099999999977</v>
+      </c>
+      <c r="D97" s="37">
+        <f>D9-D$2</f>
+        <v>968991</v>
+      </c>
+      <c r="E97" s="37">
+        <f t="shared" si="2"/>
+        <v>956265.9</v>
+      </c>
+      <c r="F97" s="44">
+        <v>81637149.829999998</v>
+      </c>
+      <c r="G97" s="46">
+        <f t="shared" si="4"/>
+        <v>1.1321940805918371E-2</v>
+      </c>
+      <c r="H97" s="46">
+        <f t="shared" si="3"/>
+        <v>6.3751060000000002E-3</v>
+      </c>
+      <c r="I97" s="37">
+        <f>G9-$G$2</f>
+        <v>931712.16199999955</v>
+      </c>
+      <c r="J97" s="37">
+        <f>H9-$H$2</f>
+        <v>965436.12199999951</v>
+      </c>
+      <c r="K97" s="47">
+        <f t="shared" si="5"/>
+        <v>42747</v>
+      </c>
+      <c r="L97" s="5">
+        <f>AVERAGE($F$91:F97)</f>
+        <v>84461305.388571426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="36">
+        <v>42747</v>
+      </c>
+      <c r="B98" s="37">
+        <f>B10-$B$2</f>
+        <v>16620.900000000023</v>
+      </c>
+      <c r="C98" s="37">
+        <f>C10-C$2</f>
+        <v>13195.859999999986</v>
+      </c>
+      <c r="D98" s="37">
+        <f>D10-D$2</f>
+        <v>978512</v>
+      </c>
+      <c r="E98" s="37">
+        <f t="shared" si="2"/>
+        <v>965316.14</v>
+      </c>
+      <c r="F98" s="44">
+        <v>81232594.590000004</v>
+      </c>
+      <c r="G98" s="46">
+        <f t="shared" si="4"/>
+        <v>1.1483968156034743E-2</v>
+      </c>
+      <c r="H98" s="46">
+        <f t="shared" si="3"/>
+        <v>6.4354409333333331E-3</v>
+      </c>
+      <c r="I98" s="37">
+        <f>G10-$G$2</f>
+        <v>1405160.9399999995</v>
+      </c>
+      <c r="J98" s="37">
+        <f>H10-$H$2</f>
+        <v>1404142.6399999997</v>
+      </c>
+      <c r="K98" s="47">
+        <f t="shared" si="5"/>
+        <v>42748</v>
+      </c>
+      <c r="L98" s="5">
+        <f>AVERAGE($F$91:F98)</f>
+        <v>84057716.538750008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="36">
+        <v>42748</v>
+      </c>
+      <c r="B99" s="37">
+        <f>B11-$B$2</f>
+        <v>19282.580000000075</v>
+      </c>
+      <c r="C99" s="37">
+        <f>C11-C$2</f>
+        <v>15243.04999999993</v>
+      </c>
+      <c r="D99" s="37">
+        <f>D11-D$2</f>
+        <v>1046581</v>
+      </c>
+      <c r="E99" s="37">
+        <f t="shared" si="2"/>
+        <v>1031337.9500000001</v>
+      </c>
+      <c r="F99" s="44">
+        <v>82157397.789999992</v>
+      </c>
+      <c r="G99" s="46">
+        <f>E99/L99</f>
+        <v>1.2300299819817674E-2</v>
+      </c>
+      <c r="H99" s="46">
+        <f t="shared" si="3"/>
+        <v>6.8755863333333335E-3</v>
+      </c>
+      <c r="I99" s="37">
+        <f>G11-$G$2</f>
+        <v>1329860.6559999995</v>
+      </c>
+      <c r="J99" s="37">
+        <f>H11-$H$2</f>
+        <v>1306328.7400000002</v>
+      </c>
+      <c r="K99" s="47">
+        <f t="shared" si="5"/>
+        <v>42749</v>
+      </c>
+      <c r="L99" s="5">
+        <f>AVERAGE($F$91:F99)</f>
+        <v>83846570.01111111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="36">
+        <v>42751</v>
+      </c>
+      <c r="B100" s="37">
+        <f>B12-$B$2</f>
+        <v>21370.090000000084</v>
+      </c>
+      <c r="C100" s="37">
+        <f>C12-C$2</f>
+        <v>24578.589999999967</v>
+      </c>
+      <c r="D100" s="37">
+        <f>D12-D$2</f>
+        <v>1655124</v>
+      </c>
+      <c r="E100" s="37">
+        <f t="shared" si="2"/>
+        <v>1630545.4100000001</v>
+      </c>
+      <c r="F100" s="44">
+        <v>79987319.460000008</v>
+      </c>
+      <c r="G100" s="46">
+        <f t="shared" si="4"/>
+        <v>1.9536697935411532E-2</v>
+      </c>
+      <c r="H100" s="46">
+        <f t="shared" si="3"/>
+        <v>1.0870302733333335E-2</v>
+      </c>
+      <c r="I100" s="37">
+        <f>G12-$G$2</f>
+        <v>1747714.3099999996</v>
+      </c>
+      <c r="J100" s="37">
+        <f>H12-$H$2</f>
+        <v>1781287.6959999995</v>
+      </c>
+      <c r="K100" s="47">
+        <f t="shared" si="5"/>
+        <v>42752</v>
+      </c>
+      <c r="L100" s="5">
+        <f>AVERAGE($F$91:F100)</f>
+        <v>83460644.956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="36">
+        <v>42752</v>
+      </c>
+      <c r="B101" s="37">
+        <f>B13-$B$2</f>
+        <v>23535.090000000084</v>
+      </c>
+      <c r="C101" s="37">
+        <f>C13-C$2</f>
+        <v>28248.929999999935</v>
+      </c>
+      <c r="D101" s="37">
+        <f>D13-D$2</f>
+        <v>1442651</v>
+      </c>
+      <c r="E101" s="37">
+        <f t="shared" si="2"/>
+        <v>1414402.07</v>
+      </c>
+      <c r="F101" s="44">
+        <v>74228087.329999998</v>
+      </c>
+      <c r="G101" s="46">
+        <f t="shared" si="4"/>
+        <v>1.7119092792446441E-2</v>
+      </c>
+      <c r="H101" s="46">
+        <f t="shared" si="3"/>
+        <v>9.4293471333333333E-3</v>
+      </c>
+      <c r="I101" s="37">
+        <f>G13-$G$2</f>
+        <v>1537927.1519999998</v>
+      </c>
+      <c r="J101" s="37">
+        <f>H13-$H$2</f>
+        <v>1515386.5439999998</v>
+      </c>
+      <c r="K101" s="47">
+        <f t="shared" si="5"/>
+        <v>42753</v>
+      </c>
+      <c r="L101" s="5">
+        <f>AVERAGE($F$91:F101)</f>
+        <v>82621321.535454556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="36">
+        <v>42753</v>
+      </c>
+      <c r="B102" s="37">
+        <f>B14-$B$2</f>
+        <v>30972.170000000042</v>
+      </c>
+      <c r="C102" s="37">
+        <f>C14-C$2</f>
+        <v>37068.75</v>
+      </c>
+      <c r="D102" s="37">
+        <f>D14-D$2</f>
+        <v>1718940</v>
+      </c>
+      <c r="E102" s="37">
+        <f t="shared" si="2"/>
+        <v>1681871.25</v>
+      </c>
+      <c r="F102" s="44">
+        <v>63852035.030000001</v>
+      </c>
+      <c r="G102" s="46">
+        <f t="shared" si="4"/>
+        <v>2.0749186410748494E-2</v>
+      </c>
+      <c r="H102" s="46">
+        <f t="shared" si="3"/>
+        <v>1.1212475E-2</v>
+      </c>
+      <c r="I102" s="37">
+        <f>G14-$G$2</f>
+        <v>1616127.273</v>
+      </c>
+      <c r="J102" s="37">
+        <f>H14-$H$2</f>
+        <v>1626009.1749999998</v>
+      </c>
+      <c r="K102" s="47">
+        <f t="shared" si="5"/>
+        <v>42754</v>
+      </c>
+      <c r="L102" s="5">
+        <f>AVERAGE($F$91:F102)</f>
+        <v>81057214.326666668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="36">
+        <v>42754</v>
+      </c>
+      <c r="B103" s="37">
+        <f>B15-$B$2</f>
+        <v>47477.170000000042</v>
+      </c>
+      <c r="C103" s="37">
+        <f>C15-C$2</f>
+        <v>43177.739999999991</v>
+      </c>
+      <c r="D103" s="37">
+        <f>D15-D$2</f>
+        <v>1758778</v>
+      </c>
+      <c r="E103" s="37">
+        <f t="shared" si="2"/>
+        <v>1715600.26</v>
+      </c>
+      <c r="F103" s="44">
+        <v>61914321.259999998</v>
+      </c>
+      <c r="G103" s="46">
+        <f t="shared" si="4"/>
+        <v>2.1556914871249541E-2</v>
+      </c>
+      <c r="H103" s="46">
+        <f t="shared" si="3"/>
+        <v>1.1437335066666667E-2</v>
+      </c>
+      <c r="I103" s="37">
+        <f>G15-$G$2</f>
+        <v>1694327.3939999994</v>
+      </c>
+      <c r="J103" s="37">
+        <f>H15-$H$2</f>
+        <v>1736631.8059999999</v>
+      </c>
+      <c r="K103" s="47">
+        <f t="shared" si="5"/>
+        <v>42755</v>
+      </c>
+      <c r="L103" s="5">
+        <f>AVERAGE($F$91:F103)</f>
+        <v>79584684.090769231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="36">
+        <v>42755</v>
+      </c>
+      <c r="B104" s="37">
+        <f>B16-$B$2</f>
+        <v>54710.080000000075</v>
+      </c>
+      <c r="C104" s="37">
+        <f>C16-C$2</f>
+        <v>51310.349999999977</v>
+      </c>
+      <c r="D104" s="37">
+        <f>D16-D$2</f>
+        <v>2078152</v>
+      </c>
+      <c r="E104" s="37">
+        <f t="shared" si="2"/>
+        <v>2026841.65</v>
+      </c>
+      <c r="F104" s="44">
+        <v>70555965.219999999</v>
+      </c>
+      <c r="G104" s="46">
+        <f t="shared" si="4"/>
+        <v>2.5675796955267755E-2</v>
+      </c>
+      <c r="H104" s="46">
+        <f t="shared" si="3"/>
+        <v>1.3512277666666666E-2</v>
+      </c>
+      <c r="I104" s="37">
+        <f>G16-$G$2</f>
+        <v>2157870.0499999998</v>
+      </c>
+      <c r="J104" s="37">
+        <f>H16-$H$2</f>
+        <v>2174319.426</v>
+      </c>
+      <c r="K104" s="47">
+        <f t="shared" si="5"/>
+        <v>42756</v>
+      </c>
+      <c r="L104" s="5">
+        <f>AVERAGE($F$91:F104)</f>
+        <v>78939775.600000009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="36">
+        <v>42758</v>
+      </c>
+      <c r="B105" s="37">
+        <f>B17-$B$2</f>
+        <v>56168.820000000065</v>
+      </c>
+      <c r="C105" s="37">
+        <f>C17-C$2</f>
+        <v>55296.130000000005</v>
+      </c>
+      <c r="D105" s="37">
+        <f>D17-D$2</f>
+        <v>1797431</v>
+      </c>
+      <c r="E105" s="37">
+        <f t="shared" si="2"/>
+        <v>1742134.87</v>
+      </c>
+      <c r="F105" s="44">
+        <v>78102138.390000001</v>
+      </c>
+      <c r="G105" s="46">
+        <f t="shared" si="4"/>
+        <v>2.2084787118367293E-2</v>
+      </c>
+      <c r="H105" s="46">
+        <f t="shared" si="3"/>
+        <v>1.1614232466666667E-2</v>
+      </c>
+      <c r="I105" s="37">
+        <f>G17-$G$2</f>
+        <v>1649063.25</v>
+      </c>
+      <c r="J105" s="37">
+        <f>H17-$H$2</f>
+        <v>1684232.5860000001</v>
+      </c>
+      <c r="K105" s="47">
+        <f t="shared" si="5"/>
+        <v>42759</v>
+      </c>
+      <c r="L105" s="5">
+        <f>AVERAGE($F$91:F105)</f>
+        <v>78883933.119333342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="36">
+        <v>42759</v>
+      </c>
+      <c r="B106" s="37">
+        <f>B18-$B$2</f>
+        <v>62165.220000000088</v>
+      </c>
+      <c r="C106" s="37">
+        <f>C18-C$2</f>
+        <v>58276.640000000014</v>
+      </c>
+      <c r="D106" s="37">
+        <f>D18-D$2</f>
+        <v>1901637</v>
+      </c>
+      <c r="E106" s="37">
+        <f t="shared" si="2"/>
+        <v>1843360.3599999999</v>
+      </c>
+      <c r="F106" s="44">
+        <v>111695207.61</v>
+      </c>
+      <c r="G106" s="46">
+        <f t="shared" si="4"/>
+        <v>2.2775914128689626E-2</v>
+      </c>
+      <c r="H106" s="46">
+        <f t="shared" si="3"/>
+        <v>1.2289069066666665E-2</v>
+      </c>
+      <c r="I106" s="37">
+        <f>G18-$G$2</f>
+        <v>2056322.6239999998</v>
+      </c>
+      <c r="J106" s="37">
+        <f>H18-$H$2</f>
+        <v>2078443.8339999998</v>
+      </c>
+      <c r="K106" s="47">
+        <f t="shared" si="5"/>
+        <v>42760</v>
+      </c>
+      <c r="L106" s="5">
+        <f>AVERAGE($F$91:F106)</f>
+        <v>80934637.775000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="36">
+        <v>42760</v>
+      </c>
+      <c r="B107" s="37">
+        <f>B19-$B$2</f>
+        <v>88979.489999999991</v>
+      </c>
+      <c r="C107" s="37">
+        <f>C19-C$2</f>
+        <v>62789.569999999949</v>
+      </c>
+      <c r="D107" s="37">
+        <f>D19-D$2</f>
+        <v>2083077</v>
+      </c>
+      <c r="E107" s="37">
+        <f t="shared" si="2"/>
+        <v>2020287.4300000002</v>
+      </c>
+      <c r="F107" s="44">
+        <v>54280272.939999998</v>
+      </c>
+      <c r="G107" s="46">
+        <f t="shared" si="4"/>
+        <v>2.545509093253423E-2</v>
+      </c>
+      <c r="H107" s="46">
+        <f t="shared" si="3"/>
+        <v>1.3468582866666667E-2</v>
+      </c>
+      <c r="I107" s="37">
+        <f>G19-$G$2</f>
+        <v>2004154.7053333335</v>
+      </c>
+      <c r="J107" s="37">
+        <f>H19-$H$2</f>
+        <v>2020689.5573333334</v>
+      </c>
+      <c r="K107" s="47">
+        <f t="shared" si="5"/>
+        <v>42761</v>
+      </c>
+      <c r="L107" s="5">
+        <f>AVERAGE($F$91:F107)</f>
+        <v>79366733.961176485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="36">
+        <v>42761</v>
+      </c>
+      <c r="B108" s="37">
+        <f>B20-$B$2</f>
+        <v>100526.99000000022</v>
+      </c>
+      <c r="C108" s="37">
+        <f>C20-C$2</f>
+        <v>65995.709999999963</v>
+      </c>
+      <c r="D108" s="37">
+        <f>D20-D$2</f>
+        <v>2010326.333333333</v>
+      </c>
+      <c r="E108" s="37">
+        <f t="shared" si="2"/>
+        <v>1944330.6233333331</v>
+      </c>
+      <c r="F108" s="40">
+        <v>64476667.359999999</v>
+      </c>
+      <c r="G108" s="46">
+        <f t="shared" si="4"/>
+        <v>2.4756083554414377E-2</v>
+      </c>
+      <c r="H108" s="46">
+        <f t="shared" si="3"/>
+        <v>1.2962204155555554E-2</v>
+      </c>
+      <c r="I108" s="37">
+        <f>G20-$G$2</f>
+        <v>1951986.7866666671</v>
+      </c>
+      <c r="J108" s="37">
+        <f>H20-$H$2</f>
+        <v>1962935.280666667</v>
+      </c>
+      <c r="K108" s="47">
+        <f t="shared" si="5"/>
+        <v>42762</v>
+      </c>
+      <c r="L108" s="5">
+        <f>AVERAGE($F$91:F108)</f>
+        <v>78539508.038888887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="36">
+        <v>42769</v>
+      </c>
+      <c r="B109" s="37">
+        <f>B21-$B$2</f>
+        <v>109610.87</v>
+      </c>
+      <c r="C109" s="37">
+        <f>C21-C$2</f>
+        <v>69201.849999999977</v>
+      </c>
+      <c r="D109" s="37">
+        <f>D21-D$2</f>
+        <v>1937575.666666666</v>
+      </c>
+      <c r="E109" s="37">
+        <f t="shared" si="2"/>
+        <v>1868373.816666666</v>
+      </c>
+      <c r="F109" s="44">
+        <v>74673061.780000001</v>
+      </c>
+      <c r="G109" s="46">
+        <f t="shared" si="4"/>
+        <v>2.3850765388475432E-2</v>
+      </c>
+      <c r="H109" s="46">
+        <f t="shared" si="3"/>
+        <v>1.245582544444444E-2</v>
+      </c>
+      <c r="I109" s="37">
+        <f>G21-$G$2</f>
+        <v>1899818.8679999998</v>
+      </c>
+      <c r="J109" s="37">
+        <f>H21-$H$2</f>
+        <v>1905181.0039999997</v>
+      </c>
+      <c r="K109" s="47">
+        <f t="shared" si="5"/>
+        <v>42770</v>
+      </c>
+      <c r="L109" s="5">
+        <f>AVERAGE($F$91:F109)</f>
+        <v>78336010.867368415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="36">
+        <v>42772</v>
+      </c>
+      <c r="B110" s="37">
+        <f>B22-$B$2</f>
+        <v>112616.28000000003</v>
+      </c>
+      <c r="C110" s="37">
+        <f>C22-C$2</f>
+        <v>72329.939999999944</v>
+      </c>
+      <c r="D110" s="37">
+        <f>D22-D$2</f>
+        <v>1864825</v>
+      </c>
+      <c r="E110" s="37">
+        <f>D110-C110</f>
+        <v>1792495.06</v>
+      </c>
+      <c r="F110" s="44">
+        <v>84047352.700000003</v>
+      </c>
+      <c r="G110" s="46">
+        <f t="shared" si="4"/>
+        <v>2.2799021674873528E-2</v>
+      </c>
+      <c r="H110" s="46">
+        <f t="shared" si="3"/>
+        <v>1.1949967066666668E-2</v>
+      </c>
+      <c r="I110" s="37">
+        <f>G22-$G$2</f>
+        <v>1728511.3859999999</v>
+      </c>
+      <c r="J110" s="37">
+        <f>H22-$H$2</f>
+        <v>1733507.7359999996</v>
+      </c>
+      <c r="K110" s="47">
+        <f t="shared" si="5"/>
+        <v>42773</v>
+      </c>
+      <c r="L110" s="5">
+        <f>AVERAGE($F$91:F110)</f>
+        <v>78621577.959000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="36">
+        <v>42773</v>
+      </c>
+      <c r="B111" s="37">
+        <f>B23-$B$2</f>
+        <v>113192.12</v>
+      </c>
+      <c r="C111" s="37">
+        <f>C23-C$2</f>
+        <v>76236.559999999939</v>
+      </c>
+      <c r="D111" s="37">
+        <f>D23-D$2</f>
+        <v>1952191</v>
+      </c>
+      <c r="E111" s="37">
+        <f>D111-C111</f>
+        <v>1875954.44</v>
+      </c>
+      <c r="F111" s="44">
+        <v>86107177.359999999</v>
+      </c>
+      <c r="G111" s="46">
+        <f t="shared" si="4"/>
+        <v>2.375286291002458E-2</v>
+      </c>
+      <c r="H111" s="46">
+        <f t="shared" si="3"/>
+        <v>1.2506362933333333E-2</v>
+      </c>
+      <c r="I111" s="37">
+        <f>G23-$G$2</f>
+        <v>1747183.4979999997</v>
+      </c>
+      <c r="J111" s="37">
+        <f>H23-$H$2</f>
+        <v>1774733.46</v>
+      </c>
+      <c r="K111" s="47">
+        <f t="shared" si="5"/>
+        <v>42774</v>
+      </c>
+      <c r="L111" s="5">
+        <f>AVERAGE($F$91:F111)</f>
+        <v>78978035.073333338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="36">
+        <v>42774</v>
+      </c>
+      <c r="B112" s="37">
+        <f>B24-$B$2</f>
+        <v>113958.07000000007</v>
+      </c>
+      <c r="C112" s="37">
+        <f>C24-C$2</f>
+        <v>78555.489999999991</v>
+      </c>
+      <c r="D112" s="37">
+        <f>D24-D$2</f>
+        <v>1839946</v>
+      </c>
+      <c r="E112" s="37">
+        <f>D112-C112</f>
+        <v>1761390.51</v>
+      </c>
+      <c r="F112" s="44">
+        <v>87528704.370000005</v>
+      </c>
+      <c r="G112" s="46">
+        <f t="shared" si="4"/>
+        <v>2.2193066723587899E-2</v>
+      </c>
+      <c r="H112" s="46">
+        <f t="shared" si="3"/>
+        <v>1.1742603400000001E-2</v>
+      </c>
+      <c r="I112" s="37">
+        <f>G24-$G$2</f>
+        <v>1598053.8099999996</v>
+      </c>
+      <c r="J112" s="37">
+        <f>H24-$H$2</f>
+        <v>1624922.0299999993</v>
+      </c>
+      <c r="K112" s="47">
+        <f t="shared" si="5"/>
+        <v>42775</v>
+      </c>
+      <c r="L112" s="5">
+        <f>AVERAGE($F$91:F112)</f>
+        <v>79366701.859545454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="36">
+        <v>42775</v>
+      </c>
+      <c r="B113" s="37">
+        <f>B25-$B$2</f>
+        <v>115030.98999999999</v>
+      </c>
+      <c r="C113" s="37">
+        <f>C25-C$2</f>
+        <v>84506.669999999925</v>
+      </c>
+      <c r="D113" s="37">
+        <f>D25-D$2</f>
+        <v>1935585</v>
+      </c>
+      <c r="E113" s="37">
+        <f>D113-C113</f>
+        <v>1851078.33</v>
+      </c>
+      <c r="F113" s="44">
+        <v>88419131.659999996</v>
+      </c>
+      <c r="G113" s="46">
+        <f t="shared" si="4"/>
+        <v>2.3208020285673387E-2</v>
+      </c>
+      <c r="H113" s="46">
+        <f t="shared" si="3"/>
+        <v>1.2340522200000001E-2</v>
+      </c>
+      <c r="I113" s="37">
+        <f>G25-$G$2</f>
+        <v>1830699.0199999996</v>
+      </c>
+      <c r="J113" s="37">
+        <f>H25-$H$2</f>
+        <v>1841718.6459999997</v>
+      </c>
+      <c r="K113" s="47">
+        <f t="shared" si="5"/>
+        <v>42776</v>
+      </c>
+      <c r="L113" s="5">
+        <f>AVERAGE($F$91:F113)</f>
+        <v>79760285.763913035</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="36">
+        <v>42776</v>
+      </c>
+      <c r="B114" s="37">
+        <f>B26-$B$2</f>
+        <v>115897.94000000018</v>
+      </c>
+      <c r="C114" s="37">
+        <f>C26-C$2</f>
+        <v>85133.950000000186</v>
+      </c>
+      <c r="D114" s="37">
+        <f>D26-D$2</f>
+        <v>1987542</v>
+      </c>
+      <c r="E114" s="37">
+        <f t="shared" ref="E114:E118" si="6">D114-C114</f>
+        <v>1902408.0499999998</v>
+      </c>
+      <c r="F114" s="37">
+        <v>90094870.409999996</v>
+      </c>
+      <c r="G114" s="46">
+        <f t="shared" si="4"/>
+        <v>2.3723492381441644E-2</v>
+      </c>
+      <c r="H114" s="46">
+        <f t="shared" si="3"/>
+        <v>1.2682720333333333E-2</v>
+      </c>
+      <c r="I114" s="37">
+        <f>G26-$G$2</f>
+        <v>1993829.852</v>
+      </c>
+      <c r="J114" s="37">
+        <f>H26-$H$2</f>
+        <v>2030190.608</v>
+      </c>
+      <c r="K114" s="47">
+        <f t="shared" si="5"/>
+        <v>42777</v>
+      </c>
+      <c r="L114" s="5">
+        <f>AVERAGE($F$91:F114)</f>
+        <v>80190893.457499996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="36">
+        <v>42779</v>
+      </c>
+      <c r="B115" s="37">
+        <f>B27-$B$2</f>
+        <v>117554.4600000002</v>
+      </c>
+      <c r="C115" s="37">
+        <f>C27-C$2</f>
+        <v>89579.180000000168</v>
+      </c>
+      <c r="D115" s="37">
+        <f>D27-D$2</f>
+        <v>2155116</v>
+      </c>
+      <c r="E115" s="37">
+        <f t="shared" si="6"/>
+        <v>2065536.8199999998</v>
+      </c>
+      <c r="F115" s="37">
+        <v>83627905.520000011</v>
+      </c>
+      <c r="G115" s="46">
+        <f t="shared" si="4"/>
+        <v>2.5713664035360902E-2</v>
+      </c>
+      <c r="H115" s="46">
+        <f t="shared" si="3"/>
+        <v>1.3770245466666666E-2</v>
+      </c>
+      <c r="I115" s="37">
+        <f>G27-$G$2</f>
+        <v>1862033.6940000001</v>
+      </c>
+      <c r="J115" s="37">
+        <f>H27-$H$2</f>
+        <v>1917561.0319999997</v>
+      </c>
+      <c r="K115" s="47">
+        <f t="shared" si="5"/>
+        <v>42780</v>
+      </c>
+      <c r="L115" s="5">
+        <f>AVERAGE($F$91:F115)</f>
+        <v>80328373.939999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="36">
+        <v>42780</v>
+      </c>
+      <c r="B116" s="37">
+        <f>B28-$B$2</f>
+        <v>119016.54000000015</v>
+      </c>
+      <c r="C116" s="37">
+        <f>C28-C$2</f>
+        <v>94752.200000000186</v>
+      </c>
+      <c r="D116" s="37">
+        <f>D28-D$2</f>
+        <v>2176557</v>
+      </c>
+      <c r="E116" s="37">
+        <f t="shared" si="6"/>
+        <v>2081804.7999999998</v>
+      </c>
+      <c r="F116" s="37">
+        <v>88899078.060000002</v>
+      </c>
+      <c r="G116" s="46">
+        <f t="shared" si="4"/>
+        <v>2.5810265275023146E-2</v>
+      </c>
+      <c r="H116" s="46">
+        <f t="shared" si="3"/>
+        <v>1.3878698666666665E-2</v>
+      </c>
+      <c r="I116" s="37">
+        <f>G28-$G$2</f>
+        <v>2113953.9859999996</v>
+      </c>
+      <c r="J116" s="37">
+        <f>H28-$H$2</f>
+        <v>2118657.1880000001</v>
+      </c>
+      <c r="K116" s="47">
+        <f t="shared" si="5"/>
+        <v>42781</v>
+      </c>
+      <c r="L116" s="5">
+        <f>AVERAGE($F$91:F116)</f>
+        <v>80658016.406153843</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="36">
+        <v>42781</v>
+      </c>
+      <c r="B117" s="37">
+        <f>B29-$B$2</f>
+        <v>120363.63000000012</v>
+      </c>
+      <c r="C117" s="37">
+        <f>C29-C$2</f>
+        <v>101183.39000000013</v>
+      </c>
+      <c r="D117" s="37">
+        <f>D29-D$2</f>
+        <v>2281457</v>
+      </c>
+      <c r="E117" s="37">
+        <f t="shared" si="6"/>
+        <v>2180273.61</v>
+      </c>
+      <c r="F117" s="37">
+        <v>89039676.24000001</v>
+      </c>
+      <c r="G117" s="46">
+        <f t="shared" si="4"/>
+        <v>2.6927447136176702E-2</v>
+      </c>
+      <c r="H117" s="46">
+        <f t="shared" si="3"/>
+        <v>1.4535157399999998E-2</v>
+      </c>
+      <c r="I117" s="37">
+        <f>G29-$G$2</f>
+        <v>2461935.068</v>
+      </c>
+      <c r="J117" s="37">
+        <f>H29-$H$2</f>
+        <v>2487413.1959999995</v>
+      </c>
+      <c r="K117" s="47">
+        <f t="shared" si="5"/>
+        <v>42782</v>
+      </c>
+      <c r="L117" s="5">
+        <f>AVERAGE($F$91:F117)</f>
+        <v>80968448.251851857</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="36">
+        <v>42782</v>
+      </c>
+      <c r="B118" s="37">
+        <f>B30-$B$2</f>
+        <v>123596.34000000008</v>
+      </c>
+      <c r="C118" s="37">
+        <f>C30-C$2</f>
+        <v>105719.02000000014</v>
+      </c>
+      <c r="D118" s="37">
+        <f>D30-D$2</f>
+        <v>2408823</v>
+      </c>
+      <c r="E118" s="37">
+        <f t="shared" si="6"/>
+        <v>2303103.98</v>
+      </c>
+      <c r="F118" s="37">
+        <v>97817898.450000003</v>
+      </c>
+      <c r="G118" s="46">
+        <f t="shared" si="4"/>
+        <v>2.8234619694297865E-2</v>
+      </c>
+      <c r="H118" s="46">
+        <f t="shared" si="3"/>
+        <v>1.5354026533333334E-2</v>
+      </c>
+      <c r="I118" s="37">
+        <f>G30-$G$2</f>
+        <v>2292440.5659999996</v>
+      </c>
+      <c r="J118" s="37">
+        <f>H30-$H$2</f>
+        <v>2328563.0180000002</v>
+      </c>
+      <c r="K118" s="47">
+        <f t="shared" si="5"/>
+        <v>42783</v>
+      </c>
+      <c r="L118" s="5">
+        <f>AVERAGE($F$91:F118)</f>
+        <v>81570214.330357149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="36">
+        <v>42783</v>
+      </c>
+      <c r="B119" s="37">
+        <f>B31-$B$2</f>
+        <v>123596.34000000008</v>
+      </c>
+      <c r="C119" s="37">
+        <f>C31-C$2</f>
+        <v>126732.02000000014</v>
+      </c>
+      <c r="D119" s="37">
+        <f>D31-D$2</f>
+        <v>2420648</v>
+      </c>
+      <c r="E119" s="37">
+        <f t="shared" ref="E119:E123" si="7">D119-C119</f>
+        <v>2293915.98</v>
+      </c>
+      <c r="F119" s="37">
+        <v>109904985.86</v>
+      </c>
+      <c r="G119" s="46">
+        <f>E119/L119</f>
+        <v>2.778911803443115E-2</v>
+      </c>
+      <c r="H119" s="46">
+        <f>E119/150000000</f>
+        <v>1.52927732E-2</v>
+      </c>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="5">
+        <f>AVERAGE($F$91:F119)</f>
+        <v>82547275.417586207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="36">
+        <v>42786</v>
+      </c>
+      <c r="B120" s="37">
+        <f>B32-$B$2</f>
+        <v>128153.15000000014</v>
+      </c>
+      <c r="C120" s="37">
+        <f>C32-C$2</f>
+        <v>135009.42000000016</v>
+      </c>
+      <c r="D120" s="37">
+        <f>D32-D$2</f>
+        <v>2976985</v>
+      </c>
+      <c r="E120" s="37">
+        <f t="shared" si="7"/>
+        <v>2841975.58</v>
+      </c>
+      <c r="F120" s="37">
+        <v>81825693.890000001</v>
+      </c>
+      <c r="G120" s="46">
+        <f t="shared" ref="G120:G122" si="8">E120/L120</f>
+        <v>3.4438494850492551E-2</v>
+      </c>
+      <c r="H120" s="46">
+        <f t="shared" ref="H120:H123" si="9">E120/150000000</f>
+        <v>1.8946503866666665E-2</v>
+      </c>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="5">
+        <f>AVERAGE($F$91:F120)</f>
+        <v>82523222.700000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="36">
+        <v>42787</v>
+      </c>
+      <c r="B121" s="37">
+        <f>B33-$B$2</f>
+        <v>129695.65000000014</v>
+      </c>
+      <c r="C121" s="37">
+        <f>C33-C$2</f>
+        <v>141520.89000000013</v>
+      </c>
+      <c r="D121" s="37">
+        <f>D33-D$2</f>
+        <v>2920783</v>
+      </c>
+      <c r="E121" s="37">
+        <f t="shared" si="7"/>
+        <v>2779262.11</v>
+      </c>
+      <c r="F121" s="37">
+        <v>84084215.689999998</v>
+      </c>
+      <c r="G121" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3658007808952714E-2</v>
+      </c>
+      <c r="H121" s="46">
+        <f t="shared" si="9"/>
+        <v>1.8528414066666665E-2</v>
+      </c>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="47"/>
+      <c r="L121" s="5">
+        <f>AVERAGE($F$91:F121)</f>
+        <v>82573577.312580645</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="36">
+        <v>42788</v>
+      </c>
+      <c r="B122" s="37">
+        <f>B34-$B$2</f>
+        <v>131483.15000000014</v>
+      </c>
+      <c r="C122" s="37">
+        <f>C34-C$2</f>
+        <v>144613.26000000013</v>
+      </c>
+      <c r="D122" s="37">
+        <f>D34-D$2</f>
+        <v>2939925</v>
+      </c>
+      <c r="E122" s="37">
+        <f t="shared" si="7"/>
+        <v>2795311.7399999998</v>
+      </c>
+      <c r="F122" s="37">
+        <v>85253255.560000002</v>
+      </c>
+      <c r="G122" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3818079665969274E-2</v>
+      </c>
+      <c r="H122" s="46">
+        <f t="shared" si="9"/>
+        <v>1.8635411599999999E-2</v>
+      </c>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="5">
+        <f>AVERAGE($F$91:F122)</f>
+        <v>82657317.2578125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="36">
+        <v>42789</v>
+      </c>
+      <c r="B123" s="37">
+        <f>B35-$B$2</f>
+        <v>134278.15000000014</v>
+      </c>
+      <c r="C123" s="37">
+        <f>C35-C$2</f>
+        <v>150221.91000000015</v>
+      </c>
+      <c r="D123" s="37">
+        <f>D35-D$2</f>
+        <v>2803702</v>
+      </c>
+      <c r="E123" s="37">
+        <f t="shared" si="7"/>
+        <v>2653480.09</v>
+      </c>
+      <c r="F123" s="37">
+        <v>101176911.78999999</v>
+      </c>
+      <c r="G123" s="46">
+        <f>E123/L123</f>
+        <v>3.1885693025058968E-2</v>
+      </c>
+      <c r="H123" s="46">
+        <f t="shared" si="9"/>
+        <v>1.7689867266666666E-2</v>
+      </c>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="47"/>
+      <c r="L123" s="5">
+        <f>AVERAGE($F$91:F123)</f>
+        <v>83218517.092121214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="36">
+        <v>42790</v>
+      </c>
+      <c r="B124" s="37">
+        <f>B36-$B$2</f>
+        <v>134778.15000000014</v>
+      </c>
+      <c r="C124" s="37">
+        <f>C36-C$2</f>
+        <v>155844.67000000004</v>
+      </c>
+      <c r="D124" s="37">
+        <f>D36-D$2</f>
+        <v>2825213</v>
+      </c>
+      <c r="E124" s="37">
+        <f t="shared" ref="E124:E128" si="10">D124-C124</f>
+        <v>2669368.33</v>
+      </c>
+      <c r="F124" s="37">
+        <v>122984844.03</v>
+      </c>
+      <c r="G124" s="46">
+        <f>E124/L124</f>
+        <v>3.1632041215704176E-2</v>
+      </c>
+      <c r="H124" s="46">
+        <f t="shared" ref="H124:H128" si="11">E124/150000000</f>
+        <v>1.7795788866666669E-2</v>
+      </c>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="5">
+        <f>AVERAGE($F$91:F124)</f>
+        <v>84388114.943235293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="36">
+        <v>42793</v>
+      </c>
+      <c r="B125" s="37">
+        <f>B37-$B$2</f>
+        <v>140115.64000000013</v>
+      </c>
+      <c r="C125" s="37">
+        <f>C37-C$2</f>
+        <v>159902.82000000018</v>
+      </c>
+      <c r="D125" s="37">
+        <f>D37-D$2</f>
+        <v>2915491</v>
+      </c>
+      <c r="E125" s="37">
+        <f t="shared" si="10"/>
+        <v>2755588.1799999997</v>
+      </c>
+      <c r="F125" s="37">
+        <v>144967329.88999999</v>
+      </c>
+      <c r="G125" s="46">
+        <f t="shared" ref="G125:G128" si="12">E125/L125</f>
+        <v>3.1997466190741154E-2</v>
+      </c>
+      <c r="H125" s="46">
+        <f t="shared" si="11"/>
+        <v>1.8370587866666666E-2</v>
+      </c>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="47"/>
+      <c r="L125" s="5">
+        <f>AVERAGE($F$91:F125)</f>
+        <v>86118949.656000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="36">
+        <v>42794</v>
+      </c>
+      <c r="B126" s="37">
+        <f>B38-$B$2</f>
+        <v>144583.16000000015</v>
+      </c>
+      <c r="C126" s="37">
+        <f>C38-C$2</f>
+        <v>163106.3400000002</v>
+      </c>
+      <c r="D126" s="37">
+        <f>D38-D$2</f>
+        <v>2415271</v>
+      </c>
+      <c r="E126" s="37">
+        <f t="shared" si="10"/>
+        <v>2252164.6599999997</v>
+      </c>
+      <c r="F126" s="37">
+        <v>149487956.31</v>
+      </c>
+      <c r="G126" s="46">
+        <f t="shared" si="12"/>
+        <v>2.5627960473913244E-2</v>
+      </c>
+      <c r="H126" s="46">
+        <f t="shared" si="11"/>
+        <v>1.5014431066666665E-2</v>
+      </c>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="47"/>
+      <c r="L126" s="5">
+        <f>AVERAGE($F$91:F126)</f>
+        <v>87879199.840833336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="36">
+        <v>42795</v>
+      </c>
+      <c r="B127" s="37">
+        <f>B39-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C127" s="37">
+        <f>C39-C$2</f>
+        <v>168559.49000000022</v>
+      </c>
+      <c r="D127" s="37">
+        <f>D39-D$2</f>
+        <v>2622101</v>
+      </c>
+      <c r="E127" s="37">
+        <f t="shared" si="10"/>
+        <v>2453541.5099999998</v>
+      </c>
+      <c r="F127" s="37">
+        <v>152707123.09999999</v>
+      </c>
+      <c r="G127" s="46">
+        <f t="shared" si="12"/>
+        <v>2.7373711517998108E-2</v>
+      </c>
+      <c r="H127" s="46">
+        <f t="shared" si="11"/>
+        <v>1.6356943399999997E-2</v>
+      </c>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="5">
+        <f>AVERAGE($F$91:F127)</f>
+        <v>89631305.874864861</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="36">
+        <v>42796</v>
+      </c>
+      <c r="B128" s="37">
+        <f>B40-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C128" s="37">
+        <f>C40-C$2</f>
+        <v>174536.19999999995</v>
+      </c>
+      <c r="D128" s="37">
+        <f>D40-D$2</f>
+        <v>2371213</v>
+      </c>
+      <c r="E128" s="37">
+        <f t="shared" si="10"/>
+        <v>2196676.7999999998</v>
+      </c>
+      <c r="F128" s="37">
+        <v>140725291.59</v>
+      </c>
+      <c r="G128" s="46">
+        <f t="shared" si="12"/>
+        <v>2.4145704253045682E-2</v>
+      </c>
+      <c r="H128" s="46">
+        <f t="shared" si="11"/>
+        <v>1.4644511999999998E-2</v>
+      </c>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="47"/>
+      <c r="L128" s="5">
+        <f>AVERAGE($F$91:F128)</f>
+        <v>90975884.446315795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="36">
+        <v>42797</v>
+      </c>
+      <c r="B129" s="37">
+        <f>B41-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C129" s="37">
+        <f>C41-C$2</f>
+        <v>182112.76000000013</v>
+      </c>
+      <c r="D129" s="37">
+        <f>D41-D$2</f>
+        <v>2584861</v>
+      </c>
+      <c r="E129" s="37">
+        <f t="shared" ref="E129:E133" si="13">D129-C129</f>
+        <v>2402748.2399999998</v>
+      </c>
+      <c r="F129" s="37">
+        <v>140725292.59</v>
+      </c>
+      <c r="G129" s="46">
+        <f t="shared" ref="G129:G133" si="14">E129/L129</f>
+        <v>2.6045624969027473E-2</v>
+      </c>
+      <c r="H129" s="46">
+        <f t="shared" ref="H129:H132" si="15">E129/150000000</f>
+        <v>1.60183216E-2</v>
+      </c>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="47"/>
+      <c r="L129" s="5">
+        <f>AVERAGE($F$91:F129)</f>
+        <v>92251510.296153858</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="36">
+        <v>42800</v>
+      </c>
+      <c r="B130" s="37">
+        <f>B42-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C130" s="37">
+        <f>C42-C$2</f>
+        <v>187509.5900000002</v>
+      </c>
+      <c r="D130" s="37">
+        <f>D42-D$2</f>
+        <v>2716560</v>
+      </c>
+      <c r="E130" s="37">
+        <f t="shared" si="13"/>
+        <v>2529050.4099999997</v>
+      </c>
+      <c r="F130" s="37">
+        <v>140725293.59</v>
+      </c>
+      <c r="G130" s="46">
+        <f t="shared" si="14"/>
+        <v>2.7059272730876192E-2</v>
+      </c>
+      <c r="H130" s="46">
+        <f t="shared" si="15"/>
+        <v>1.6860336066666665E-2</v>
+      </c>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="47"/>
+      <c r="L130" s="5">
+        <f>AVERAGE($F$91:F130)</f>
+        <v>93463354.878500015</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" s="36">
+        <v>42801</v>
+      </c>
+      <c r="B131" s="37">
+        <f>B43-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C131" s="37">
+        <f>C43-C$2</f>
+        <v>190570.48000000021</v>
+      </c>
+      <c r="D131" s="37">
+        <f>D43-D$2</f>
+        <v>2874989</v>
+      </c>
+      <c r="E131" s="37">
+        <f t="shared" si="13"/>
+        <v>2684418.5199999996</v>
+      </c>
+      <c r="F131" s="37">
+        <v>140725294.59</v>
+      </c>
+      <c r="G131" s="46">
+        <f t="shared" si="14"/>
+        <v>2.8371693002589092E-2</v>
+      </c>
+      <c r="H131" s="46">
+        <f t="shared" si="15"/>
+        <v>1.7896123466666664E-2</v>
+      </c>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="47"/>
+      <c r="L131" s="5">
+        <f>AVERAGE($F$91:F131)</f>
+        <v>94616085.115365863</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" s="36">
+        <v>42802</v>
+      </c>
+      <c r="B132" s="37">
+        <f>B44-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C132" s="37">
+        <f>C44-C$2</f>
+        <v>195517.64000000013</v>
+      </c>
+      <c r="D132" s="37">
+        <f>D44-D$2</f>
+        <v>3160576</v>
+      </c>
+      <c r="E132" s="37">
+        <f t="shared" si="13"/>
+        <v>2965058.36</v>
+      </c>
+      <c r="F132" s="37">
+        <v>140725295.59</v>
+      </c>
+      <c r="G132" s="46">
+        <f t="shared" si="14"/>
+        <v>3.0978338916794412E-2</v>
+      </c>
+      <c r="H132" s="46">
+        <f t="shared" si="15"/>
+        <v>1.9767055733333334E-2</v>
+      </c>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="47"/>
+      <c r="L132" s="5">
+        <f>AVERAGE($F$91:F132)</f>
+        <v>95713923.460000008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A133" s="36">
+        <v>42803</v>
+      </c>
+      <c r="B133" s="37">
+        <f>B45-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C133" s="37">
+        <f>C45-C$2</f>
+        <v>199889.82000000007</v>
+      </c>
+      <c r="D133" s="37">
+        <f>D45-D$2</f>
+        <v>3239519</v>
+      </c>
+      <c r="E133" s="37">
+        <f t="shared" si="13"/>
+        <v>3039629.1799999997</v>
+      </c>
+      <c r="F133" s="37">
+        <v>140725296.59</v>
+      </c>
+      <c r="G133" s="46">
+        <f t="shared" si="14"/>
+        <v>3.1413881805482456E-2</v>
+      </c>
+      <c r="H133" s="46">
+        <f>E133/150000000</f>
+        <v>2.0264194533333332E-2</v>
+      </c>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="47"/>
+      <c r="L133" s="5">
+        <f>AVERAGE($F$91:F133)</f>
+        <v>96760699.579302341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A134" s="36">
+        <v>42804</v>
+      </c>
+      <c r="B134" s="37">
+        <f>B46-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C134" s="37">
+        <f>C46-C$2</f>
+        <v>204595.81000000006</v>
+      </c>
+      <c r="D134" s="37">
+        <f>D46-D$2</f>
+        <v>3405616</v>
+      </c>
+      <c r="E134" s="37">
+        <f t="shared" ref="E134:E138" si="16">D134-C134</f>
+        <v>3201020.19</v>
+      </c>
+      <c r="F134" s="37">
+        <v>140725297.59</v>
+      </c>
+      <c r="G134" s="46">
+        <f t="shared" ref="G134:G138" si="17">E134/L134</f>
+        <v>3.2743695053805921E-2</v>
+      </c>
+      <c r="H134" s="46">
+        <f t="shared" ref="H134:H138" si="18">E134/150000000</f>
+        <v>2.1340134600000001E-2</v>
+      </c>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="5">
+        <f>AVERAGE($F$91:F134)</f>
+        <v>97759894.988636389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A135" s="36">
+        <v>42807</v>
+      </c>
+      <c r="B135" s="37">
+        <f>B47-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C135" s="37">
+        <f>C47-C$2</f>
+        <v>214215.82000000007</v>
+      </c>
+      <c r="D135" s="37">
+        <f>D47-D$2</f>
+        <v>3791053</v>
+      </c>
+      <c r="E135" s="37">
+        <f t="shared" si="16"/>
+        <v>3576837.1799999997</v>
+      </c>
+      <c r="F135" s="37">
+        <v>140725298.59</v>
+      </c>
+      <c r="G135" s="46">
+        <f>E135/L135</f>
+        <v>3.6234095244210542E-2</v>
+      </c>
+      <c r="H135" s="46">
+        <f t="shared" si="18"/>
+        <v>2.3845581199999997E-2</v>
+      </c>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="5">
+        <f>AVERAGE($F$91:F135)</f>
+        <v>98714681.735333353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A136" s="36">
+        <v>42808</v>
+      </c>
+      <c r="B136" s="37">
+        <f>B48-$B$2</f>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C136" s="37">
+        <f>C48-C$2</f>
+        <v>217907.59000000008</v>
+      </c>
+      <c r="D136" s="37">
+        <f>D48-D$2</f>
+        <v>3622399</v>
+      </c>
+      <c r="E136" s="37">
+        <f t="shared" si="16"/>
+        <v>3404491.41</v>
+      </c>
+      <c r="F136" s="37">
+        <v>140725299.59</v>
+      </c>
+      <c r="G136" s="46">
+        <f t="shared" si="17"/>
+        <v>3.4172049146044679E-2</v>
+      </c>
+      <c r="H136" s="46">
+        <f t="shared" si="18"/>
+        <v>2.2696609400000001E-2</v>
+      </c>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="5">
+        <f>AVERAGE($F$91:F136)</f>
+        <v>99627956.036521763</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A137" s="36">
+        <v>42809</v>
+      </c>
+      <c r="B137" s="37">
+        <f>B49-$B$2</f>
+        <v>145483.17000000016</v>
+      </c>
+      <c r="C137" s="37">
+        <f>C49-C$2</f>
+        <v>223250.06000000006</v>
+      </c>
+      <c r="D137" s="37">
+        <f>D49-D$2</f>
+        <v>3641666</v>
+      </c>
+      <c r="E137" s="37">
+        <f t="shared" si="16"/>
+        <v>3418415.94</v>
+      </c>
+      <c r="F137" s="37">
+        <v>140725300.59</v>
+      </c>
+      <c r="G137" s="46">
+        <f t="shared" si="17"/>
+        <v>3.4013287655381107E-2</v>
+      </c>
+      <c r="H137" s="46">
+        <f t="shared" si="18"/>
+        <v>2.2789439599999999E-2</v>
+      </c>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="47"/>
+      <c r="L137" s="5">
+        <f>AVERAGE($F$91:F137)</f>
+        <v>100502367.62276599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A138" s="36">
+        <v>42810</v>
+      </c>
+      <c r="B138" s="37">
+        <f>B50-$B$2</f>
+        <v>149466.50000000012</v>
+      </c>
+      <c r="C138" s="37">
+        <f>C50-C$2</f>
+        <v>232225.03000000003</v>
+      </c>
+      <c r="D138" s="37">
+        <f>D50-D$2</f>
+        <v>3677614</v>
+      </c>
+      <c r="E138" s="37">
+        <f t="shared" si="16"/>
+        <v>3445388.9699999997</v>
+      </c>
+      <c r="F138" s="37">
+        <v>140725301.59</v>
+      </c>
+      <c r="G138" s="46">
+        <f t="shared" si="17"/>
+        <v>3.3998196433347887E-2</v>
+      </c>
+      <c r="H138" s="46">
+        <f t="shared" si="18"/>
+        <v>2.2969259799999999E-2</v>
+      </c>
+      <c r="I138" s="37"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="47"/>
+      <c r="L138" s="5">
+        <f>AVERAGE($F$91:F138)</f>
+        <v>101340345.41375004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A139" s="36">
+        <v>42811</v>
+      </c>
+      <c r="B139" s="37">
+        <f t="shared" ref="B139:B143" si="19">B51-$B$2</f>
+        <v>149466.50000000012</v>
+      </c>
+      <c r="C139" s="37">
+        <f t="shared" ref="C139:D139" si="20">C51-C$2</f>
+        <v>250381.39999999991</v>
+      </c>
+      <c r="D139" s="37">
+        <f t="shared" si="20"/>
+        <v>4179637</v>
+      </c>
+      <c r="E139" s="37">
+        <f t="shared" ref="E139:E143" si="21">D139-C139</f>
+        <v>3929255.6</v>
+      </c>
+      <c r="F139" s="37">
+        <v>140725302.59</v>
+      </c>
+      <c r="G139" s="46">
+        <f t="shared" ref="G139:G143" si="22">E139/L139</f>
+        <v>3.846776102311724E-2</v>
+      </c>
+      <c r="H139" s="46">
+        <f t="shared" ref="H139:H143" si="23">E139/150000000</f>
+        <v>2.6195037333333334E-2</v>
+      </c>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="47"/>
+      <c r="L139" s="5">
+        <f>AVERAGE($F$91:F139)</f>
+        <v>102144120.05000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A140" s="36">
+        <v>42814</v>
+      </c>
+      <c r="B140" s="37">
+        <f t="shared" si="19"/>
+        <v>153295.10000000009</v>
+      </c>
+      <c r="C140" s="37">
+        <f t="shared" ref="C140:D140" si="24">C52-C$2</f>
+        <v>253390.87</v>
+      </c>
+      <c r="D140" s="37">
+        <f t="shared" si="24"/>
+        <v>4116818</v>
+      </c>
+      <c r="E140" s="37">
+        <f t="shared" si="21"/>
+        <v>3863427.13</v>
+      </c>
+      <c r="F140" s="37">
+        <v>140725303.59</v>
+      </c>
+      <c r="G140" s="46">
+        <f t="shared" si="22"/>
+        <v>3.7539709575252989E-2</v>
+      </c>
+      <c r="H140" s="46">
+        <f t="shared" si="23"/>
+        <v>2.5756180866666666E-2</v>
+      </c>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="47"/>
+      <c r="L140" s="5">
+        <f>AVERAGE($F$91:F140)</f>
+        <v>102915743.72080004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A141" s="36">
+        <v>42815</v>
+      </c>
+      <c r="B141" s="37">
+        <f t="shared" si="19"/>
+        <v>156475.51000000013</v>
+      </c>
+      <c r="C141" s="37">
+        <f t="shared" ref="C141:D141" si="25">C53-C$2</f>
+        <v>263433.27999999991</v>
+      </c>
+      <c r="D141" s="37">
+        <f t="shared" si="25"/>
+        <v>4153717</v>
+      </c>
+      <c r="E141" s="37">
+        <f t="shared" si="21"/>
+        <v>3890283.72</v>
+      </c>
+      <c r="F141" s="37">
+        <v>140725304.59</v>
+      </c>
+      <c r="G141" s="46">
+        <f t="shared" si="22"/>
+        <v>3.7530313239902295E-2</v>
+      </c>
+      <c r="H141" s="46">
+        <f t="shared" si="23"/>
+        <v>2.59352248E-2</v>
+      </c>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="47"/>
+      <c r="L141" s="5">
+        <f>AVERAGE($F$91:F141)</f>
+        <v>103657107.6594118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A142" s="36">
+        <v>42816</v>
+      </c>
+      <c r="B142" s="37">
+        <f t="shared" si="19"/>
+        <v>159321.35000000009</v>
+      </c>
+      <c r="C142" s="37">
+        <f t="shared" ref="C142:D142" si="26">C54-C$2</f>
+        <v>271395.34999999998</v>
+      </c>
+      <c r="D142" s="37">
+        <f t="shared" si="26"/>
+        <v>4284706</v>
+      </c>
+      <c r="E142" s="37">
+        <f t="shared" si="21"/>
+        <v>4013310.65</v>
+      </c>
+      <c r="F142" s="37">
+        <v>140725305.59</v>
+      </c>
+      <c r="G142" s="46">
+        <f t="shared" si="22"/>
+        <v>3.8452738139712853E-2</v>
+      </c>
+      <c r="H142" s="46">
+        <f t="shared" si="23"/>
+        <v>2.6755404333333333E-2</v>
+      </c>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="47"/>
+      <c r="L142" s="5">
+        <f>AVERAGE($F$91:F142)</f>
+        <v>104369957.61961542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A143" s="36">
+        <v>42817</v>
+      </c>
+      <c r="B143" s="37">
+        <f t="shared" si="19"/>
+        <v>161619.26000000013</v>
+      </c>
+      <c r="C143" s="37">
+        <f t="shared" ref="C143:D143" si="27">C55-C$2</f>
+        <v>279089.95999999996</v>
+      </c>
+      <c r="D143" s="37">
+        <f t="shared" si="27"/>
+        <v>4348849</v>
+      </c>
+      <c r="E143" s="37">
+        <f>D143-C143</f>
+        <v>4069759.04</v>
+      </c>
+      <c r="F143" s="37">
+        <v>140725306.59</v>
+      </c>
+      <c r="G143" s="46">
+        <f t="shared" si="22"/>
+        <v>3.8738983203955392E-2</v>
+      </c>
+      <c r="H143" s="46">
+        <f t="shared" si="23"/>
+        <v>2.7131726933333333E-2</v>
+      </c>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="47"/>
+      <c r="L143" s="5">
+        <f>AVERAGE($F$91:F143)</f>
+        <v>105055907.60018872</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A144" s="36"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="47"/>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A145" s="36"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="47"/>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A146" s="36"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="47"/>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A147" s="36"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="47"/>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A148" s="36"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="47"/>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A149" s="36"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" s="36"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="46"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="47"/>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A151" s="36"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="47"/>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A152" s="36"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A153" s="36"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A154" s="36"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="46"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="47"/>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A155" s="36"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="46"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A156" s="36"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A157" s="36"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="47"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A158" s="36"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A159" s="36"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A160" s="36"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="47"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A161" s="36"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="47"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A162" s="36"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="46"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="47"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A163" s="36"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="46"/>
+      <c r="H163" s="46"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="47"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A164" s="36"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="46"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="47"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C165" s="45"/>
+      <c r="E165" s="35"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="37"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D166" s="36"/>
+      <c r="E166" s="5"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="37"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D167" s="36"/>
+      <c r="E167" s="5"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D168" s="36"/>
+      <c r="E168" s="5"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="37"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D169" s="36"/>
+      <c r="E169" s="5"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="37"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D170" s="36"/>
+      <c r="E170" s="5"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="37"/>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C178" s="36">
+        <v>42810</v>
+      </c>
+      <c r="D178" s="37">
+        <v>3445388.9699999997</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C179" s="36">
+        <v>42811</v>
+      </c>
+      <c r="D179" s="37">
+        <v>3929255.6</v>
+      </c>
+      <c r="E179" s="5">
+        <f>D179-$D$178</f>
+        <v>483866.63000000035</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C180" s="36">
+        <v>42814</v>
+      </c>
+      <c r="D180" s="37">
+        <v>3863427.13</v>
+      </c>
+      <c r="E180" s="5">
+        <f t="shared" ref="E180:E183" si="28">D180-$D$178</f>
+        <v>418038.16000000015</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C181" s="36">
+        <v>42815</v>
+      </c>
+      <c r="D181" s="37">
+        <v>3890283.72</v>
+      </c>
+      <c r="E181" s="5">
+        <f t="shared" si="28"/>
+        <v>444894.75000000047</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C182" s="36">
+        <v>42816</v>
+      </c>
+      <c r="D182" s="37">
+        <v>4013310.65</v>
+      </c>
+      <c r="E182" s="5">
+        <f t="shared" si="28"/>
+        <v>567921.68000000017</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C183" s="36">
+        <v>42817</v>
+      </c>
+      <c r="D183" s="37">
+        <v>4069759.04</v>
+      </c>
+      <c r="E183" s="5">
+        <f t="shared" si="28"/>
+        <v>624370.0700000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I145" sqref="I145"/>
+      <selection pane="bottomRight" activeCell="F123" sqref="F123:G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,8 +10576,8 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -3441,8 +13010,12 @@
       <c r="E120" s="3">
         <v>4348411</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="F120" s="3">
+        <v>3710086.4959999998</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3780832.9559999998</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
@@ -3460,8 +13033,12 @@
       <c r="E121" s="3">
         <v>4608570</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="F121" s="3">
+        <v>4041992.9440000001</v>
+      </c>
+      <c r="G121" s="3">
+        <v>4057596.3139999998</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
@@ -3479,8 +13056,12 @@
       <c r="E122" s="3">
         <v>4265330</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="F122" s="3">
+        <v>3833148.6660000002</v>
+      </c>
+      <c r="G122" s="3">
+        <v>3663458.2760000001</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
@@ -3498,8 +13079,12 @@
       <c r="E123" s="3">
         <v>4656924</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+      <c r="F123" s="4">
+        <v>3578858.446</v>
+      </c>
+      <c r="G123" s="4">
+        <v>3488817.7750000004</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
@@ -3517,8 +13102,12 @@
       <c r="E124" s="3">
         <v>3856998</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="F124" s="3">
+        <v>3324568.2259999998</v>
+      </c>
+      <c r="G124" s="3">
+        <v>3314177.2740000002</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
@@ -3536,8 +13125,12 @@
       <c r="E125" s="3">
         <v>4151737</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="F125" s="3">
+        <v>3561150.16</v>
+      </c>
+      <c r="G125" s="3">
+        <v>3538075.3480000002</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
@@ -3808,10 +13401,10 @@
       <c r="E137" s="3">
         <v>6006580</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="4">
         <v>7432590.9720000001</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="4">
         <v>7410401.4900000002</v>
       </c>
     </row>
@@ -3923,10 +13516,10 @@
       <c r="E142" s="3">
         <v>6244065</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="4">
         <v>-2163288.0299999998</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="4">
         <v>-2156216.4219999998</v>
       </c>
     </row>
@@ -3934,22 +13527,22 @@
       <c r="A143" s="2">
         <v>42761</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>0</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>0</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="4">
         <v>0</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="4">
         <v>0</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="4">
         <v>0</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3963,8 +13556,12 @@
       <c r="C144" s="3">
         <v>637951.64</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
       <c r="F144" s="3">
         <v>5460969.0279999999</v>
       </c>
@@ -4038,10 +13635,21 @@
       <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="A148" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B148" s="3">
+        <v>767032.2</v>
+      </c>
+      <c r="C148" s="3">
+        <v>653256.46</v>
+      </c>
+      <c r="D148" s="3">
+        <v>6169192</v>
+      </c>
+      <c r="E148" s="3">
+        <v>6024815</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>

--- a/期权做市盈亏跟踪.xlsx
+++ b/期权做市盈亏跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="17235" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10860" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年盈亏情况" sheetId="2" r:id="rId1"/>
@@ -1080,11 +1080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57652224"/>
-        <c:axId val="66537728"/>
+        <c:axId val="392733696"/>
+        <c:axId val="326861952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57652224"/>
+        <c:axId val="392733696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66537728"/>
+        <c:crossAx val="326861952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66537728"/>
+        <c:axId val="326861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000000"/>
@@ -1114,7 +1114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57652224"/>
+        <c:crossAx val="392733696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,11 +1329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145233920"/>
-        <c:axId val="66542336"/>
+        <c:axId val="392912896"/>
+        <c:axId val="326864256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="145233920"/>
+        <c:axId val="392912896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,14 +1343,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66542336"/>
+        <c:crossAx val="326864256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66542336"/>
+        <c:axId val="326864256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145233920"/>
+        <c:crossAx val="392912896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,10 +1432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$55</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -1594,16 +1594,100 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$55</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>3960057.26</c:v>
                 </c:pt>
@@ -1762,6 +1846,90 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>7734616.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7788452.9900000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7650304.9500000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7625921.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7744011.9199999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7511345.4199999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7865853.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7936544.7199999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8075574.1699999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8068013.96</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8145405.5800000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7819950.96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8036760.5300000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8033723.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8012321.6299999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8045643.1400000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8150015.54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8191654.1100000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8457872.5099999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8315480.0300000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7907076.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8161272.6799999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8247158.46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8315714.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8289827.3700000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8206723.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8268838.8300000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8090749.5700000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8312768.0099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,11 +1946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57654272"/>
-        <c:axId val="66542912"/>
+        <c:axId val="62129664"/>
+        <c:axId val="326864832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57654272"/>
+        <c:axId val="62129664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66542912"/>
+        <c:crossAx val="326864832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1801,7 +1969,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66542912"/>
+        <c:axId val="326864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3900000"/>
@@ -1813,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57654272"/>
+        <c:crossAx val="62129664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300000"/>
@@ -1890,10 +2058,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -2052,16 +2220,100 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$91:$E$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$109:$E$189</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>295200.05000000005</c:v>
                 </c:pt>
@@ -2220,6 +2472,90 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4069759.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4123595.7800000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3985447.74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3961063.99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4079154.71</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3846488.21</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4200995.87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4271687.51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4410716.96</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4403156.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4480548.37</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4155093.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4371903.32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4368865.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4347464.42</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4380785.93</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4485158.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4526796.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4793015.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4650622.82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4242219.49</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4496415.47</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4582301.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4650856.87</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4624970.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4541865.8899999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4603981.62</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4425892.3600000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4647910.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,11 +2572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265545216"/>
-        <c:axId val="125813888"/>
+        <c:axId val="392916480"/>
+        <c:axId val="326866560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265545216"/>
+        <c:axId val="392916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125813888"/>
+        <c:crossAx val="326866560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2259,7 +2595,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125813888"/>
+        <c:axId val="326866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="280000"/>
@@ -2271,7 +2607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265545216"/>
+        <c:crossAx val="392916480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,7 +2687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017年盈亏情况_凌总'!$G$90</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$G$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2365,10 +2701,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -2527,16 +2863,100 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$G$91:$G$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$G$109:$G$189</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>3.2441589711732356E-3</c:v>
                 </c:pt>
@@ -2695,6 +3115,90 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3.8738983203955392E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9006187781125974E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7473777070746915E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7030790501131929E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.7924802378106033E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.557253082605058E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8653553006465308E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9111807614233371E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0194675311075838E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9943826425403506E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0468214641217637E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7370458772967699E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9160364019288532E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.8979296460698004E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.864096256622359E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.8794054020707465E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9577112068211615E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.980704785322231E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2007566581378268E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.062791057876753E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6944008542629164E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.9038735318507163E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9667101006467358E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0145298855577494E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9810837564588919E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8989851726318886E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9419268155402379E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7797664417276403E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9595077959969083E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,7 +3210,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017年盈亏情况_凌总'!$H$90</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$H$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2720,10 +3224,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$91:$A$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -2882,16 +3386,100 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$H$91:$H$143</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$H$109:$H$189</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>1.9680003333333337E-3</c:v>
                 </c:pt>
@@ -3050,6 +3638,90 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2.7131726933333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7490638533333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6569651600000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.6407093266666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7194364733333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5643254733333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8006639133333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8477916733333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9404779733333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.9354378333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9870322466666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7700625E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9146022133333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.9125771999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.8983096133333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.920523953333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.9901055533333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0178646000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1953435333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1004152133333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8281463266666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9976103133333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0548675000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1005712466666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.08331344E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0279105933333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0693210800000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9505949066666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0986072E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,11 +3738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265545728"/>
-        <c:axId val="125815616"/>
+        <c:axId val="393469952"/>
+        <c:axId val="326868288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265545728"/>
+        <c:axId val="393469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,16 +3752,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125815616"/>
+        <c:crossAx val="326868288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="3"/>
+        <c:majorUnit val="5"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125815616"/>
+        <c:axId val="326868288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265545728"/>
+        <c:crossAx val="393469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3762,11 +4434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265546240"/>
-        <c:axId val="125817920"/>
+        <c:axId val="393470464"/>
+        <c:axId val="401090240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265546240"/>
+        <c:axId val="393470464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +4448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125817920"/>
+        <c:crossAx val="401090240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3785,7 +4457,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125817920"/>
+        <c:axId val="401090240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3900000"/>
@@ -3797,7 +4469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265546240"/>
+        <c:crossAx val="393470464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300000"/>
@@ -3870,48 +4542,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$C$179:$C$183</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$C$217:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42811</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42814</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42815</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42816</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42817</c:v>
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$179:$E$183</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$217:$E$221</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>483866.63000000035</c:v>
+                  <c:v>-25886.709999999963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418038.16000000015</c:v>
+                  <c:v>-108990.98000000045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>444894.75000000047</c:v>
+                  <c:v>-46875.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>567921.68000000017</c:v>
+                  <c:v>-224964.50999999978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>624370.0700000003</c:v>
+                  <c:v>-2946.070000000298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3928,11 +4600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265546752"/>
-        <c:axId val="125820224"/>
+        <c:axId val="393470976"/>
+        <c:axId val="401092544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265546752"/>
+        <c:axId val="393470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,14 +4614,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125820224"/>
+        <c:crossAx val="401092544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125820224"/>
+        <c:axId val="401092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,7 +4632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265546752"/>
+        <c:crossAx val="393470976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4053,13 +4725,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4083,13 +4755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4113,13 +4785,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>923926</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4145,13 +4817,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4177,13 +4849,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1171574</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6233,13 +6905,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179:E183"/>
+      <selection pane="bottomRight" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6886,7 +7558,7 @@
         <v>6073553</v>
       </c>
       <c r="E24" s="39">
-        <f t="shared" ref="E24:E55" si="1">D24-C24</f>
+        <f t="shared" ref="E24:E83" si="1">D24-C24</f>
         <v>5426247.7199999997</v>
       </c>
       <c r="F24" s="44">
@@ -7589,2966 +8261,4459 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="37"/>
+      <c r="A56" s="36">
+        <v>42818</v>
+      </c>
+      <c r="B56" s="37">
+        <v>816001.72</v>
+      </c>
+      <c r="C56" s="37">
+        <v>855983.01</v>
+      </c>
+      <c r="D56" s="38">
+        <v>8644436</v>
+      </c>
+      <c r="E56" s="39">
+        <f t="shared" si="1"/>
+        <v>7788452.9900000002</v>
+      </c>
+      <c r="F56" s="37">
+        <v>71933196.370000005</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="37"/>
+      <c r="A57" s="36">
+        <v>42821</v>
+      </c>
+      <c r="B57" s="37">
+        <v>817875.47</v>
+      </c>
+      <c r="C57" s="37">
+        <v>862211.05</v>
+      </c>
+      <c r="D57" s="38">
+        <v>8512516</v>
+      </c>
+      <c r="E57" s="39">
+        <f t="shared" si="1"/>
+        <v>7650304.9500000002</v>
+      </c>
+      <c r="F57" s="37">
+        <v>82107618.790000007</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="37"/>
+      <c r="A58" s="36">
+        <v>42822</v>
+      </c>
+      <c r="B58" s="37">
+        <v>821852.55</v>
+      </c>
+      <c r="C58" s="37">
+        <v>868262.8</v>
+      </c>
+      <c r="D58" s="38">
+        <v>8494184</v>
+      </c>
+      <c r="E58" s="39">
+        <f t="shared" si="1"/>
+        <v>7625921.2000000002</v>
+      </c>
+      <c r="F58" s="37">
+        <v>102021451.98</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="37"/>
+      <c r="A59" s="36">
+        <v>42823</v>
+      </c>
+      <c r="B59" s="37">
+        <v>825325.55</v>
+      </c>
+      <c r="C59" s="37">
+        <v>871241.08</v>
+      </c>
+      <c r="D59" s="38">
+        <v>8615253</v>
+      </c>
+      <c r="E59" s="39">
+        <f t="shared" si="1"/>
+        <v>7744011.9199999999</v>
+      </c>
+      <c r="F59" s="37">
+        <v>101433073.95999999</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="37"/>
+      <c r="A60" s="36">
+        <v>42824</v>
+      </c>
+      <c r="B60" s="37">
+        <v>834214.55</v>
+      </c>
+      <c r="C60" s="37">
+        <v>874837.58</v>
+      </c>
+      <c r="D60" s="38">
+        <v>8386183</v>
+      </c>
+      <c r="E60" s="39">
+        <f t="shared" si="1"/>
+        <v>7511345.4199999999</v>
+      </c>
+      <c r="F60" s="37">
+        <v>117956429.69</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="37"/>
+      <c r="A61" s="36">
+        <v>42825</v>
+      </c>
+      <c r="B61" s="37">
+        <v>862533.43</v>
+      </c>
+      <c r="C61" s="37">
+        <v>899406.92</v>
+      </c>
+      <c r="D61" s="38">
+        <v>8765260</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" si="1"/>
+        <v>7865853.0800000001</v>
+      </c>
+      <c r="F61" s="37">
+        <v>107901268.15000001</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="37"/>
+      <c r="A62" s="36">
+        <v>42830</v>
+      </c>
+      <c r="B62" s="37">
+        <v>865543.54</v>
+      </c>
+      <c r="C62" s="37">
+        <v>904316.28</v>
+      </c>
+      <c r="D62" s="38">
+        <v>8840861</v>
+      </c>
+      <c r="E62" s="39">
+        <f t="shared" si="1"/>
+        <v>7936544.7199999997</v>
+      </c>
+      <c r="F62" s="37">
+        <v>107439210.56999999</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="37"/>
+      <c r="A63" s="36">
+        <v>42831</v>
+      </c>
+      <c r="B63" s="37">
+        <v>873942.3</v>
+      </c>
+      <c r="C63" s="37">
+        <v>908887.83000000007</v>
+      </c>
+      <c r="D63" s="38">
+        <v>8984462</v>
+      </c>
+      <c r="E63" s="39">
+        <f t="shared" si="1"/>
+        <v>8075574.1699999999</v>
+      </c>
+      <c r="F63" s="37">
+        <v>86614056.49000001</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="37"/>
+      <c r="A64" s="36">
+        <v>42832</v>
+      </c>
+      <c r="B64" s="37">
+        <v>875271.06</v>
+      </c>
+      <c r="C64" s="37">
+        <v>913426.04</v>
+      </c>
+      <c r="D64" s="38">
+        <v>8981440</v>
+      </c>
+      <c r="E64" s="39">
+        <f t="shared" si="1"/>
+        <v>8068013.96</v>
+      </c>
+      <c r="F64" s="37">
+        <v>70623001.810000002</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="37"/>
+      <c r="A65" s="36">
+        <v>42835</v>
+      </c>
+      <c r="B65" s="37">
+        <v>877800.2300000001</v>
+      </c>
+      <c r="C65" s="37">
+        <v>914370.41999999993</v>
+      </c>
+      <c r="D65" s="38">
+        <v>9059776</v>
+      </c>
+      <c r="E65" s="39">
+        <f t="shared" si="1"/>
+        <v>8145405.5800000001</v>
+      </c>
+      <c r="F65" s="37">
+        <v>65887154.739999995</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="37"/>
+      <c r="A66" s="36">
+        <v>42836</v>
+      </c>
+      <c r="B66" s="37">
+        <v>877800.2300000001</v>
+      </c>
+      <c r="C66" s="37">
+        <v>918588.03999999992</v>
+      </c>
+      <c r="D66" s="38">
+        <v>8738539</v>
+      </c>
+      <c r="E66" s="39">
+        <f t="shared" si="1"/>
+        <v>7819950.96</v>
+      </c>
+      <c r="F66" s="37">
+        <v>74124124.629999995</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="37"/>
+      <c r="A67" s="36">
+        <v>42837</v>
+      </c>
+      <c r="B67" s="37">
+        <v>878787.33000000007</v>
+      </c>
+      <c r="C67" s="37">
+        <v>921584.47</v>
+      </c>
+      <c r="D67" s="38">
+        <v>8958345</v>
+      </c>
+      <c r="E67" s="39">
+        <f t="shared" si="1"/>
+        <v>8036760.5300000003</v>
+      </c>
+      <c r="F67" s="37">
+        <v>68720925.00999999</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="37"/>
+      <c r="A68" s="36">
+        <v>42838</v>
+      </c>
+      <c r="B68" s="37">
+        <v>879756.91</v>
+      </c>
+      <c r="C68" s="37">
+        <v>924621.99</v>
+      </c>
+      <c r="D68" s="38">
+        <v>8958345</v>
+      </c>
+      <c r="E68" s="39">
+        <f t="shared" si="1"/>
+        <v>8033723.0099999998</v>
+      </c>
+      <c r="F68" s="37">
+        <v>92641760.5</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="37"/>
+      <c r="A69" s="36">
+        <v>42839</v>
+      </c>
+      <c r="B69" s="37">
+        <v>880625.25</v>
+      </c>
+      <c r="C69" s="37">
+        <v>927044.37</v>
+      </c>
+      <c r="D69" s="38">
+        <v>8939366</v>
+      </c>
+      <c r="E69" s="39">
+        <f t="shared" si="1"/>
+        <v>8012321.6299999999</v>
+      </c>
+      <c r="F69" s="37">
+        <v>86240538.260000005</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="37"/>
+      <c r="A70" s="36">
+        <v>42842</v>
+      </c>
+      <c r="B70" s="37">
+        <v>880625.25</v>
+      </c>
+      <c r="C70" s="37">
+        <v>930005.85999999987</v>
+      </c>
+      <c r="D70" s="38">
+        <v>8975649</v>
+      </c>
+      <c r="E70" s="39">
+        <f t="shared" si="1"/>
+        <v>8045643.1400000006</v>
+      </c>
+      <c r="F70" s="37">
+        <v>92273390.539999992</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="37"/>
+      <c r="A71" s="36">
+        <v>42843</v>
+      </c>
+      <c r="B71" s="37">
+        <v>880854.97</v>
+      </c>
+      <c r="C71" s="37">
+        <v>931353.46</v>
+      </c>
+      <c r="D71" s="38">
+        <v>9081369</v>
+      </c>
+      <c r="E71" s="39">
+        <f t="shared" si="1"/>
+        <v>8150015.54</v>
+      </c>
+      <c r="F71" s="37">
+        <v>92087851.25</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="37"/>
+      <c r="A72" s="36">
+        <v>42844</v>
+      </c>
+      <c r="B72" s="37">
+        <v>881074.69</v>
+      </c>
+      <c r="C72" s="37">
+        <v>935459.89</v>
+      </c>
+      <c r="D72" s="38">
+        <v>9127114</v>
+      </c>
+      <c r="E72" s="39">
+        <f t="shared" si="1"/>
+        <v>8191654.1100000003</v>
+      </c>
+      <c r="F72" s="37">
+        <v>103032195.90000001</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="37"/>
+      <c r="A73" s="36">
+        <v>42845</v>
+      </c>
+      <c r="B73" s="37">
+        <v>883006.75999999989</v>
+      </c>
+      <c r="C73" s="37">
+        <v>936898.49</v>
+      </c>
+      <c r="D73" s="38">
+        <v>9394771</v>
+      </c>
+      <c r="E73" s="39">
+        <f t="shared" si="1"/>
+        <v>8457872.5099999998</v>
+      </c>
+      <c r="F73" s="37">
+        <v>98816216.75999999</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="37"/>
+      <c r="A74" s="36">
+        <v>42846</v>
+      </c>
+      <c r="B74" s="37">
+        <v>884242.07</v>
+      </c>
+      <c r="C74" s="37">
+        <v>941190.97000000009</v>
+      </c>
+      <c r="D74" s="38">
+        <v>9256671</v>
+      </c>
+      <c r="E74" s="39">
+        <f t="shared" si="1"/>
+        <v>8315480.0300000003</v>
+      </c>
+      <c r="F74" s="37">
+        <v>89141020.170000002</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="37"/>
+      <c r="A75" s="36">
+        <v>42849</v>
+      </c>
+      <c r="B75" s="37">
+        <v>884242.07</v>
+      </c>
+      <c r="C75" s="37">
+        <v>944472.29999999993</v>
+      </c>
+      <c r="D75" s="38">
+        <v>8851549</v>
+      </c>
+      <c r="E75" s="39">
+        <f t="shared" si="1"/>
+        <v>7907076.7000000002</v>
+      </c>
+      <c r="F75" s="37">
+        <v>81302193.269999996</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="37"/>
+      <c r="A76" s="36">
+        <v>42850</v>
+      </c>
+      <c r="B76" s="37">
+        <v>885939.57</v>
+      </c>
+      <c r="C76" s="37">
+        <v>948417.32</v>
+      </c>
+      <c r="D76" s="38">
+        <v>9109690</v>
+      </c>
+      <c r="E76" s="39">
+        <f t="shared" si="1"/>
+        <v>8161272.6799999997</v>
+      </c>
+      <c r="F76" s="37">
+        <v>72592484.129999995</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="37"/>
+      <c r="A77" s="36">
+        <v>42851</v>
+      </c>
+      <c r="B77" s="37">
+        <v>888236.1</v>
+      </c>
+      <c r="C77" s="37">
+        <v>954932.53999999992</v>
+      </c>
+      <c r="D77" s="38">
+        <v>9202091</v>
+      </c>
+      <c r="E77" s="39">
+        <f t="shared" si="1"/>
+        <v>8247158.46</v>
+      </c>
+      <c r="F77" s="37">
+        <v>59280280.140000001</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="37"/>
+      <c r="A78" s="36">
+        <v>42852</v>
+      </c>
+      <c r="B78" s="37">
+        <v>898503.61</v>
+      </c>
+      <c r="C78" s="37">
+        <v>959382.91999999993</v>
+      </c>
+      <c r="D78" s="38">
+        <v>9275097</v>
+      </c>
+      <c r="E78" s="39">
+        <f t="shared" si="1"/>
+        <v>8315714.0800000001</v>
+      </c>
+      <c r="F78" s="37">
+        <v>64265057.509999998</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="37"/>
+      <c r="A79" s="36">
+        <v>42853</v>
+      </c>
+      <c r="B79" s="37">
+        <v>903024.48</v>
+      </c>
+      <c r="C79" s="37">
+        <v>962629.63</v>
+      </c>
+      <c r="D79" s="38">
+        <v>9252457</v>
+      </c>
+      <c r="E79" s="39">
+        <f t="shared" si="1"/>
+        <v>8289827.3700000001</v>
+      </c>
+      <c r="F79" s="37">
+        <v>66385823.450000003</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="37"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A83" s="36"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C86" s="45"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A80" s="36">
+        <v>42857</v>
+      </c>
+      <c r="B80" s="37">
+        <v>907332.83</v>
+      </c>
+      <c r="C80" s="37">
+        <v>964223.9</v>
+      </c>
+      <c r="D80" s="38">
+        <v>9170947</v>
+      </c>
+      <c r="E80" s="39">
+        <f t="shared" si="1"/>
+        <v>8206723.0999999996</v>
+      </c>
+      <c r="F80" s="37">
+        <v>67842214.569999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="36">
+        <v>42858</v>
+      </c>
+      <c r="B81" s="37">
+        <v>909716.86</v>
+      </c>
+      <c r="C81" s="37">
+        <v>966476.16999999993</v>
+      </c>
+      <c r="D81" s="38">
+        <v>9235315</v>
+      </c>
+      <c r="E81" s="39">
+        <f t="shared" si="1"/>
+        <v>8268838.8300000001</v>
+      </c>
+      <c r="F81" s="37">
+        <v>77850327.480000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="36">
+        <v>42859</v>
+      </c>
+      <c r="B82" s="37">
+        <v>912238.80999999994</v>
+      </c>
+      <c r="C82" s="37">
+        <v>969725.43</v>
+      </c>
+      <c r="D82" s="38">
+        <v>9060475</v>
+      </c>
+      <c r="E82" s="39">
+        <f t="shared" si="1"/>
+        <v>8090749.5700000003</v>
+      </c>
+      <c r="F82" s="37">
+        <v>91367596.969999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="36">
+        <v>42860</v>
+      </c>
+      <c r="B83" s="37">
+        <v>912238.80999999994</v>
+      </c>
+      <c r="C83" s="37">
+        <v>975036.99</v>
+      </c>
+      <c r="D83" s="38">
+        <v>9287805</v>
+      </c>
+      <c r="E83" s="39">
+        <f t="shared" si="1"/>
+        <v>8312768.0099999998</v>
+      </c>
+      <c r="F83" s="37">
+        <v>90975538.590000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="37"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="37"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="36"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="37"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="37"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="37"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="37"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="36"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="37"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="36"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="37"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="36"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="37"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="36"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="37"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="36"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="37"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="36"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="37"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="36"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C104" s="45"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B90" s="35" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B108" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C108" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D108" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E108" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="F108" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G108" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H108" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="35" t="s">
+      <c r="I108" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J90" s="35" t="s">
+      <c r="J108" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K90" s="35" t="s">
+      <c r="K108" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L90" s="35" t="s">
+      <c r="L108" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="36">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="36">
         <v>42738</v>
       </c>
-      <c r="B91" s="37">
+      <c r="B109" s="37">
         <f>B3-B$2</f>
         <v>3404.5900000000838</v>
       </c>
-      <c r="C91" s="37">
+      <c r="C109" s="37">
         <f>C3-C$2</f>
         <v>2402.9499999999534</v>
       </c>
-      <c r="D91" s="37">
+      <c r="D109" s="37">
         <f>D3-D$2</f>
         <v>297603</v>
       </c>
-      <c r="E91" s="37">
-        <f t="shared" ref="E91:E109" si="2">D91-C91</f>
+      <c r="E109" s="37">
+        <f t="shared" ref="E109:E127" si="2">D109-C109</f>
         <v>295200.05000000005</v>
       </c>
-      <c r="F91" s="44">
+      <c r="F109" s="44">
         <v>90994323.219999999</v>
       </c>
-      <c r="G91" s="46">
-        <f>E91/L91</f>
+      <c r="G109" s="46">
+        <f>E109/L109</f>
         <v>3.2441589711732356E-3</v>
       </c>
-      <c r="H91" s="46">
-        <f>E91/150000000</f>
+      <c r="H109" s="46">
+        <f>E109/150000000</f>
         <v>1.9680003333333337E-3</v>
       </c>
-      <c r="I91" s="37">
-        <f>G3-$G$2</f>
+      <c r="I109" s="37">
+        <f t="shared" ref="I109:I136" si="3">G3-$G$2</f>
         <v>353025.26799999969</v>
       </c>
-      <c r="J91" s="37">
-        <f>H3-$H$2</f>
+      <c r="J109" s="37">
+        <f t="shared" ref="J109:J136" si="4">H3-$H$2</f>
         <v>343957.71399999969</v>
       </c>
-      <c r="K91" s="47">
-        <f>DATEDIF($A$83,A91,"D")+1</f>
+      <c r="K109" s="47">
+        <f>DATEDIF($A$101,A109,"D")+1</f>
         <v>42739</v>
       </c>
-      <c r="L91" s="5">
-        <f>AVERAGE(F91)</f>
+      <c r="L109" s="5">
+        <f>AVERAGE(F109)</f>
         <v>90994323.219999999</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A92" s="36">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="36">
         <v>42739</v>
       </c>
-      <c r="B92" s="37">
-        <f>B4-$B$2</f>
+      <c r="B110" s="37">
+        <f t="shared" ref="B110:B141" si="5">B4-$B$2</f>
         <v>9106.7200000000885</v>
       </c>
-      <c r="C92" s="37">
-        <f>C4-C$2</f>
+      <c r="C110" s="37">
+        <f t="shared" ref="C110:D129" si="6">C4-C$2</f>
         <v>5125.0100000000093</v>
       </c>
-      <c r="D92" s="37">
-        <f>D4-D$2</f>
+      <c r="D110" s="37">
+        <f t="shared" si="6"/>
         <v>545189</v>
       </c>
-      <c r="E92" s="37">
+      <c r="E110" s="37">
         <f t="shared" si="2"/>
         <v>540063.99</v>
       </c>
-      <c r="F92" s="44">
+      <c r="F110" s="44">
         <v>87667319.819999993</v>
       </c>
-      <c r="G92" s="46">
-        <f>E92/L92</f>
+      <c r="G110" s="46">
+        <f>E110/L110</f>
         <v>6.0456624131581147E-3</v>
       </c>
-      <c r="H92" s="46">
-        <f t="shared" ref="H92:H118" si="3">E92/150000000</f>
+      <c r="H110" s="46">
+        <f t="shared" ref="H110:H136" si="7">E110/150000000</f>
         <v>3.6004266000000001E-3</v>
       </c>
-      <c r="I92" s="37">
-        <f>G4-$G$2</f>
+      <c r="I110" s="37">
+        <f t="shared" si="3"/>
         <v>604557.80799999973</v>
       </c>
-      <c r="J92" s="37">
-        <f>H4-$H$2</f>
+      <c r="J110" s="37">
+        <f t="shared" si="4"/>
         <v>616632.69999999972</v>
       </c>
-      <c r="K92" s="47">
-        <f>DATEDIF($A$83,A92,"D")+1</f>
+      <c r="K110" s="47">
+        <f>DATEDIF($A$101,A110,"D")+1</f>
         <v>42740</v>
       </c>
-      <c r="L92" s="5">
-        <f>AVERAGE($F$91:F92)</f>
+      <c r="L110" s="5">
+        <f>AVERAGE($F$109:F110)</f>
         <v>89330821.519999996</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A93" s="36">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="36">
         <v>42740</v>
       </c>
-      <c r="B93" s="37">
-        <f>B5-$B$2</f>
+      <c r="B111" s="37">
+        <f t="shared" si="5"/>
         <v>12044.650000000023</v>
       </c>
-      <c r="C93" s="37">
-        <f>C5-C$2</f>
+      <c r="C111" s="37">
+        <f t="shared" si="6"/>
         <v>6329.1699999999255</v>
       </c>
-      <c r="D93" s="37">
-        <f>D5-D$2</f>
+      <c r="D111" s="37">
+        <f t="shared" si="6"/>
         <v>662682</v>
       </c>
-      <c r="E93" s="37">
+      <c r="E111" s="37">
         <f t="shared" si="2"/>
         <v>656352.83000000007</v>
       </c>
-      <c r="F93" s="44">
+      <c r="F111" s="44">
         <v>82531963.170000002</v>
       </c>
-      <c r="G93" s="46">
-        <f t="shared" ref="G93:G118" si="4">E93/L93</f>
+      <c r="G111" s="46">
+        <f t="shared" ref="G111:G136" si="8">E111/L111</f>
         <v>7.5386933032996024E-3</v>
       </c>
-      <c r="H93" s="46">
+      <c r="H111" s="46">
+        <f t="shared" si="7"/>
+        <v>4.3756855333333339E-3</v>
+      </c>
+      <c r="I111" s="37">
         <f t="shared" si="3"/>
-        <v>4.3756855333333339E-3</v>
-      </c>
-      <c r="I93" s="37">
-        <f>G5-$G$2</f>
         <v>756912.9179999996</v>
       </c>
-      <c r="J93" s="37">
-        <f>H5-$H$2</f>
+      <c r="J111" s="37">
+        <f t="shared" si="4"/>
         <v>784882.08600000013</v>
       </c>
-      <c r="K93" s="47">
-        <f t="shared" ref="K93:K118" si="5">DATEDIF($A$83,A93,"D")+1</f>
+      <c r="K111" s="47">
+        <f t="shared" ref="K111:K136" si="9">DATEDIF($A$101,A111,"D")+1</f>
         <v>42741</v>
       </c>
-      <c r="L93" s="5">
-        <f>AVERAGE($F$91:F93)</f>
+      <c r="L111" s="5">
+        <f>AVERAGE($F$109:F111)</f>
         <v>87064535.403333321</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="36">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="36">
         <v>42741</v>
       </c>
-      <c r="B94" s="37">
-        <f>B6-$B$2</f>
+      <c r="B112" s="37">
+        <f t="shared" si="5"/>
         <v>13386.320000000065</v>
       </c>
-      <c r="C94" s="37">
-        <f>C6-C$2</f>
+      <c r="C112" s="37">
+        <f t="shared" si="6"/>
         <v>6838.9399999999441</v>
       </c>
-      <c r="D94" s="37">
-        <f>D6-D$2</f>
+      <c r="D112" s="37">
+        <f t="shared" si="6"/>
         <v>564873</v>
       </c>
-      <c r="E94" s="37">
+      <c r="E112" s="37">
         <f t="shared" si="2"/>
         <v>558034.06000000006</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F112" s="44">
         <v>83070343.939999998</v>
       </c>
-      <c r="G94" s="46">
+      <c r="G112" s="46">
+        <f t="shared" si="8"/>
+        <v>6.4837931448454922E-3</v>
+      </c>
+      <c r="H112" s="46">
+        <f t="shared" si="7"/>
+        <v>3.720227066666667E-3</v>
+      </c>
+      <c r="I112" s="37">
+        <f t="shared" si="3"/>
+        <v>628815.31599999964</v>
+      </c>
+      <c r="J112" s="37">
         <f t="shared" si="4"/>
-        <v>6.4837931448454922E-3</v>
-      </c>
-      <c r="H94" s="46">
-        <f t="shared" si="3"/>
-        <v>3.720227066666667E-3</v>
-      </c>
-      <c r="I94" s="37">
-        <f>G6-$G$2</f>
-        <v>628815.31599999964</v>
-      </c>
-      <c r="J94" s="37">
-        <f>H6-$H$2</f>
         <v>642812.58799999999</v>
       </c>
-      <c r="K94" s="47">
+      <c r="K112" s="47">
+        <f t="shared" si="9"/>
+        <v>42742</v>
+      </c>
+      <c r="L112" s="5">
+        <f>AVERAGE($F$109:F112)</f>
+        <v>86065987.537499994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="36">
+        <v>42744</v>
+      </c>
+      <c r="B113" s="37">
         <f t="shared" si="5"/>
-        <v>42742</v>
-      </c>
-      <c r="L94" s="5">
-        <f>AVERAGE($F$91:F94)</f>
-        <v>86065987.537499994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="36">
-        <v>42744</v>
-      </c>
-      <c r="B95" s="37">
-        <f>B7-$B$2</f>
         <v>14794.650000000023</v>
       </c>
-      <c r="C95" s="37">
-        <f>C7-C$2</f>
+      <c r="C113" s="37">
+        <f t="shared" si="6"/>
         <v>8076.6300000000047</v>
       </c>
-      <c r="D95" s="37">
-        <f>D7-D$2</f>
+      <c r="D113" s="37">
+        <f t="shared" si="6"/>
         <v>734264</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E113" s="37">
         <f t="shared" si="2"/>
         <v>726187.37</v>
       </c>
-      <c r="F95" s="44">
+      <c r="F113" s="44">
         <v>82613973.519999996</v>
       </c>
-      <c r="G95" s="46">
+      <c r="G113" s="46">
+        <f t="shared" si="8"/>
+        <v>8.5057967364152408E-3</v>
+      </c>
+      <c r="H113" s="46">
+        <f t="shared" si="7"/>
+        <v>4.8412491333333337E-3</v>
+      </c>
+      <c r="I113" s="37">
+        <f t="shared" si="3"/>
+        <v>812124.99600000028</v>
+      </c>
+      <c r="J113" s="37">
         <f t="shared" si="4"/>
-        <v>8.5057967364152408E-3</v>
-      </c>
-      <c r="H95" s="46">
-        <f t="shared" si="3"/>
-        <v>4.8412491333333337E-3</v>
-      </c>
-      <c r="I95" s="37">
-        <f>G7-$G$2</f>
-        <v>812124.99600000028</v>
-      </c>
-      <c r="J95" s="37">
-        <f>H7-$H$2</f>
         <v>839852.81799999997</v>
       </c>
-      <c r="K95" s="47">
+      <c r="K113" s="47">
+        <f t="shared" si="9"/>
+        <v>42745</v>
+      </c>
+      <c r="L113" s="5">
+        <f>AVERAGE($F$109:F113)</f>
+        <v>85375584.733999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="36">
+        <v>42745</v>
+      </c>
+      <c r="B114" s="37">
         <f t="shared" si="5"/>
-        <v>42745</v>
-      </c>
-      <c r="L95" s="5">
-        <f>AVERAGE($F$91:F95)</f>
-        <v>85375584.733999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="36">
-        <v>42745</v>
-      </c>
-      <c r="B96" s="37">
-        <f>B8-$B$2</f>
         <v>15339.239999999991</v>
       </c>
-      <c r="C96" s="37">
-        <f>C8-C$2</f>
+      <c r="C114" s="37">
+        <f t="shared" si="6"/>
         <v>10809.789999999921</v>
       </c>
-      <c r="D96" s="37">
-        <f>D8-D$2</f>
+      <c r="D114" s="37">
+        <f t="shared" si="6"/>
         <v>901031</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E114" s="37">
         <f t="shared" si="2"/>
         <v>890221.21000000008</v>
       </c>
-      <c r="F96" s="44">
+      <c r="F114" s="44">
         <v>82714064.219999999</v>
       </c>
-      <c r="G96" s="46">
+      <c r="G114" s="46">
+        <f t="shared" si="8"/>
+        <v>1.0481576215741001E-2</v>
+      </c>
+      <c r="H114" s="46">
+        <f t="shared" si="7"/>
+        <v>5.9348080666666676E-3</v>
+      </c>
+      <c r="I114" s="37">
+        <f t="shared" si="3"/>
+        <v>1005934.3459999999</v>
+      </c>
+      <c r="J114" s="37">
         <f t="shared" si="4"/>
-        <v>1.0481576215741001E-2</v>
-      </c>
-      <c r="H96" s="46">
-        <f t="shared" si="3"/>
-        <v>5.9348080666666676E-3</v>
-      </c>
-      <c r="I96" s="37">
-        <f>G8-$G$2</f>
-        <v>1005934.3459999999</v>
-      </c>
-      <c r="J96" s="37">
-        <f>H8-$H$2</f>
         <v>1005656.5879999995</v>
       </c>
-      <c r="K96" s="47">
+      <c r="K114" s="47">
+        <f t="shared" si="9"/>
+        <v>42746</v>
+      </c>
+      <c r="L114" s="5">
+        <f>AVERAGE($F$109:F114)</f>
+        <v>84931997.981666669</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="36">
+        <v>42746</v>
+      </c>
+      <c r="B115" s="37">
         <f t="shared" si="5"/>
-        <v>42746</v>
-      </c>
-      <c r="L96" s="5">
-        <f>AVERAGE($F$91:F96)</f>
-        <v>84931997.981666669</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A97" s="36">
-        <v>42746</v>
-      </c>
-      <c r="B97" s="37">
-        <f>B9-$B$2</f>
         <v>16620.900000000023</v>
       </c>
-      <c r="C97" s="37">
-        <f>C9-C$2</f>
+      <c r="C115" s="37">
+        <f t="shared" si="6"/>
         <v>12725.099999999977</v>
       </c>
-      <c r="D97" s="37">
-        <f>D9-D$2</f>
+      <c r="D115" s="37">
+        <f t="shared" si="6"/>
         <v>968991</v>
       </c>
-      <c r="E97" s="37">
+      <c r="E115" s="37">
         <f t="shared" si="2"/>
         <v>956265.9</v>
       </c>
-      <c r="F97" s="44">
+      <c r="F115" s="44">
         <v>81637149.829999998</v>
       </c>
-      <c r="G97" s="46">
+      <c r="G115" s="46">
+        <f t="shared" si="8"/>
+        <v>1.1321940805918371E-2</v>
+      </c>
+      <c r="H115" s="46">
+        <f t="shared" si="7"/>
+        <v>6.3751060000000002E-3</v>
+      </c>
+      <c r="I115" s="37">
+        <f t="shared" si="3"/>
+        <v>931712.16199999955</v>
+      </c>
+      <c r="J115" s="37">
         <f t="shared" si="4"/>
-        <v>1.1321940805918371E-2</v>
-      </c>
-      <c r="H97" s="46">
-        <f t="shared" si="3"/>
-        <v>6.3751060000000002E-3</v>
-      </c>
-      <c r="I97" s="37">
-        <f>G9-$G$2</f>
-        <v>931712.16199999955</v>
-      </c>
-      <c r="J97" s="37">
-        <f>H9-$H$2</f>
         <v>965436.12199999951</v>
       </c>
-      <c r="K97" s="47">
+      <c r="K115" s="47">
+        <f t="shared" si="9"/>
+        <v>42747</v>
+      </c>
+      <c r="L115" s="5">
+        <f>AVERAGE($F$109:F115)</f>
+        <v>84461305.388571426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="36">
+        <v>42747</v>
+      </c>
+      <c r="B116" s="37">
         <f t="shared" si="5"/>
-        <v>42747</v>
-      </c>
-      <c r="L97" s="5">
-        <f>AVERAGE($F$91:F97)</f>
-        <v>84461305.388571426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A98" s="36">
-        <v>42747</v>
-      </c>
-      <c r="B98" s="37">
-        <f>B10-$B$2</f>
         <v>16620.900000000023</v>
       </c>
-      <c r="C98" s="37">
-        <f>C10-C$2</f>
+      <c r="C116" s="37">
+        <f t="shared" si="6"/>
         <v>13195.859999999986</v>
       </c>
-      <c r="D98" s="37">
-        <f>D10-D$2</f>
+      <c r="D116" s="37">
+        <f t="shared" si="6"/>
         <v>978512</v>
       </c>
-      <c r="E98" s="37">
+      <c r="E116" s="37">
         <f t="shared" si="2"/>
         <v>965316.14</v>
       </c>
-      <c r="F98" s="44">
+      <c r="F116" s="44">
         <v>81232594.590000004</v>
       </c>
-      <c r="G98" s="46">
+      <c r="G116" s="46">
+        <f t="shared" si="8"/>
+        <v>1.1483968156034743E-2</v>
+      </c>
+      <c r="H116" s="46">
+        <f t="shared" si="7"/>
+        <v>6.4354409333333331E-3</v>
+      </c>
+      <c r="I116" s="37">
+        <f t="shared" si="3"/>
+        <v>1405160.9399999995</v>
+      </c>
+      <c r="J116" s="37">
         <f t="shared" si="4"/>
-        <v>1.1483968156034743E-2</v>
-      </c>
-      <c r="H98" s="46">
-        <f t="shared" si="3"/>
-        <v>6.4354409333333331E-3</v>
-      </c>
-      <c r="I98" s="37">
-        <f>G10-$G$2</f>
-        <v>1405160.9399999995</v>
-      </c>
-      <c r="J98" s="37">
-        <f>H10-$H$2</f>
         <v>1404142.6399999997</v>
       </c>
-      <c r="K98" s="47">
+      <c r="K116" s="47">
+        <f t="shared" si="9"/>
+        <v>42748</v>
+      </c>
+      <c r="L116" s="5">
+        <f>AVERAGE($F$109:F116)</f>
+        <v>84057716.538750008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="36">
+        <v>42748</v>
+      </c>
+      <c r="B117" s="37">
         <f t="shared" si="5"/>
-        <v>42748</v>
-      </c>
-      <c r="L98" s="5">
-        <f>AVERAGE($F$91:F98)</f>
-        <v>84057716.538750008</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A99" s="36">
-        <v>42748</v>
-      </c>
-      <c r="B99" s="37">
-        <f>B11-$B$2</f>
         <v>19282.580000000075</v>
       </c>
-      <c r="C99" s="37">
-        <f>C11-C$2</f>
+      <c r="C117" s="37">
+        <f t="shared" si="6"/>
         <v>15243.04999999993</v>
       </c>
-      <c r="D99" s="37">
-        <f>D11-D$2</f>
+      <c r="D117" s="37">
+        <f t="shared" si="6"/>
         <v>1046581</v>
       </c>
-      <c r="E99" s="37">
+      <c r="E117" s="37">
         <f t="shared" si="2"/>
         <v>1031337.9500000001</v>
       </c>
-      <c r="F99" s="44">
+      <c r="F117" s="44">
         <v>82157397.789999992</v>
       </c>
-      <c r="G99" s="46">
-        <f>E99/L99</f>
+      <c r="G117" s="46">
+        <f>E117/L117</f>
         <v>1.2300299819817674E-2</v>
       </c>
-      <c r="H99" s="46">
+      <c r="H117" s="46">
+        <f t="shared" si="7"/>
+        <v>6.8755863333333335E-3</v>
+      </c>
+      <c r="I117" s="37">
         <f t="shared" si="3"/>
-        <v>6.8755863333333335E-3</v>
-      </c>
-      <c r="I99" s="37">
-        <f>G11-$G$2</f>
         <v>1329860.6559999995</v>
       </c>
-      <c r="J99" s="37">
-        <f>H11-$H$2</f>
+      <c r="J117" s="37">
+        <f t="shared" si="4"/>
         <v>1306328.7400000002</v>
       </c>
-      <c r="K99" s="47">
+      <c r="K117" s="47">
+        <f t="shared" si="9"/>
+        <v>42749</v>
+      </c>
+      <c r="L117" s="5">
+        <f>AVERAGE($F$109:F117)</f>
+        <v>83846570.01111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="36">
+        <v>42751</v>
+      </c>
+      <c r="B118" s="37">
         <f t="shared" si="5"/>
-        <v>42749</v>
-      </c>
-      <c r="L99" s="5">
-        <f>AVERAGE($F$91:F99)</f>
-        <v>83846570.01111111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A100" s="36">
-        <v>42751</v>
-      </c>
-      <c r="B100" s="37">
-        <f>B12-$B$2</f>
         <v>21370.090000000084</v>
       </c>
-      <c r="C100" s="37">
-        <f>C12-C$2</f>
+      <c r="C118" s="37">
+        <f t="shared" si="6"/>
         <v>24578.589999999967</v>
       </c>
-      <c r="D100" s="37">
-        <f>D12-D$2</f>
+      <c r="D118" s="37">
+        <f t="shared" si="6"/>
         <v>1655124</v>
       </c>
-      <c r="E100" s="37">
+      <c r="E118" s="37">
         <f t="shared" si="2"/>
         <v>1630545.4100000001</v>
       </c>
-      <c r="F100" s="44">
+      <c r="F118" s="44">
         <v>79987319.460000008</v>
       </c>
-      <c r="G100" s="46">
+      <c r="G118" s="46">
+        <f t="shared" si="8"/>
+        <v>1.9536697935411532E-2</v>
+      </c>
+      <c r="H118" s="46">
+        <f t="shared" si="7"/>
+        <v>1.0870302733333335E-2</v>
+      </c>
+      <c r="I118" s="37">
+        <f t="shared" si="3"/>
+        <v>1747714.3099999996</v>
+      </c>
+      <c r="J118" s="37">
         <f t="shared" si="4"/>
-        <v>1.9536697935411532E-2</v>
-      </c>
-      <c r="H100" s="46">
-        <f t="shared" si="3"/>
-        <v>1.0870302733333335E-2</v>
-      </c>
-      <c r="I100" s="37">
-        <f>G12-$G$2</f>
-        <v>1747714.3099999996</v>
-      </c>
-      <c r="J100" s="37">
-        <f>H12-$H$2</f>
         <v>1781287.6959999995</v>
       </c>
-      <c r="K100" s="47">
+      <c r="K118" s="47">
+        <f t="shared" si="9"/>
+        <v>42752</v>
+      </c>
+      <c r="L118" s="5">
+        <f>AVERAGE($F$109:F118)</f>
+        <v>83460644.956</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="36">
+        <v>42752</v>
+      </c>
+      <c r="B119" s="37">
         <f t="shared" si="5"/>
-        <v>42752</v>
-      </c>
-      <c r="L100" s="5">
-        <f>AVERAGE($F$91:F100)</f>
-        <v>83460644.956</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" s="36">
-        <v>42752</v>
-      </c>
-      <c r="B101" s="37">
-        <f>B13-$B$2</f>
         <v>23535.090000000084</v>
       </c>
-      <c r="C101" s="37">
-        <f>C13-C$2</f>
+      <c r="C119" s="37">
+        <f t="shared" si="6"/>
         <v>28248.929999999935</v>
       </c>
-      <c r="D101" s="37">
-        <f>D13-D$2</f>
+      <c r="D119" s="37">
+        <f t="shared" si="6"/>
         <v>1442651</v>
       </c>
-      <c r="E101" s="37">
+      <c r="E119" s="37">
         <f t="shared" si="2"/>
         <v>1414402.07</v>
       </c>
-      <c r="F101" s="44">
+      <c r="F119" s="44">
         <v>74228087.329999998</v>
       </c>
-      <c r="G101" s="46">
+      <c r="G119" s="46">
+        <f t="shared" si="8"/>
+        <v>1.7119092792446441E-2</v>
+      </c>
+      <c r="H119" s="46">
+        <f t="shared" si="7"/>
+        <v>9.4293471333333333E-3</v>
+      </c>
+      <c r="I119" s="37">
+        <f t="shared" si="3"/>
+        <v>1537927.1519999998</v>
+      </c>
+      <c r="J119" s="37">
         <f t="shared" si="4"/>
-        <v>1.7119092792446441E-2</v>
-      </c>
-      <c r="H101" s="46">
-        <f t="shared" si="3"/>
-        <v>9.4293471333333333E-3</v>
-      </c>
-      <c r="I101" s="37">
-        <f>G13-$G$2</f>
-        <v>1537927.1519999998</v>
-      </c>
-      <c r="J101" s="37">
-        <f>H13-$H$2</f>
         <v>1515386.5439999998</v>
       </c>
-      <c r="K101" s="47">
+      <c r="K119" s="47">
+        <f t="shared" si="9"/>
+        <v>42753</v>
+      </c>
+      <c r="L119" s="5">
+        <f>AVERAGE($F$109:F119)</f>
+        <v>82621321.535454556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="36">
+        <v>42753</v>
+      </c>
+      <c r="B120" s="37">
         <f t="shared" si="5"/>
-        <v>42753</v>
-      </c>
-      <c r="L101" s="5">
-        <f>AVERAGE($F$91:F101)</f>
-        <v>82621321.535454556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A102" s="36">
-        <v>42753</v>
-      </c>
-      <c r="B102" s="37">
-        <f>B14-$B$2</f>
         <v>30972.170000000042</v>
       </c>
-      <c r="C102" s="37">
-        <f>C14-C$2</f>
+      <c r="C120" s="37">
+        <f t="shared" si="6"/>
         <v>37068.75</v>
       </c>
-      <c r="D102" s="37">
-        <f>D14-D$2</f>
+      <c r="D120" s="37">
+        <f t="shared" si="6"/>
         <v>1718940</v>
       </c>
-      <c r="E102" s="37">
+      <c r="E120" s="37">
         <f t="shared" si="2"/>
         <v>1681871.25</v>
       </c>
-      <c r="F102" s="44">
+      <c r="F120" s="44">
         <v>63852035.030000001</v>
       </c>
-      <c r="G102" s="46">
+      <c r="G120" s="46">
+        <f t="shared" si="8"/>
+        <v>2.0749186410748494E-2</v>
+      </c>
+      <c r="H120" s="46">
+        <f t="shared" si="7"/>
+        <v>1.1212475E-2</v>
+      </c>
+      <c r="I120" s="37">
+        <f t="shared" si="3"/>
+        <v>1616127.273</v>
+      </c>
+      <c r="J120" s="37">
         <f t="shared" si="4"/>
-        <v>2.0749186410748494E-2</v>
-      </c>
-      <c r="H102" s="46">
-        <f t="shared" si="3"/>
-        <v>1.1212475E-2</v>
-      </c>
-      <c r="I102" s="37">
-        <f>G14-$G$2</f>
-        <v>1616127.273</v>
-      </c>
-      <c r="J102" s="37">
-        <f>H14-$H$2</f>
         <v>1626009.1749999998</v>
       </c>
-      <c r="K102" s="47">
+      <c r="K120" s="47">
+        <f t="shared" si="9"/>
+        <v>42754</v>
+      </c>
+      <c r="L120" s="5">
+        <f>AVERAGE($F$109:F120)</f>
+        <v>81057214.326666668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="36">
+        <v>42754</v>
+      </c>
+      <c r="B121" s="37">
         <f t="shared" si="5"/>
-        <v>42754</v>
-      </c>
-      <c r="L102" s="5">
-        <f>AVERAGE($F$91:F102)</f>
-        <v>81057214.326666668</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A103" s="36">
-        <v>42754</v>
-      </c>
-      <c r="B103" s="37">
-        <f>B15-$B$2</f>
         <v>47477.170000000042</v>
       </c>
-      <c r="C103" s="37">
-        <f>C15-C$2</f>
+      <c r="C121" s="37">
+        <f t="shared" si="6"/>
         <v>43177.739999999991</v>
       </c>
-      <c r="D103" s="37">
-        <f>D15-D$2</f>
+      <c r="D121" s="37">
+        <f t="shared" si="6"/>
         <v>1758778</v>
       </c>
-      <c r="E103" s="37">
+      <c r="E121" s="37">
         <f t="shared" si="2"/>
         <v>1715600.26</v>
       </c>
-      <c r="F103" s="44">
+      <c r="F121" s="44">
         <v>61914321.259999998</v>
       </c>
-      <c r="G103" s="46">
+      <c r="G121" s="46">
+        <f t="shared" si="8"/>
+        <v>2.1556914871249541E-2</v>
+      </c>
+      <c r="H121" s="46">
+        <f t="shared" si="7"/>
+        <v>1.1437335066666667E-2</v>
+      </c>
+      <c r="I121" s="37">
+        <f t="shared" si="3"/>
+        <v>1694327.3939999994</v>
+      </c>
+      <c r="J121" s="37">
         <f t="shared" si="4"/>
-        <v>2.1556914871249541E-2</v>
-      </c>
-      <c r="H103" s="46">
-        <f t="shared" si="3"/>
-        <v>1.1437335066666667E-2</v>
-      </c>
-      <c r="I103" s="37">
-        <f>G15-$G$2</f>
-        <v>1694327.3939999994</v>
-      </c>
-      <c r="J103" s="37">
-        <f>H15-$H$2</f>
         <v>1736631.8059999999</v>
       </c>
-      <c r="K103" s="47">
+      <c r="K121" s="47">
+        <f t="shared" si="9"/>
+        <v>42755</v>
+      </c>
+      <c r="L121" s="5">
+        <f>AVERAGE($F$109:F121)</f>
+        <v>79584684.090769231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="36">
+        <v>42755</v>
+      </c>
+      <c r="B122" s="37">
         <f t="shared" si="5"/>
-        <v>42755</v>
-      </c>
-      <c r="L103" s="5">
-        <f>AVERAGE($F$91:F103)</f>
-        <v>79584684.090769231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A104" s="36">
-        <v>42755</v>
-      </c>
-      <c r="B104" s="37">
-        <f>B16-$B$2</f>
         <v>54710.080000000075</v>
       </c>
-      <c r="C104" s="37">
-        <f>C16-C$2</f>
+      <c r="C122" s="37">
+        <f t="shared" si="6"/>
         <v>51310.349999999977</v>
       </c>
-      <c r="D104" s="37">
-        <f>D16-D$2</f>
+      <c r="D122" s="37">
+        <f t="shared" si="6"/>
         <v>2078152</v>
       </c>
-      <c r="E104" s="37">
+      <c r="E122" s="37">
         <f t="shared" si="2"/>
         <v>2026841.65</v>
       </c>
-      <c r="F104" s="44">
+      <c r="F122" s="44">
         <v>70555965.219999999</v>
       </c>
-      <c r="G104" s="46">
+      <c r="G122" s="46">
+        <f t="shared" si="8"/>
+        <v>2.5675796955267755E-2</v>
+      </c>
+      <c r="H122" s="46">
+        <f t="shared" si="7"/>
+        <v>1.3512277666666666E-2</v>
+      </c>
+      <c r="I122" s="37">
+        <f t="shared" si="3"/>
+        <v>2157870.0499999998</v>
+      </c>
+      <c r="J122" s="37">
         <f t="shared" si="4"/>
-        <v>2.5675796955267755E-2</v>
-      </c>
-      <c r="H104" s="46">
-        <f t="shared" si="3"/>
-        <v>1.3512277666666666E-2</v>
-      </c>
-      <c r="I104" s="37">
-        <f>G16-$G$2</f>
-        <v>2157870.0499999998</v>
-      </c>
-      <c r="J104" s="37">
-        <f>H16-$H$2</f>
         <v>2174319.426</v>
       </c>
-      <c r="K104" s="47">
+      <c r="K122" s="47">
+        <f t="shared" si="9"/>
+        <v>42756</v>
+      </c>
+      <c r="L122" s="5">
+        <f>AVERAGE($F$109:F122)</f>
+        <v>78939775.600000009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="36">
+        <v>42758</v>
+      </c>
+      <c r="B123" s="37">
         <f t="shared" si="5"/>
-        <v>42756</v>
-      </c>
-      <c r="L104" s="5">
-        <f>AVERAGE($F$91:F104)</f>
-        <v>78939775.600000009</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A105" s="36">
-        <v>42758</v>
-      </c>
-      <c r="B105" s="37">
-        <f>B17-$B$2</f>
         <v>56168.820000000065</v>
       </c>
-      <c r="C105" s="37">
-        <f>C17-C$2</f>
+      <c r="C123" s="37">
+        <f t="shared" si="6"/>
         <v>55296.130000000005</v>
       </c>
-      <c r="D105" s="37">
-        <f>D17-D$2</f>
+      <c r="D123" s="37">
+        <f t="shared" si="6"/>
         <v>1797431</v>
       </c>
-      <c r="E105" s="37">
+      <c r="E123" s="37">
         <f t="shared" si="2"/>
         <v>1742134.87</v>
       </c>
-      <c r="F105" s="44">
+      <c r="F123" s="44">
         <v>78102138.390000001</v>
       </c>
-      <c r="G105" s="46">
+      <c r="G123" s="46">
+        <f t="shared" si="8"/>
+        <v>2.2084787118367293E-2</v>
+      </c>
+      <c r="H123" s="46">
+        <f t="shared" si="7"/>
+        <v>1.1614232466666667E-2</v>
+      </c>
+      <c r="I123" s="37">
+        <f t="shared" si="3"/>
+        <v>1649063.25</v>
+      </c>
+      <c r="J123" s="37">
         <f t="shared" si="4"/>
-        <v>2.2084787118367293E-2</v>
-      </c>
-      <c r="H105" s="46">
-        <f t="shared" si="3"/>
-        <v>1.1614232466666667E-2</v>
-      </c>
-      <c r="I105" s="37">
-        <f>G17-$G$2</f>
-        <v>1649063.25</v>
-      </c>
-      <c r="J105" s="37">
-        <f>H17-$H$2</f>
         <v>1684232.5860000001</v>
       </c>
-      <c r="K105" s="47">
+      <c r="K123" s="47">
+        <f t="shared" si="9"/>
+        <v>42759</v>
+      </c>
+      <c r="L123" s="5">
+        <f>AVERAGE($F$109:F123)</f>
+        <v>78883933.119333342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="36">
+        <v>42759</v>
+      </c>
+      <c r="B124" s="37">
         <f t="shared" si="5"/>
-        <v>42759</v>
-      </c>
-      <c r="L105" s="5">
-        <f>AVERAGE($F$91:F105)</f>
-        <v>78883933.119333342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A106" s="36">
-        <v>42759</v>
-      </c>
-      <c r="B106" s="37">
-        <f>B18-$B$2</f>
         <v>62165.220000000088</v>
       </c>
-      <c r="C106" s="37">
-        <f>C18-C$2</f>
+      <c r="C124" s="37">
+        <f t="shared" si="6"/>
         <v>58276.640000000014</v>
       </c>
-      <c r="D106" s="37">
-        <f>D18-D$2</f>
+      <c r="D124" s="37">
+        <f t="shared" si="6"/>
         <v>1901637</v>
       </c>
-      <c r="E106" s="37">
+      <c r="E124" s="37">
         <f t="shared" si="2"/>
         <v>1843360.3599999999</v>
       </c>
-      <c r="F106" s="44">
+      <c r="F124" s="44">
         <v>111695207.61</v>
       </c>
-      <c r="G106" s="46">
+      <c r="G124" s="46">
+        <f t="shared" si="8"/>
+        <v>2.2775914128689626E-2</v>
+      </c>
+      <c r="H124" s="46">
+        <f t="shared" si="7"/>
+        <v>1.2289069066666665E-2</v>
+      </c>
+      <c r="I124" s="37">
+        <f t="shared" si="3"/>
+        <v>2056322.6239999998</v>
+      </c>
+      <c r="J124" s="37">
         <f t="shared" si="4"/>
-        <v>2.2775914128689626E-2</v>
-      </c>
-      <c r="H106" s="46">
-        <f t="shared" si="3"/>
-        <v>1.2289069066666665E-2</v>
-      </c>
-      <c r="I106" s="37">
-        <f>G18-$G$2</f>
-        <v>2056322.6239999998</v>
-      </c>
-      <c r="J106" s="37">
-        <f>H18-$H$2</f>
         <v>2078443.8339999998</v>
       </c>
-      <c r="K106" s="47">
+      <c r="K124" s="47">
+        <f t="shared" si="9"/>
+        <v>42760</v>
+      </c>
+      <c r="L124" s="5">
+        <f>AVERAGE($F$109:F124)</f>
+        <v>80934637.775000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="36">
+        <v>42760</v>
+      </c>
+      <c r="B125" s="37">
         <f t="shared" si="5"/>
-        <v>42760</v>
-      </c>
-      <c r="L106" s="5">
-        <f>AVERAGE($F$91:F106)</f>
-        <v>80934637.775000006</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A107" s="36">
-        <v>42760</v>
-      </c>
-      <c r="B107" s="37">
-        <f>B19-$B$2</f>
         <v>88979.489999999991</v>
       </c>
-      <c r="C107" s="37">
-        <f>C19-C$2</f>
+      <c r="C125" s="37">
+        <f t="shared" si="6"/>
         <v>62789.569999999949</v>
       </c>
-      <c r="D107" s="37">
-        <f>D19-D$2</f>
+      <c r="D125" s="37">
+        <f t="shared" si="6"/>
         <v>2083077</v>
       </c>
-      <c r="E107" s="37">
+      <c r="E125" s="37">
         <f t="shared" si="2"/>
         <v>2020287.4300000002</v>
       </c>
-      <c r="F107" s="44">
+      <c r="F125" s="44">
         <v>54280272.939999998</v>
       </c>
-      <c r="G107" s="46">
+      <c r="G125" s="46">
+        <f t="shared" si="8"/>
+        <v>2.545509093253423E-2</v>
+      </c>
+      <c r="H125" s="46">
+        <f t="shared" si="7"/>
+        <v>1.3468582866666667E-2</v>
+      </c>
+      <c r="I125" s="37">
+        <f t="shared" si="3"/>
+        <v>2004154.7053333335</v>
+      </c>
+      <c r="J125" s="37">
         <f t="shared" si="4"/>
-        <v>2.545509093253423E-2</v>
-      </c>
-      <c r="H107" s="46">
-        <f t="shared" si="3"/>
-        <v>1.3468582866666667E-2</v>
-      </c>
-      <c r="I107" s="37">
-        <f>G19-$G$2</f>
-        <v>2004154.7053333335</v>
-      </c>
-      <c r="J107" s="37">
-        <f>H19-$H$2</f>
         <v>2020689.5573333334</v>
       </c>
-      <c r="K107" s="47">
+      <c r="K125" s="47">
+        <f t="shared" si="9"/>
+        <v>42761</v>
+      </c>
+      <c r="L125" s="5">
+        <f>AVERAGE($F$109:F125)</f>
+        <v>79366733.961176485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="36">
+        <v>42761</v>
+      </c>
+      <c r="B126" s="37">
         <f t="shared" si="5"/>
-        <v>42761</v>
-      </c>
-      <c r="L107" s="5">
-        <f>AVERAGE($F$91:F107)</f>
-        <v>79366733.961176485</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A108" s="36">
-        <v>42761</v>
-      </c>
-      <c r="B108" s="37">
-        <f>B20-$B$2</f>
         <v>100526.99000000022</v>
       </c>
-      <c r="C108" s="37">
-        <f>C20-C$2</f>
+      <c r="C126" s="37">
+        <f t="shared" si="6"/>
         <v>65995.709999999963</v>
       </c>
-      <c r="D108" s="37">
-        <f>D20-D$2</f>
+      <c r="D126" s="37">
+        <f t="shared" si="6"/>
         <v>2010326.333333333</v>
       </c>
-      <c r="E108" s="37">
+      <c r="E126" s="37">
         <f t="shared" si="2"/>
         <v>1944330.6233333331</v>
       </c>
-      <c r="F108" s="40">
+      <c r="F126" s="40">
         <v>64476667.359999999</v>
       </c>
-      <c r="G108" s="46">
+      <c r="G126" s="46">
+        <f t="shared" si="8"/>
+        <v>2.4756083554414377E-2</v>
+      </c>
+      <c r="H126" s="46">
+        <f t="shared" si="7"/>
+        <v>1.2962204155555554E-2</v>
+      </c>
+      <c r="I126" s="37">
+        <f t="shared" si="3"/>
+        <v>1951986.7866666671</v>
+      </c>
+      <c r="J126" s="37">
         <f t="shared" si="4"/>
-        <v>2.4756083554414377E-2</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="3"/>
-        <v>1.2962204155555554E-2</v>
-      </c>
-      <c r="I108" s="37">
-        <f>G20-$G$2</f>
-        <v>1951986.7866666671</v>
-      </c>
-      <c r="J108" s="37">
-        <f>H20-$H$2</f>
         <v>1962935.280666667</v>
       </c>
-      <c r="K108" s="47">
+      <c r="K126" s="47">
+        <f t="shared" si="9"/>
+        <v>42762</v>
+      </c>
+      <c r="L126" s="5">
+        <f>AVERAGE($F$109:F126)</f>
+        <v>78539508.038888887</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="36">
+        <v>42769</v>
+      </c>
+      <c r="B127" s="37">
         <f t="shared" si="5"/>
-        <v>42762</v>
-      </c>
-      <c r="L108" s="5">
-        <f>AVERAGE($F$91:F108)</f>
-        <v>78539508.038888887</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A109" s="36">
-        <v>42769</v>
-      </c>
-      <c r="B109" s="37">
-        <f>B21-$B$2</f>
         <v>109610.87</v>
       </c>
-      <c r="C109" s="37">
-        <f>C21-C$2</f>
+      <c r="C127" s="37">
+        <f t="shared" si="6"/>
         <v>69201.849999999977</v>
       </c>
-      <c r="D109" s="37">
-        <f>D21-D$2</f>
+      <c r="D127" s="37">
+        <f t="shared" si="6"/>
         <v>1937575.666666666</v>
       </c>
-      <c r="E109" s="37">
+      <c r="E127" s="37">
         <f t="shared" si="2"/>
         <v>1868373.816666666</v>
       </c>
-      <c r="F109" s="44">
+      <c r="F127" s="44">
         <v>74673061.780000001</v>
       </c>
-      <c r="G109" s="46">
+      <c r="G127" s="46">
+        <f t="shared" si="8"/>
+        <v>2.3850765388475432E-2</v>
+      </c>
+      <c r="H127" s="46">
+        <f t="shared" si="7"/>
+        <v>1.245582544444444E-2</v>
+      </c>
+      <c r="I127" s="37">
+        <f t="shared" si="3"/>
+        <v>1899818.8679999998</v>
+      </c>
+      <c r="J127" s="37">
         <f t="shared" si="4"/>
-        <v>2.3850765388475432E-2</v>
-      </c>
-      <c r="H109" s="46">
-        <f t="shared" si="3"/>
-        <v>1.245582544444444E-2</v>
-      </c>
-      <c r="I109" s="37">
-        <f>G21-$G$2</f>
-        <v>1899818.8679999998</v>
-      </c>
-      <c r="J109" s="37">
-        <f>H21-$H$2</f>
         <v>1905181.0039999997</v>
       </c>
-      <c r="K109" s="47">
-        <f t="shared" si="5"/>
+      <c r="K127" s="47">
+        <f t="shared" si="9"/>
         <v>42770</v>
       </c>
-      <c r="L109" s="5">
-        <f>AVERAGE($F$91:F109)</f>
+      <c r="L127" s="5">
+        <f>AVERAGE($F$109:F127)</f>
         <v>78336010.867368415</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A110" s="36">
-        <v>42772</v>
-      </c>
-      <c r="B110" s="37">
-        <f>B22-$B$2</f>
-        <v>112616.28000000003</v>
-      </c>
-      <c r="C110" s="37">
-        <f>C22-C$2</f>
-        <v>72329.939999999944</v>
-      </c>
-      <c r="D110" s="37">
-        <f>D22-D$2</f>
-        <v>1864825</v>
-      </c>
-      <c r="E110" s="37">
-        <f>D110-C110</f>
-        <v>1792495.06</v>
-      </c>
-      <c r="F110" s="44">
-        <v>84047352.700000003</v>
-      </c>
-      <c r="G110" s="46">
-        <f t="shared" si="4"/>
-        <v>2.2799021674873528E-2</v>
-      </c>
-      <c r="H110" s="46">
-        <f t="shared" si="3"/>
-        <v>1.1949967066666668E-2</v>
-      </c>
-      <c r="I110" s="37">
-        <f>G22-$G$2</f>
-        <v>1728511.3859999999</v>
-      </c>
-      <c r="J110" s="37">
-        <f>H22-$H$2</f>
-        <v>1733507.7359999996</v>
-      </c>
-      <c r="K110" s="47">
-        <f t="shared" si="5"/>
-        <v>42773</v>
-      </c>
-      <c r="L110" s="5">
-        <f>AVERAGE($F$91:F110)</f>
-        <v>78621577.959000006</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A111" s="36">
-        <v>42773</v>
-      </c>
-      <c r="B111" s="37">
-        <f>B23-$B$2</f>
-        <v>113192.12</v>
-      </c>
-      <c r="C111" s="37">
-        <f>C23-C$2</f>
-        <v>76236.559999999939</v>
-      </c>
-      <c r="D111" s="37">
-        <f>D23-D$2</f>
-        <v>1952191</v>
-      </c>
-      <c r="E111" s="37">
-        <f>D111-C111</f>
-        <v>1875954.44</v>
-      </c>
-      <c r="F111" s="44">
-        <v>86107177.359999999</v>
-      </c>
-      <c r="G111" s="46">
-        <f t="shared" si="4"/>
-        <v>2.375286291002458E-2</v>
-      </c>
-      <c r="H111" s="46">
-        <f t="shared" si="3"/>
-        <v>1.2506362933333333E-2</v>
-      </c>
-      <c r="I111" s="37">
-        <f>G23-$G$2</f>
-        <v>1747183.4979999997</v>
-      </c>
-      <c r="J111" s="37">
-        <f>H23-$H$2</f>
-        <v>1774733.46</v>
-      </c>
-      <c r="K111" s="47">
-        <f t="shared" si="5"/>
-        <v>42774</v>
-      </c>
-      <c r="L111" s="5">
-        <f>AVERAGE($F$91:F111)</f>
-        <v>78978035.073333338</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A112" s="36">
-        <v>42774</v>
-      </c>
-      <c r="B112" s="37">
-        <f>B24-$B$2</f>
-        <v>113958.07000000007</v>
-      </c>
-      <c r="C112" s="37">
-        <f>C24-C$2</f>
-        <v>78555.489999999991</v>
-      </c>
-      <c r="D112" s="37">
-        <f>D24-D$2</f>
-        <v>1839946</v>
-      </c>
-      <c r="E112" s="37">
-        <f>D112-C112</f>
-        <v>1761390.51</v>
-      </c>
-      <c r="F112" s="44">
-        <v>87528704.370000005</v>
-      </c>
-      <c r="G112" s="46">
-        <f t="shared" si="4"/>
-        <v>2.2193066723587899E-2</v>
-      </c>
-      <c r="H112" s="46">
-        <f t="shared" si="3"/>
-        <v>1.1742603400000001E-2</v>
-      </c>
-      <c r="I112" s="37">
-        <f>G24-$G$2</f>
-        <v>1598053.8099999996</v>
-      </c>
-      <c r="J112" s="37">
-        <f>H24-$H$2</f>
-        <v>1624922.0299999993</v>
-      </c>
-      <c r="K112" s="47">
-        <f t="shared" si="5"/>
-        <v>42775</v>
-      </c>
-      <c r="L112" s="5">
-        <f>AVERAGE($F$91:F112)</f>
-        <v>79366701.859545454</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A113" s="36">
-        <v>42775</v>
-      </c>
-      <c r="B113" s="37">
-        <f>B25-$B$2</f>
-        <v>115030.98999999999</v>
-      </c>
-      <c r="C113" s="37">
-        <f>C25-C$2</f>
-        <v>84506.669999999925</v>
-      </c>
-      <c r="D113" s="37">
-        <f>D25-D$2</f>
-        <v>1935585</v>
-      </c>
-      <c r="E113" s="37">
-        <f>D113-C113</f>
-        <v>1851078.33</v>
-      </c>
-      <c r="F113" s="44">
-        <v>88419131.659999996</v>
-      </c>
-      <c r="G113" s="46">
-        <f t="shared" si="4"/>
-        <v>2.3208020285673387E-2</v>
-      </c>
-      <c r="H113" s="46">
-        <f t="shared" si="3"/>
-        <v>1.2340522200000001E-2</v>
-      </c>
-      <c r="I113" s="37">
-        <f>G25-$G$2</f>
-        <v>1830699.0199999996</v>
-      </c>
-      <c r="J113" s="37">
-        <f>H25-$H$2</f>
-        <v>1841718.6459999997</v>
-      </c>
-      <c r="K113" s="47">
-        <f t="shared" si="5"/>
-        <v>42776</v>
-      </c>
-      <c r="L113" s="5">
-        <f>AVERAGE($F$91:F113)</f>
-        <v>79760285.763913035</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A114" s="36">
-        <v>42776</v>
-      </c>
-      <c r="B114" s="37">
-        <f>B26-$B$2</f>
-        <v>115897.94000000018</v>
-      </c>
-      <c r="C114" s="37">
-        <f>C26-C$2</f>
-        <v>85133.950000000186</v>
-      </c>
-      <c r="D114" s="37">
-        <f>D26-D$2</f>
-        <v>1987542</v>
-      </c>
-      <c r="E114" s="37">
-        <f t="shared" ref="E114:E118" si="6">D114-C114</f>
-        <v>1902408.0499999998</v>
-      </c>
-      <c r="F114" s="37">
-        <v>90094870.409999996</v>
-      </c>
-      <c r="G114" s="46">
-        <f t="shared" si="4"/>
-        <v>2.3723492381441644E-2</v>
-      </c>
-      <c r="H114" s="46">
-        <f t="shared" si="3"/>
-        <v>1.2682720333333333E-2</v>
-      </c>
-      <c r="I114" s="37">
-        <f>G26-$G$2</f>
-        <v>1993829.852</v>
-      </c>
-      <c r="J114" s="37">
-        <f>H26-$H$2</f>
-        <v>2030190.608</v>
-      </c>
-      <c r="K114" s="47">
-        <f t="shared" si="5"/>
-        <v>42777</v>
-      </c>
-      <c r="L114" s="5">
-        <f>AVERAGE($F$91:F114)</f>
-        <v>80190893.457499996</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A115" s="36">
-        <v>42779</v>
-      </c>
-      <c r="B115" s="37">
-        <f>B27-$B$2</f>
-        <v>117554.4600000002</v>
-      </c>
-      <c r="C115" s="37">
-        <f>C27-C$2</f>
-        <v>89579.180000000168</v>
-      </c>
-      <c r="D115" s="37">
-        <f>D27-D$2</f>
-        <v>2155116</v>
-      </c>
-      <c r="E115" s="37">
-        <f t="shared" si="6"/>
-        <v>2065536.8199999998</v>
-      </c>
-      <c r="F115" s="37">
-        <v>83627905.520000011</v>
-      </c>
-      <c r="G115" s="46">
-        <f t="shared" si="4"/>
-        <v>2.5713664035360902E-2</v>
-      </c>
-      <c r="H115" s="46">
-        <f t="shared" si="3"/>
-        <v>1.3770245466666666E-2</v>
-      </c>
-      <c r="I115" s="37">
-        <f>G27-$G$2</f>
-        <v>1862033.6940000001</v>
-      </c>
-      <c r="J115" s="37">
-        <f>H27-$H$2</f>
-        <v>1917561.0319999997</v>
-      </c>
-      <c r="K115" s="47">
-        <f t="shared" si="5"/>
-        <v>42780</v>
-      </c>
-      <c r="L115" s="5">
-        <f>AVERAGE($F$91:F115)</f>
-        <v>80328373.939999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A116" s="36">
-        <v>42780</v>
-      </c>
-      <c r="B116" s="37">
-        <f>B28-$B$2</f>
-        <v>119016.54000000015</v>
-      </c>
-      <c r="C116" s="37">
-        <f>C28-C$2</f>
-        <v>94752.200000000186</v>
-      </c>
-      <c r="D116" s="37">
-        <f>D28-D$2</f>
-        <v>2176557</v>
-      </c>
-      <c r="E116" s="37">
-        <f t="shared" si="6"/>
-        <v>2081804.7999999998</v>
-      </c>
-      <c r="F116" s="37">
-        <v>88899078.060000002</v>
-      </c>
-      <c r="G116" s="46">
-        <f t="shared" si="4"/>
-        <v>2.5810265275023146E-2</v>
-      </c>
-      <c r="H116" s="46">
-        <f t="shared" si="3"/>
-        <v>1.3878698666666665E-2</v>
-      </c>
-      <c r="I116" s="37">
-        <f>G28-$G$2</f>
-        <v>2113953.9859999996</v>
-      </c>
-      <c r="J116" s="37">
-        <f>H28-$H$2</f>
-        <v>2118657.1880000001</v>
-      </c>
-      <c r="K116" s="47">
-        <f t="shared" si="5"/>
-        <v>42781</v>
-      </c>
-      <c r="L116" s="5">
-        <f>AVERAGE($F$91:F116)</f>
-        <v>80658016.406153843</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117" s="36">
-        <v>42781</v>
-      </c>
-      <c r="B117" s="37">
-        <f>B29-$B$2</f>
-        <v>120363.63000000012</v>
-      </c>
-      <c r="C117" s="37">
-        <f>C29-C$2</f>
-        <v>101183.39000000013</v>
-      </c>
-      <c r="D117" s="37">
-        <f>D29-D$2</f>
-        <v>2281457</v>
-      </c>
-      <c r="E117" s="37">
-        <f t="shared" si="6"/>
-        <v>2180273.61</v>
-      </c>
-      <c r="F117" s="37">
-        <v>89039676.24000001</v>
-      </c>
-      <c r="G117" s="46">
-        <f t="shared" si="4"/>
-        <v>2.6927447136176702E-2</v>
-      </c>
-      <c r="H117" s="46">
-        <f t="shared" si="3"/>
-        <v>1.4535157399999998E-2</v>
-      </c>
-      <c r="I117" s="37">
-        <f>G29-$G$2</f>
-        <v>2461935.068</v>
-      </c>
-      <c r="J117" s="37">
-        <f>H29-$H$2</f>
-        <v>2487413.1959999995</v>
-      </c>
-      <c r="K117" s="47">
-        <f t="shared" si="5"/>
-        <v>42782</v>
-      </c>
-      <c r="L117" s="5">
-        <f>AVERAGE($F$91:F117)</f>
-        <v>80968448.251851857</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A118" s="36">
-        <v>42782</v>
-      </c>
-      <c r="B118" s="37">
-        <f>B30-$B$2</f>
-        <v>123596.34000000008</v>
-      </c>
-      <c r="C118" s="37">
-        <f>C30-C$2</f>
-        <v>105719.02000000014</v>
-      </c>
-      <c r="D118" s="37">
-        <f>D30-D$2</f>
-        <v>2408823</v>
-      </c>
-      <c r="E118" s="37">
-        <f t="shared" si="6"/>
-        <v>2303103.98</v>
-      </c>
-      <c r="F118" s="37">
-        <v>97817898.450000003</v>
-      </c>
-      <c r="G118" s="46">
-        <f t="shared" si="4"/>
-        <v>2.8234619694297865E-2</v>
-      </c>
-      <c r="H118" s="46">
-        <f t="shared" si="3"/>
-        <v>1.5354026533333334E-2</v>
-      </c>
-      <c r="I118" s="37">
-        <f>G30-$G$2</f>
-        <v>2292440.5659999996</v>
-      </c>
-      <c r="J118" s="37">
-        <f>H30-$H$2</f>
-        <v>2328563.0180000002</v>
-      </c>
-      <c r="K118" s="47">
-        <f t="shared" si="5"/>
-        <v>42783</v>
-      </c>
-      <c r="L118" s="5">
-        <f>AVERAGE($F$91:F118)</f>
-        <v>81570214.330357149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A119" s="36">
-        <v>42783</v>
-      </c>
-      <c r="B119" s="37">
-        <f>B31-$B$2</f>
-        <v>123596.34000000008</v>
-      </c>
-      <c r="C119" s="37">
-        <f>C31-C$2</f>
-        <v>126732.02000000014</v>
-      </c>
-      <c r="D119" s="37">
-        <f>D31-D$2</f>
-        <v>2420648</v>
-      </c>
-      <c r="E119" s="37">
-        <f t="shared" ref="E119:E123" si="7">D119-C119</f>
-        <v>2293915.98</v>
-      </c>
-      <c r="F119" s="37">
-        <v>109904985.86</v>
-      </c>
-      <c r="G119" s="46">
-        <f>E119/L119</f>
-        <v>2.778911803443115E-2</v>
-      </c>
-      <c r="H119" s="46">
-        <f>E119/150000000</f>
-        <v>1.52927732E-2</v>
-      </c>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="47"/>
-      <c r="L119" s="5">
-        <f>AVERAGE($F$91:F119)</f>
-        <v>82547275.417586207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A120" s="36">
-        <v>42786</v>
-      </c>
-      <c r="B120" s="37">
-        <f>B32-$B$2</f>
-        <v>128153.15000000014</v>
-      </c>
-      <c r="C120" s="37">
-        <f>C32-C$2</f>
-        <v>135009.42000000016</v>
-      </c>
-      <c r="D120" s="37">
-        <f>D32-D$2</f>
-        <v>2976985</v>
-      </c>
-      <c r="E120" s="37">
-        <f t="shared" si="7"/>
-        <v>2841975.58</v>
-      </c>
-      <c r="F120" s="37">
-        <v>81825693.890000001</v>
-      </c>
-      <c r="G120" s="46">
-        <f t="shared" ref="G120:G122" si="8">E120/L120</f>
-        <v>3.4438494850492551E-2</v>
-      </c>
-      <c r="H120" s="46">
-        <f t="shared" ref="H120:H123" si="9">E120/150000000</f>
-        <v>1.8946503866666665E-2</v>
-      </c>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="47"/>
-      <c r="L120" s="5">
-        <f>AVERAGE($F$91:F120)</f>
-        <v>82523222.700000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A121" s="36">
-        <v>42787</v>
-      </c>
-      <c r="B121" s="37">
-        <f>B33-$B$2</f>
-        <v>129695.65000000014</v>
-      </c>
-      <c r="C121" s="37">
-        <f>C33-C$2</f>
-        <v>141520.89000000013</v>
-      </c>
-      <c r="D121" s="37">
-        <f>D33-D$2</f>
-        <v>2920783</v>
-      </c>
-      <c r="E121" s="37">
-        <f t="shared" si="7"/>
-        <v>2779262.11</v>
-      </c>
-      <c r="F121" s="37">
-        <v>84084215.689999998</v>
-      </c>
-      <c r="G121" s="46">
-        <f t="shared" si="8"/>
-        <v>3.3658007808952714E-2</v>
-      </c>
-      <c r="H121" s="46">
-        <f t="shared" si="9"/>
-        <v>1.8528414066666665E-2</v>
-      </c>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="5">
-        <f>AVERAGE($F$91:F121)</f>
-        <v>82573577.312580645</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A122" s="36">
-        <v>42788</v>
-      </c>
-      <c r="B122" s="37">
-        <f>B34-$B$2</f>
-        <v>131483.15000000014</v>
-      </c>
-      <c r="C122" s="37">
-        <f>C34-C$2</f>
-        <v>144613.26000000013</v>
-      </c>
-      <c r="D122" s="37">
-        <f>D34-D$2</f>
-        <v>2939925</v>
-      </c>
-      <c r="E122" s="37">
-        <f t="shared" si="7"/>
-        <v>2795311.7399999998</v>
-      </c>
-      <c r="F122" s="37">
-        <v>85253255.560000002</v>
-      </c>
-      <c r="G122" s="46">
-        <f t="shared" si="8"/>
-        <v>3.3818079665969274E-2</v>
-      </c>
-      <c r="H122" s="46">
-        <f t="shared" si="9"/>
-        <v>1.8635411599999999E-2</v>
-      </c>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="5">
-        <f>AVERAGE($F$91:F122)</f>
-        <v>82657317.2578125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A123" s="36">
-        <v>42789</v>
-      </c>
-      <c r="B123" s="37">
-        <f>B35-$B$2</f>
-        <v>134278.15000000014</v>
-      </c>
-      <c r="C123" s="37">
-        <f>C35-C$2</f>
-        <v>150221.91000000015</v>
-      </c>
-      <c r="D123" s="37">
-        <f>D35-D$2</f>
-        <v>2803702</v>
-      </c>
-      <c r="E123" s="37">
-        <f t="shared" si="7"/>
-        <v>2653480.09</v>
-      </c>
-      <c r="F123" s="37">
-        <v>101176911.78999999</v>
-      </c>
-      <c r="G123" s="46">
-        <f>E123/L123</f>
-        <v>3.1885693025058968E-2</v>
-      </c>
-      <c r="H123" s="46">
-        <f t="shared" si="9"/>
-        <v>1.7689867266666666E-2</v>
-      </c>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="5">
-        <f>AVERAGE($F$91:F123)</f>
-        <v>83218517.092121214</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A124" s="36">
-        <v>42790</v>
-      </c>
-      <c r="B124" s="37">
-        <f>B36-$B$2</f>
-        <v>134778.15000000014</v>
-      </c>
-      <c r="C124" s="37">
-        <f>C36-C$2</f>
-        <v>155844.67000000004</v>
-      </c>
-      <c r="D124" s="37">
-        <f>D36-D$2</f>
-        <v>2825213</v>
-      </c>
-      <c r="E124" s="37">
-        <f t="shared" ref="E124:E128" si="10">D124-C124</f>
-        <v>2669368.33</v>
-      </c>
-      <c r="F124" s="37">
-        <v>122984844.03</v>
-      </c>
-      <c r="G124" s="46">
-        <f>E124/L124</f>
-        <v>3.1632041215704176E-2</v>
-      </c>
-      <c r="H124" s="46">
-        <f t="shared" ref="H124:H128" si="11">E124/150000000</f>
-        <v>1.7795788866666669E-2</v>
-      </c>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="5">
-        <f>AVERAGE($F$91:F124)</f>
-        <v>84388114.943235293</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A125" s="36">
-        <v>42793</v>
-      </c>
-      <c r="B125" s="37">
-        <f>B37-$B$2</f>
-        <v>140115.64000000013</v>
-      </c>
-      <c r="C125" s="37">
-        <f>C37-C$2</f>
-        <v>159902.82000000018</v>
-      </c>
-      <c r="D125" s="37">
-        <f>D37-D$2</f>
-        <v>2915491</v>
-      </c>
-      <c r="E125" s="37">
-        <f t="shared" si="10"/>
-        <v>2755588.1799999997</v>
-      </c>
-      <c r="F125" s="37">
-        <v>144967329.88999999</v>
-      </c>
-      <c r="G125" s="46">
-        <f t="shared" ref="G125:G128" si="12">E125/L125</f>
-        <v>3.1997466190741154E-2</v>
-      </c>
-      <c r="H125" s="46">
-        <f t="shared" si="11"/>
-        <v>1.8370587866666666E-2</v>
-      </c>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="5">
-        <f>AVERAGE($F$91:F125)</f>
-        <v>86118949.656000003</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A126" s="36">
-        <v>42794</v>
-      </c>
-      <c r="B126" s="37">
-        <f>B38-$B$2</f>
-        <v>144583.16000000015</v>
-      </c>
-      <c r="C126" s="37">
-        <f>C38-C$2</f>
-        <v>163106.3400000002</v>
-      </c>
-      <c r="D126" s="37">
-        <f>D38-D$2</f>
-        <v>2415271</v>
-      </c>
-      <c r="E126" s="37">
-        <f t="shared" si="10"/>
-        <v>2252164.6599999997</v>
-      </c>
-      <c r="F126" s="37">
-        <v>149487956.31</v>
-      </c>
-      <c r="G126" s="46">
-        <f t="shared" si="12"/>
-        <v>2.5627960473913244E-2</v>
-      </c>
-      <c r="H126" s="46">
-        <f t="shared" si="11"/>
-        <v>1.5014431066666665E-2</v>
-      </c>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="5">
-        <f>AVERAGE($F$91:F126)</f>
-        <v>87879199.840833336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A127" s="36">
-        <v>42795</v>
-      </c>
-      <c r="B127" s="37">
-        <f>B39-$B$2</f>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C127" s="37">
-        <f>C39-C$2</f>
-        <v>168559.49000000022</v>
-      </c>
-      <c r="D127" s="37">
-        <f>D39-D$2</f>
-        <v>2622101</v>
-      </c>
-      <c r="E127" s="37">
-        <f t="shared" si="10"/>
-        <v>2453541.5099999998</v>
-      </c>
-      <c r="F127" s="37">
-        <v>152707123.09999999</v>
-      </c>
-      <c r="G127" s="46">
-        <f t="shared" si="12"/>
-        <v>2.7373711517998108E-2</v>
-      </c>
-      <c r="H127" s="46">
-        <f t="shared" si="11"/>
-        <v>1.6356943399999997E-2</v>
-      </c>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="47"/>
-      <c r="L127" s="5">
-        <f>AVERAGE($F$91:F127)</f>
-        <v>89631305.874864861</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="36">
-        <v>42796</v>
+        <v>42772</v>
       </c>
       <c r="B128" s="37">
-        <f>B40-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>112616.28000000003</v>
       </c>
       <c r="C128" s="37">
-        <f>C40-C$2</f>
-        <v>174536.19999999995</v>
+        <f t="shared" si="6"/>
+        <v>72329.939999999944</v>
       </c>
       <c r="D128" s="37">
-        <f>D40-D$2</f>
-        <v>2371213</v>
+        <f t="shared" si="6"/>
+        <v>1864825</v>
       </c>
       <c r="E128" s="37">
-        <f t="shared" si="10"/>
-        <v>2196676.7999999998</v>
-      </c>
-      <c r="F128" s="37">
-        <v>140725291.59</v>
+        <f>D128-C128</f>
+        <v>1792495.06</v>
+      </c>
+      <c r="F128" s="44">
+        <v>84047352.700000003</v>
       </c>
       <c r="G128" s="46">
-        <f t="shared" si="12"/>
-        <v>2.4145704253045682E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2799021674873528E-2</v>
       </c>
       <c r="H128" s="46">
-        <f t="shared" si="11"/>
-        <v>1.4644511999999998E-2</v>
-      </c>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.1949967066666668E-2</v>
+      </c>
+      <c r="I128" s="37">
+        <f t="shared" si="3"/>
+        <v>1728511.3859999999</v>
+      </c>
+      <c r="J128" s="37">
+        <f t="shared" si="4"/>
+        <v>1733507.7359999996</v>
+      </c>
+      <c r="K128" s="47">
+        <f t="shared" si="9"/>
+        <v>42773</v>
+      </c>
       <c r="L128" s="5">
-        <f>AVERAGE($F$91:F128)</f>
-        <v>90975884.446315795</v>
+        <f>AVERAGE($F$109:F128)</f>
+        <v>78621577.959000006</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="36">
-        <v>42797</v>
+        <v>42773</v>
       </c>
       <c r="B129" s="37">
-        <f>B41-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>113192.12</v>
       </c>
       <c r="C129" s="37">
-        <f>C41-C$2</f>
-        <v>182112.76000000013</v>
+        <f t="shared" si="6"/>
+        <v>76236.559999999939</v>
       </c>
       <c r="D129" s="37">
-        <f>D41-D$2</f>
-        <v>2584861</v>
+        <f t="shared" si="6"/>
+        <v>1952191</v>
       </c>
       <c r="E129" s="37">
-        <f t="shared" ref="E129:E133" si="13">D129-C129</f>
-        <v>2402748.2399999998</v>
-      </c>
-      <c r="F129" s="37">
-        <v>140725292.59</v>
+        <f>D129-C129</f>
+        <v>1875954.44</v>
+      </c>
+      <c r="F129" s="44">
+        <v>86107177.359999999</v>
       </c>
       <c r="G129" s="46">
-        <f t="shared" ref="G129:G133" si="14">E129/L129</f>
-        <v>2.6045624969027473E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.375286291002458E-2</v>
       </c>
       <c r="H129" s="46">
-        <f t="shared" ref="H129:H132" si="15">E129/150000000</f>
-        <v>1.60183216E-2</v>
-      </c>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.2506362933333333E-2</v>
+      </c>
+      <c r="I129" s="37">
+        <f t="shared" si="3"/>
+        <v>1747183.4979999997</v>
+      </c>
+      <c r="J129" s="37">
+        <f t="shared" si="4"/>
+        <v>1774733.46</v>
+      </c>
+      <c r="K129" s="47">
+        <f t="shared" si="9"/>
+        <v>42774</v>
+      </c>
       <c r="L129" s="5">
-        <f>AVERAGE($F$91:F129)</f>
-        <v>92251510.296153858</v>
+        <f>AVERAGE($F$109:F129)</f>
+        <v>78978035.073333338</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="36">
-        <v>42800</v>
+        <v>42774</v>
       </c>
       <c r="B130" s="37">
-        <f>B42-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>113958.07000000007</v>
       </c>
       <c r="C130" s="37">
-        <f>C42-C$2</f>
-        <v>187509.5900000002</v>
+        <f t="shared" ref="C130:D149" si="10">C24-C$2</f>
+        <v>78555.489999999991</v>
       </c>
       <c r="D130" s="37">
-        <f>D42-D$2</f>
-        <v>2716560</v>
+        <f t="shared" si="10"/>
+        <v>1839946</v>
       </c>
       <c r="E130" s="37">
-        <f t="shared" si="13"/>
-        <v>2529050.4099999997</v>
-      </c>
-      <c r="F130" s="37">
-        <v>140725293.59</v>
+        <f>D130-C130</f>
+        <v>1761390.51</v>
+      </c>
+      <c r="F130" s="44">
+        <v>87528704.370000005</v>
       </c>
       <c r="G130" s="46">
-        <f t="shared" si="14"/>
-        <v>2.7059272730876192E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2193066723587899E-2</v>
       </c>
       <c r="H130" s="46">
-        <f t="shared" si="15"/>
-        <v>1.6860336066666665E-2</v>
-      </c>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.1742603400000001E-2</v>
+      </c>
+      <c r="I130" s="37">
+        <f t="shared" si="3"/>
+        <v>1598053.8099999996</v>
+      </c>
+      <c r="J130" s="37">
+        <f t="shared" si="4"/>
+        <v>1624922.0299999993</v>
+      </c>
+      <c r="K130" s="47">
+        <f t="shared" si="9"/>
+        <v>42775</v>
+      </c>
       <c r="L130" s="5">
-        <f>AVERAGE($F$91:F130)</f>
-        <v>93463354.878500015</v>
+        <f>AVERAGE($F$109:F130)</f>
+        <v>79366701.859545454</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="36">
-        <v>42801</v>
+        <v>42775</v>
       </c>
       <c r="B131" s="37">
-        <f>B43-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>115030.98999999999</v>
       </c>
       <c r="C131" s="37">
-        <f>C43-C$2</f>
-        <v>190570.48000000021</v>
+        <f t="shared" si="10"/>
+        <v>84506.669999999925</v>
       </c>
       <c r="D131" s="37">
-        <f>D43-D$2</f>
-        <v>2874989</v>
+        <f t="shared" si="10"/>
+        <v>1935585</v>
       </c>
       <c r="E131" s="37">
-        <f t="shared" si="13"/>
-        <v>2684418.5199999996</v>
-      </c>
-      <c r="F131" s="37">
-        <v>140725294.59</v>
+        <f>D131-C131</f>
+        <v>1851078.33</v>
+      </c>
+      <c r="F131" s="44">
+        <v>88419131.659999996</v>
       </c>
       <c r="G131" s="46">
-        <f t="shared" si="14"/>
-        <v>2.8371693002589092E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3208020285673387E-2</v>
       </c>
       <c r="H131" s="46">
-        <f t="shared" si="15"/>
-        <v>1.7896123466666664E-2</v>
-      </c>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.2340522200000001E-2</v>
+      </c>
+      <c r="I131" s="37">
+        <f t="shared" si="3"/>
+        <v>1830699.0199999996</v>
+      </c>
+      <c r="J131" s="37">
+        <f t="shared" si="4"/>
+        <v>1841718.6459999997</v>
+      </c>
+      <c r="K131" s="47">
+        <f t="shared" si="9"/>
+        <v>42776</v>
+      </c>
       <c r="L131" s="5">
-        <f>AVERAGE($F$91:F131)</f>
-        <v>94616085.115365863</v>
+        <f>AVERAGE($F$109:F131)</f>
+        <v>79760285.763913035</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="36">
-        <v>42802</v>
+        <v>42776</v>
       </c>
       <c r="B132" s="37">
-        <f>B44-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>115897.94000000018</v>
       </c>
       <c r="C132" s="37">
-        <f>C44-C$2</f>
-        <v>195517.64000000013</v>
+        <f t="shared" si="10"/>
+        <v>85133.950000000186</v>
       </c>
       <c r="D132" s="37">
-        <f>D44-D$2</f>
-        <v>3160576</v>
+        <f t="shared" si="10"/>
+        <v>1987542</v>
       </c>
       <c r="E132" s="37">
-        <f t="shared" si="13"/>
-        <v>2965058.36</v>
+        <f t="shared" ref="E132:E136" si="11">D132-C132</f>
+        <v>1902408.0499999998</v>
       </c>
       <c r="F132" s="37">
-        <v>140725295.59</v>
+        <v>90094870.409999996</v>
       </c>
       <c r="G132" s="46">
-        <f t="shared" si="14"/>
-        <v>3.0978338916794412E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3723492381441644E-2</v>
       </c>
       <c r="H132" s="46">
-        <f t="shared" si="15"/>
-        <v>1.9767055733333334E-2</v>
-      </c>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.2682720333333333E-2</v>
+      </c>
+      <c r="I132" s="37">
+        <f t="shared" si="3"/>
+        <v>1993829.852</v>
+      </c>
+      <c r="J132" s="37">
+        <f t="shared" si="4"/>
+        <v>2030190.608</v>
+      </c>
+      <c r="K132" s="47">
+        <f t="shared" si="9"/>
+        <v>42777</v>
+      </c>
       <c r="L132" s="5">
-        <f>AVERAGE($F$91:F132)</f>
-        <v>95713923.460000008</v>
+        <f>AVERAGE($F$109:F132)</f>
+        <v>80190893.457499996</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="36">
-        <v>42803</v>
+        <v>42779</v>
       </c>
       <c r="B133" s="37">
-        <f>B45-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>117554.4600000002</v>
       </c>
       <c r="C133" s="37">
-        <f>C45-C$2</f>
-        <v>199889.82000000007</v>
+        <f t="shared" si="10"/>
+        <v>89579.180000000168</v>
       </c>
       <c r="D133" s="37">
-        <f>D45-D$2</f>
-        <v>3239519</v>
+        <f t="shared" si="10"/>
+        <v>2155116</v>
       </c>
       <c r="E133" s="37">
-        <f t="shared" si="13"/>
-        <v>3039629.1799999997</v>
+        <f t="shared" si="11"/>
+        <v>2065536.8199999998</v>
       </c>
       <c r="F133" s="37">
-        <v>140725296.59</v>
+        <v>83627905.520000011</v>
       </c>
       <c r="G133" s="46">
-        <f t="shared" si="14"/>
-        <v>3.1413881805482456E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5713664035360902E-2</v>
       </c>
       <c r="H133" s="46">
-        <f>E133/150000000</f>
-        <v>2.0264194533333332E-2</v>
-      </c>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.3770245466666666E-2</v>
+      </c>
+      <c r="I133" s="37">
+        <f t="shared" si="3"/>
+        <v>1862033.6940000001</v>
+      </c>
+      <c r="J133" s="37">
+        <f t="shared" si="4"/>
+        <v>1917561.0319999997</v>
+      </c>
+      <c r="K133" s="47">
+        <f t="shared" si="9"/>
+        <v>42780</v>
+      </c>
       <c r="L133" s="5">
-        <f>AVERAGE($F$91:F133)</f>
-        <v>96760699.579302341</v>
+        <f>AVERAGE($F$109:F133)</f>
+        <v>80328373.939999998</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="36">
-        <v>42804</v>
+        <v>42780</v>
       </c>
       <c r="B134" s="37">
-        <f>B46-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>119016.54000000015</v>
       </c>
       <c r="C134" s="37">
-        <f>C46-C$2</f>
-        <v>204595.81000000006</v>
+        <f t="shared" si="10"/>
+        <v>94752.200000000186</v>
       </c>
       <c r="D134" s="37">
-        <f>D46-D$2</f>
-        <v>3405616</v>
+        <f t="shared" si="10"/>
+        <v>2176557</v>
       </c>
       <c r="E134" s="37">
-        <f t="shared" ref="E134:E138" si="16">D134-C134</f>
-        <v>3201020.19</v>
+        <f t="shared" si="11"/>
+        <v>2081804.7999999998</v>
       </c>
       <c r="F134" s="37">
-        <v>140725297.59</v>
+        <v>88899078.060000002</v>
       </c>
       <c r="G134" s="46">
-        <f t="shared" ref="G134:G138" si="17">E134/L134</f>
-        <v>3.2743695053805921E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5810265275023146E-2</v>
       </c>
       <c r="H134" s="46">
-        <f t="shared" ref="H134:H138" si="18">E134/150000000</f>
-        <v>2.1340134600000001E-2</v>
-      </c>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.3878698666666665E-2</v>
+      </c>
+      <c r="I134" s="37">
+        <f t="shared" si="3"/>
+        <v>2113953.9859999996</v>
+      </c>
+      <c r="J134" s="37">
+        <f t="shared" si="4"/>
+        <v>2118657.1880000001</v>
+      </c>
+      <c r="K134" s="47">
+        <f t="shared" si="9"/>
+        <v>42781</v>
+      </c>
       <c r="L134" s="5">
-        <f>AVERAGE($F$91:F134)</f>
-        <v>97759894.988636389</v>
+        <f>AVERAGE($F$109:F134)</f>
+        <v>80658016.406153843</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="36">
-        <v>42807</v>
+        <v>42781</v>
       </c>
       <c r="B135" s="37">
-        <f>B47-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>120363.63000000012</v>
       </c>
       <c r="C135" s="37">
-        <f>C47-C$2</f>
-        <v>214215.82000000007</v>
+        <f t="shared" si="10"/>
+        <v>101183.39000000013</v>
       </c>
       <c r="D135" s="37">
-        <f>D47-D$2</f>
-        <v>3791053</v>
+        <f t="shared" si="10"/>
+        <v>2281457</v>
       </c>
       <c r="E135" s="37">
-        <f t="shared" si="16"/>
-        <v>3576837.1799999997</v>
+        <f t="shared" si="11"/>
+        <v>2180273.61</v>
       </c>
       <c r="F135" s="37">
-        <v>140725298.59</v>
+        <v>89039676.24000001</v>
       </c>
       <c r="G135" s="46">
-        <f>E135/L135</f>
-        <v>3.6234095244210542E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.6927447136176702E-2</v>
       </c>
       <c r="H135" s="46">
-        <f t="shared" si="18"/>
-        <v>2.3845581199999997E-2</v>
-      </c>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.4535157399999998E-2</v>
+      </c>
+      <c r="I135" s="37">
+        <f t="shared" si="3"/>
+        <v>2461935.068</v>
+      </c>
+      <c r="J135" s="37">
+        <f t="shared" si="4"/>
+        <v>2487413.1959999995</v>
+      </c>
+      <c r="K135" s="47">
+        <f t="shared" si="9"/>
+        <v>42782</v>
+      </c>
       <c r="L135" s="5">
-        <f>AVERAGE($F$91:F135)</f>
-        <v>98714681.735333353</v>
+        <f>AVERAGE($F$109:F135)</f>
+        <v>80968448.251851857</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="36">
-        <v>42808</v>
+        <v>42782</v>
       </c>
       <c r="B136" s="37">
-        <f>B48-$B$2</f>
-        <v>145249.8400000002</v>
+        <f t="shared" si="5"/>
+        <v>123596.34000000008</v>
       </c>
       <c r="C136" s="37">
-        <f>C48-C$2</f>
-        <v>217907.59000000008</v>
+        <f t="shared" si="10"/>
+        <v>105719.02000000014</v>
       </c>
       <c r="D136" s="37">
-        <f>D48-D$2</f>
-        <v>3622399</v>
+        <f t="shared" si="10"/>
+        <v>2408823</v>
       </c>
       <c r="E136" s="37">
-        <f t="shared" si="16"/>
-        <v>3404491.41</v>
+        <f t="shared" si="11"/>
+        <v>2303103.98</v>
       </c>
       <c r="F136" s="37">
-        <v>140725299.59</v>
+        <v>97817898.450000003</v>
       </c>
       <c r="G136" s="46">
-        <f t="shared" si="17"/>
-        <v>3.4172049146044679E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.8234619694297865E-2</v>
       </c>
       <c r="H136" s="46">
-        <f t="shared" si="18"/>
-        <v>2.2696609400000001E-2</v>
-      </c>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="47"/>
+        <f t="shared" si="7"/>
+        <v>1.5354026533333334E-2</v>
+      </c>
+      <c r="I136" s="37">
+        <f t="shared" si="3"/>
+        <v>2292440.5659999996</v>
+      </c>
+      <c r="J136" s="37">
+        <f t="shared" si="4"/>
+        <v>2328563.0180000002</v>
+      </c>
+      <c r="K136" s="47">
+        <f t="shared" si="9"/>
+        <v>42783</v>
+      </c>
       <c r="L136" s="5">
-        <f>AVERAGE($F$91:F136)</f>
-        <v>99627956.036521763</v>
+        <f>AVERAGE($F$109:F136)</f>
+        <v>81570214.330357149</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="36">
-        <v>42809</v>
+        <v>42783</v>
       </c>
       <c r="B137" s="37">
-        <f>B49-$B$2</f>
-        <v>145483.17000000016</v>
+        <f t="shared" si="5"/>
+        <v>123596.34000000008</v>
       </c>
       <c r="C137" s="37">
-        <f>C49-C$2</f>
-        <v>223250.06000000006</v>
+        <f t="shared" si="10"/>
+        <v>126732.02000000014</v>
       </c>
       <c r="D137" s="37">
-        <f>D49-D$2</f>
-        <v>3641666</v>
+        <f t="shared" si="10"/>
+        <v>2420648</v>
       </c>
       <c r="E137" s="37">
-        <f t="shared" si="16"/>
-        <v>3418415.94</v>
+        <f t="shared" ref="E137:E141" si="12">D137-C137</f>
+        <v>2293915.98</v>
       </c>
       <c r="F137" s="37">
-        <v>140725300.59</v>
+        <v>109904985.86</v>
       </c>
       <c r="G137" s="46">
-        <f t="shared" si="17"/>
-        <v>3.4013287655381107E-2</v>
+        <f>E137/L137</f>
+        <v>2.778911803443115E-2</v>
       </c>
       <c r="H137" s="46">
-        <f t="shared" si="18"/>
-        <v>2.2789439599999999E-2</v>
+        <f>E137/150000000</f>
+        <v>1.52927732E-2</v>
       </c>
       <c r="I137" s="37"/>
       <c r="J137" s="37"/>
       <c r="K137" s="47"/>
       <c r="L137" s="5">
-        <f>AVERAGE($F$91:F137)</f>
-        <v>100502367.62276599</v>
+        <f>AVERAGE($F$109:F137)</f>
+        <v>82547275.417586207</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="36">
-        <v>42810</v>
+        <v>42786</v>
       </c>
       <c r="B138" s="37">
-        <f>B50-$B$2</f>
-        <v>149466.50000000012</v>
+        <f t="shared" si="5"/>
+        <v>128153.15000000014</v>
       </c>
       <c r="C138" s="37">
-        <f>C50-C$2</f>
-        <v>232225.03000000003</v>
+        <f t="shared" si="10"/>
+        <v>135009.42000000016</v>
       </c>
       <c r="D138" s="37">
-        <f>D50-D$2</f>
-        <v>3677614</v>
+        <f t="shared" si="10"/>
+        <v>2976985</v>
       </c>
       <c r="E138" s="37">
-        <f t="shared" si="16"/>
-        <v>3445388.9699999997</v>
+        <f t="shared" si="12"/>
+        <v>2841975.58</v>
       </c>
       <c r="F138" s="37">
-        <v>140725301.59</v>
+        <v>81825693.890000001</v>
       </c>
       <c r="G138" s="46">
-        <f t="shared" si="17"/>
-        <v>3.3998196433347887E-2</v>
+        <f t="shared" ref="G138:G140" si="13">E138/L138</f>
+        <v>3.4438494850492551E-2</v>
       </c>
       <c r="H138" s="46">
-        <f t="shared" si="18"/>
-        <v>2.2969259799999999E-2</v>
+        <f t="shared" ref="H138:H141" si="14">E138/150000000</f>
+        <v>1.8946503866666665E-2</v>
       </c>
       <c r="I138" s="37"/>
       <c r="J138" s="37"/>
       <c r="K138" s="47"/>
       <c r="L138" s="5">
-        <f>AVERAGE($F$91:F138)</f>
-        <v>101340345.41375004</v>
+        <f>AVERAGE($F$109:F138)</f>
+        <v>82523222.700000003</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="36">
-        <v>42811</v>
+        <v>42787</v>
       </c>
       <c r="B139" s="37">
-        <f t="shared" ref="B139:B143" si="19">B51-$B$2</f>
-        <v>149466.50000000012</v>
+        <f t="shared" si="5"/>
+        <v>129695.65000000014</v>
       </c>
       <c r="C139" s="37">
-        <f t="shared" ref="C139:D139" si="20">C51-C$2</f>
-        <v>250381.39999999991</v>
+        <f t="shared" si="10"/>
+        <v>141520.89000000013</v>
       </c>
       <c r="D139" s="37">
-        <f t="shared" si="20"/>
-        <v>4179637</v>
+        <f t="shared" si="10"/>
+        <v>2920783</v>
       </c>
       <c r="E139" s="37">
-        <f t="shared" ref="E139:E143" si="21">D139-C139</f>
-        <v>3929255.6</v>
+        <f t="shared" si="12"/>
+        <v>2779262.11</v>
       </c>
       <c r="F139" s="37">
-        <v>140725302.59</v>
+        <v>84084215.689999998</v>
       </c>
       <c r="G139" s="46">
-        <f t="shared" ref="G139:G143" si="22">E139/L139</f>
-        <v>3.846776102311724E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3658007808952714E-2</v>
       </c>
       <c r="H139" s="46">
-        <f t="shared" ref="H139:H143" si="23">E139/150000000</f>
-        <v>2.6195037333333334E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8528414066666665E-2</v>
       </c>
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
       <c r="K139" s="47"/>
       <c r="L139" s="5">
-        <f>AVERAGE($F$91:F139)</f>
-        <v>102144120.05000004</v>
+        <f>AVERAGE($F$109:F139)</f>
+        <v>82573577.312580645</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="36">
-        <v>42814</v>
+        <v>42788</v>
       </c>
       <c r="B140" s="37">
-        <f t="shared" si="19"/>
-        <v>153295.10000000009</v>
+        <f t="shared" si="5"/>
+        <v>131483.15000000014</v>
       </c>
       <c r="C140" s="37">
-        <f t="shared" ref="C140:D140" si="24">C52-C$2</f>
-        <v>253390.87</v>
+        <f t="shared" si="10"/>
+        <v>144613.26000000013</v>
       </c>
       <c r="D140" s="37">
-        <f t="shared" si="24"/>
-        <v>4116818</v>
+        <f t="shared" si="10"/>
+        <v>2939925</v>
       </c>
       <c r="E140" s="37">
-        <f t="shared" si="21"/>
-        <v>3863427.13</v>
+        <f t="shared" si="12"/>
+        <v>2795311.7399999998</v>
       </c>
       <c r="F140" s="37">
-        <v>140725303.59</v>
+        <v>85253255.560000002</v>
       </c>
       <c r="G140" s="46">
-        <f t="shared" si="22"/>
-        <v>3.7539709575252989E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3818079665969274E-2</v>
       </c>
       <c r="H140" s="46">
-        <f t="shared" si="23"/>
-        <v>2.5756180866666666E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8635411599999999E-2</v>
       </c>
       <c r="I140" s="37"/>
       <c r="J140" s="37"/>
       <c r="K140" s="47"/>
       <c r="L140" s="5">
-        <f>AVERAGE($F$91:F140)</f>
-        <v>102915743.72080004</v>
+        <f>AVERAGE($F$109:F140)</f>
+        <v>82657317.2578125</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="36">
-        <v>42815</v>
+        <v>42789</v>
       </c>
       <c r="B141" s="37">
-        <f t="shared" si="19"/>
-        <v>156475.51000000013</v>
+        <f t="shared" si="5"/>
+        <v>134278.15000000014</v>
       </c>
       <c r="C141" s="37">
-        <f t="shared" ref="C141:D141" si="25">C53-C$2</f>
-        <v>263433.27999999991</v>
+        <f t="shared" si="10"/>
+        <v>150221.91000000015</v>
       </c>
       <c r="D141" s="37">
-        <f t="shared" si="25"/>
-        <v>4153717</v>
+        <f t="shared" si="10"/>
+        <v>2803702</v>
       </c>
       <c r="E141" s="37">
-        <f t="shared" si="21"/>
-        <v>3890283.72</v>
+        <f t="shared" si="12"/>
+        <v>2653480.09</v>
       </c>
       <c r="F141" s="37">
-        <v>140725304.59</v>
+        <v>101176911.78999999</v>
       </c>
       <c r="G141" s="46">
-        <f t="shared" si="22"/>
-        <v>3.7530313239902295E-2</v>
+        <f>E141/L141</f>
+        <v>3.1885693025058968E-2</v>
       </c>
       <c r="H141" s="46">
-        <f t="shared" si="23"/>
-        <v>2.59352248E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.7689867266666666E-2</v>
       </c>
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
       <c r="K141" s="47"/>
       <c r="L141" s="5">
-        <f>AVERAGE($F$91:F141)</f>
-        <v>103657107.6594118</v>
+        <f>AVERAGE($F$109:F141)</f>
+        <v>83218517.092121214</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="36">
-        <v>42816</v>
+        <v>42790</v>
       </c>
       <c r="B142" s="37">
-        <f t="shared" si="19"/>
-        <v>159321.35000000009</v>
+        <f t="shared" ref="B142:B173" si="15">B36-$B$2</f>
+        <v>134778.15000000014</v>
       </c>
       <c r="C142" s="37">
-        <f t="shared" ref="C142:D142" si="26">C54-C$2</f>
-        <v>271395.34999999998</v>
+        <f t="shared" si="10"/>
+        <v>155844.67000000004</v>
       </c>
       <c r="D142" s="37">
-        <f t="shared" si="26"/>
-        <v>4284706</v>
+        <f t="shared" si="10"/>
+        <v>2825213</v>
       </c>
       <c r="E142" s="37">
-        <f t="shared" si="21"/>
-        <v>4013310.65</v>
+        <f t="shared" ref="E142:E146" si="16">D142-C142</f>
+        <v>2669368.33</v>
       </c>
       <c r="F142" s="37">
-        <v>140725305.59</v>
+        <v>122984844.03</v>
       </c>
       <c r="G142" s="46">
-        <f t="shared" si="22"/>
-        <v>3.8452738139712853E-2</v>
+        <f>E142/L142</f>
+        <v>3.1632041215704176E-2</v>
       </c>
       <c r="H142" s="46">
-        <f t="shared" si="23"/>
-        <v>2.6755404333333333E-2</v>
+        <f t="shared" ref="H142:H146" si="17">E142/150000000</f>
+        <v>1.7795788866666669E-2</v>
       </c>
       <c r="I142" s="37"/>
       <c r="J142" s="37"/>
       <c r="K142" s="47"/>
       <c r="L142" s="5">
-        <f>AVERAGE($F$91:F142)</f>
-        <v>104369957.61961542</v>
+        <f>AVERAGE($F$109:F142)</f>
+        <v>84388114.943235293</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="36">
-        <v>42817</v>
+        <v>42793</v>
       </c>
       <c r="B143" s="37">
-        <f t="shared" si="19"/>
-        <v>161619.26000000013</v>
+        <f t="shared" si="15"/>
+        <v>140115.64000000013</v>
       </c>
       <c r="C143" s="37">
-        <f t="shared" ref="C143:D143" si="27">C55-C$2</f>
-        <v>279089.95999999996</v>
+        <f t="shared" si="10"/>
+        <v>159902.82000000018</v>
       </c>
       <c r="D143" s="37">
-        <f t="shared" si="27"/>
-        <v>4348849</v>
+        <f t="shared" si="10"/>
+        <v>2915491</v>
       </c>
       <c r="E143" s="37">
-        <f>D143-C143</f>
-        <v>4069759.04</v>
+        <f t="shared" si="16"/>
+        <v>2755588.1799999997</v>
       </c>
       <c r="F143" s="37">
-        <v>140725306.59</v>
+        <v>144967329.88999999</v>
       </c>
       <c r="G143" s="46">
-        <f t="shared" si="22"/>
-        <v>3.8738983203955392E-2</v>
+        <f t="shared" ref="G143:G146" si="18">E143/L143</f>
+        <v>3.1997466190741154E-2</v>
       </c>
       <c r="H143" s="46">
-        <f t="shared" si="23"/>
-        <v>2.7131726933333333E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.8370587866666666E-2</v>
       </c>
       <c r="I143" s="37"/>
       <c r="J143" s="37"/>
       <c r="K143" s="47"/>
       <c r="L143" s="5">
-        <f>AVERAGE($F$91:F143)</f>
-        <v>105055907.60018872</v>
+        <f>AVERAGE($F$109:F143)</f>
+        <v>86118949.656000003</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A144" s="36"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
+      <c r="A144" s="36">
+        <v>42794</v>
+      </c>
+      <c r="B144" s="37">
+        <f t="shared" si="15"/>
+        <v>144583.16000000015</v>
+      </c>
+      <c r="C144" s="37">
+        <f t="shared" si="10"/>
+        <v>163106.3400000002</v>
+      </c>
+      <c r="D144" s="37">
+        <f t="shared" si="10"/>
+        <v>2415271</v>
+      </c>
+      <c r="E144" s="37">
+        <f t="shared" si="16"/>
+        <v>2252164.6599999997</v>
+      </c>
+      <c r="F144" s="37">
+        <v>149487956.31</v>
+      </c>
+      <c r="G144" s="46">
+        <f t="shared" si="18"/>
+        <v>2.5627960473913244E-2</v>
+      </c>
+      <c r="H144" s="46">
+        <f t="shared" si="17"/>
+        <v>1.5014431066666665E-2</v>
+      </c>
       <c r="I144" s="37"/>
       <c r="J144" s="37"/>
       <c r="K144" s="47"/>
-      <c r="L144" s="5"/>
+      <c r="L144" s="5">
+        <f>AVERAGE($F$109:F144)</f>
+        <v>87879199.840833336</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A145" s="36"/>
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
+      <c r="A145" s="36">
+        <v>42795</v>
+      </c>
+      <c r="B145" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C145" s="37">
+        <f t="shared" si="10"/>
+        <v>168559.49000000022</v>
+      </c>
+      <c r="D145" s="37">
+        <f t="shared" si="10"/>
+        <v>2622101</v>
+      </c>
+      <c r="E145" s="37">
+        <f t="shared" si="16"/>
+        <v>2453541.5099999998</v>
+      </c>
+      <c r="F145" s="37">
+        <v>152707123.09999999</v>
+      </c>
+      <c r="G145" s="46">
+        <f t="shared" si="18"/>
+        <v>2.7373711517998108E-2</v>
+      </c>
+      <c r="H145" s="46">
+        <f t="shared" si="17"/>
+        <v>1.6356943399999997E-2</v>
+      </c>
       <c r="I145" s="37"/>
       <c r="J145" s="37"/>
       <c r="K145" s="47"/>
-      <c r="L145" s="5"/>
+      <c r="L145" s="5">
+        <f>AVERAGE($F$109:F145)</f>
+        <v>89631305.874864861</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A146" s="36"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
+      <c r="A146" s="36">
+        <v>42796</v>
+      </c>
+      <c r="B146" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C146" s="37">
+        <f t="shared" si="10"/>
+        <v>174536.19999999995</v>
+      </c>
+      <c r="D146" s="37">
+        <f t="shared" si="10"/>
+        <v>2371213</v>
+      </c>
+      <c r="E146" s="37">
+        <f t="shared" si="16"/>
+        <v>2196676.7999999998</v>
+      </c>
+      <c r="F146" s="37">
+        <v>140725291.59</v>
+      </c>
+      <c r="G146" s="46">
+        <f t="shared" si="18"/>
+        <v>2.4145704253045682E-2</v>
+      </c>
+      <c r="H146" s="46">
+        <f t="shared" si="17"/>
+        <v>1.4644511999999998E-2</v>
+      </c>
       <c r="I146" s="37"/>
       <c r="J146" s="37"/>
       <c r="K146" s="47"/>
-      <c r="L146" s="5"/>
+      <c r="L146" s="5">
+        <f>AVERAGE($F$109:F146)</f>
+        <v>90975884.446315795</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A147" s="36"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
+      <c r="A147" s="36">
+        <v>42797</v>
+      </c>
+      <c r="B147" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C147" s="37">
+        <f t="shared" si="10"/>
+        <v>182112.76000000013</v>
+      </c>
+      <c r="D147" s="37">
+        <f t="shared" si="10"/>
+        <v>2584861</v>
+      </c>
+      <c r="E147" s="37">
+        <f t="shared" ref="E147:E151" si="19">D147-C147</f>
+        <v>2402748.2399999998</v>
+      </c>
+      <c r="F147" s="37">
+        <v>140725292.59</v>
+      </c>
+      <c r="G147" s="46">
+        <f t="shared" ref="G147:G151" si="20">E147/L147</f>
+        <v>2.6045624969027473E-2</v>
+      </c>
+      <c r="H147" s="46">
+        <f t="shared" ref="H147:H150" si="21">E147/150000000</f>
+        <v>1.60183216E-2</v>
+      </c>
       <c r="I147" s="37"/>
       <c r="J147" s="37"/>
       <c r="K147" s="47"/>
-      <c r="L147" s="5"/>
+      <c r="L147" s="5">
+        <f>AVERAGE($F$109:F147)</f>
+        <v>92251510.296153858</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A148" s="36"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
+      <c r="A148" s="36">
+        <v>42800</v>
+      </c>
+      <c r="B148" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C148" s="37">
+        <f t="shared" si="10"/>
+        <v>187509.5900000002</v>
+      </c>
+      <c r="D148" s="37">
+        <f t="shared" si="10"/>
+        <v>2716560</v>
+      </c>
+      <c r="E148" s="37">
+        <f t="shared" si="19"/>
+        <v>2529050.4099999997</v>
+      </c>
+      <c r="F148" s="37">
+        <v>140725293.59</v>
+      </c>
+      <c r="G148" s="46">
+        <f t="shared" si="20"/>
+        <v>2.7059272730876192E-2</v>
+      </c>
+      <c r="H148" s="46">
+        <f t="shared" si="21"/>
+        <v>1.6860336066666665E-2</v>
+      </c>
       <c r="I148" s="37"/>
       <c r="J148" s="37"/>
       <c r="K148" s="47"/>
-      <c r="L148" s="5"/>
+      <c r="L148" s="5">
+        <f>AVERAGE($F$109:F148)</f>
+        <v>93463354.878500015</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A149" s="36"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
+      <c r="A149" s="36">
+        <v>42801</v>
+      </c>
+      <c r="B149" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C149" s="37">
+        <f t="shared" si="10"/>
+        <v>190570.48000000021</v>
+      </c>
+      <c r="D149" s="37">
+        <f t="shared" si="10"/>
+        <v>2874989</v>
+      </c>
+      <c r="E149" s="37">
+        <f t="shared" si="19"/>
+        <v>2684418.5199999996</v>
+      </c>
+      <c r="F149" s="37">
+        <v>140725294.59</v>
+      </c>
+      <c r="G149" s="46">
+        <f t="shared" si="20"/>
+        <v>2.8371693002589092E-2</v>
+      </c>
+      <c r="H149" s="46">
+        <f t="shared" si="21"/>
+        <v>1.7896123466666664E-2</v>
+      </c>
       <c r="I149" s="37"/>
       <c r="J149" s="37"/>
       <c r="K149" s="47"/>
-      <c r="L149" s="5"/>
+      <c r="L149" s="5">
+        <f>AVERAGE($F$109:F149)</f>
+        <v>94616085.115365863</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A150" s="36"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
+      <c r="A150" s="36">
+        <v>42802</v>
+      </c>
+      <c r="B150" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C150" s="37">
+        <f t="shared" ref="C150:D169" si="22">C44-C$2</f>
+        <v>195517.64000000013</v>
+      </c>
+      <c r="D150" s="37">
+        <f t="shared" si="22"/>
+        <v>3160576</v>
+      </c>
+      <c r="E150" s="37">
+        <f t="shared" si="19"/>
+        <v>2965058.36</v>
+      </c>
+      <c r="F150" s="37">
+        <v>140725295.59</v>
+      </c>
+      <c r="G150" s="46">
+        <f t="shared" si="20"/>
+        <v>3.0978338916794412E-2</v>
+      </c>
+      <c r="H150" s="46">
+        <f t="shared" si="21"/>
+        <v>1.9767055733333334E-2</v>
+      </c>
       <c r="I150" s="37"/>
       <c r="J150" s="37"/>
       <c r="K150" s="47"/>
-      <c r="L150" s="5"/>
+      <c r="L150" s="5">
+        <f>AVERAGE($F$109:F150)</f>
+        <v>95713923.460000008</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A151" s="36"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
+      <c r="A151" s="36">
+        <v>42803</v>
+      </c>
+      <c r="B151" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C151" s="37">
+        <f t="shared" si="22"/>
+        <v>199889.82000000007</v>
+      </c>
+      <c r="D151" s="37">
+        <f t="shared" si="22"/>
+        <v>3239519</v>
+      </c>
+      <c r="E151" s="37">
+        <f t="shared" si="19"/>
+        <v>3039629.1799999997</v>
+      </c>
+      <c r="F151" s="37">
+        <v>140725296.59</v>
+      </c>
+      <c r="G151" s="46">
+        <f t="shared" si="20"/>
+        <v>3.1413881805482456E-2</v>
+      </c>
+      <c r="H151" s="46">
+        <f>E151/150000000</f>
+        <v>2.0264194533333332E-2</v>
+      </c>
       <c r="I151" s="37"/>
       <c r="J151" s="37"/>
       <c r="K151" s="47"/>
-      <c r="L151" s="5"/>
+      <c r="L151" s="5">
+        <f>AVERAGE($F$109:F151)</f>
+        <v>96760699.579302341</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A152" s="36"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
+      <c r="A152" s="36">
+        <v>42804</v>
+      </c>
+      <c r="B152" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C152" s="37">
+        <f t="shared" si="22"/>
+        <v>204595.81000000006</v>
+      </c>
+      <c r="D152" s="37">
+        <f t="shared" si="22"/>
+        <v>3405616</v>
+      </c>
+      <c r="E152" s="37">
+        <f t="shared" ref="E152:E156" si="23">D152-C152</f>
+        <v>3201020.19</v>
+      </c>
+      <c r="F152" s="37">
+        <v>140725297.59</v>
+      </c>
+      <c r="G152" s="46">
+        <f t="shared" ref="G152:G156" si="24">E152/L152</f>
+        <v>3.2743695053805921E-2</v>
+      </c>
+      <c r="H152" s="46">
+        <f t="shared" ref="H152:H156" si="25">E152/150000000</f>
+        <v>2.1340134600000001E-2</v>
+      </c>
       <c r="I152" s="37"/>
       <c r="J152" s="37"/>
       <c r="K152" s="47"/>
-      <c r="L152" s="5"/>
+      <c r="L152" s="5">
+        <f>AVERAGE($F$109:F152)</f>
+        <v>97759894.988636389</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A153" s="36"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
+      <c r="A153" s="36">
+        <v>42807</v>
+      </c>
+      <c r="B153" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C153" s="37">
+        <f t="shared" si="22"/>
+        <v>214215.82000000007</v>
+      </c>
+      <c r="D153" s="37">
+        <f t="shared" si="22"/>
+        <v>3791053</v>
+      </c>
+      <c r="E153" s="37">
+        <f t="shared" si="23"/>
+        <v>3576837.1799999997</v>
+      </c>
+      <c r="F153" s="37">
+        <v>140725298.59</v>
+      </c>
+      <c r="G153" s="46">
+        <f>E153/L153</f>
+        <v>3.6234095244210542E-2</v>
+      </c>
+      <c r="H153" s="46">
+        <f t="shared" si="25"/>
+        <v>2.3845581199999997E-2</v>
+      </c>
       <c r="I153" s="37"/>
       <c r="J153" s="37"/>
       <c r="K153" s="47"/>
-      <c r="L153" s="5"/>
+      <c r="L153" s="5">
+        <f>AVERAGE($F$109:F153)</f>
+        <v>98714681.735333353</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A154" s="36"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="46"/>
-      <c r="H154" s="46"/>
+      <c r="A154" s="36">
+        <v>42808</v>
+      </c>
+      <c r="B154" s="37">
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
+      </c>
+      <c r="C154" s="37">
+        <f t="shared" si="22"/>
+        <v>217907.59000000008</v>
+      </c>
+      <c r="D154" s="37">
+        <f t="shared" si="22"/>
+        <v>3622399</v>
+      </c>
+      <c r="E154" s="37">
+        <f t="shared" si="23"/>
+        <v>3404491.41</v>
+      </c>
+      <c r="F154" s="37">
+        <v>140725299.59</v>
+      </c>
+      <c r="G154" s="46">
+        <f t="shared" si="24"/>
+        <v>3.4172049146044679E-2</v>
+      </c>
+      <c r="H154" s="46">
+        <f t="shared" si="25"/>
+        <v>2.2696609400000001E-2</v>
+      </c>
       <c r="I154" s="37"/>
       <c r="J154" s="37"/>
       <c r="K154" s="47"/>
-      <c r="L154" s="5"/>
+      <c r="L154" s="5">
+        <f>AVERAGE($F$109:F154)</f>
+        <v>99627956.036521763</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A155" s="36"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="46"/>
-      <c r="H155" s="46"/>
+      <c r="A155" s="36">
+        <v>42809</v>
+      </c>
+      <c r="B155" s="37">
+        <f t="shared" si="15"/>
+        <v>145483.17000000016</v>
+      </c>
+      <c r="C155" s="37">
+        <f t="shared" si="22"/>
+        <v>223250.06000000006</v>
+      </c>
+      <c r="D155" s="37">
+        <f t="shared" si="22"/>
+        <v>3641666</v>
+      </c>
+      <c r="E155" s="37">
+        <f t="shared" si="23"/>
+        <v>3418415.94</v>
+      </c>
+      <c r="F155" s="37">
+        <v>140725300.59</v>
+      </c>
+      <c r="G155" s="46">
+        <f t="shared" si="24"/>
+        <v>3.4013287655381107E-2</v>
+      </c>
+      <c r="H155" s="46">
+        <f t="shared" si="25"/>
+        <v>2.2789439599999999E-2</v>
+      </c>
       <c r="I155" s="37"/>
       <c r="J155" s="37"/>
       <c r="K155" s="47"/>
-      <c r="L155" s="5"/>
+      <c r="L155" s="5">
+        <f>AVERAGE($F$109:F155)</f>
+        <v>100502367.62276599</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="46"/>
-      <c r="H156" s="46"/>
+      <c r="A156" s="36">
+        <v>42810</v>
+      </c>
+      <c r="B156" s="37">
+        <f t="shared" si="15"/>
+        <v>149466.50000000012</v>
+      </c>
+      <c r="C156" s="37">
+        <f t="shared" si="22"/>
+        <v>232225.03000000003</v>
+      </c>
+      <c r="D156" s="37">
+        <f t="shared" si="22"/>
+        <v>3677614</v>
+      </c>
+      <c r="E156" s="37">
+        <f t="shared" si="23"/>
+        <v>3445388.9699999997</v>
+      </c>
+      <c r="F156" s="37">
+        <v>140725301.59</v>
+      </c>
+      <c r="G156" s="46">
+        <f t="shared" si="24"/>
+        <v>3.3998196433347887E-2</v>
+      </c>
+      <c r="H156" s="46">
+        <f t="shared" si="25"/>
+        <v>2.2969259799999999E-2</v>
+      </c>
       <c r="I156" s="37"/>
       <c r="J156" s="37"/>
       <c r="K156" s="47"/>
-      <c r="L156" s="5"/>
+      <c r="L156" s="5">
+        <f>AVERAGE($F$109:F156)</f>
+        <v>101340345.41375004</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A157" s="36"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="46"/>
-      <c r="H157" s="46"/>
+      <c r="A157" s="36">
+        <v>42811</v>
+      </c>
+      <c r="B157" s="37">
+        <f t="shared" si="15"/>
+        <v>149466.50000000012</v>
+      </c>
+      <c r="C157" s="37">
+        <f t="shared" si="22"/>
+        <v>250381.39999999991</v>
+      </c>
+      <c r="D157" s="37">
+        <f t="shared" si="22"/>
+        <v>4179637</v>
+      </c>
+      <c r="E157" s="37">
+        <f t="shared" ref="E157:E160" si="26">D157-C157</f>
+        <v>3929255.6</v>
+      </c>
+      <c r="F157" s="37">
+        <v>140725302.59</v>
+      </c>
+      <c r="G157" s="46">
+        <f t="shared" ref="G157:G161" si="27">E157/L157</f>
+        <v>3.846776102311724E-2</v>
+      </c>
+      <c r="H157" s="46">
+        <f t="shared" ref="H157:H161" si="28">E157/150000000</f>
+        <v>2.6195037333333334E-2</v>
+      </c>
       <c r="I157" s="37"/>
       <c r="J157" s="37"/>
       <c r="K157" s="47"/>
-      <c r="L157" s="5"/>
+      <c r="L157" s="5">
+        <f>AVERAGE($F$109:F157)</f>
+        <v>102144120.05000004</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A158" s="36"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="46"/>
-      <c r="H158" s="46"/>
+      <c r="A158" s="36">
+        <v>42814</v>
+      </c>
+      <c r="B158" s="37">
+        <f t="shared" si="15"/>
+        <v>153295.10000000009</v>
+      </c>
+      <c r="C158" s="37">
+        <f t="shared" si="22"/>
+        <v>253390.87</v>
+      </c>
+      <c r="D158" s="37">
+        <f t="shared" si="22"/>
+        <v>4116818</v>
+      </c>
+      <c r="E158" s="37">
+        <f t="shared" si="26"/>
+        <v>3863427.13</v>
+      </c>
+      <c r="F158" s="37">
+        <v>140725303.59</v>
+      </c>
+      <c r="G158" s="46">
+        <f t="shared" si="27"/>
+        <v>3.7539709575252989E-2</v>
+      </c>
+      <c r="H158" s="46">
+        <f t="shared" si="28"/>
+        <v>2.5756180866666666E-2</v>
+      </c>
       <c r="I158" s="37"/>
       <c r="J158" s="37"/>
       <c r="K158" s="47"/>
-      <c r="L158" s="5"/>
+      <c r="L158" s="5">
+        <f>AVERAGE($F$109:F158)</f>
+        <v>102915743.72080004</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A159" s="36"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
+      <c r="A159" s="36">
+        <v>42815</v>
+      </c>
+      <c r="B159" s="37">
+        <f t="shared" si="15"/>
+        <v>156475.51000000013</v>
+      </c>
+      <c r="C159" s="37">
+        <f t="shared" si="22"/>
+        <v>263433.27999999991</v>
+      </c>
+      <c r="D159" s="37">
+        <f t="shared" si="22"/>
+        <v>4153717</v>
+      </c>
+      <c r="E159" s="37">
+        <f t="shared" si="26"/>
+        <v>3890283.72</v>
+      </c>
+      <c r="F159" s="37">
+        <v>140725304.59</v>
+      </c>
+      <c r="G159" s="46">
+        <f t="shared" si="27"/>
+        <v>3.7530313239902295E-2</v>
+      </c>
+      <c r="H159" s="46">
+        <f t="shared" si="28"/>
+        <v>2.59352248E-2</v>
+      </c>
       <c r="I159" s="37"/>
       <c r="J159" s="37"/>
       <c r="K159" s="47"/>
-      <c r="L159" s="5"/>
+      <c r="L159" s="5">
+        <f>AVERAGE($F$109:F159)</f>
+        <v>103657107.6594118</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A160" s="36"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
+      <c r="A160" s="36">
+        <v>42816</v>
+      </c>
+      <c r="B160" s="37">
+        <f t="shared" si="15"/>
+        <v>159321.35000000009</v>
+      </c>
+      <c r="C160" s="37">
+        <f t="shared" si="22"/>
+        <v>271395.34999999998</v>
+      </c>
+      <c r="D160" s="37">
+        <f t="shared" si="22"/>
+        <v>4284706</v>
+      </c>
+      <c r="E160" s="37">
+        <f t="shared" si="26"/>
+        <v>4013310.65</v>
+      </c>
+      <c r="F160" s="37">
+        <v>140725305.59</v>
+      </c>
+      <c r="G160" s="46">
+        <f t="shared" si="27"/>
+        <v>3.8452738139712853E-2</v>
+      </c>
+      <c r="H160" s="46">
+        <f t="shared" si="28"/>
+        <v>2.6755404333333333E-2</v>
+      </c>
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
       <c r="K160" s="47"/>
-      <c r="L160" s="5"/>
+      <c r="L160" s="5">
+        <f>AVERAGE($F$109:F160)</f>
+        <v>104369957.61961542</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A161" s="36"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
+      <c r="A161" s="36">
+        <v>42817</v>
+      </c>
+      <c r="B161" s="37">
+        <f t="shared" si="15"/>
+        <v>161619.26000000013</v>
+      </c>
+      <c r="C161" s="37">
+        <f t="shared" si="22"/>
+        <v>279089.95999999996</v>
+      </c>
+      <c r="D161" s="37">
+        <f t="shared" si="22"/>
+        <v>4348849</v>
+      </c>
+      <c r="E161" s="37">
+        <f>D161-C161</f>
+        <v>4069759.04</v>
+      </c>
+      <c r="F161" s="37">
+        <v>140725306.59</v>
+      </c>
+      <c r="G161" s="46">
+        <f t="shared" si="27"/>
+        <v>3.8738983203955392E-2</v>
+      </c>
+      <c r="H161" s="46">
+        <f t="shared" si="28"/>
+        <v>2.7131726933333333E-2</v>
+      </c>
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
       <c r="K161" s="47"/>
-      <c r="L161" s="5"/>
+      <c r="L161" s="5">
+        <f>AVERAGE($F$109:F161)</f>
+        <v>105055907.60018872</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A162" s="36"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
+      <c r="A162" s="36">
+        <v>42818</v>
+      </c>
+      <c r="B162" s="37">
+        <f t="shared" si="15"/>
+        <v>164000.51</v>
+      </c>
+      <c r="C162" s="37">
+        <f t="shared" si="22"/>
+        <v>287233.21999999997</v>
+      </c>
+      <c r="D162" s="37">
+        <f t="shared" si="22"/>
+        <v>4410829</v>
+      </c>
+      <c r="E162" s="37">
+        <f t="shared" ref="E162:E169" si="29">D162-C162</f>
+        <v>4123595.7800000003</v>
+      </c>
+      <c r="F162" s="37">
+        <v>140725307.59</v>
+      </c>
+      <c r="G162" s="46">
+        <f t="shared" ref="G162:G169" si="30">E162/L162</f>
+        <v>3.9006187781125974E-2</v>
+      </c>
+      <c r="H162" s="46">
+        <f t="shared" ref="H162:H169" si="31">E162/150000000</f>
+        <v>2.7490638533333334E-2</v>
+      </c>
       <c r="I162" s="37"/>
       <c r="J162" s="37"/>
       <c r="K162" s="47"/>
-      <c r="L162" s="5"/>
+      <c r="L162" s="5">
+        <f>AVERAGE($F$109:F162)</f>
+        <v>105716452.04444449</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A163" s="36"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="46"/>
+      <c r="A163" s="36">
+        <v>42821</v>
+      </c>
+      <c r="B163" s="37">
+        <f t="shared" si="15"/>
+        <v>165874.26</v>
+      </c>
+      <c r="C163" s="37">
+        <f t="shared" si="22"/>
+        <v>293461.26</v>
+      </c>
+      <c r="D163" s="37">
+        <f t="shared" si="22"/>
+        <v>4278909</v>
+      </c>
+      <c r="E163" s="37">
+        <f t="shared" si="29"/>
+        <v>3985447.74</v>
+      </c>
+      <c r="F163" s="37">
+        <v>140725308.59</v>
+      </c>
+      <c r="G163" s="46">
+        <f t="shared" si="30"/>
+        <v>3.7473777070746915E-2</v>
+      </c>
+      <c r="H163" s="46">
+        <f t="shared" si="31"/>
+        <v>2.6569651600000001E-2</v>
+      </c>
       <c r="I163" s="37"/>
       <c r="J163" s="37"/>
       <c r="K163" s="47"/>
-      <c r="L163" s="5"/>
+      <c r="L163" s="5">
+        <f>AVERAGE($F$109:F163)</f>
+        <v>106352976.70890914</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A164" s="36"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
+      <c r="A164" s="36">
+        <v>42822</v>
+      </c>
+      <c r="B164" s="37">
+        <f t="shared" si="15"/>
+        <v>169851.34000000008</v>
+      </c>
+      <c r="C164" s="37">
+        <f t="shared" si="22"/>
+        <v>299513.01</v>
+      </c>
+      <c r="D164" s="37">
+        <f t="shared" si="22"/>
+        <v>4260577</v>
+      </c>
+      <c r="E164" s="37">
+        <f t="shared" si="29"/>
+        <v>3961063.99</v>
+      </c>
+      <c r="F164" s="37">
+        <v>140725309.59</v>
+      </c>
+      <c r="G164" s="46">
+        <f t="shared" si="30"/>
+        <v>3.7030790501131929E-2</v>
+      </c>
+      <c r="H164" s="46">
+        <f t="shared" si="31"/>
+        <v>2.6407093266666667E-2</v>
+      </c>
       <c r="I164" s="37"/>
       <c r="J164" s="37"/>
       <c r="K164" s="47"/>
-      <c r="L164" s="5"/>
+      <c r="L164" s="5">
+        <f>AVERAGE($F$109:F164)</f>
+        <v>106966768.36750005</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C165" s="45"/>
-      <c r="E165" s="35"/>
-      <c r="I165" s="11"/>
+      <c r="A165" s="36">
+        <v>42823</v>
+      </c>
+      <c r="B165" s="37">
+        <f t="shared" si="15"/>
+        <v>173324.34000000008</v>
+      </c>
+      <c r="C165" s="37">
+        <f t="shared" si="22"/>
+        <v>302491.28999999992</v>
+      </c>
+      <c r="D165" s="37">
+        <f t="shared" si="22"/>
+        <v>4381646</v>
+      </c>
+      <c r="E165" s="37">
+        <f t="shared" si="29"/>
+        <v>4079154.71</v>
+      </c>
+      <c r="F165" s="37">
+        <v>140725310.59</v>
+      </c>
+      <c r="G165" s="46">
+        <f t="shared" si="30"/>
+        <v>3.7924802378106033E-2</v>
+      </c>
+      <c r="H165" s="46">
+        <f t="shared" si="31"/>
+        <v>2.7194364733333334E-2</v>
+      </c>
+      <c r="I165" s="37"/>
       <c r="J165" s="37"/>
+      <c r="K165" s="47"/>
+      <c r="L165" s="5">
+        <f>AVERAGE($F$109:F165)</f>
+        <v>107559023.49421057</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D166" s="36"/>
-      <c r="E166" s="5"/>
-      <c r="I166" s="11"/>
+      <c r="A166" s="36">
+        <v>42824</v>
+      </c>
+      <c r="B166" s="37">
+        <f t="shared" si="15"/>
+        <v>182213.34000000008</v>
+      </c>
+      <c r="C166" s="37">
+        <f t="shared" si="22"/>
+        <v>306087.78999999992</v>
+      </c>
+      <c r="D166" s="37">
+        <f t="shared" si="22"/>
+        <v>4152576</v>
+      </c>
+      <c r="E166" s="37">
+        <f t="shared" si="29"/>
+        <v>3846488.21</v>
+      </c>
+      <c r="F166" s="37">
+        <v>140725311.59</v>
+      </c>
+      <c r="G166" s="46">
+        <f t="shared" si="30"/>
+        <v>3.557253082605058E-2</v>
+      </c>
+      <c r="H166" s="46">
+        <f t="shared" si="31"/>
+        <v>2.5643254733333332E-2</v>
+      </c>
+      <c r="I166" s="37"/>
       <c r="J166" s="37"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="5">
+        <f>AVERAGE($F$109:F166)</f>
+        <v>108130856.04758626</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D167" s="36"/>
-      <c r="E167" s="5"/>
-      <c r="I167" s="11"/>
+      <c r="A167" s="36">
+        <v>42825</v>
+      </c>
+      <c r="B167" s="37">
+        <f t="shared" si="15"/>
+        <v>210532.22000000009</v>
+      </c>
+      <c r="C167" s="37">
+        <f t="shared" si="22"/>
+        <v>330657.13</v>
+      </c>
+      <c r="D167" s="37">
+        <f t="shared" si="22"/>
+        <v>4531653</v>
+      </c>
+      <c r="E167" s="37">
+        <f t="shared" si="29"/>
+        <v>4200995.87</v>
+      </c>
+      <c r="F167" s="37">
+        <v>140725312.59</v>
+      </c>
+      <c r="G167" s="46">
+        <f t="shared" si="30"/>
+        <v>3.8653553006465308E-2</v>
+      </c>
+      <c r="H167" s="46">
+        <f t="shared" si="31"/>
+        <v>2.8006639133333334E-2</v>
+      </c>
+      <c r="I167" s="37"/>
       <c r="J167" s="37"/>
+      <c r="K167" s="47"/>
+      <c r="L167" s="5">
+        <f>AVERAGE($F$109:F167)</f>
+        <v>108683304.46355937</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D168" s="36"/>
-      <c r="E168" s="5"/>
-      <c r="I168" s="11"/>
+      <c r="A168" s="36">
+        <v>42830</v>
+      </c>
+      <c r="B168" s="37">
+        <f t="shared" si="15"/>
+        <v>213542.33000000007</v>
+      </c>
+      <c r="C168" s="37">
+        <f t="shared" si="22"/>
+        <v>335566.49</v>
+      </c>
+      <c r="D168" s="37">
+        <f t="shared" si="22"/>
+        <v>4607254</v>
+      </c>
+      <c r="E168" s="37">
+        <f t="shared" si="29"/>
+        <v>4271687.51</v>
+      </c>
+      <c r="F168" s="37">
+        <v>140725313.59</v>
+      </c>
+      <c r="G168" s="46">
+        <f t="shared" si="30"/>
+        <v>3.9111807614233371E-2</v>
+      </c>
+      <c r="H168" s="46">
+        <f t="shared" si="31"/>
+        <v>2.8477916733333331E-2</v>
+      </c>
+      <c r="I168" s="37"/>
       <c r="J168" s="37"/>
+      <c r="K168" s="47"/>
+      <c r="L168" s="5">
+        <f>AVERAGE($F$109:F168)</f>
+        <v>109217337.94900006</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D169" s="36"/>
-      <c r="E169" s="5"/>
-      <c r="I169" s="11"/>
+      <c r="A169" s="36">
+        <v>42831</v>
+      </c>
+      <c r="B169" s="37">
+        <f t="shared" si="15"/>
+        <v>221941.09000000008</v>
+      </c>
+      <c r="C169" s="37">
+        <f t="shared" si="22"/>
+        <v>340138.04000000004</v>
+      </c>
+      <c r="D169" s="37">
+        <f t="shared" si="22"/>
+        <v>4750855</v>
+      </c>
+      <c r="E169" s="37">
+        <f t="shared" si="29"/>
+        <v>4410716.96</v>
+      </c>
+      <c r="F169" s="37">
+        <v>140725314.59</v>
+      </c>
+      <c r="G169" s="46">
+        <f t="shared" si="30"/>
+        <v>4.0194675311075838E-2</v>
+      </c>
+      <c r="H169" s="46">
+        <f t="shared" si="31"/>
+        <v>2.9404779733333334E-2</v>
+      </c>
+      <c r="I169" s="37"/>
       <c r="J169" s="37"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="5">
+        <f>AVERAGE($F$109:F169)</f>
+        <v>109733862.15622957</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D170" s="36"/>
-      <c r="E170" s="5"/>
-      <c r="I170" s="11"/>
+      <c r="A170" s="36">
+        <v>42832</v>
+      </c>
+      <c r="B170" s="37">
+        <f t="shared" si="15"/>
+        <v>223269.85000000009</v>
+      </c>
+      <c r="C170" s="37">
+        <f t="shared" ref="C170:D174" si="32">C64-C$2</f>
+        <v>344676.25</v>
+      </c>
+      <c r="D170" s="37">
+        <f t="shared" si="32"/>
+        <v>4747833</v>
+      </c>
+      <c r="E170" s="37">
+        <f t="shared" ref="E170:E174" si="33">D170-C170</f>
+        <v>4403156.75</v>
+      </c>
+      <c r="F170" s="37">
+        <v>140725315.59</v>
+      </c>
+      <c r="G170" s="46">
+        <f t="shared" ref="G170:G174" si="34">E170/L170</f>
+        <v>3.9943826425403506E-2</v>
+      </c>
+      <c r="H170" s="46">
+        <f t="shared" ref="H170:H174" si="35">E170/150000000</f>
+        <v>2.9354378333333334E-2</v>
+      </c>
+      <c r="I170" s="37"/>
       <c r="J170" s="37"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C178" s="36">
-        <v>42810</v>
+      <c r="K170" s="47"/>
+      <c r="L170" s="5">
+        <f>AVERAGE($F$109:F170)</f>
+        <v>110233724.30838716</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A171" s="36">
+        <v>42835</v>
+      </c>
+      <c r="B171" s="37">
+        <f t="shared" si="15"/>
+        <v>225799.02000000014</v>
+      </c>
+      <c r="C171" s="37">
+        <f t="shared" si="32"/>
+        <v>345620.62999999989</v>
+      </c>
+      <c r="D171" s="37">
+        <f t="shared" si="32"/>
+        <v>4826169</v>
+      </c>
+      <c r="E171" s="37">
+        <f t="shared" si="33"/>
+        <v>4480548.37</v>
+      </c>
+      <c r="F171" s="37">
+        <v>140725316.59</v>
+      </c>
+      <c r="G171" s="46">
+        <f t="shared" si="34"/>
+        <v>4.0468214641217637E-2</v>
+      </c>
+      <c r="H171" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9870322466666668E-2</v>
+      </c>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="5">
+        <f>AVERAGE($F$109:F171)</f>
+        <v>110717717.83666673</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A172" s="36">
+        <v>42836</v>
+      </c>
+      <c r="B172" s="37">
+        <f t="shared" si="15"/>
+        <v>225799.02000000014</v>
+      </c>
+      <c r="C172" s="37">
+        <f t="shared" si="32"/>
+        <v>349838.24999999988</v>
+      </c>
+      <c r="D172" s="37">
+        <f t="shared" si="32"/>
+        <v>4504932</v>
+      </c>
+      <c r="E172" s="37">
+        <f t="shared" si="33"/>
+        <v>4155093.75</v>
+      </c>
+      <c r="F172" s="37">
+        <v>140725317.59</v>
+      </c>
+      <c r="G172" s="46">
+        <f t="shared" si="34"/>
+        <v>3.7370458772967699E-2</v>
+      </c>
+      <c r="H172" s="46">
+        <f t="shared" si="35"/>
+        <v>2.7700625E-2</v>
+      </c>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="47"/>
+      <c r="L172" s="5">
+        <f>AVERAGE($F$109:F172)</f>
+        <v>111186586.58281256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A173" s="36">
+        <v>42837</v>
+      </c>
+      <c r="B173" s="37">
+        <f t="shared" si="15"/>
+        <v>226786.12000000011</v>
+      </c>
+      <c r="C173" s="37">
+        <f t="shared" si="32"/>
+        <v>352834.67999999993</v>
+      </c>
+      <c r="D173" s="37">
+        <f t="shared" si="32"/>
+        <v>4724738</v>
+      </c>
+      <c r="E173" s="37">
+        <f t="shared" si="33"/>
+        <v>4371903.32</v>
+      </c>
+      <c r="F173" s="37">
+        <v>140725318.59</v>
+      </c>
+      <c r="G173" s="46">
+        <f t="shared" si="34"/>
+        <v>3.9160364019288532E-2</v>
+      </c>
+      <c r="H173" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9146022133333335E-2</v>
+      </c>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="47"/>
+      <c r="L173" s="5">
+        <f>AVERAGE($F$109:F173)</f>
+        <v>111641028.61369237</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A174" s="36">
+        <v>42838</v>
+      </c>
+      <c r="B174" s="37">
+        <f t="shared" ref="B174:B179" si="36">B68-$B$2</f>
+        <v>227755.70000000007</v>
+      </c>
+      <c r="C174" s="37">
+        <f t="shared" si="32"/>
+        <v>355872.19999999995</v>
+      </c>
+      <c r="D174" s="37">
+        <f t="shared" si="32"/>
+        <v>4724738</v>
+      </c>
+      <c r="E174" s="37">
+        <f t="shared" si="33"/>
+        <v>4368865.8</v>
+      </c>
+      <c r="F174" s="37">
+        <v>140725319.59</v>
+      </c>
+      <c r="G174" s="46">
+        <f t="shared" si="34"/>
+        <v>3.8979296460698004E-2</v>
+      </c>
+      <c r="H174" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9125771999999998E-2</v>
+      </c>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
+      <c r="K174" s="47"/>
+      <c r="L174" s="5">
+        <f>AVERAGE($F$109:F174)</f>
+        <v>112081699.68909097</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A175" s="36">
+        <v>42839</v>
+      </c>
+      <c r="B175" s="37">
+        <f t="shared" si="36"/>
+        <v>228624.04000000004</v>
+      </c>
+      <c r="C175" s="37">
+        <f t="shared" ref="C175:D179" si="37">C69-C$2</f>
+        <v>358294.57999999996</v>
+      </c>
+      <c r="D175" s="37">
+        <f t="shared" si="37"/>
+        <v>4705759</v>
+      </c>
+      <c r="E175" s="37">
+        <f t="shared" ref="E175:E179" si="38">D175-C175</f>
+        <v>4347464.42</v>
+      </c>
+      <c r="F175" s="37">
+        <v>140725320.59</v>
+      </c>
+      <c r="G175" s="46">
+        <f t="shared" ref="G175:G179" si="39">E175/L175</f>
+        <v>3.864096256622359E-2</v>
+      </c>
+      <c r="H175" s="46">
+        <f t="shared" ref="H175:H179" si="40">E175/150000000</f>
+        <v>2.8983096133333334E-2</v>
+      </c>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
+      <c r="K175" s="47"/>
+      <c r="L175" s="5">
+        <f>AVERAGE($F$109:F175)</f>
+        <v>112509216.4189553</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A176" s="36">
+        <v>42842</v>
+      </c>
+      <c r="B176" s="37">
+        <f t="shared" si="36"/>
+        <v>228624.04000000004</v>
+      </c>
+      <c r="C176" s="37">
+        <f t="shared" si="37"/>
+        <v>361256.06999999983</v>
+      </c>
+      <c r="D176" s="37">
+        <f t="shared" si="37"/>
+        <v>4742042</v>
+      </c>
+      <c r="E176" s="37">
+        <f t="shared" si="38"/>
+        <v>4380785.93</v>
+      </c>
+      <c r="F176" s="37">
+        <v>140725321.59</v>
+      </c>
+      <c r="G176" s="46">
+        <f t="shared" si="39"/>
+        <v>3.8794054020707465E-2</v>
+      </c>
+      <c r="H176" s="46">
+        <f t="shared" si="40"/>
+        <v>2.920523953333333E-2</v>
+      </c>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
+      <c r="K176" s="47"/>
+      <c r="L176" s="5">
+        <f>AVERAGE($F$109:F176)</f>
+        <v>112924159.14205889</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A177" s="36">
+        <v>42843</v>
+      </c>
+      <c r="B177" s="37">
+        <f t="shared" si="36"/>
+        <v>228853.76000000001</v>
+      </c>
+      <c r="C177" s="37">
+        <f t="shared" si="37"/>
+        <v>362603.66999999993</v>
+      </c>
+      <c r="D177" s="37">
+        <f t="shared" si="37"/>
+        <v>4847762</v>
+      </c>
+      <c r="E177" s="37">
+        <f t="shared" si="38"/>
+        <v>4485158.33</v>
+      </c>
+      <c r="F177" s="37">
+        <v>140725322.59</v>
+      </c>
+      <c r="G177" s="46">
+        <f t="shared" si="39"/>
+        <v>3.9577112068211615E-2</v>
+      </c>
+      <c r="H177" s="46">
+        <f t="shared" si="40"/>
+        <v>2.9901055533333335E-2</v>
+      </c>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37"/>
+      <c r="K177" s="47"/>
+      <c r="L177" s="5">
+        <f>AVERAGE($F$109:F177)</f>
+        <v>113327074.5543479</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A178" s="36">
+        <v>42844</v>
+      </c>
+      <c r="B178" s="37">
+        <f t="shared" si="36"/>
+        <v>229073.47999999998</v>
+      </c>
+      <c r="C178" s="37">
+        <f t="shared" si="37"/>
+        <v>366710.1</v>
       </c>
       <c r="D178" s="37">
-        <v>3445388.9699999997</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C179" s="36">
-        <v>42811</v>
+        <f t="shared" si="37"/>
+        <v>4893507</v>
+      </c>
+      <c r="E178" s="37">
+        <f t="shared" si="38"/>
+        <v>4526796.9000000004</v>
+      </c>
+      <c r="F178" s="37">
+        <v>140725323.59</v>
+      </c>
+      <c r="G178" s="46">
+        <f t="shared" si="39"/>
+        <v>3.980704785322231E-2</v>
+      </c>
+      <c r="H178" s="46">
+        <f t="shared" si="40"/>
+        <v>3.0178646000000003E-2</v>
+      </c>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="5">
+        <f>AVERAGE($F$109:F178)</f>
+        <v>113718478.11200006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A179" s="36">
+        <v>42845</v>
+      </c>
+      <c r="B179" s="37">
+        <f t="shared" si="36"/>
+        <v>231005.54999999993</v>
+      </c>
+      <c r="C179" s="37">
+        <f t="shared" si="37"/>
+        <v>368148.69999999995</v>
       </c>
       <c r="D179" s="37">
-        <v>3929255.6</v>
-      </c>
-      <c r="E179" s="5">
-        <f>D179-$D$178</f>
-        <v>483866.63000000035</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C180" s="36">
-        <v>42814</v>
+        <f t="shared" si="37"/>
+        <v>5161164</v>
+      </c>
+      <c r="E179" s="37">
+        <f t="shared" si="38"/>
+        <v>4793015.3</v>
+      </c>
+      <c r="F179" s="37">
+        <v>140725324.59</v>
+      </c>
+      <c r="G179" s="46">
+        <f t="shared" si="39"/>
+        <v>4.2007566581378268E-2</v>
+      </c>
+      <c r="H179" s="46">
+        <f t="shared" si="40"/>
+        <v>3.1953435333333335E-2</v>
+      </c>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="47"/>
+      <c r="L179" s="5">
+        <f>AVERAGE($F$109:F179)</f>
+        <v>114098856.23140852</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A180" s="36">
+        <v>42846</v>
+      </c>
+      <c r="B180" s="37">
+        <f>B74-$B$2</f>
+        <v>232240.86</v>
+      </c>
+      <c r="C180" s="37">
+        <f t="shared" ref="C180:D180" si="41">C74-C$2</f>
+        <v>372441.18000000005</v>
       </c>
       <c r="D180" s="37">
-        <v>3863427.13</v>
-      </c>
-      <c r="E180" s="5">
-        <f t="shared" ref="E180:E183" si="28">D180-$D$178</f>
-        <v>418038.16000000015</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C181" s="36">
-        <v>42815</v>
+        <f t="shared" si="41"/>
+        <v>5023064</v>
+      </c>
+      <c r="E180" s="37">
+        <f t="shared" ref="E180:E184" si="42">D180-C180</f>
+        <v>4650622.82</v>
+      </c>
+      <c r="F180" s="37">
+        <v>140725325.59</v>
+      </c>
+      <c r="G180" s="46">
+        <f t="shared" ref="G180:G184" si="43">E180/L180</f>
+        <v>4.062791057876753E-2</v>
+      </c>
+      <c r="H180" s="46">
+        <f t="shared" ref="H180:H184" si="44">E180/150000000</f>
+        <v>3.1004152133333334E-2</v>
+      </c>
+      <c r="I180" s="37"/>
+      <c r="J180" s="37"/>
+      <c r="K180" s="47"/>
+      <c r="L180" s="5">
+        <f>AVERAGE($F$109:F180)</f>
+        <v>114468668.3058334</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A181" s="36">
+        <v>42849</v>
+      </c>
+      <c r="B181" s="37">
+        <f>B75-$B$2</f>
+        <v>232240.86</v>
+      </c>
+      <c r="C181" s="37">
+        <f t="shared" ref="C181:D181" si="45">C75-C$2</f>
+        <v>375722.50999999989</v>
       </c>
       <c r="D181" s="37">
-        <v>3890283.72</v>
-      </c>
-      <c r="E181" s="5">
-        <f t="shared" si="28"/>
-        <v>444894.75000000047</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C182" s="36">
-        <v>42816</v>
+        <f t="shared" si="45"/>
+        <v>4617942</v>
+      </c>
+      <c r="E181" s="37">
+        <f t="shared" si="42"/>
+        <v>4242219.49</v>
+      </c>
+      <c r="F181" s="37">
+        <v>140725326.59</v>
+      </c>
+      <c r="G181" s="46">
+        <f t="shared" si="43"/>
+        <v>3.6944008542629164E-2</v>
+      </c>
+      <c r="H181" s="46">
+        <f t="shared" si="44"/>
+        <v>2.8281463266666668E-2</v>
+      </c>
+      <c r="I181" s="37"/>
+      <c r="J181" s="37"/>
+      <c r="K181" s="47"/>
+      <c r="L181" s="5">
+        <f>AVERAGE($F$109:F181)</f>
+        <v>114828348.55630144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A182" s="36">
+        <v>42850</v>
+      </c>
+      <c r="B182" s="37">
+        <f>B76-$B$2</f>
+        <v>233938.36</v>
+      </c>
+      <c r="C182" s="37">
+        <f t="shared" ref="C182:D182" si="46">C76-C$2</f>
+        <v>379667.52999999991</v>
       </c>
       <c r="D182" s="37">
-        <v>4013310.65</v>
-      </c>
-      <c r="E182" s="5">
-        <f t="shared" si="28"/>
-        <v>567921.68000000017</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C183" s="36">
-        <v>42817</v>
+        <f t="shared" si="46"/>
+        <v>4876083</v>
+      </c>
+      <c r="E182" s="37">
+        <f t="shared" si="42"/>
+        <v>4496415.47</v>
+      </c>
+      <c r="F182" s="37">
+        <v>140725327.59</v>
+      </c>
+      <c r="G182" s="46">
+        <f t="shared" si="43"/>
+        <v>3.9038735318507163E-2</v>
+      </c>
+      <c r="H182" s="46">
+        <f t="shared" si="44"/>
+        <v>2.9976103133333331E-2</v>
+      </c>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="47"/>
+      <c r="L182" s="5">
+        <f>AVERAGE($F$109:F182)</f>
+        <v>115178307.73243251</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A183" s="36">
+        <v>42851</v>
+      </c>
+      <c r="B183" s="37">
+        <f>B77-$B$2</f>
+        <v>236234.89</v>
+      </c>
+      <c r="C183" s="37">
+        <f t="shared" ref="C183:D183" si="47">C77-C$2</f>
+        <v>386182.74999999988</v>
       </c>
       <c r="D183" s="37">
-        <v>4069759.04</v>
-      </c>
-      <c r="E183" s="5">
-        <f t="shared" si="28"/>
-        <v>624370.0700000003</v>
+        <f t="shared" si="47"/>
+        <v>4968484</v>
+      </c>
+      <c r="E183" s="37">
+        <f t="shared" si="42"/>
+        <v>4582301.25</v>
+      </c>
+      <c r="F183" s="37">
+        <v>140725328.59</v>
+      </c>
+      <c r="G183" s="46">
+        <f t="shared" si="43"/>
+        <v>3.9667101006467358E-2</v>
+      </c>
+      <c r="H183" s="46">
+        <f t="shared" si="44"/>
+        <v>3.0548675000000001E-2</v>
+      </c>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="47"/>
+      <c r="L183" s="5">
+        <f>AVERAGE($F$109:F183)</f>
+        <v>115518934.67720006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A184" s="36">
+        <v>42852</v>
+      </c>
+      <c r="B184" s="37">
+        <f>B78-$B$2</f>
+        <v>246502.40000000002</v>
+      </c>
+      <c r="C184" s="37">
+        <f t="shared" ref="C184:D184" si="48">C78-C$2</f>
+        <v>390633.12999999989</v>
+      </c>
+      <c r="D184" s="37">
+        <f t="shared" si="48"/>
+        <v>5041490</v>
+      </c>
+      <c r="E184" s="37">
+        <f t="shared" si="42"/>
+        <v>4650856.87</v>
+      </c>
+      <c r="F184" s="37">
+        <v>140725329.59</v>
+      </c>
+      <c r="G184" s="46">
+        <f t="shared" si="43"/>
+        <v>4.0145298855577494E-2</v>
+      </c>
+      <c r="H184" s="46">
+        <f t="shared" si="44"/>
+        <v>3.1005712466666668E-2</v>
+      </c>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="47"/>
+      <c r="L184" s="5">
+        <f>AVERAGE($F$109:F184)</f>
+        <v>115850597.76815796</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A185" s="36">
+        <v>42853</v>
+      </c>
+      <c r="B185" s="37">
+        <f t="shared" ref="B185:B189" si="49">B79-$B$2</f>
+        <v>251023.27000000002</v>
+      </c>
+      <c r="C185" s="37">
+        <f t="shared" ref="C185:D185" si="50">C79-C$2</f>
+        <v>393879.83999999997</v>
+      </c>
+      <c r="D185" s="37">
+        <f t="shared" si="50"/>
+        <v>5018850</v>
+      </c>
+      <c r="E185" s="37">
+        <f t="shared" ref="E185:E188" si="51">D185-C185</f>
+        <v>4624970.16</v>
+      </c>
+      <c r="F185" s="37">
+        <v>140725330.59</v>
+      </c>
+      <c r="G185" s="46">
+        <f t="shared" ref="G185:G188" si="52">E185/L185</f>
+        <v>3.9810837564588919E-2</v>
+      </c>
+      <c r="H185" s="46">
+        <f t="shared" ref="H185:H188" si="53">E185/150000000</f>
+        <v>3.08331344E-2</v>
+      </c>
+      <c r="I185" s="37"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="47"/>
+      <c r="L185" s="5">
+        <f>AVERAGE($F$109:F185)</f>
+        <v>116173646.2463637</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A186" s="36">
+        <v>42857</v>
+      </c>
+      <c r="B186" s="37">
+        <f t="shared" si="49"/>
+        <v>255331.62</v>
+      </c>
+      <c r="C186" s="37">
+        <f t="shared" ref="C186:D186" si="54">C80-C$2</f>
+        <v>395474.11</v>
+      </c>
+      <c r="D186" s="37">
+        <f t="shared" si="54"/>
+        <v>4937340</v>
+      </c>
+      <c r="E186" s="37">
+        <f t="shared" si="51"/>
+        <v>4541865.8899999997</v>
+      </c>
+      <c r="F186" s="37">
+        <v>140725331.59</v>
+      </c>
+      <c r="G186" s="46">
+        <f t="shared" si="52"/>
+        <v>3.8989851726318886E-2</v>
+      </c>
+      <c r="H186" s="46">
+        <f t="shared" si="53"/>
+        <v>3.0279105933333331E-2</v>
+      </c>
+      <c r="I186" s="37"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="47"/>
+      <c r="L186" s="5">
+        <f>AVERAGE($F$109:F186)</f>
+        <v>116488411.44307698</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A187" s="36">
+        <v>42858</v>
+      </c>
+      <c r="B187" s="37">
+        <f t="shared" si="49"/>
+        <v>257715.65000000002</v>
+      </c>
+      <c r="C187" s="37">
+        <f t="shared" ref="C187:D187" si="55">C81-C$2</f>
+        <v>397726.37999999989</v>
+      </c>
+      <c r="D187" s="37">
+        <f t="shared" si="55"/>
+        <v>5001708</v>
+      </c>
+      <c r="E187" s="37">
+        <f t="shared" si="51"/>
+        <v>4603981.62</v>
+      </c>
+      <c r="F187" s="37">
+        <v>140725332.59</v>
+      </c>
+      <c r="G187" s="46">
+        <f t="shared" si="52"/>
+        <v>3.9419268155402379E-2</v>
+      </c>
+      <c r="H187" s="46">
+        <f t="shared" si="53"/>
+        <v>3.0693210800000002E-2</v>
+      </c>
+      <c r="I187" s="37"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="47"/>
+      <c r="L187" s="5">
+        <f>AVERAGE($F$109:F187)</f>
+        <v>116795207.9132912</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A188" s="36">
+        <v>42859</v>
+      </c>
+      <c r="B188" s="37">
+        <f t="shared" si="49"/>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C188" s="37">
+        <f t="shared" ref="C188:D189" si="56">C82-C$2</f>
+        <v>400975.64</v>
+      </c>
+      <c r="D188" s="37">
+        <f t="shared" si="56"/>
+        <v>4826868</v>
+      </c>
+      <c r="E188" s="37">
+        <f t="shared" si="51"/>
+        <v>4425892.3600000003</v>
+      </c>
+      <c r="F188" s="37">
+        <v>140725333.59</v>
+      </c>
+      <c r="G188" s="46">
+        <f t="shared" si="52"/>
+        <v>3.7797664417276403E-2</v>
+      </c>
+      <c r="H188" s="46">
+        <f t="shared" si="53"/>
+        <v>2.9505949066666669E-2</v>
+      </c>
+      <c r="I188" s="37"/>
+      <c r="J188" s="37"/>
+      <c r="K188" s="47"/>
+      <c r="L188" s="5">
+        <f>AVERAGE($F$109:F188)</f>
+        <v>117094334.48425007</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A189" s="36">
+        <v>42860</v>
+      </c>
+      <c r="B189" s="37">
+        <f t="shared" si="49"/>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C189" s="37">
+        <f t="shared" si="56"/>
+        <v>406287.19999999995</v>
+      </c>
+      <c r="D189" s="37">
+        <f t="shared" si="56"/>
+        <v>5054198</v>
+      </c>
+      <c r="E189" s="37">
+        <f t="shared" ref="E189" si="57">D189-C189</f>
+        <v>4647910.8</v>
+      </c>
+      <c r="F189" s="37">
+        <v>140725334.59</v>
+      </c>
+      <c r="G189" s="46">
+        <f t="shared" ref="G189" si="58">E189/L189</f>
+        <v>3.9595077959969083E-2</v>
+      </c>
+      <c r="H189" s="46">
+        <f t="shared" ref="H189" si="59">E189/150000000</f>
+        <v>3.0986072E-2</v>
+      </c>
+      <c r="I189" s="37"/>
+      <c r="J189" s="37"/>
+      <c r="K189" s="47"/>
+      <c r="L189" s="5">
+        <f>AVERAGE($F$109:F189)</f>
+        <v>117386075.22629637</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A190" s="36"/>
+      <c r="B190" s="37"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="37"/>
+      <c r="J190" s="37"/>
+      <c r="K190" s="47"/>
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A191" s="36"/>
+      <c r="B191" s="37"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A192" s="36"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="47"/>
+      <c r="L192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A193" s="36"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37"/>
+      <c r="K193" s="47"/>
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A194" s="36"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="37"/>
+      <c r="J194" s="37"/>
+      <c r="K194" s="47"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A195" s="36"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="37"/>
+      <c r="J195" s="37"/>
+      <c r="K195" s="47"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A196" s="36"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="37"/>
+      <c r="J196" s="37"/>
+      <c r="K196" s="47"/>
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A197" s="36"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="37"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="37"/>
+      <c r="J197" s="37"/>
+      <c r="K197" s="47"/>
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A198" s="36"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="46"/>
+      <c r="I198" s="37"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="47"/>
+      <c r="L198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A199" s="36"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="37"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="47"/>
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A200" s="36"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="37"/>
+      <c r="J200" s="37"/>
+      <c r="K200" s="47"/>
+      <c r="L200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A201" s="36"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="37"/>
+      <c r="J201" s="37"/>
+      <c r="K201" s="47"/>
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A202" s="36"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="46"/>
+      <c r="I202" s="37"/>
+      <c r="J202" s="37"/>
+      <c r="K202" s="47"/>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A203" s="36"/>
+      <c r="C203" s="45"/>
+      <c r="E203" s="35"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="37"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="5"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="37"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="5"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="37"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A206" s="36"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="5"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="37"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A207" s="36"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="5"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="37"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D208" s="36"/>
+      <c r="E208" s="5"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="37"/>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C216" s="36">
+        <v>42852</v>
+      </c>
+      <c r="D216" s="37">
+        <v>4650856.87</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C217" s="36">
+        <v>42853</v>
+      </c>
+      <c r="D217" s="37">
+        <v>4624970.16</v>
+      </c>
+      <c r="E217" s="5">
+        <f>D217-$D$216</f>
+        <v>-25886.709999999963</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C218" s="36">
+        <v>42857</v>
+      </c>
+      <c r="D218" s="37">
+        <v>4541865.8899999997</v>
+      </c>
+      <c r="E218" s="5">
+        <f t="shared" ref="E218:E219" si="60">D218-$D$216</f>
+        <v>-108990.98000000045</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C219" s="36">
+        <v>42858</v>
+      </c>
+      <c r="D219" s="37">
+        <v>4603981.62</v>
+      </c>
+      <c r="E219" s="5">
+        <f t="shared" si="60"/>
+        <v>-46875.25</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C220" s="36">
+        <v>42859</v>
+      </c>
+      <c r="D220" s="37">
+        <v>4425892.3600000003</v>
+      </c>
+      <c r="E220" s="5">
+        <f>D220-$D$216</f>
+        <v>-224964.50999999978</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C221" s="36">
+        <v>42860</v>
+      </c>
+      <c r="D221" s="37">
+        <v>4647910.8</v>
+      </c>
+      <c r="E221" s="5">
+        <f>D221-$D$216</f>
+        <v>-2946.070000000298</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市盈亏跟踪.xlsx
+++ b/期权做市盈亏跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10860" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="10860" windowHeight="6675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年盈亏情况" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>TotalRepo</t>
   </si>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>实际结算价盈亏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证50指数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1080,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392733696"/>
-        <c:axId val="326861952"/>
+        <c:axId val="176860160"/>
+        <c:axId val="281514496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392733696"/>
+        <c:axId val="176860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326861952"/>
+        <c:crossAx val="281514496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326861952"/>
+        <c:axId val="281514496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000000"/>
@@ -1114,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392733696"/>
+        <c:crossAx val="176860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,11 +1333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392912896"/>
-        <c:axId val="326864256"/>
+        <c:axId val="176860672"/>
+        <c:axId val="281516800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392912896"/>
+        <c:axId val="176860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,14 +1347,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326864256"/>
+        <c:crossAx val="281516800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326864256"/>
+        <c:axId val="281516800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392912896"/>
+        <c:crossAx val="176860672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,10 +1436,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$83</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$3:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -1678,16 +1682,85 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$83</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$3:$E$106</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>3960057.26</c:v>
                 </c:pt>
@@ -1930,6 +2003,75 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8312768.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8339614.29</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8201383.3099999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8406779.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8408628.0500000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8885900.5600000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9002356.0700000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8869047.1300000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8908668.7200000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8761128.4199999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8944866.7300000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9071995.7200000007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9434098.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9453824.9299999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9706282.4600000009</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9729103.620000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9772346.7100000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9952165.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9919687.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9911380.2599999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9922131.4700000007</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10003709.460000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10001118.34</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10091913.220000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,11 +2088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62129664"/>
-        <c:axId val="326864832"/>
+        <c:axId val="357754368"/>
+        <c:axId val="281517376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="62129664"/>
+        <c:axId val="357754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,16 +2102,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326864832"/>
+        <c:crossAx val="281517376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="7"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326864832"/>
+        <c:axId val="281517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3900000"/>
@@ -1981,10 +2123,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62129664"/>
+        <c:crossAx val="357754368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="300000"/>
+        <c:majorUnit val="500000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2058,10 +2200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$132:$A$235</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -2304,16 +2446,85 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$109:$E$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$132:$E$235</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>295200.05000000005</c:v>
                 </c:pt>
@@ -2556,6 +2767,75 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>4647910.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4674757.08</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4536526.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4741922.59</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4743770.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5221043.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5337498.8600000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5204189.92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5243811.51</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5096271.21</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5280009.5199999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5407138.5099999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5769241.3899999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5788967.7199999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6041425.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6064246.4100000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6107489.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6287308.54</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6254829.9500000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6246523.0499999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6257274.2599999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6338852.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6336261.1299999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6427056.0099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,11 +2852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392916480"/>
-        <c:axId val="326866560"/>
+        <c:axId val="357755392"/>
+        <c:axId val="358237312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392916480"/>
+        <c:axId val="357755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,16 +2866,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326866560"/>
+        <c:crossAx val="358237312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="8"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326866560"/>
+        <c:axId val="358237312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="280000"/>
@@ -2607,7 +2887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392916480"/>
+        <c:crossAx val="357755392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,7 +2967,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017年盈亏情况_凌总'!$G$108</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$G$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2701,10 +2981,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$132:$A$235</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -2947,16 +3227,85 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$G$109:$G$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$G$132:$G$235</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>3.2441589711732356E-3</c:v>
                 </c:pt>
@@ -3199,6 +3548,75 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3.9595077959969083E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9727451829459699E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8461933531616629E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0111130275748107E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.003709435991374E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.3969269351073516E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.4854560095447735E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3643711148164926E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.388714889653423E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.2568252081717196E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.4018115900511079E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.499325767179306E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.7918245099173168E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.7995880297972186E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0001224437864471E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0104142172063833E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0376925893173753E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1775211753431694E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1425237340393663E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1276436915468245E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.1285890991777244E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.1876495671351733E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.1779038588252224E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.2445365372909933E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,7 +3628,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017年盈亏情况_凌总'!$H$108</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$H$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3224,10 +3642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$A$109:$A$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$A$132:$A$235</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -3470,16 +3888,85 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$H$109:$H$189</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$H$132:$H$235</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>1.9680003333333337E-3</c:v>
                 </c:pt>
@@ -3722,6 +4209,75 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3.0986072E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.11650472E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.0243507333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1612817266666662E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1625138933333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4806955666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.5583325733333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4694599466666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4958743399999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3975141399999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.520006346666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6047590066666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8461609266666662E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.8593118133333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0276168333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0428309400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.0716596666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.1915390266666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.1698866333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.1643487E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.1715161733333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.2259014999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.2241740866666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.2847040066666668E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,11 +4294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393469952"/>
-        <c:axId val="326868288"/>
+        <c:axId val="357755904"/>
+        <c:axId val="358239040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393469952"/>
+        <c:axId val="357755904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,16 +4308,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326868288"/>
+        <c:crossAx val="358239040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="7"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326868288"/>
+        <c:axId val="358239040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +4328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393469952"/>
+        <c:crossAx val="357755904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4434,11 +4990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393470464"/>
-        <c:axId val="401090240"/>
+        <c:axId val="357756416"/>
+        <c:axId val="358241344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393470464"/>
+        <c:axId val="357756416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,7 +5004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401090240"/>
+        <c:crossAx val="358241344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4457,7 +5013,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="401090240"/>
+        <c:axId val="358241344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3900000"/>
@@ -4469,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393470464"/>
+        <c:crossAx val="357756416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300000"/>
@@ -4535,55 +5091,73 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>周盈亏</c:v>
+            <c:v>期权做市周盈亏</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$C$217:$C$221</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$C$264:$C$271</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42853</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42857</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42858</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42859</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42860</c:v>
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017年盈亏情况_凌总'!$E$217:$E$221</c:f>
+              <c:f>'2017年盈亏情况_凌总'!$E$264:$E$271</c:f>
               <c:numCache>
                 <c:formatCode>"¥"#,##0.00_);[Red]\("¥"#,##0.00\)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-25886.709999999963</c:v>
+                  <c:v>43243.089999999851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-108990.98000000045</c:v>
+                  <c:v>223062.12999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-46875.25</c:v>
+                  <c:v>190583.54000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-224964.50999999978</c:v>
+                  <c:v>182276.63999999966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2946.070000000298</c:v>
+                  <c:v>193027.84999999963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274605.83999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272014.71999999974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>362809.59999999963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,11 +5174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393470976"/>
-        <c:axId val="401092544"/>
+        <c:axId val="360169472"/>
+        <c:axId val="358243648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393470976"/>
+        <c:axId val="360169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4614,14 +5188,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401092544"/>
+        <c:crossAx val="358243648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="401092544"/>
+        <c:axId val="358243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +5206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393470976"/>
+        <c:crossAx val="360169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4725,13 +5299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4755,13 +5329,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4785,13 +5359,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>923926</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4817,13 +5391,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4849,14 +5423,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1171574</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6905,13 +7479,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomRight" activeCell="E264" sqref="E264:E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6928,6 +7502,7 @@
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -7558,7 +8133,7 @@
         <v>6073553</v>
       </c>
       <c r="E24" s="39">
-        <f t="shared" ref="E24:E83" si="1">D24-C24</f>
+        <f t="shared" ref="E24:E87" si="1">D24-C24</f>
         <v>5426247.7199999997</v>
       </c>
       <c r="F24" s="44">
@@ -8849,3871 +9424,5313 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="37"/>
+      <c r="A84" s="36">
+        <v>42863</v>
+      </c>
+      <c r="B84" s="37">
+        <v>912238.80999999994</v>
+      </c>
+      <c r="C84" s="37">
+        <v>980401.71000000008</v>
+      </c>
+      <c r="D84" s="38">
+        <v>9320016</v>
+      </c>
+      <c r="E84" s="39">
+        <f t="shared" si="1"/>
+        <v>8339614.29</v>
+      </c>
+      <c r="F84" s="37">
+        <v>97545821.939999998</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="37"/>
+      <c r="A85" s="36">
+        <v>42864</v>
+      </c>
+      <c r="B85" s="37">
+        <v>912238.80999999994</v>
+      </c>
+      <c r="C85" s="37">
+        <v>982143.69000000006</v>
+      </c>
+      <c r="D85" s="38">
+        <v>9183527</v>
+      </c>
+      <c r="E85" s="39">
+        <f t="shared" si="1"/>
+        <v>8201383.3099999996</v>
+      </c>
+      <c r="F85" s="37">
+        <v>99398944.439999998</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="37"/>
+      <c r="A86" s="36">
+        <v>42865</v>
+      </c>
+      <c r="B86" s="37">
+        <v>912238.80999999994</v>
+      </c>
+      <c r="C86" s="37">
+        <v>985522.20000000007</v>
+      </c>
+      <c r="D86" s="38">
+        <v>9392302</v>
+      </c>
+      <c r="E86" s="39">
+        <f t="shared" si="1"/>
+        <v>8406779.8000000007</v>
+      </c>
+      <c r="F86" s="37">
+        <v>85406855.269999996</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="37"/>
+      <c r="A87" s="36">
+        <v>42866</v>
+      </c>
+      <c r="B87" s="37">
+        <v>913804.08</v>
+      </c>
+      <c r="C87" s="37">
+        <v>989767.95</v>
+      </c>
+      <c r="D87" s="38">
+        <v>9398396</v>
+      </c>
+      <c r="E87" s="39">
+        <f t="shared" si="1"/>
+        <v>8408628.0500000007</v>
+      </c>
+      <c r="F87" s="37">
+        <v>79912806.75</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="37"/>
+      <c r="A88" s="36">
+        <v>42867</v>
+      </c>
+      <c r="B88" s="37">
+        <v>916876.28999999992</v>
+      </c>
+      <c r="C88" s="37">
+        <v>1002954.44</v>
+      </c>
+      <c r="D88" s="38">
+        <v>9888855</v>
+      </c>
+      <c r="E88" s="39">
+        <f t="shared" ref="E88:E93" si="2">D88-C88</f>
+        <v>8885900.5600000005</v>
+      </c>
+      <c r="F88" s="37">
+        <v>119177049.44000001</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="37"/>
+      <c r="A89" s="36">
+        <v>42870</v>
+      </c>
+      <c r="B89" s="37">
+        <v>919499.61999999988</v>
+      </c>
+      <c r="C89" s="37">
+        <v>1007794.93</v>
+      </c>
+      <c r="D89" s="38">
+        <v>10010151</v>
+      </c>
+      <c r="E89" s="39">
+        <f t="shared" si="2"/>
+        <v>9002356.0700000003</v>
+      </c>
+      <c r="F89" s="37">
+        <v>55335720.870000005</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="37"/>
+      <c r="A90" s="36">
+        <v>42871</v>
+      </c>
+      <c r="B90" s="37">
+        <v>923126.29999999993</v>
+      </c>
+      <c r="C90" s="37">
+        <v>1011967.87</v>
+      </c>
+      <c r="D90" s="38">
+        <v>9881015</v>
+      </c>
+      <c r="E90" s="39">
+        <f t="shared" si="2"/>
+        <v>8869047.1300000008</v>
+      </c>
+      <c r="F90" s="37">
+        <v>50933217.880000003</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="37"/>
+      <c r="A91" s="36">
+        <v>42872</v>
+      </c>
+      <c r="B91" s="37">
+        <v>927464.77999999991</v>
+      </c>
+      <c r="C91" s="37">
+        <v>1014533.28</v>
+      </c>
+      <c r="D91" s="38">
+        <v>9923202</v>
+      </c>
+      <c r="E91" s="39">
+        <f t="shared" si="2"/>
+        <v>8908668.7200000007</v>
+      </c>
+      <c r="F91" s="37">
+        <v>59378860.539999999</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="37"/>
+      <c r="A92" s="36">
+        <v>42873</v>
+      </c>
+      <c r="B92" s="37">
+        <v>933732.69</v>
+      </c>
+      <c r="C92" s="37">
+        <v>1018171.5800000001</v>
+      </c>
+      <c r="D92" s="38">
+        <v>9779300</v>
+      </c>
+      <c r="E92" s="39">
+        <f t="shared" si="2"/>
+        <v>8761128.4199999999</v>
+      </c>
+      <c r="F92" s="37">
+        <v>68707947.390000001</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="37"/>
+      <c r="A93" s="36">
+        <v>42874</v>
+      </c>
+      <c r="B93" s="37">
+        <v>938834.29999999993</v>
+      </c>
+      <c r="C93" s="37">
+        <v>1020748.2700000001</v>
+      </c>
+      <c r="D93" s="38">
+        <v>9965615</v>
+      </c>
+      <c r="E93" s="39">
+        <f t="shared" si="2"/>
+        <v>8944866.7300000004</v>
+      </c>
+      <c r="F93" s="37">
+        <v>69901005.770000011</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="37"/>
+      <c r="A94" s="36">
+        <v>42877</v>
+      </c>
+      <c r="B94" s="37">
+        <v>941625.95</v>
+      </c>
+      <c r="C94" s="37">
+        <v>1023949.28</v>
+      </c>
+      <c r="D94" s="38">
+        <v>10095945</v>
+      </c>
+      <c r="E94" s="39">
+        <f t="shared" ref="E94:E106" si="3">D94-C94</f>
+        <v>9071995.7200000007</v>
+      </c>
+      <c r="F94" s="37">
+        <v>63000484.5</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="37"/>
+      <c r="A95" s="36">
+        <v>42878</v>
+      </c>
+      <c r="B95" s="37">
+        <v>942175.80999999994</v>
+      </c>
+      <c r="C95" s="37">
+        <v>1032242.4000000001</v>
+      </c>
+      <c r="D95" s="38">
+        <v>10466341</v>
+      </c>
+      <c r="E95" s="39">
+        <f t="shared" si="3"/>
+        <v>9434098.5999999996</v>
+      </c>
+      <c r="F95" s="37">
+        <v>51172316.100000001</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="37"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="37"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A98" s="36"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="37"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" s="36"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C104" s="45"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
+      <c r="A96" s="36">
+        <v>42879</v>
+      </c>
+      <c r="B96" s="37">
+        <v>942175.80999999994</v>
+      </c>
+      <c r="C96" s="37">
+        <v>1037243.07</v>
+      </c>
+      <c r="D96" s="38">
+        <v>10491068</v>
+      </c>
+      <c r="E96" s="39">
+        <f t="shared" si="3"/>
+        <v>9453824.9299999997</v>
+      </c>
+      <c r="F96" s="37">
+        <v>55740436.079999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="36">
+        <v>42880</v>
+      </c>
+      <c r="B97" s="37">
+        <v>953090.87999999989</v>
+      </c>
+      <c r="C97" s="37">
+        <v>1052270.54</v>
+      </c>
+      <c r="D97" s="38">
+        <v>10758553</v>
+      </c>
+      <c r="E97" s="39">
+        <f t="shared" si="3"/>
+        <v>9706282.4600000009</v>
+      </c>
+      <c r="F97" s="37">
+        <v>48393289.230000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="36">
+        <v>42881</v>
+      </c>
+      <c r="B98" s="37">
+        <v>958264.87999999989</v>
+      </c>
+      <c r="C98" s="37">
+        <v>1059513.3799999999</v>
+      </c>
+      <c r="D98" s="38">
+        <v>10788617</v>
+      </c>
+      <c r="E98" s="39">
+        <f t="shared" si="3"/>
+        <v>9729103.620000001</v>
+      </c>
+      <c r="F98" s="37">
+        <v>45988403.439999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="36">
+        <v>42886</v>
+      </c>
+      <c r="B99" s="37">
+        <v>965519.94</v>
+      </c>
+      <c r="C99" s="37">
+        <v>1065311.29</v>
+      </c>
+      <c r="D99" s="38">
+        <v>10837658</v>
+      </c>
+      <c r="E99" s="39">
+        <f t="shared" si="3"/>
+        <v>9772346.7100000009</v>
+      </c>
+      <c r="F99" s="37">
+        <v>58349098.620000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="36">
+        <v>42887</v>
+      </c>
+      <c r="B100" s="37">
+        <v>984173.37</v>
+      </c>
+      <c r="C100" s="37">
+        <v>1071874.25</v>
+      </c>
+      <c r="D100" s="38">
+        <v>11024040</v>
+      </c>
+      <c r="E100" s="39">
+        <f t="shared" si="3"/>
+        <v>9952165.75</v>
+      </c>
+      <c r="F100" s="37">
+        <v>54852096.379999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="36">
+        <v>42888</v>
+      </c>
+      <c r="B101" s="37">
+        <v>984572.89</v>
+      </c>
+      <c r="C101" s="37">
+        <v>1079348.8399999999</v>
+      </c>
+      <c r="D101" s="38">
+        <v>10999036</v>
+      </c>
+      <c r="E101" s="39">
+        <f t="shared" si="3"/>
+        <v>9919687.1600000001</v>
+      </c>
+      <c r="F101" s="37">
+        <v>73152339.730000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="36">
+        <v>42891</v>
+      </c>
+      <c r="B102" s="37">
+        <v>986120.99</v>
+      </c>
+      <c r="C102" s="37">
+        <v>1083095.74</v>
+      </c>
+      <c r="D102" s="38">
+        <v>10994476</v>
+      </c>
+      <c r="E102" s="39">
+        <f t="shared" si="3"/>
+        <v>9911380.2599999998</v>
+      </c>
+      <c r="F102" s="37">
+        <v>88308407.74000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="36">
+        <v>42892</v>
+      </c>
+      <c r="B103" s="37">
+        <v>987264.27</v>
+      </c>
+      <c r="C103" s="37">
+        <v>1085463.53</v>
+      </c>
+      <c r="D103" s="38">
+        <v>11007595</v>
+      </c>
+      <c r="E103" s="39">
+        <f t="shared" si="3"/>
+        <v>9922131.4700000007</v>
+      </c>
+      <c r="F103" s="37">
+        <v>90485921.590000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="36">
+        <v>42893</v>
+      </c>
+      <c r="B104" s="37">
+        <v>987264.27</v>
+      </c>
+      <c r="C104" s="37">
+        <v>1088731.54</v>
+      </c>
+      <c r="D104" s="38">
+        <v>11092441</v>
+      </c>
+      <c r="E104" s="39">
+        <f t="shared" si="3"/>
+        <v>10003709.460000001</v>
+      </c>
+      <c r="F104" s="37">
+        <v>82059580.539999992</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="36">
+        <v>42894</v>
+      </c>
+      <c r="B105" s="37">
+        <v>992801.12</v>
+      </c>
+      <c r="C105" s="37">
+        <v>1093372.6600000001</v>
+      </c>
+      <c r="D105" s="38">
+        <v>11094491</v>
+      </c>
+      <c r="E105" s="39">
+        <f t="shared" si="3"/>
+        <v>10001118.34</v>
+      </c>
+      <c r="F105" s="37">
+        <v>99295674.519999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="36">
+        <v>42895</v>
+      </c>
+      <c r="B106" s="37">
+        <v>992801.12</v>
+      </c>
+      <c r="C106" s="37">
+        <v>1098013.78</v>
+      </c>
+      <c r="D106" s="38">
+        <v>11189927</v>
+      </c>
+      <c r="E106" s="39">
+        <f t="shared" si="3"/>
+        <v>10091913.220000001</v>
+      </c>
+      <c r="F106" s="37">
+        <v>116531768.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="36"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="37"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="37"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="37"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="37"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="37"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="37"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="37"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="36"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="37"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="36"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="37"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="36"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="37"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="36"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="37"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="36"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="37"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="36"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="37"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="36"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="37"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="36"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="37"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="36"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C127" s="45"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A130" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B108" s="35" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B131" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C131" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="35" t="s">
+      <c r="D131" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E131" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F108" s="35" t="s">
+      <c r="F131" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G131" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="35" t="s">
+      <c r="H131" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I108" s="35" t="s">
+      <c r="I131" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J108" s="35" t="s">
+      <c r="J131" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K108" s="35" t="s">
+      <c r="K131" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L108" s="35" t="s">
+      <c r="L131" s="35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A109" s="36">
+      <c r="M131" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A132" s="36">
         <v>42738</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B132" s="37">
         <f>B3-B$2</f>
         <v>3404.5900000000838</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C132" s="37">
         <f>C3-C$2</f>
         <v>2402.9499999999534</v>
       </c>
-      <c r="D109" s="37">
+      <c r="D132" s="37">
         <f>D3-D$2</f>
         <v>297603</v>
       </c>
-      <c r="E109" s="37">
-        <f t="shared" ref="E109:E127" si="2">D109-C109</f>
+      <c r="E132" s="37">
+        <f t="shared" ref="E132:E150" si="4">D132-C132</f>
         <v>295200.05000000005</v>
       </c>
-      <c r="F109" s="44">
+      <c r="F132" s="44">
         <v>90994323.219999999</v>
       </c>
-      <c r="G109" s="46">
-        <f>E109/L109</f>
+      <c r="G132" s="46">
+        <f>E132/L132</f>
         <v>3.2441589711732356E-3</v>
       </c>
-      <c r="H109" s="46">
-        <f>E109/150000000</f>
+      <c r="H132" s="46">
+        <f>E132/150000000</f>
         <v>1.9680003333333337E-3</v>
       </c>
-      <c r="I109" s="37">
-        <f t="shared" ref="I109:I136" si="3">G3-$G$2</f>
+      <c r="I132" s="37">
+        <f>G3-$G$2</f>
         <v>353025.26799999969</v>
       </c>
-      <c r="J109" s="37">
-        <f t="shared" ref="J109:J136" si="4">H3-$H$2</f>
+      <c r="J132" s="37">
+        <f>H3-$H$2</f>
         <v>343957.71399999969</v>
       </c>
-      <c r="K109" s="47">
-        <f>DATEDIF($A$101,A109,"D")+1</f>
+      <c r="K132" s="47">
+        <f>DATEDIF($A$124,A132,"D")+1</f>
         <v>42739</v>
       </c>
-      <c r="L109" s="5">
-        <f>AVERAGE(F109)</f>
+      <c r="L132" s="5">
+        <f>AVERAGE(F132)</f>
         <v>90994323.219999999</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A110" s="36">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A133" s="36">
         <v>42739</v>
       </c>
-      <c r="B110" s="37">
-        <f t="shared" ref="B110:B141" si="5">B4-$B$2</f>
+      <c r="B133" s="37">
+        <f t="shared" ref="B133:B164" si="5">B4-$B$2</f>
         <v>9106.7200000000885</v>
       </c>
-      <c r="C110" s="37">
-        <f t="shared" ref="C110:D129" si="6">C4-C$2</f>
+      <c r="C133" s="37">
+        <f t="shared" ref="C133:D152" si="6">C4-C$2</f>
         <v>5125.0100000000093</v>
       </c>
-      <c r="D110" s="37">
+      <c r="D133" s="37">
         <f t="shared" si="6"/>
         <v>545189</v>
       </c>
-      <c r="E110" s="37">
-        <f t="shared" si="2"/>
+      <c r="E133" s="37">
+        <f t="shared" si="4"/>
         <v>540063.99</v>
       </c>
-      <c r="F110" s="44">
+      <c r="F133" s="44">
         <v>87667319.819999993</v>
       </c>
-      <c r="G110" s="46">
-        <f>E110/L110</f>
+      <c r="G133" s="46">
+        <f>E133/L133</f>
         <v>6.0456624131581147E-3</v>
       </c>
-      <c r="H110" s="46">
-        <f t="shared" ref="H110:H136" si="7">E110/150000000</f>
+      <c r="H133" s="46">
+        <f t="shared" ref="H133:H159" si="7">E133/150000000</f>
         <v>3.6004266000000001E-3</v>
       </c>
-      <c r="I110" s="37">
-        <f t="shared" si="3"/>
+      <c r="I133" s="37">
+        <f>G4-$G$2</f>
         <v>604557.80799999973</v>
       </c>
-      <c r="J110" s="37">
-        <f t="shared" si="4"/>
+      <c r="J133" s="37">
+        <f>H4-$H$2</f>
         <v>616632.69999999972</v>
       </c>
-      <c r="K110" s="47">
-        <f>DATEDIF($A$101,A110,"D")+1</f>
+      <c r="K133" s="47">
+        <f>DATEDIF($A$124,A133,"D")+1</f>
         <v>42740</v>
       </c>
-      <c r="L110" s="5">
-        <f>AVERAGE($F$109:F110)</f>
+      <c r="L133" s="5">
+        <f>AVERAGE($F$132:F133)</f>
         <v>89330821.519999996</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A111" s="36">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A134" s="36">
         <v>42740</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B134" s="37">
         <f t="shared" si="5"/>
         <v>12044.650000000023</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C134" s="37">
         <f t="shared" si="6"/>
         <v>6329.1699999999255</v>
       </c>
-      <c r="D111" s="37">
+      <c r="D134" s="37">
         <f t="shared" si="6"/>
         <v>662682</v>
       </c>
-      <c r="E111" s="37">
-        <f t="shared" si="2"/>
+      <c r="E134" s="37">
+        <f t="shared" si="4"/>
         <v>656352.83000000007</v>
       </c>
-      <c r="F111" s="44">
+      <c r="F134" s="44">
         <v>82531963.170000002</v>
       </c>
-      <c r="G111" s="46">
-        <f t="shared" ref="G111:G136" si="8">E111/L111</f>
+      <c r="G134" s="46">
+        <f t="shared" ref="G134:G159" si="8">E134/L134</f>
         <v>7.5386933032996024E-3</v>
       </c>
-      <c r="H111" s="46">
+      <c r="H134" s="46">
         <f t="shared" si="7"/>
         <v>4.3756855333333339E-3</v>
       </c>
-      <c r="I111" s="37">
-        <f t="shared" si="3"/>
+      <c r="I134" s="37">
+        <f>G5-$G$2</f>
         <v>756912.9179999996</v>
       </c>
-      <c r="J111" s="37">
-        <f t="shared" si="4"/>
+      <c r="J134" s="37">
+        <f>H5-$H$2</f>
         <v>784882.08600000013</v>
       </c>
-      <c r="K111" s="47">
-        <f t="shared" ref="K111:K136" si="9">DATEDIF($A$101,A111,"D")+1</f>
+      <c r="K134" s="47">
+        <f t="shared" ref="K134:K159" si="9">DATEDIF($A$124,A134,"D")+1</f>
         <v>42741</v>
       </c>
-      <c r="L111" s="5">
-        <f>AVERAGE($F$109:F111)</f>
+      <c r="L134" s="5">
+        <f>AVERAGE($F$132:F134)</f>
         <v>87064535.403333321</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A112" s="36">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A135" s="36">
         <v>42741</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B135" s="37">
         <f t="shared" si="5"/>
         <v>13386.320000000065</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C135" s="37">
         <f t="shared" si="6"/>
         <v>6838.9399999999441</v>
       </c>
-      <c r="D112" s="37">
+      <c r="D135" s="37">
         <f t="shared" si="6"/>
         <v>564873</v>
       </c>
-      <c r="E112" s="37">
-        <f t="shared" si="2"/>
+      <c r="E135" s="37">
+        <f t="shared" si="4"/>
         <v>558034.06000000006</v>
       </c>
-      <c r="F112" s="44">
+      <c r="F135" s="44">
         <v>83070343.939999998</v>
       </c>
-      <c r="G112" s="46">
+      <c r="G135" s="46">
         <f t="shared" si="8"/>
         <v>6.4837931448454922E-3</v>
       </c>
-      <c r="H112" s="46">
+      <c r="H135" s="46">
         <f t="shared" si="7"/>
         <v>3.720227066666667E-3</v>
       </c>
-      <c r="I112" s="37">
-        <f t="shared" si="3"/>
+      <c r="I135" s="37">
+        <f>G6-$G$2</f>
         <v>628815.31599999964</v>
       </c>
-      <c r="J112" s="37">
-        <f t="shared" si="4"/>
+      <c r="J135" s="37">
+        <f>H6-$H$2</f>
         <v>642812.58799999999</v>
       </c>
-      <c r="K112" s="47">
+      <c r="K135" s="47">
         <f t="shared" si="9"/>
         <v>42742</v>
       </c>
-      <c r="L112" s="5">
-        <f>AVERAGE($F$109:F112)</f>
+      <c r="L135" s="5">
+        <f>AVERAGE($F$132:F135)</f>
         <v>86065987.537499994</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A113" s="36">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A136" s="36">
         <v>42744</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B136" s="37">
         <f t="shared" si="5"/>
         <v>14794.650000000023</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C136" s="37">
         <f t="shared" si="6"/>
         <v>8076.6300000000047</v>
       </c>
-      <c r="D113" s="37">
+      <c r="D136" s="37">
         <f t="shared" si="6"/>
         <v>734264</v>
       </c>
-      <c r="E113" s="37">
-        <f t="shared" si="2"/>
+      <c r="E136" s="37">
+        <f t="shared" si="4"/>
         <v>726187.37</v>
       </c>
-      <c r="F113" s="44">
+      <c r="F136" s="44">
         <v>82613973.519999996</v>
       </c>
-      <c r="G113" s="46">
+      <c r="G136" s="46">
         <f t="shared" si="8"/>
         <v>8.5057967364152408E-3</v>
       </c>
-      <c r="H113" s="46">
+      <c r="H136" s="46">
         <f t="shared" si="7"/>
         <v>4.8412491333333337E-3</v>
       </c>
-      <c r="I113" s="37">
-        <f t="shared" si="3"/>
+      <c r="I136" s="37">
+        <f>G7-$G$2</f>
         <v>812124.99600000028</v>
       </c>
-      <c r="J113" s="37">
-        <f t="shared" si="4"/>
+      <c r="J136" s="37">
+        <f>H7-$H$2</f>
         <v>839852.81799999997</v>
       </c>
-      <c r="K113" s="47">
+      <c r="K136" s="47">
         <f t="shared" si="9"/>
         <v>42745</v>
       </c>
-      <c r="L113" s="5">
-        <f>AVERAGE($F$109:F113)</f>
+      <c r="L136" s="5">
+        <f>AVERAGE($F$132:F136)</f>
         <v>85375584.733999997</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A114" s="36">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A137" s="36">
         <v>42745</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B137" s="37">
         <f t="shared" si="5"/>
         <v>15339.239999999991</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C137" s="37">
         <f t="shared" si="6"/>
         <v>10809.789999999921</v>
       </c>
-      <c r="D114" s="37">
+      <c r="D137" s="37">
         <f t="shared" si="6"/>
         <v>901031</v>
       </c>
-      <c r="E114" s="37">
-        <f t="shared" si="2"/>
+      <c r="E137" s="37">
+        <f t="shared" si="4"/>
         <v>890221.21000000008</v>
       </c>
-      <c r="F114" s="44">
+      <c r="F137" s="44">
         <v>82714064.219999999</v>
       </c>
-      <c r="G114" s="46">
+      <c r="G137" s="46">
         <f t="shared" si="8"/>
         <v>1.0481576215741001E-2</v>
       </c>
-      <c r="H114" s="46">
+      <c r="H137" s="46">
         <f t="shared" si="7"/>
         <v>5.9348080666666676E-3</v>
       </c>
-      <c r="I114" s="37">
-        <f t="shared" si="3"/>
+      <c r="I137" s="37">
+        <f>G8-$G$2</f>
         <v>1005934.3459999999</v>
       </c>
-      <c r="J114" s="37">
-        <f t="shared" si="4"/>
+      <c r="J137" s="37">
+        <f>H8-$H$2</f>
         <v>1005656.5879999995</v>
       </c>
-      <c r="K114" s="47">
+      <c r="K137" s="47">
         <f t="shared" si="9"/>
         <v>42746</v>
       </c>
-      <c r="L114" s="5">
-        <f>AVERAGE($F$109:F114)</f>
+      <c r="L137" s="5">
+        <f>AVERAGE($F$132:F137)</f>
         <v>84931997.981666669</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A115" s="36">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A138" s="36">
         <v>42746</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B138" s="37">
         <f t="shared" si="5"/>
         <v>16620.900000000023</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C138" s="37">
         <f t="shared" si="6"/>
         <v>12725.099999999977</v>
       </c>
-      <c r="D115" s="37">
+      <c r="D138" s="37">
         <f t="shared" si="6"/>
         <v>968991</v>
       </c>
-      <c r="E115" s="37">
-        <f t="shared" si="2"/>
+      <c r="E138" s="37">
+        <f t="shared" si="4"/>
         <v>956265.9</v>
       </c>
-      <c r="F115" s="44">
+      <c r="F138" s="44">
         <v>81637149.829999998</v>
       </c>
-      <c r="G115" s="46">
+      <c r="G138" s="46">
         <f t="shared" si="8"/>
         <v>1.1321940805918371E-2</v>
       </c>
-      <c r="H115" s="46">
+      <c r="H138" s="46">
         <f t="shared" si="7"/>
         <v>6.3751060000000002E-3</v>
       </c>
-      <c r="I115" s="37">
-        <f t="shared" si="3"/>
+      <c r="I138" s="37">
+        <f>G9-$G$2</f>
         <v>931712.16199999955</v>
       </c>
-      <c r="J115" s="37">
-        <f t="shared" si="4"/>
+      <c r="J138" s="37">
+        <f>H9-$H$2</f>
         <v>965436.12199999951</v>
       </c>
-      <c r="K115" s="47">
+      <c r="K138" s="47">
         <f t="shared" si="9"/>
         <v>42747</v>
       </c>
-      <c r="L115" s="5">
-        <f>AVERAGE($F$109:F115)</f>
+      <c r="L138" s="5">
+        <f>AVERAGE($F$132:F138)</f>
         <v>84461305.388571426</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A116" s="36">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A139" s="36">
         <v>42747</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B139" s="37">
         <f t="shared" si="5"/>
         <v>16620.900000000023</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C139" s="37">
         <f t="shared" si="6"/>
         <v>13195.859999999986</v>
       </c>
-      <c r="D116" s="37">
+      <c r="D139" s="37">
         <f t="shared" si="6"/>
         <v>978512</v>
       </c>
-      <c r="E116" s="37">
-        <f t="shared" si="2"/>
+      <c r="E139" s="37">
+        <f t="shared" si="4"/>
         <v>965316.14</v>
       </c>
-      <c r="F116" s="44">
+      <c r="F139" s="44">
         <v>81232594.590000004</v>
       </c>
-      <c r="G116" s="46">
+      <c r="G139" s="46">
         <f t="shared" si="8"/>
         <v>1.1483968156034743E-2</v>
       </c>
-      <c r="H116" s="46">
+      <c r="H139" s="46">
         <f t="shared" si="7"/>
         <v>6.4354409333333331E-3</v>
       </c>
-      <c r="I116" s="37">
-        <f t="shared" si="3"/>
+      <c r="I139" s="37">
+        <f>G10-$G$2</f>
         <v>1405160.9399999995</v>
       </c>
-      <c r="J116" s="37">
-        <f t="shared" si="4"/>
+      <c r="J139" s="37">
+        <f>H10-$H$2</f>
         <v>1404142.6399999997</v>
       </c>
-      <c r="K116" s="47">
+      <c r="K139" s="47">
         <f t="shared" si="9"/>
         <v>42748</v>
       </c>
-      <c r="L116" s="5">
-        <f>AVERAGE($F$109:F116)</f>
+      <c r="L139" s="5">
+        <f>AVERAGE($F$132:F139)</f>
         <v>84057716.538750008</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117" s="36">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A140" s="36">
         <v>42748</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B140" s="37">
         <f t="shared" si="5"/>
         <v>19282.580000000075</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C140" s="37">
         <f t="shared" si="6"/>
         <v>15243.04999999993</v>
       </c>
-      <c r="D117" s="37">
+      <c r="D140" s="37">
         <f t="shared" si="6"/>
         <v>1046581</v>
       </c>
-      <c r="E117" s="37">
-        <f t="shared" si="2"/>
+      <c r="E140" s="37">
+        <f t="shared" si="4"/>
         <v>1031337.9500000001</v>
       </c>
-      <c r="F117" s="44">
+      <c r="F140" s="44">
         <v>82157397.789999992</v>
       </c>
-      <c r="G117" s="46">
-        <f>E117/L117</f>
+      <c r="G140" s="46">
+        <f>E140/L140</f>
         <v>1.2300299819817674E-2</v>
       </c>
-      <c r="H117" s="46">
+      <c r="H140" s="46">
         <f t="shared" si="7"/>
         <v>6.8755863333333335E-3</v>
       </c>
-      <c r="I117" s="37">
-        <f t="shared" si="3"/>
+      <c r="I140" s="37">
+        <f>G11-$G$2</f>
         <v>1329860.6559999995</v>
       </c>
-      <c r="J117" s="37">
-        <f t="shared" si="4"/>
+      <c r="J140" s="37">
+        <f>H11-$H$2</f>
         <v>1306328.7400000002</v>
       </c>
-      <c r="K117" s="47">
+      <c r="K140" s="47">
         <f t="shared" si="9"/>
         <v>42749</v>
       </c>
-      <c r="L117" s="5">
-        <f>AVERAGE($F$109:F117)</f>
+      <c r="L140" s="5">
+        <f>AVERAGE($F$132:F140)</f>
         <v>83846570.01111111</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A118" s="36">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A141" s="36">
         <v>42751</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B141" s="37">
         <f t="shared" si="5"/>
         <v>21370.090000000084</v>
       </c>
-      <c r="C118" s="37">
+      <c r="C141" s="37">
         <f t="shared" si="6"/>
         <v>24578.589999999967</v>
       </c>
-      <c r="D118" s="37">
+      <c r="D141" s="37">
         <f t="shared" si="6"/>
         <v>1655124</v>
       </c>
-      <c r="E118" s="37">
-        <f t="shared" si="2"/>
+      <c r="E141" s="37">
+        <f t="shared" si="4"/>
         <v>1630545.4100000001</v>
       </c>
-      <c r="F118" s="44">
+      <c r="F141" s="44">
         <v>79987319.460000008</v>
       </c>
-      <c r="G118" s="46">
+      <c r="G141" s="46">
         <f t="shared" si="8"/>
         <v>1.9536697935411532E-2</v>
       </c>
-      <c r="H118" s="46">
+      <c r="H141" s="46">
         <f t="shared" si="7"/>
         <v>1.0870302733333335E-2</v>
       </c>
-      <c r="I118" s="37">
-        <f t="shared" si="3"/>
+      <c r="I141" s="37">
+        <f>G12-$G$2</f>
         <v>1747714.3099999996</v>
       </c>
-      <c r="J118" s="37">
-        <f t="shared" si="4"/>
+      <c r="J141" s="37">
+        <f>H12-$H$2</f>
         <v>1781287.6959999995</v>
       </c>
-      <c r="K118" s="47">
+      <c r="K141" s="47">
         <f t="shared" si="9"/>
         <v>42752</v>
       </c>
-      <c r="L118" s="5">
-        <f>AVERAGE($F$109:F118)</f>
+      <c r="L141" s="5">
+        <f>AVERAGE($F$132:F141)</f>
         <v>83460644.956</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A119" s="36">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A142" s="36">
         <v>42752</v>
       </c>
-      <c r="B119" s="37">
+      <c r="B142" s="37">
         <f t="shared" si="5"/>
         <v>23535.090000000084</v>
       </c>
-      <c r="C119" s="37">
+      <c r="C142" s="37">
         <f t="shared" si="6"/>
         <v>28248.929999999935</v>
       </c>
-      <c r="D119" s="37">
+      <c r="D142" s="37">
         <f t="shared" si="6"/>
         <v>1442651</v>
       </c>
-      <c r="E119" s="37">
-        <f t="shared" si="2"/>
+      <c r="E142" s="37">
+        <f t="shared" si="4"/>
         <v>1414402.07</v>
       </c>
-      <c r="F119" s="44">
+      <c r="F142" s="44">
         <v>74228087.329999998</v>
       </c>
-      <c r="G119" s="46">
+      <c r="G142" s="46">
         <f t="shared" si="8"/>
         <v>1.7119092792446441E-2</v>
       </c>
-      <c r="H119" s="46">
+      <c r="H142" s="46">
         <f t="shared" si="7"/>
         <v>9.4293471333333333E-3</v>
       </c>
-      <c r="I119" s="37">
-        <f t="shared" si="3"/>
+      <c r="I142" s="37">
+        <f>G13-$G$2</f>
         <v>1537927.1519999998</v>
       </c>
-      <c r="J119" s="37">
-        <f t="shared" si="4"/>
+      <c r="J142" s="37">
+        <f>H13-$H$2</f>
         <v>1515386.5439999998</v>
       </c>
-      <c r="K119" s="47">
+      <c r="K142" s="47">
         <f t="shared" si="9"/>
         <v>42753</v>
       </c>
-      <c r="L119" s="5">
-        <f>AVERAGE($F$109:F119)</f>
+      <c r="L142" s="5">
+        <f>AVERAGE($F$132:F142)</f>
         <v>82621321.535454556</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A120" s="36">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A143" s="36">
         <v>42753</v>
       </c>
-      <c r="B120" s="37">
+      <c r="B143" s="37">
         <f t="shared" si="5"/>
         <v>30972.170000000042</v>
       </c>
-      <c r="C120" s="37">
+      <c r="C143" s="37">
         <f t="shared" si="6"/>
         <v>37068.75</v>
       </c>
-      <c r="D120" s="37">
+      <c r="D143" s="37">
         <f t="shared" si="6"/>
         <v>1718940</v>
       </c>
-      <c r="E120" s="37">
-        <f t="shared" si="2"/>
+      <c r="E143" s="37">
+        <f t="shared" si="4"/>
         <v>1681871.25</v>
       </c>
-      <c r="F120" s="44">
+      <c r="F143" s="44">
         <v>63852035.030000001</v>
       </c>
-      <c r="G120" s="46">
+      <c r="G143" s="46">
         <f t="shared" si="8"/>
         <v>2.0749186410748494E-2</v>
       </c>
-      <c r="H120" s="46">
+      <c r="H143" s="46">
         <f t="shared" si="7"/>
         <v>1.1212475E-2</v>
       </c>
-      <c r="I120" s="37">
-        <f t="shared" si="3"/>
+      <c r="I143" s="37">
+        <f>G14-$G$2</f>
         <v>1616127.273</v>
       </c>
-      <c r="J120" s="37">
-        <f t="shared" si="4"/>
+      <c r="J143" s="37">
+        <f>H14-$H$2</f>
         <v>1626009.1749999998</v>
       </c>
-      <c r="K120" s="47">
+      <c r="K143" s="47">
         <f t="shared" si="9"/>
         <v>42754</v>
       </c>
-      <c r="L120" s="5">
-        <f>AVERAGE($F$109:F120)</f>
+      <c r="L143" s="5">
+        <f>AVERAGE($F$132:F143)</f>
         <v>81057214.326666668</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A121" s="36">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A144" s="36">
         <v>42754</v>
       </c>
-      <c r="B121" s="37">
+      <c r="B144" s="37">
         <f t="shared" si="5"/>
         <v>47477.170000000042</v>
       </c>
-      <c r="C121" s="37">
+      <c r="C144" s="37">
         <f t="shared" si="6"/>
         <v>43177.739999999991</v>
       </c>
-      <c r="D121" s="37">
+      <c r="D144" s="37">
         <f t="shared" si="6"/>
         <v>1758778</v>
       </c>
-      <c r="E121" s="37">
-        <f t="shared" si="2"/>
+      <c r="E144" s="37">
+        <f t="shared" si="4"/>
         <v>1715600.26</v>
       </c>
-      <c r="F121" s="44">
+      <c r="F144" s="44">
         <v>61914321.259999998</v>
       </c>
-      <c r="G121" s="46">
+      <c r="G144" s="46">
         <f t="shared" si="8"/>
         <v>2.1556914871249541E-2</v>
       </c>
-      <c r="H121" s="46">
+      <c r="H144" s="46">
         <f t="shared" si="7"/>
         <v>1.1437335066666667E-2</v>
       </c>
-      <c r="I121" s="37">
-        <f t="shared" si="3"/>
+      <c r="I144" s="37">
+        <f>G15-$G$2</f>
         <v>1694327.3939999994</v>
       </c>
-      <c r="J121" s="37">
-        <f t="shared" si="4"/>
+      <c r="J144" s="37">
+        <f>H15-$H$2</f>
         <v>1736631.8059999999</v>
       </c>
-      <c r="K121" s="47">
+      <c r="K144" s="47">
         <f t="shared" si="9"/>
         <v>42755</v>
       </c>
-      <c r="L121" s="5">
-        <f>AVERAGE($F$109:F121)</f>
+      <c r="L144" s="5">
+        <f>AVERAGE($F$132:F144)</f>
         <v>79584684.090769231</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A122" s="36">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A145" s="36">
         <v>42755</v>
       </c>
-      <c r="B122" s="37">
+      <c r="B145" s="37">
         <f t="shared" si="5"/>
         <v>54710.080000000075</v>
       </c>
-      <c r="C122" s="37">
+      <c r="C145" s="37">
         <f t="shared" si="6"/>
         <v>51310.349999999977</v>
       </c>
-      <c r="D122" s="37">
+      <c r="D145" s="37">
         <f t="shared" si="6"/>
         <v>2078152</v>
       </c>
-      <c r="E122" s="37">
-        <f t="shared" si="2"/>
+      <c r="E145" s="37">
+        <f t="shared" si="4"/>
         <v>2026841.65</v>
       </c>
-      <c r="F122" s="44">
+      <c r="F145" s="44">
         <v>70555965.219999999</v>
       </c>
-      <c r="G122" s="46">
+      <c r="G145" s="46">
         <f t="shared" si="8"/>
         <v>2.5675796955267755E-2</v>
       </c>
-      <c r="H122" s="46">
+      <c r="H145" s="46">
         <f t="shared" si="7"/>
         <v>1.3512277666666666E-2</v>
       </c>
-      <c r="I122" s="37">
-        <f t="shared" si="3"/>
+      <c r="I145" s="37">
+        <f>G16-$G$2</f>
         <v>2157870.0499999998</v>
       </c>
-      <c r="J122" s="37">
-        <f t="shared" si="4"/>
+      <c r="J145" s="37">
+        <f>H16-$H$2</f>
         <v>2174319.426</v>
       </c>
-      <c r="K122" s="47">
+      <c r="K145" s="47">
         <f t="shared" si="9"/>
         <v>42756</v>
       </c>
-      <c r="L122" s="5">
-        <f>AVERAGE($F$109:F122)</f>
+      <c r="L145" s="5">
+        <f>AVERAGE($F$132:F145)</f>
         <v>78939775.600000009</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A123" s="36">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A146" s="36">
         <v>42758</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B146" s="37">
         <f t="shared" si="5"/>
         <v>56168.820000000065</v>
       </c>
-      <c r="C123" s="37">
+      <c r="C146" s="37">
         <f t="shared" si="6"/>
         <v>55296.130000000005</v>
       </c>
-      <c r="D123" s="37">
+      <c r="D146" s="37">
         <f t="shared" si="6"/>
         <v>1797431</v>
       </c>
-      <c r="E123" s="37">
-        <f t="shared" si="2"/>
+      <c r="E146" s="37">
+        <f t="shared" si="4"/>
         <v>1742134.87</v>
       </c>
-      <c r="F123" s="44">
+      <c r="F146" s="44">
         <v>78102138.390000001</v>
       </c>
-      <c r="G123" s="46">
+      <c r="G146" s="46">
         <f t="shared" si="8"/>
         <v>2.2084787118367293E-2</v>
       </c>
-      <c r="H123" s="46">
+      <c r="H146" s="46">
         <f t="shared" si="7"/>
         <v>1.1614232466666667E-2</v>
       </c>
-      <c r="I123" s="37">
-        <f t="shared" si="3"/>
+      <c r="I146" s="37">
+        <f>G17-$G$2</f>
         <v>1649063.25</v>
       </c>
-      <c r="J123" s="37">
-        <f t="shared" si="4"/>
+      <c r="J146" s="37">
+        <f>H17-$H$2</f>
         <v>1684232.5860000001</v>
       </c>
-      <c r="K123" s="47">
+      <c r="K146" s="47">
         <f t="shared" si="9"/>
         <v>42759</v>
       </c>
-      <c r="L123" s="5">
-        <f>AVERAGE($F$109:F123)</f>
+      <c r="L146" s="5">
+        <f>AVERAGE($F$132:F146)</f>
         <v>78883933.119333342</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A124" s="36">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A147" s="36">
         <v>42759</v>
       </c>
-      <c r="B124" s="37">
+      <c r="B147" s="37">
         <f t="shared" si="5"/>
         <v>62165.220000000088</v>
       </c>
-      <c r="C124" s="37">
+      <c r="C147" s="37">
         <f t="shared" si="6"/>
         <v>58276.640000000014</v>
       </c>
-      <c r="D124" s="37">
+      <c r="D147" s="37">
         <f t="shared" si="6"/>
         <v>1901637</v>
       </c>
-      <c r="E124" s="37">
-        <f t="shared" si="2"/>
+      <c r="E147" s="37">
+        <f t="shared" si="4"/>
         <v>1843360.3599999999</v>
       </c>
-      <c r="F124" s="44">
+      <c r="F147" s="44">
         <v>111695207.61</v>
       </c>
-      <c r="G124" s="46">
+      <c r="G147" s="46">
         <f t="shared" si="8"/>
         <v>2.2775914128689626E-2</v>
       </c>
-      <c r="H124" s="46">
+      <c r="H147" s="46">
         <f t="shared" si="7"/>
         <v>1.2289069066666665E-2</v>
       </c>
-      <c r="I124" s="37">
-        <f t="shared" si="3"/>
+      <c r="I147" s="37">
+        <f>G18-$G$2</f>
         <v>2056322.6239999998</v>
       </c>
-      <c r="J124" s="37">
-        <f t="shared" si="4"/>
+      <c r="J147" s="37">
+        <f>H18-$H$2</f>
         <v>2078443.8339999998</v>
       </c>
-      <c r="K124" s="47">
+      <c r="K147" s="47">
         <f t="shared" si="9"/>
         <v>42760</v>
       </c>
-      <c r="L124" s="5">
-        <f>AVERAGE($F$109:F124)</f>
+      <c r="L147" s="5">
+        <f>AVERAGE($F$132:F147)</f>
         <v>80934637.775000006</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A125" s="36">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A148" s="36">
         <v>42760</v>
       </c>
-      <c r="B125" s="37">
+      <c r="B148" s="37">
         <f t="shared" si="5"/>
         <v>88979.489999999991</v>
       </c>
-      <c r="C125" s="37">
+      <c r="C148" s="37">
         <f t="shared" si="6"/>
         <v>62789.569999999949</v>
       </c>
-      <c r="D125" s="37">
+      <c r="D148" s="37">
         <f t="shared" si="6"/>
         <v>2083077</v>
       </c>
-      <c r="E125" s="37">
-        <f t="shared" si="2"/>
+      <c r="E148" s="37">
+        <f t="shared" si="4"/>
         <v>2020287.4300000002</v>
       </c>
-      <c r="F125" s="44">
+      <c r="F148" s="44">
         <v>54280272.939999998</v>
       </c>
-      <c r="G125" s="46">
+      <c r="G148" s="46">
         <f t="shared" si="8"/>
         <v>2.545509093253423E-2</v>
       </c>
-      <c r="H125" s="46">
+      <c r="H148" s="46">
         <f t="shared" si="7"/>
         <v>1.3468582866666667E-2</v>
       </c>
-      <c r="I125" s="37">
-        <f t="shared" si="3"/>
+      <c r="I148" s="37">
+        <f>G19-$G$2</f>
         <v>2004154.7053333335</v>
       </c>
-      <c r="J125" s="37">
-        <f t="shared" si="4"/>
+      <c r="J148" s="37">
+        <f>H19-$H$2</f>
         <v>2020689.5573333334</v>
       </c>
-      <c r="K125" s="47">
+      <c r="K148" s="47">
         <f t="shared" si="9"/>
         <v>42761</v>
       </c>
-      <c r="L125" s="5">
-        <f>AVERAGE($F$109:F125)</f>
+      <c r="L148" s="5">
+        <f>AVERAGE($F$132:F148)</f>
         <v>79366733.961176485</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A126" s="36">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A149" s="36">
         <v>42761</v>
       </c>
-      <c r="B126" s="37">
+      <c r="B149" s="37">
         <f t="shared" si="5"/>
         <v>100526.99000000022</v>
       </c>
-      <c r="C126" s="37">
+      <c r="C149" s="37">
         <f t="shared" si="6"/>
         <v>65995.709999999963</v>
       </c>
-      <c r="D126" s="37">
+      <c r="D149" s="37">
         <f t="shared" si="6"/>
         <v>2010326.333333333</v>
       </c>
-      <c r="E126" s="37">
-        <f t="shared" si="2"/>
+      <c r="E149" s="37">
+        <f t="shared" si="4"/>
         <v>1944330.6233333331</v>
       </c>
-      <c r="F126" s="40">
+      <c r="F149" s="40">
         <v>64476667.359999999</v>
       </c>
-      <c r="G126" s="46">
+      <c r="G149" s="46">
         <f t="shared" si="8"/>
         <v>2.4756083554414377E-2</v>
       </c>
-      <c r="H126" s="46">
+      <c r="H149" s="46">
         <f t="shared" si="7"/>
         <v>1.2962204155555554E-2</v>
       </c>
-      <c r="I126" s="37">
-        <f t="shared" si="3"/>
+      <c r="I149" s="37">
+        <f>G20-$G$2</f>
         <v>1951986.7866666671</v>
       </c>
-      <c r="J126" s="37">
-        <f t="shared" si="4"/>
+      <c r="J149" s="37">
+        <f>H20-$H$2</f>
         <v>1962935.280666667</v>
       </c>
-      <c r="K126" s="47">
+      <c r="K149" s="47">
         <f t="shared" si="9"/>
         <v>42762</v>
       </c>
-      <c r="L126" s="5">
-        <f>AVERAGE($F$109:F126)</f>
+      <c r="L149" s="5">
+        <f>AVERAGE($F$132:F149)</f>
         <v>78539508.038888887</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A127" s="36">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" s="36">
         <v>42769</v>
       </c>
-      <c r="B127" s="37">
+      <c r="B150" s="37">
         <f t="shared" si="5"/>
         <v>109610.87</v>
       </c>
-      <c r="C127" s="37">
+      <c r="C150" s="37">
         <f t="shared" si="6"/>
         <v>69201.849999999977</v>
       </c>
-      <c r="D127" s="37">
+      <c r="D150" s="37">
         <f t="shared" si="6"/>
         <v>1937575.666666666</v>
       </c>
-      <c r="E127" s="37">
-        <f t="shared" si="2"/>
+      <c r="E150" s="37">
+        <f t="shared" si="4"/>
         <v>1868373.816666666</v>
       </c>
-      <c r="F127" s="44">
+      <c r="F150" s="44">
         <v>74673061.780000001</v>
       </c>
-      <c r="G127" s="46">
+      <c r="G150" s="46">
         <f t="shared" si="8"/>
         <v>2.3850765388475432E-2</v>
       </c>
-      <c r="H127" s="46">
+      <c r="H150" s="46">
         <f t="shared" si="7"/>
         <v>1.245582544444444E-2</v>
       </c>
-      <c r="I127" s="37">
-        <f t="shared" si="3"/>
+      <c r="I150" s="37">
+        <f>G21-$G$2</f>
         <v>1899818.8679999998</v>
       </c>
-      <c r="J127" s="37">
-        <f t="shared" si="4"/>
+      <c r="J150" s="37">
+        <f>H21-$H$2</f>
         <v>1905181.0039999997</v>
       </c>
-      <c r="K127" s="47">
+      <c r="K150" s="47">
         <f t="shared" si="9"/>
         <v>42770</v>
       </c>
-      <c r="L127" s="5">
-        <f>AVERAGE($F$109:F127)</f>
+      <c r="L150" s="5">
+        <f>AVERAGE($F$132:F150)</f>
         <v>78336010.867368415</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="36">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A151" s="36">
         <v>42772</v>
       </c>
-      <c r="B128" s="37">
+      <c r="B151" s="37">
         <f t="shared" si="5"/>
         <v>112616.28000000003</v>
       </c>
-      <c r="C128" s="37">
+      <c r="C151" s="37">
         <f t="shared" si="6"/>
         <v>72329.939999999944</v>
       </c>
-      <c r="D128" s="37">
+      <c r="D151" s="37">
         <f t="shared" si="6"/>
         <v>1864825</v>
       </c>
-      <c r="E128" s="37">
-        <f>D128-C128</f>
+      <c r="E151" s="37">
+        <f>D151-C151</f>
         <v>1792495.06</v>
       </c>
-      <c r="F128" s="44">
+      <c r="F151" s="44">
         <v>84047352.700000003</v>
       </c>
-      <c r="G128" s="46">
+      <c r="G151" s="46">
         <f t="shared" si="8"/>
         <v>2.2799021674873528E-2</v>
       </c>
-      <c r="H128" s="46">
+      <c r="H151" s="46">
         <f t="shared" si="7"/>
         <v>1.1949967066666668E-2</v>
       </c>
-      <c r="I128" s="37">
-        <f t="shared" si="3"/>
+      <c r="I151" s="37">
+        <f>G22-$G$2</f>
         <v>1728511.3859999999</v>
       </c>
-      <c r="J128" s="37">
-        <f t="shared" si="4"/>
+      <c r="J151" s="37">
+        <f>H22-$H$2</f>
         <v>1733507.7359999996</v>
       </c>
-      <c r="K128" s="47">
+      <c r="K151" s="47">
         <f t="shared" si="9"/>
         <v>42773</v>
       </c>
-      <c r="L128" s="5">
-        <f>AVERAGE($F$109:F128)</f>
+      <c r="L151" s="5">
+        <f>AVERAGE($F$132:F151)</f>
         <v>78621577.959000006</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A129" s="36">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A152" s="36">
         <v>42773</v>
       </c>
-      <c r="B129" s="37">
+      <c r="B152" s="37">
         <f t="shared" si="5"/>
         <v>113192.12</v>
       </c>
-      <c r="C129" s="37">
+      <c r="C152" s="37">
         <f t="shared" si="6"/>
         <v>76236.559999999939</v>
       </c>
-      <c r="D129" s="37">
+      <c r="D152" s="37">
         <f t="shared" si="6"/>
         <v>1952191</v>
       </c>
-      <c r="E129" s="37">
-        <f>D129-C129</f>
+      <c r="E152" s="37">
+        <f>D152-C152</f>
         <v>1875954.44</v>
       </c>
-      <c r="F129" s="44">
+      <c r="F152" s="44">
         <v>86107177.359999999</v>
       </c>
-      <c r="G129" s="46">
+      <c r="G152" s="46">
         <f t="shared" si="8"/>
         <v>2.375286291002458E-2</v>
       </c>
-      <c r="H129" s="46">
+      <c r="H152" s="46">
         <f t="shared" si="7"/>
         <v>1.2506362933333333E-2</v>
       </c>
-      <c r="I129" s="37">
-        <f t="shared" si="3"/>
+      <c r="I152" s="37">
+        <f>G23-$G$2</f>
         <v>1747183.4979999997</v>
       </c>
-      <c r="J129" s="37">
-        <f t="shared" si="4"/>
+      <c r="J152" s="37">
+        <f>H23-$H$2</f>
         <v>1774733.46</v>
       </c>
-      <c r="K129" s="47">
+      <c r="K152" s="47">
         <f t="shared" si="9"/>
         <v>42774</v>
       </c>
-      <c r="L129" s="5">
-        <f>AVERAGE($F$109:F129)</f>
+      <c r="L152" s="5">
+        <f>AVERAGE($F$132:F152)</f>
         <v>78978035.073333338</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A130" s="36">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A153" s="36">
         <v>42774</v>
       </c>
-      <c r="B130" s="37">
+      <c r="B153" s="37">
         <f t="shared" si="5"/>
         <v>113958.07000000007</v>
       </c>
-      <c r="C130" s="37">
-        <f t="shared" ref="C130:D149" si="10">C24-C$2</f>
+      <c r="C153" s="37">
+        <f t="shared" ref="C153:D172" si="10">C24-C$2</f>
         <v>78555.489999999991</v>
       </c>
-      <c r="D130" s="37">
+      <c r="D153" s="37">
         <f t="shared" si="10"/>
         <v>1839946</v>
       </c>
-      <c r="E130" s="37">
-        <f>D130-C130</f>
+      <c r="E153" s="37">
+        <f>D153-C153</f>
         <v>1761390.51</v>
       </c>
-      <c r="F130" s="44">
+      <c r="F153" s="44">
         <v>87528704.370000005</v>
       </c>
-      <c r="G130" s="46">
+      <c r="G153" s="46">
         <f t="shared" si="8"/>
         <v>2.2193066723587899E-2</v>
       </c>
-      <c r="H130" s="46">
+      <c r="H153" s="46">
         <f t="shared" si="7"/>
         <v>1.1742603400000001E-2</v>
       </c>
-      <c r="I130" s="37">
-        <f t="shared" si="3"/>
+      <c r="I153" s="37">
+        <f>G24-$G$2</f>
         <v>1598053.8099999996</v>
       </c>
-      <c r="J130" s="37">
-        <f t="shared" si="4"/>
+      <c r="J153" s="37">
+        <f>H24-$H$2</f>
         <v>1624922.0299999993</v>
       </c>
-      <c r="K130" s="47">
+      <c r="K153" s="47">
         <f t="shared" si="9"/>
         <v>42775</v>
       </c>
-      <c r="L130" s="5">
-        <f>AVERAGE($F$109:F130)</f>
+      <c r="L153" s="5">
+        <f>AVERAGE($F$132:F153)</f>
         <v>79366701.859545454</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A131" s="36">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A154" s="36">
         <v>42775</v>
       </c>
-      <c r="B131" s="37">
+      <c r="B154" s="37">
         <f t="shared" si="5"/>
         <v>115030.98999999999</v>
       </c>
-      <c r="C131" s="37">
+      <c r="C154" s="37">
         <f t="shared" si="10"/>
         <v>84506.669999999925</v>
       </c>
-      <c r="D131" s="37">
+      <c r="D154" s="37">
         <f t="shared" si="10"/>
         <v>1935585</v>
       </c>
-      <c r="E131" s="37">
-        <f>D131-C131</f>
+      <c r="E154" s="37">
+        <f>D154-C154</f>
         <v>1851078.33</v>
       </c>
-      <c r="F131" s="44">
+      <c r="F154" s="44">
         <v>88419131.659999996</v>
       </c>
-      <c r="G131" s="46">
+      <c r="G154" s="46">
         <f t="shared" si="8"/>
         <v>2.3208020285673387E-2</v>
       </c>
-      <c r="H131" s="46">
+      <c r="H154" s="46">
         <f t="shared" si="7"/>
         <v>1.2340522200000001E-2</v>
       </c>
-      <c r="I131" s="37">
-        <f t="shared" si="3"/>
+      <c r="I154" s="37">
+        <f>G25-$G$2</f>
         <v>1830699.0199999996</v>
       </c>
-      <c r="J131" s="37">
-        <f t="shared" si="4"/>
+      <c r="J154" s="37">
+        <f>H25-$H$2</f>
         <v>1841718.6459999997</v>
       </c>
-      <c r="K131" s="47">
+      <c r="K154" s="47">
         <f t="shared" si="9"/>
         <v>42776</v>
       </c>
-      <c r="L131" s="5">
-        <f>AVERAGE($F$109:F131)</f>
+      <c r="L154" s="5">
+        <f>AVERAGE($F$132:F154)</f>
         <v>79760285.763913035</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A132" s="36">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A155" s="36">
         <v>42776</v>
       </c>
-      <c r="B132" s="37">
+      <c r="B155" s="37">
         <f t="shared" si="5"/>
         <v>115897.94000000018</v>
       </c>
-      <c r="C132" s="37">
+      <c r="C155" s="37">
         <f t="shared" si="10"/>
         <v>85133.950000000186</v>
       </c>
-      <c r="D132" s="37">
+      <c r="D155" s="37">
         <f t="shared" si="10"/>
         <v>1987542</v>
       </c>
-      <c r="E132" s="37">
-        <f t="shared" ref="E132:E136" si="11">D132-C132</f>
+      <c r="E155" s="37">
+        <f t="shared" ref="E155:E159" si="11">D155-C155</f>
         <v>1902408.0499999998</v>
       </c>
-      <c r="F132" s="37">
+      <c r="F155" s="37">
         <v>90094870.409999996</v>
       </c>
-      <c r="G132" s="46">
+      <c r="G155" s="46">
         <f t="shared" si="8"/>
         <v>2.3723492381441644E-2</v>
       </c>
-      <c r="H132" s="46">
+      <c r="H155" s="46">
         <f t="shared" si="7"/>
         <v>1.2682720333333333E-2</v>
       </c>
-      <c r="I132" s="37">
-        <f t="shared" si="3"/>
+      <c r="I155" s="37">
+        <f>G26-$G$2</f>
         <v>1993829.852</v>
       </c>
-      <c r="J132" s="37">
-        <f t="shared" si="4"/>
+      <c r="J155" s="37">
+        <f>H26-$H$2</f>
         <v>2030190.608</v>
       </c>
-      <c r="K132" s="47">
+      <c r="K155" s="47">
         <f t="shared" si="9"/>
         <v>42777</v>
       </c>
-      <c r="L132" s="5">
-        <f>AVERAGE($F$109:F132)</f>
+      <c r="L155" s="5">
+        <f>AVERAGE($F$132:F155)</f>
         <v>80190893.457499996</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A133" s="36">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A156" s="36">
         <v>42779</v>
       </c>
-      <c r="B133" s="37">
+      <c r="B156" s="37">
         <f t="shared" si="5"/>
         <v>117554.4600000002</v>
       </c>
-      <c r="C133" s="37">
+      <c r="C156" s="37">
         <f t="shared" si="10"/>
         <v>89579.180000000168</v>
       </c>
-      <c r="D133" s="37">
+      <c r="D156" s="37">
         <f t="shared" si="10"/>
         <v>2155116</v>
       </c>
-      <c r="E133" s="37">
+      <c r="E156" s="37">
         <f t="shared" si="11"/>
         <v>2065536.8199999998</v>
       </c>
-      <c r="F133" s="37">
+      <c r="F156" s="37">
         <v>83627905.520000011</v>
       </c>
-      <c r="G133" s="46">
+      <c r="G156" s="46">
         <f t="shared" si="8"/>
         <v>2.5713664035360902E-2</v>
       </c>
-      <c r="H133" s="46">
+      <c r="H156" s="46">
         <f t="shared" si="7"/>
         <v>1.3770245466666666E-2</v>
       </c>
-      <c r="I133" s="37">
-        <f t="shared" si="3"/>
+      <c r="I156" s="37">
+        <f>G27-$G$2</f>
         <v>1862033.6940000001</v>
       </c>
-      <c r="J133" s="37">
-        <f t="shared" si="4"/>
+      <c r="J156" s="37">
+        <f>H27-$H$2</f>
         <v>1917561.0319999997</v>
       </c>
-      <c r="K133" s="47">
+      <c r="K156" s="47">
         <f t="shared" si="9"/>
         <v>42780</v>
       </c>
-      <c r="L133" s="5">
-        <f>AVERAGE($F$109:F133)</f>
+      <c r="L156" s="5">
+        <f>AVERAGE($F$132:F156)</f>
         <v>80328373.939999998</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A134" s="36">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A157" s="36">
         <v>42780</v>
       </c>
-      <c r="B134" s="37">
+      <c r="B157" s="37">
         <f t="shared" si="5"/>
         <v>119016.54000000015</v>
       </c>
-      <c r="C134" s="37">
+      <c r="C157" s="37">
         <f t="shared" si="10"/>
         <v>94752.200000000186</v>
       </c>
-      <c r="D134" s="37">
+      <c r="D157" s="37">
         <f t="shared" si="10"/>
         <v>2176557</v>
       </c>
-      <c r="E134" s="37">
+      <c r="E157" s="37">
         <f t="shared" si="11"/>
         <v>2081804.7999999998</v>
       </c>
-      <c r="F134" s="37">
+      <c r="F157" s="37">
         <v>88899078.060000002</v>
       </c>
-      <c r="G134" s="46">
+      <c r="G157" s="46">
         <f t="shared" si="8"/>
         <v>2.5810265275023146E-2</v>
       </c>
-      <c r="H134" s="46">
+      <c r="H157" s="46">
         <f t="shared" si="7"/>
         <v>1.3878698666666665E-2</v>
       </c>
-      <c r="I134" s="37">
-        <f t="shared" si="3"/>
+      <c r="I157" s="37">
+        <f>G28-$G$2</f>
         <v>2113953.9859999996</v>
       </c>
-      <c r="J134" s="37">
-        <f t="shared" si="4"/>
+      <c r="J157" s="37">
+        <f>H28-$H$2</f>
         <v>2118657.1880000001</v>
       </c>
-      <c r="K134" s="47">
+      <c r="K157" s="47">
         <f t="shared" si="9"/>
         <v>42781</v>
       </c>
-      <c r="L134" s="5">
-        <f>AVERAGE($F$109:F134)</f>
+      <c r="L157" s="5">
+        <f>AVERAGE($F$132:F157)</f>
         <v>80658016.406153843</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A135" s="36">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A158" s="36">
         <v>42781</v>
       </c>
-      <c r="B135" s="37">
+      <c r="B158" s="37">
         <f t="shared" si="5"/>
         <v>120363.63000000012</v>
       </c>
-      <c r="C135" s="37">
+      <c r="C158" s="37">
         <f t="shared" si="10"/>
         <v>101183.39000000013</v>
       </c>
-      <c r="D135" s="37">
+      <c r="D158" s="37">
         <f t="shared" si="10"/>
         <v>2281457</v>
       </c>
-      <c r="E135" s="37">
+      <c r="E158" s="37">
         <f t="shared" si="11"/>
         <v>2180273.61</v>
       </c>
-      <c r="F135" s="37">
+      <c r="F158" s="37">
         <v>89039676.24000001</v>
       </c>
-      <c r="G135" s="46">
+      <c r="G158" s="46">
         <f t="shared" si="8"/>
         <v>2.6927447136176702E-2</v>
       </c>
-      <c r="H135" s="46">
+      <c r="H158" s="46">
         <f t="shared" si="7"/>
         <v>1.4535157399999998E-2</v>
       </c>
-      <c r="I135" s="37">
-        <f t="shared" si="3"/>
+      <c r="I158" s="37">
+        <f>G29-$G$2</f>
         <v>2461935.068</v>
       </c>
-      <c r="J135" s="37">
-        <f t="shared" si="4"/>
+      <c r="J158" s="37">
+        <f>H29-$H$2</f>
         <v>2487413.1959999995</v>
       </c>
-      <c r="K135" s="47">
+      <c r="K158" s="47">
         <f t="shared" si="9"/>
         <v>42782</v>
       </c>
-      <c r="L135" s="5">
-        <f>AVERAGE($F$109:F135)</f>
+      <c r="L158" s="5">
+        <f>AVERAGE($F$132:F158)</f>
         <v>80968448.251851857</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A136" s="36">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A159" s="36">
         <v>42782</v>
       </c>
-      <c r="B136" s="37">
+      <c r="B159" s="37">
         <f t="shared" si="5"/>
         <v>123596.34000000008</v>
       </c>
-      <c r="C136" s="37">
+      <c r="C159" s="37">
         <f t="shared" si="10"/>
         <v>105719.02000000014</v>
       </c>
-      <c r="D136" s="37">
+      <c r="D159" s="37">
         <f t="shared" si="10"/>
         <v>2408823</v>
       </c>
-      <c r="E136" s="37">
+      <c r="E159" s="37">
         <f t="shared" si="11"/>
         <v>2303103.98</v>
       </c>
-      <c r="F136" s="37">
+      <c r="F159" s="37">
         <v>97817898.450000003</v>
       </c>
-      <c r="G136" s="46">
+      <c r="G159" s="46">
         <f t="shared" si="8"/>
         <v>2.8234619694297865E-2</v>
       </c>
-      <c r="H136" s="46">
+      <c r="H159" s="46">
         <f t="shared" si="7"/>
         <v>1.5354026533333334E-2</v>
       </c>
-      <c r="I136" s="37">
-        <f t="shared" si="3"/>
+      <c r="I159" s="37">
+        <f>G30-$G$2</f>
         <v>2292440.5659999996</v>
       </c>
-      <c r="J136" s="37">
-        <f t="shared" si="4"/>
+      <c r="J159" s="37">
+        <f>H30-$H$2</f>
         <v>2328563.0180000002</v>
       </c>
-      <c r="K136" s="47">
+      <c r="K159" s="47">
         <f t="shared" si="9"/>
         <v>42783</v>
       </c>
-      <c r="L136" s="5">
-        <f>AVERAGE($F$109:F136)</f>
+      <c r="L159" s="5">
+        <f>AVERAGE($F$132:F159)</f>
         <v>81570214.330357149</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A137" s="36">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A160" s="36">
         <v>42783</v>
       </c>
-      <c r="B137" s="37">
+      <c r="B160" s="37">
         <f t="shared" si="5"/>
         <v>123596.34000000008</v>
       </c>
-      <c r="C137" s="37">
+      <c r="C160" s="37">
         <f t="shared" si="10"/>
         <v>126732.02000000014</v>
       </c>
-      <c r="D137" s="37">
+      <c r="D160" s="37">
         <f t="shared" si="10"/>
         <v>2420648</v>
       </c>
-      <c r="E137" s="37">
-        <f t="shared" ref="E137:E141" si="12">D137-C137</f>
+      <c r="E160" s="37">
+        <f t="shared" ref="E160:E164" si="12">D160-C160</f>
         <v>2293915.98</v>
       </c>
-      <c r="F137" s="37">
+      <c r="F160" s="37">
         <v>109904985.86</v>
       </c>
-      <c r="G137" s="46">
-        <f>E137/L137</f>
+      <c r="G160" s="46">
+        <f>E160/L160</f>
         <v>2.778911803443115E-2</v>
       </c>
-      <c r="H137" s="46">
-        <f>E137/150000000</f>
+      <c r="H160" s="46">
+        <f>E160/150000000</f>
         <v>1.52927732E-2</v>
-      </c>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="5">
-        <f>AVERAGE($F$109:F137)</f>
-        <v>82547275.417586207</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A138" s="36">
-        <v>42786</v>
-      </c>
-      <c r="B138" s="37">
-        <f t="shared" si="5"/>
-        <v>128153.15000000014</v>
-      </c>
-      <c r="C138" s="37">
-        <f t="shared" si="10"/>
-        <v>135009.42000000016</v>
-      </c>
-      <c r="D138" s="37">
-        <f t="shared" si="10"/>
-        <v>2976985</v>
-      </c>
-      <c r="E138" s="37">
-        <f t="shared" si="12"/>
-        <v>2841975.58</v>
-      </c>
-      <c r="F138" s="37">
-        <v>81825693.890000001</v>
-      </c>
-      <c r="G138" s="46">
-        <f t="shared" ref="G138:G140" si="13">E138/L138</f>
-        <v>3.4438494850492551E-2</v>
-      </c>
-      <c r="H138" s="46">
-        <f t="shared" ref="H138:H141" si="14">E138/150000000</f>
-        <v>1.8946503866666665E-2</v>
-      </c>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="5">
-        <f>AVERAGE($F$109:F138)</f>
-        <v>82523222.700000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A139" s="36">
-        <v>42787</v>
-      </c>
-      <c r="B139" s="37">
-        <f t="shared" si="5"/>
-        <v>129695.65000000014</v>
-      </c>
-      <c r="C139" s="37">
-        <f t="shared" si="10"/>
-        <v>141520.89000000013</v>
-      </c>
-      <c r="D139" s="37">
-        <f t="shared" si="10"/>
-        <v>2920783</v>
-      </c>
-      <c r="E139" s="37">
-        <f t="shared" si="12"/>
-        <v>2779262.11</v>
-      </c>
-      <c r="F139" s="37">
-        <v>84084215.689999998</v>
-      </c>
-      <c r="G139" s="46">
-        <f t="shared" si="13"/>
-        <v>3.3658007808952714E-2</v>
-      </c>
-      <c r="H139" s="46">
-        <f t="shared" si="14"/>
-        <v>1.8528414066666665E-2</v>
-      </c>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="5">
-        <f>AVERAGE($F$109:F139)</f>
-        <v>82573577.312580645</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A140" s="36">
-        <v>42788</v>
-      </c>
-      <c r="B140" s="37">
-        <f t="shared" si="5"/>
-        <v>131483.15000000014</v>
-      </c>
-      <c r="C140" s="37">
-        <f t="shared" si="10"/>
-        <v>144613.26000000013</v>
-      </c>
-      <c r="D140" s="37">
-        <f t="shared" si="10"/>
-        <v>2939925</v>
-      </c>
-      <c r="E140" s="37">
-        <f t="shared" si="12"/>
-        <v>2795311.7399999998</v>
-      </c>
-      <c r="F140" s="37">
-        <v>85253255.560000002</v>
-      </c>
-      <c r="G140" s="46">
-        <f t="shared" si="13"/>
-        <v>3.3818079665969274E-2</v>
-      </c>
-      <c r="H140" s="46">
-        <f t="shared" si="14"/>
-        <v>1.8635411599999999E-2</v>
-      </c>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="5">
-        <f>AVERAGE($F$109:F140)</f>
-        <v>82657317.2578125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A141" s="36">
-        <v>42789</v>
-      </c>
-      <c r="B141" s="37">
-        <f t="shared" si="5"/>
-        <v>134278.15000000014</v>
-      </c>
-      <c r="C141" s="37">
-        <f t="shared" si="10"/>
-        <v>150221.91000000015</v>
-      </c>
-      <c r="D141" s="37">
-        <f t="shared" si="10"/>
-        <v>2803702</v>
-      </c>
-      <c r="E141" s="37">
-        <f t="shared" si="12"/>
-        <v>2653480.09</v>
-      </c>
-      <c r="F141" s="37">
-        <v>101176911.78999999</v>
-      </c>
-      <c r="G141" s="46">
-        <f>E141/L141</f>
-        <v>3.1885693025058968E-2</v>
-      </c>
-      <c r="H141" s="46">
-        <f t="shared" si="14"/>
-        <v>1.7689867266666666E-2</v>
-      </c>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="5">
-        <f>AVERAGE($F$109:F141)</f>
-        <v>83218517.092121214</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A142" s="36">
-        <v>42790</v>
-      </c>
-      <c r="B142" s="37">
-        <f t="shared" ref="B142:B173" si="15">B36-$B$2</f>
-        <v>134778.15000000014</v>
-      </c>
-      <c r="C142" s="37">
-        <f t="shared" si="10"/>
-        <v>155844.67000000004</v>
-      </c>
-      <c r="D142" s="37">
-        <f t="shared" si="10"/>
-        <v>2825213</v>
-      </c>
-      <c r="E142" s="37">
-        <f t="shared" ref="E142:E146" si="16">D142-C142</f>
-        <v>2669368.33</v>
-      </c>
-      <c r="F142" s="37">
-        <v>122984844.03</v>
-      </c>
-      <c r="G142" s="46">
-        <f>E142/L142</f>
-        <v>3.1632041215704176E-2</v>
-      </c>
-      <c r="H142" s="46">
-        <f t="shared" ref="H142:H146" si="17">E142/150000000</f>
-        <v>1.7795788866666669E-2</v>
-      </c>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="5">
-        <f>AVERAGE($F$109:F142)</f>
-        <v>84388114.943235293</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A143" s="36">
-        <v>42793</v>
-      </c>
-      <c r="B143" s="37">
-        <f t="shared" si="15"/>
-        <v>140115.64000000013</v>
-      </c>
-      <c r="C143" s="37">
-        <f t="shared" si="10"/>
-        <v>159902.82000000018</v>
-      </c>
-      <c r="D143" s="37">
-        <f t="shared" si="10"/>
-        <v>2915491</v>
-      </c>
-      <c r="E143" s="37">
-        <f t="shared" si="16"/>
-        <v>2755588.1799999997</v>
-      </c>
-      <c r="F143" s="37">
-        <v>144967329.88999999</v>
-      </c>
-      <c r="G143" s="46">
-        <f t="shared" ref="G143:G146" si="18">E143/L143</f>
-        <v>3.1997466190741154E-2</v>
-      </c>
-      <c r="H143" s="46">
-        <f t="shared" si="17"/>
-        <v>1.8370587866666666E-2</v>
-      </c>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="5">
-        <f>AVERAGE($F$109:F143)</f>
-        <v>86118949.656000003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A144" s="36">
-        <v>42794</v>
-      </c>
-      <c r="B144" s="37">
-        <f t="shared" si="15"/>
-        <v>144583.16000000015</v>
-      </c>
-      <c r="C144" s="37">
-        <f t="shared" si="10"/>
-        <v>163106.3400000002</v>
-      </c>
-      <c r="D144" s="37">
-        <f t="shared" si="10"/>
-        <v>2415271</v>
-      </c>
-      <c r="E144" s="37">
-        <f t="shared" si="16"/>
-        <v>2252164.6599999997</v>
-      </c>
-      <c r="F144" s="37">
-        <v>149487956.31</v>
-      </c>
-      <c r="G144" s="46">
-        <f t="shared" si="18"/>
-        <v>2.5627960473913244E-2</v>
-      </c>
-      <c r="H144" s="46">
-        <f t="shared" si="17"/>
-        <v>1.5014431066666665E-2</v>
-      </c>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="5">
-        <f>AVERAGE($F$109:F144)</f>
-        <v>87879199.840833336</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A145" s="36">
-        <v>42795</v>
-      </c>
-      <c r="B145" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C145" s="37">
-        <f t="shared" si="10"/>
-        <v>168559.49000000022</v>
-      </c>
-      <c r="D145" s="37">
-        <f t="shared" si="10"/>
-        <v>2622101</v>
-      </c>
-      <c r="E145" s="37">
-        <f t="shared" si="16"/>
-        <v>2453541.5099999998</v>
-      </c>
-      <c r="F145" s="37">
-        <v>152707123.09999999</v>
-      </c>
-      <c r="G145" s="46">
-        <f t="shared" si="18"/>
-        <v>2.7373711517998108E-2</v>
-      </c>
-      <c r="H145" s="46">
-        <f t="shared" si="17"/>
-        <v>1.6356943399999997E-2</v>
-      </c>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="5">
-        <f>AVERAGE($F$109:F145)</f>
-        <v>89631305.874864861</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A146" s="36">
-        <v>42796</v>
-      </c>
-      <c r="B146" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C146" s="37">
-        <f t="shared" si="10"/>
-        <v>174536.19999999995</v>
-      </c>
-      <c r="D146" s="37">
-        <f t="shared" si="10"/>
-        <v>2371213</v>
-      </c>
-      <c r="E146" s="37">
-        <f t="shared" si="16"/>
-        <v>2196676.7999999998</v>
-      </c>
-      <c r="F146" s="37">
-        <v>140725291.59</v>
-      </c>
-      <c r="G146" s="46">
-        <f t="shared" si="18"/>
-        <v>2.4145704253045682E-2</v>
-      </c>
-      <c r="H146" s="46">
-        <f t="shared" si="17"/>
-        <v>1.4644511999999998E-2</v>
-      </c>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="5">
-        <f>AVERAGE($F$109:F146)</f>
-        <v>90975884.446315795</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A147" s="36">
-        <v>42797</v>
-      </c>
-      <c r="B147" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C147" s="37">
-        <f t="shared" si="10"/>
-        <v>182112.76000000013</v>
-      </c>
-      <c r="D147" s="37">
-        <f t="shared" si="10"/>
-        <v>2584861</v>
-      </c>
-      <c r="E147" s="37">
-        <f t="shared" ref="E147:E151" si="19">D147-C147</f>
-        <v>2402748.2399999998</v>
-      </c>
-      <c r="F147" s="37">
-        <v>140725292.59</v>
-      </c>
-      <c r="G147" s="46">
-        <f t="shared" ref="G147:G151" si="20">E147/L147</f>
-        <v>2.6045624969027473E-2</v>
-      </c>
-      <c r="H147" s="46">
-        <f t="shared" ref="H147:H150" si="21">E147/150000000</f>
-        <v>1.60183216E-2</v>
-      </c>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="5">
-        <f>AVERAGE($F$109:F147)</f>
-        <v>92251510.296153858</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A148" s="36">
-        <v>42800</v>
-      </c>
-      <c r="B148" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C148" s="37">
-        <f t="shared" si="10"/>
-        <v>187509.5900000002</v>
-      </c>
-      <c r="D148" s="37">
-        <f t="shared" si="10"/>
-        <v>2716560</v>
-      </c>
-      <c r="E148" s="37">
-        <f t="shared" si="19"/>
-        <v>2529050.4099999997</v>
-      </c>
-      <c r="F148" s="37">
-        <v>140725293.59</v>
-      </c>
-      <c r="G148" s="46">
-        <f t="shared" si="20"/>
-        <v>2.7059272730876192E-2</v>
-      </c>
-      <c r="H148" s="46">
-        <f t="shared" si="21"/>
-        <v>1.6860336066666665E-2</v>
-      </c>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="5">
-        <f>AVERAGE($F$109:F148)</f>
-        <v>93463354.878500015</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A149" s="36">
-        <v>42801</v>
-      </c>
-      <c r="B149" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C149" s="37">
-        <f t="shared" si="10"/>
-        <v>190570.48000000021</v>
-      </c>
-      <c r="D149" s="37">
-        <f t="shared" si="10"/>
-        <v>2874989</v>
-      </c>
-      <c r="E149" s="37">
-        <f t="shared" si="19"/>
-        <v>2684418.5199999996</v>
-      </c>
-      <c r="F149" s="37">
-        <v>140725294.59</v>
-      </c>
-      <c r="G149" s="46">
-        <f t="shared" si="20"/>
-        <v>2.8371693002589092E-2</v>
-      </c>
-      <c r="H149" s="46">
-        <f t="shared" si="21"/>
-        <v>1.7896123466666664E-2</v>
-      </c>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="5">
-        <f>AVERAGE($F$109:F149)</f>
-        <v>94616085.115365863</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A150" s="36">
-        <v>42802</v>
-      </c>
-      <c r="B150" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C150" s="37">
-        <f t="shared" ref="C150:D169" si="22">C44-C$2</f>
-        <v>195517.64000000013</v>
-      </c>
-      <c r="D150" s="37">
-        <f t="shared" si="22"/>
-        <v>3160576</v>
-      </c>
-      <c r="E150" s="37">
-        <f t="shared" si="19"/>
-        <v>2965058.36</v>
-      </c>
-      <c r="F150" s="37">
-        <v>140725295.59</v>
-      </c>
-      <c r="G150" s="46">
-        <f t="shared" si="20"/>
-        <v>3.0978338916794412E-2</v>
-      </c>
-      <c r="H150" s="46">
-        <f t="shared" si="21"/>
-        <v>1.9767055733333334E-2</v>
-      </c>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="47"/>
-      <c r="L150" s="5">
-        <f>AVERAGE($F$109:F150)</f>
-        <v>95713923.460000008</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A151" s="36">
-        <v>42803</v>
-      </c>
-      <c r="B151" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C151" s="37">
-        <f t="shared" si="22"/>
-        <v>199889.82000000007</v>
-      </c>
-      <c r="D151" s="37">
-        <f t="shared" si="22"/>
-        <v>3239519</v>
-      </c>
-      <c r="E151" s="37">
-        <f t="shared" si="19"/>
-        <v>3039629.1799999997</v>
-      </c>
-      <c r="F151" s="37">
-        <v>140725296.59</v>
-      </c>
-      <c r="G151" s="46">
-        <f t="shared" si="20"/>
-        <v>3.1413881805482456E-2</v>
-      </c>
-      <c r="H151" s="46">
-        <f>E151/150000000</f>
-        <v>2.0264194533333332E-2</v>
-      </c>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="47"/>
-      <c r="L151" s="5">
-        <f>AVERAGE($F$109:F151)</f>
-        <v>96760699.579302341</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A152" s="36">
-        <v>42804</v>
-      </c>
-      <c r="B152" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C152" s="37">
-        <f t="shared" si="22"/>
-        <v>204595.81000000006</v>
-      </c>
-      <c r="D152" s="37">
-        <f t="shared" si="22"/>
-        <v>3405616</v>
-      </c>
-      <c r="E152" s="37">
-        <f t="shared" ref="E152:E156" si="23">D152-C152</f>
-        <v>3201020.19</v>
-      </c>
-      <c r="F152" s="37">
-        <v>140725297.59</v>
-      </c>
-      <c r="G152" s="46">
-        <f t="shared" ref="G152:G156" si="24">E152/L152</f>
-        <v>3.2743695053805921E-2</v>
-      </c>
-      <c r="H152" s="46">
-        <f t="shared" ref="H152:H156" si="25">E152/150000000</f>
-        <v>2.1340134600000001E-2</v>
-      </c>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="5">
-        <f>AVERAGE($F$109:F152)</f>
-        <v>97759894.988636389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A153" s="36">
-        <v>42807</v>
-      </c>
-      <c r="B153" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C153" s="37">
-        <f t="shared" si="22"/>
-        <v>214215.82000000007</v>
-      </c>
-      <c r="D153" s="37">
-        <f t="shared" si="22"/>
-        <v>3791053</v>
-      </c>
-      <c r="E153" s="37">
-        <f t="shared" si="23"/>
-        <v>3576837.1799999997</v>
-      </c>
-      <c r="F153" s="37">
-        <v>140725298.59</v>
-      </c>
-      <c r="G153" s="46">
-        <f>E153/L153</f>
-        <v>3.6234095244210542E-2</v>
-      </c>
-      <c r="H153" s="46">
-        <f t="shared" si="25"/>
-        <v>2.3845581199999997E-2</v>
-      </c>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="5">
-        <f>AVERAGE($F$109:F153)</f>
-        <v>98714681.735333353</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A154" s="36">
-        <v>42808</v>
-      </c>
-      <c r="B154" s="37">
-        <f t="shared" si="15"/>
-        <v>145249.8400000002</v>
-      </c>
-      <c r="C154" s="37">
-        <f t="shared" si="22"/>
-        <v>217907.59000000008</v>
-      </c>
-      <c r="D154" s="37">
-        <f t="shared" si="22"/>
-        <v>3622399</v>
-      </c>
-      <c r="E154" s="37">
-        <f t="shared" si="23"/>
-        <v>3404491.41</v>
-      </c>
-      <c r="F154" s="37">
-        <v>140725299.59</v>
-      </c>
-      <c r="G154" s="46">
-        <f t="shared" si="24"/>
-        <v>3.4172049146044679E-2</v>
-      </c>
-      <c r="H154" s="46">
-        <f t="shared" si="25"/>
-        <v>2.2696609400000001E-2</v>
-      </c>
-      <c r="I154" s="37"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="47"/>
-      <c r="L154" s="5">
-        <f>AVERAGE($F$109:F154)</f>
-        <v>99627956.036521763</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A155" s="36">
-        <v>42809</v>
-      </c>
-      <c r="B155" s="37">
-        <f t="shared" si="15"/>
-        <v>145483.17000000016</v>
-      </c>
-      <c r="C155" s="37">
-        <f t="shared" si="22"/>
-        <v>223250.06000000006</v>
-      </c>
-      <c r="D155" s="37">
-        <f t="shared" si="22"/>
-        <v>3641666</v>
-      </c>
-      <c r="E155" s="37">
-        <f t="shared" si="23"/>
-        <v>3418415.94</v>
-      </c>
-      <c r="F155" s="37">
-        <v>140725300.59</v>
-      </c>
-      <c r="G155" s="46">
-        <f t="shared" si="24"/>
-        <v>3.4013287655381107E-2</v>
-      </c>
-      <c r="H155" s="46">
-        <f t="shared" si="25"/>
-        <v>2.2789439599999999E-2</v>
-      </c>
-      <c r="I155" s="37"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="47"/>
-      <c r="L155" s="5">
-        <f>AVERAGE($F$109:F155)</f>
-        <v>100502367.62276599</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A156" s="36">
-        <v>42810</v>
-      </c>
-      <c r="B156" s="37">
-        <f t="shared" si="15"/>
-        <v>149466.50000000012</v>
-      </c>
-      <c r="C156" s="37">
-        <f t="shared" si="22"/>
-        <v>232225.03000000003</v>
-      </c>
-      <c r="D156" s="37">
-        <f t="shared" si="22"/>
-        <v>3677614</v>
-      </c>
-      <c r="E156" s="37">
-        <f t="shared" si="23"/>
-        <v>3445388.9699999997</v>
-      </c>
-      <c r="F156" s="37">
-        <v>140725301.59</v>
-      </c>
-      <c r="G156" s="46">
-        <f t="shared" si="24"/>
-        <v>3.3998196433347887E-2</v>
-      </c>
-      <c r="H156" s="46">
-        <f t="shared" si="25"/>
-        <v>2.2969259799999999E-2</v>
-      </c>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="5">
-        <f>AVERAGE($F$109:F156)</f>
-        <v>101340345.41375004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A157" s="36">
-        <v>42811</v>
-      </c>
-      <c r="B157" s="37">
-        <f t="shared" si="15"/>
-        <v>149466.50000000012</v>
-      </c>
-      <c r="C157" s="37">
-        <f t="shared" si="22"/>
-        <v>250381.39999999991</v>
-      </c>
-      <c r="D157" s="37">
-        <f t="shared" si="22"/>
-        <v>4179637</v>
-      </c>
-      <c r="E157" s="37">
-        <f t="shared" ref="E157:E160" si="26">D157-C157</f>
-        <v>3929255.6</v>
-      </c>
-      <c r="F157" s="37">
-        <v>140725302.59</v>
-      </c>
-      <c r="G157" s="46">
-        <f t="shared" ref="G157:G161" si="27">E157/L157</f>
-        <v>3.846776102311724E-2</v>
-      </c>
-      <c r="H157" s="46">
-        <f t="shared" ref="H157:H161" si="28">E157/150000000</f>
-        <v>2.6195037333333334E-2</v>
-      </c>
-      <c r="I157" s="37"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="5">
-        <f>AVERAGE($F$109:F157)</f>
-        <v>102144120.05000004</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A158" s="36">
-        <v>42814</v>
-      </c>
-      <c r="B158" s="37">
-        <f t="shared" si="15"/>
-        <v>153295.10000000009</v>
-      </c>
-      <c r="C158" s="37">
-        <f t="shared" si="22"/>
-        <v>253390.87</v>
-      </c>
-      <c r="D158" s="37">
-        <f t="shared" si="22"/>
-        <v>4116818</v>
-      </c>
-      <c r="E158" s="37">
-        <f t="shared" si="26"/>
-        <v>3863427.13</v>
-      </c>
-      <c r="F158" s="37">
-        <v>140725303.59</v>
-      </c>
-      <c r="G158" s="46">
-        <f t="shared" si="27"/>
-        <v>3.7539709575252989E-2</v>
-      </c>
-      <c r="H158" s="46">
-        <f t="shared" si="28"/>
-        <v>2.5756180866666666E-2</v>
-      </c>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="5">
-        <f>AVERAGE($F$109:F158)</f>
-        <v>102915743.72080004</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A159" s="36">
-        <v>42815</v>
-      </c>
-      <c r="B159" s="37">
-        <f t="shared" si="15"/>
-        <v>156475.51000000013</v>
-      </c>
-      <c r="C159" s="37">
-        <f t="shared" si="22"/>
-        <v>263433.27999999991</v>
-      </c>
-      <c r="D159" s="37">
-        <f t="shared" si="22"/>
-        <v>4153717</v>
-      </c>
-      <c r="E159" s="37">
-        <f t="shared" si="26"/>
-        <v>3890283.72</v>
-      </c>
-      <c r="F159" s="37">
-        <v>140725304.59</v>
-      </c>
-      <c r="G159" s="46">
-        <f t="shared" si="27"/>
-        <v>3.7530313239902295E-2</v>
-      </c>
-      <c r="H159" s="46">
-        <f t="shared" si="28"/>
-        <v>2.59352248E-2</v>
-      </c>
-      <c r="I159" s="37"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="5">
-        <f>AVERAGE($F$109:F159)</f>
-        <v>103657107.6594118</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A160" s="36">
-        <v>42816</v>
-      </c>
-      <c r="B160" s="37">
-        <f t="shared" si="15"/>
-        <v>159321.35000000009</v>
-      </c>
-      <c r="C160" s="37">
-        <f t="shared" si="22"/>
-        <v>271395.34999999998</v>
-      </c>
-      <c r="D160" s="37">
-        <f t="shared" si="22"/>
-        <v>4284706</v>
-      </c>
-      <c r="E160" s="37">
-        <f t="shared" si="26"/>
-        <v>4013310.65</v>
-      </c>
-      <c r="F160" s="37">
-        <v>140725305.59</v>
-      </c>
-      <c r="G160" s="46">
-        <f t="shared" si="27"/>
-        <v>3.8452738139712853E-2</v>
-      </c>
-      <c r="H160" s="46">
-        <f t="shared" si="28"/>
-        <v>2.6755404333333333E-2</v>
       </c>
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
       <c r="K160" s="47"/>
       <c r="L160" s="5">
-        <f>AVERAGE($F$109:F160)</f>
-        <v>104369957.61961542</v>
+        <f>AVERAGE($F$132:F160)</f>
+        <v>82547275.417586207</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="36">
-        <v>42817</v>
+        <v>42786</v>
       </c>
       <c r="B161" s="37">
-        <f t="shared" si="15"/>
-        <v>161619.26000000013</v>
+        <f t="shared" si="5"/>
+        <v>128153.15000000014</v>
       </c>
       <c r="C161" s="37">
-        <f t="shared" si="22"/>
-        <v>279089.95999999996</v>
+        <f t="shared" si="10"/>
+        <v>135009.42000000016</v>
       </c>
       <c r="D161" s="37">
-        <f t="shared" si="22"/>
-        <v>4348849</v>
+        <f t="shared" si="10"/>
+        <v>2976985</v>
       </c>
       <c r="E161" s="37">
-        <f>D161-C161</f>
-        <v>4069759.04</v>
+        <f t="shared" si="12"/>
+        <v>2841975.58</v>
       </c>
       <c r="F161" s="37">
-        <v>140725306.59</v>
+        <v>81825693.890000001</v>
       </c>
       <c r="G161" s="46">
-        <f t="shared" si="27"/>
-        <v>3.8738983203955392E-2</v>
+        <f t="shared" ref="G161:G163" si="13">E161/L161</f>
+        <v>3.4438494850492551E-2</v>
       </c>
       <c r="H161" s="46">
-        <f t="shared" si="28"/>
-        <v>2.7131726933333333E-2</v>
+        <f t="shared" ref="H161:H164" si="14">E161/150000000</f>
+        <v>1.8946503866666665E-2</v>
       </c>
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
       <c r="K161" s="47"/>
       <c r="L161" s="5">
-        <f>AVERAGE($F$109:F161)</f>
-        <v>105055907.60018872</v>
+        <f>AVERAGE($F$132:F161)</f>
+        <v>82523222.700000003</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="36">
-        <v>42818</v>
+        <v>42787</v>
       </c>
       <c r="B162" s="37">
-        <f t="shared" si="15"/>
-        <v>164000.51</v>
+        <f t="shared" si="5"/>
+        <v>129695.65000000014</v>
       </c>
       <c r="C162" s="37">
-        <f t="shared" si="22"/>
-        <v>287233.21999999997</v>
+        <f t="shared" si="10"/>
+        <v>141520.89000000013</v>
       </c>
       <c r="D162" s="37">
-        <f t="shared" si="22"/>
-        <v>4410829</v>
+        <f t="shared" si="10"/>
+        <v>2920783</v>
       </c>
       <c r="E162" s="37">
-        <f t="shared" ref="E162:E169" si="29">D162-C162</f>
-        <v>4123595.7800000003</v>
+        <f t="shared" si="12"/>
+        <v>2779262.11</v>
       </c>
       <c r="F162" s="37">
-        <v>140725307.59</v>
+        <v>84084215.689999998</v>
       </c>
       <c r="G162" s="46">
-        <f t="shared" ref="G162:G169" si="30">E162/L162</f>
-        <v>3.9006187781125974E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3658007808952714E-2</v>
       </c>
       <c r="H162" s="46">
-        <f t="shared" ref="H162:H169" si="31">E162/150000000</f>
-        <v>2.7490638533333334E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8528414066666665E-2</v>
       </c>
       <c r="I162" s="37"/>
       <c r="J162" s="37"/>
       <c r="K162" s="47"/>
       <c r="L162" s="5">
-        <f>AVERAGE($F$109:F162)</f>
-        <v>105716452.04444449</v>
+        <f>AVERAGE($F$132:F162)</f>
+        <v>82573577.312580645</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="36">
-        <v>42821</v>
+        <v>42788</v>
       </c>
       <c r="B163" s="37">
-        <f t="shared" si="15"/>
-        <v>165874.26</v>
+        <f t="shared" si="5"/>
+        <v>131483.15000000014</v>
       </c>
       <c r="C163" s="37">
-        <f t="shared" si="22"/>
-        <v>293461.26</v>
+        <f t="shared" si="10"/>
+        <v>144613.26000000013</v>
       </c>
       <c r="D163" s="37">
-        <f t="shared" si="22"/>
-        <v>4278909</v>
+        <f t="shared" si="10"/>
+        <v>2939925</v>
       </c>
       <c r="E163" s="37">
-        <f t="shared" si="29"/>
-        <v>3985447.74</v>
+        <f t="shared" si="12"/>
+        <v>2795311.7399999998</v>
       </c>
       <c r="F163" s="37">
-        <v>140725308.59</v>
+        <v>85253255.560000002</v>
       </c>
       <c r="G163" s="46">
-        <f t="shared" si="30"/>
-        <v>3.7473777070746915E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3818079665969274E-2</v>
       </c>
       <c r="H163" s="46">
-        <f t="shared" si="31"/>
-        <v>2.6569651600000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8635411599999999E-2</v>
       </c>
       <c r="I163" s="37"/>
       <c r="J163" s="37"/>
       <c r="K163" s="47"/>
       <c r="L163" s="5">
-        <f>AVERAGE($F$109:F163)</f>
-        <v>106352976.70890914</v>
+        <f>AVERAGE($F$132:F163)</f>
+        <v>82657317.2578125</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="36">
-        <v>42822</v>
+        <v>42789</v>
       </c>
       <c r="B164" s="37">
-        <f t="shared" si="15"/>
-        <v>169851.34000000008</v>
+        <f t="shared" si="5"/>
+        <v>134278.15000000014</v>
       </c>
       <c r="C164" s="37">
-        <f t="shared" si="22"/>
-        <v>299513.01</v>
+        <f t="shared" si="10"/>
+        <v>150221.91000000015</v>
       </c>
       <c r="D164" s="37">
-        <f t="shared" si="22"/>
-        <v>4260577</v>
+        <f t="shared" si="10"/>
+        <v>2803702</v>
       </c>
       <c r="E164" s="37">
-        <f t="shared" si="29"/>
-        <v>3961063.99</v>
+        <f t="shared" si="12"/>
+        <v>2653480.09</v>
       </c>
       <c r="F164" s="37">
-        <v>140725309.59</v>
+        <v>101176911.78999999</v>
       </c>
       <c r="G164" s="46">
-        <f t="shared" si="30"/>
-        <v>3.7030790501131929E-2</v>
+        <f>E164/L164</f>
+        <v>3.1885693025058968E-2</v>
       </c>
       <c r="H164" s="46">
-        <f t="shared" si="31"/>
-        <v>2.6407093266666667E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.7689867266666666E-2</v>
       </c>
       <c r="I164" s="37"/>
       <c r="J164" s="37"/>
       <c r="K164" s="47"/>
       <c r="L164" s="5">
-        <f>AVERAGE($F$109:F164)</f>
-        <v>106966768.36750005</v>
+        <f>AVERAGE($F$132:F164)</f>
+        <v>83218517.092121214</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="36">
-        <v>42823</v>
+        <v>42790</v>
       </c>
       <c r="B165" s="37">
-        <f t="shared" si="15"/>
-        <v>173324.34000000008</v>
+        <f t="shared" ref="B165:B196" si="15">B36-$B$2</f>
+        <v>134778.15000000014</v>
       </c>
       <c r="C165" s="37">
-        <f t="shared" si="22"/>
-        <v>302491.28999999992</v>
+        <f t="shared" si="10"/>
+        <v>155844.67000000004</v>
       </c>
       <c r="D165" s="37">
-        <f t="shared" si="22"/>
-        <v>4381646</v>
+        <f t="shared" si="10"/>
+        <v>2825213</v>
       </c>
       <c r="E165" s="37">
-        <f t="shared" si="29"/>
-        <v>4079154.71</v>
+        <f t="shared" ref="E165:E169" si="16">D165-C165</f>
+        <v>2669368.33</v>
       </c>
       <c r="F165" s="37">
-        <v>140725310.59</v>
+        <v>122984844.03</v>
       </c>
       <c r="G165" s="46">
-        <f t="shared" si="30"/>
-        <v>3.7924802378106033E-2</v>
+        <f>E165/L165</f>
+        <v>3.1632041215704176E-2</v>
       </c>
       <c r="H165" s="46">
-        <f t="shared" si="31"/>
-        <v>2.7194364733333334E-2</v>
+        <f t="shared" ref="H165:H169" si="17">E165/150000000</f>
+        <v>1.7795788866666669E-2</v>
       </c>
       <c r="I165" s="37"/>
       <c r="J165" s="37"/>
       <c r="K165" s="47"/>
       <c r="L165" s="5">
-        <f>AVERAGE($F$109:F165)</f>
-        <v>107559023.49421057</v>
+        <f>AVERAGE($F$132:F165)</f>
+        <v>84388114.943235293</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="36">
-        <v>42824</v>
+        <v>42793</v>
       </c>
       <c r="B166" s="37">
         <f t="shared" si="15"/>
-        <v>182213.34000000008</v>
+        <v>140115.64000000013</v>
       </c>
       <c r="C166" s="37">
-        <f t="shared" si="22"/>
-        <v>306087.78999999992</v>
+        <f t="shared" si="10"/>
+        <v>159902.82000000018</v>
       </c>
       <c r="D166" s="37">
-        <f t="shared" si="22"/>
-        <v>4152576</v>
+        <f t="shared" si="10"/>
+        <v>2915491</v>
       </c>
       <c r="E166" s="37">
-        <f t="shared" si="29"/>
-        <v>3846488.21</v>
+        <f t="shared" si="16"/>
+        <v>2755588.1799999997</v>
       </c>
       <c r="F166" s="37">
-        <v>140725311.59</v>
+        <v>144967329.88999999</v>
       </c>
       <c r="G166" s="46">
-        <f t="shared" si="30"/>
-        <v>3.557253082605058E-2</v>
+        <f t="shared" ref="G166:G169" si="18">E166/L166</f>
+        <v>3.1997466190741154E-2</v>
       </c>
       <c r="H166" s="46">
-        <f t="shared" si="31"/>
-        <v>2.5643254733333332E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.8370587866666666E-2</v>
       </c>
       <c r="I166" s="37"/>
       <c r="J166" s="37"/>
       <c r="K166" s="47"/>
       <c r="L166" s="5">
-        <f>AVERAGE($F$109:F166)</f>
-        <v>108130856.04758626</v>
+        <f>AVERAGE($F$132:F166)</f>
+        <v>86118949.656000003</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="36">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B167" s="37">
         <f t="shared" si="15"/>
-        <v>210532.22000000009</v>
+        <v>144583.16000000015</v>
       </c>
       <c r="C167" s="37">
-        <f t="shared" si="22"/>
-        <v>330657.13</v>
+        <f t="shared" si="10"/>
+        <v>163106.3400000002</v>
       </c>
       <c r="D167" s="37">
-        <f t="shared" si="22"/>
-        <v>4531653</v>
+        <f t="shared" si="10"/>
+        <v>2415271</v>
       </c>
       <c r="E167" s="37">
-        <f t="shared" si="29"/>
-        <v>4200995.87</v>
+        <f t="shared" si="16"/>
+        <v>2252164.6599999997</v>
       </c>
       <c r="F167" s="37">
-        <v>140725312.59</v>
+        <v>149487956.31</v>
       </c>
       <c r="G167" s="46">
-        <f t="shared" si="30"/>
-        <v>3.8653553006465308E-2</v>
+        <f t="shared" si="18"/>
+        <v>2.5627960473913244E-2</v>
       </c>
       <c r="H167" s="46">
-        <f t="shared" si="31"/>
-        <v>2.8006639133333334E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.5014431066666665E-2</v>
       </c>
       <c r="I167" s="37"/>
       <c r="J167" s="37"/>
       <c r="K167" s="47"/>
       <c r="L167" s="5">
-        <f>AVERAGE($F$109:F167)</f>
-        <v>108683304.46355937</v>
+        <f>AVERAGE($F$132:F167)</f>
+        <v>87879199.840833336</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="36">
-        <v>42830</v>
+        <v>42795</v>
       </c>
       <c r="B168" s="37">
         <f t="shared" si="15"/>
-        <v>213542.33000000007</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C168" s="37">
-        <f t="shared" si="22"/>
-        <v>335566.49</v>
+        <f t="shared" si="10"/>
+        <v>168559.49000000022</v>
       </c>
       <c r="D168" s="37">
-        <f t="shared" si="22"/>
-        <v>4607254</v>
+        <f t="shared" si="10"/>
+        <v>2622101</v>
       </c>
       <c r="E168" s="37">
-        <f t="shared" si="29"/>
-        <v>4271687.51</v>
+        <f t="shared" si="16"/>
+        <v>2453541.5099999998</v>
       </c>
       <c r="F168" s="37">
-        <v>140725313.59</v>
+        <v>152707123.09999999</v>
       </c>
       <c r="G168" s="46">
-        <f t="shared" si="30"/>
-        <v>3.9111807614233371E-2</v>
+        <f t="shared" si="18"/>
+        <v>2.7373711517998108E-2</v>
       </c>
       <c r="H168" s="46">
-        <f t="shared" si="31"/>
-        <v>2.8477916733333331E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.6356943399999997E-2</v>
       </c>
       <c r="I168" s="37"/>
       <c r="J168" s="37"/>
       <c r="K168" s="47"/>
       <c r="L168" s="5">
-        <f>AVERAGE($F$109:F168)</f>
-        <v>109217337.94900006</v>
+        <f>AVERAGE($F$132:F168)</f>
+        <v>89631305.874864861</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="36">
-        <v>42831</v>
+        <v>42796</v>
       </c>
       <c r="B169" s="37">
         <f t="shared" si="15"/>
-        <v>221941.09000000008</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C169" s="37">
-        <f t="shared" si="22"/>
-        <v>340138.04000000004</v>
+        <f t="shared" si="10"/>
+        <v>174536.19999999995</v>
       </c>
       <c r="D169" s="37">
-        <f t="shared" si="22"/>
-        <v>4750855</v>
+        <f t="shared" si="10"/>
+        <v>2371213</v>
       </c>
       <c r="E169" s="37">
-        <f t="shared" si="29"/>
-        <v>4410716.96</v>
+        <f t="shared" si="16"/>
+        <v>2196676.7999999998</v>
       </c>
       <c r="F169" s="37">
-        <v>140725314.59</v>
+        <v>140725291.59</v>
       </c>
       <c r="G169" s="46">
-        <f t="shared" si="30"/>
-        <v>4.0194675311075838E-2</v>
+        <f t="shared" si="18"/>
+        <v>2.4145704253045682E-2</v>
       </c>
       <c r="H169" s="46">
-        <f t="shared" si="31"/>
-        <v>2.9404779733333334E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.4644511999999998E-2</v>
       </c>
       <c r="I169" s="37"/>
       <c r="J169" s="37"/>
       <c r="K169" s="47"/>
       <c r="L169" s="5">
-        <f>AVERAGE($F$109:F169)</f>
-        <v>109733862.15622957</v>
+        <f>AVERAGE($F$132:F169)</f>
+        <v>90975884.446315795</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="36">
-        <v>42832</v>
+        <v>42797</v>
       </c>
       <c r="B170" s="37">
         <f t="shared" si="15"/>
-        <v>223269.85000000009</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C170" s="37">
-        <f t="shared" ref="C170:D174" si="32">C64-C$2</f>
-        <v>344676.25</v>
+        <f t="shared" si="10"/>
+        <v>182112.76000000013</v>
       </c>
       <c r="D170" s="37">
-        <f t="shared" si="32"/>
-        <v>4747833</v>
+        <f t="shared" si="10"/>
+        <v>2584861</v>
       </c>
       <c r="E170" s="37">
-        <f t="shared" ref="E170:E174" si="33">D170-C170</f>
-        <v>4403156.75</v>
+        <f t="shared" ref="E170:E174" si="19">D170-C170</f>
+        <v>2402748.2399999998</v>
       </c>
       <c r="F170" s="37">
-        <v>140725315.59</v>
+        <v>140725292.59</v>
       </c>
       <c r="G170" s="46">
-        <f t="shared" ref="G170:G174" si="34">E170/L170</f>
-        <v>3.9943826425403506E-2</v>
+        <f t="shared" ref="G170:G174" si="20">E170/L170</f>
+        <v>2.6045624969027473E-2</v>
       </c>
       <c r="H170" s="46">
-        <f t="shared" ref="H170:H174" si="35">E170/150000000</f>
-        <v>2.9354378333333334E-2</v>
+        <f t="shared" ref="H170:H173" si="21">E170/150000000</f>
+        <v>1.60183216E-2</v>
       </c>
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
       <c r="K170" s="47"/>
       <c r="L170" s="5">
-        <f>AVERAGE($F$109:F170)</f>
-        <v>110233724.30838716</v>
+        <f>AVERAGE($F$132:F170)</f>
+        <v>92251510.296153858</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="36">
-        <v>42835</v>
+        <v>42800</v>
       </c>
       <c r="B171" s="37">
         <f t="shared" si="15"/>
-        <v>225799.02000000014</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C171" s="37">
-        <f t="shared" si="32"/>
-        <v>345620.62999999989</v>
+        <f t="shared" si="10"/>
+        <v>187509.5900000002</v>
       </c>
       <c r="D171" s="37">
-        <f t="shared" si="32"/>
-        <v>4826169</v>
+        <f t="shared" si="10"/>
+        <v>2716560</v>
       </c>
       <c r="E171" s="37">
-        <f t="shared" si="33"/>
-        <v>4480548.37</v>
+        <f t="shared" si="19"/>
+        <v>2529050.4099999997</v>
       </c>
       <c r="F171" s="37">
-        <v>140725316.59</v>
+        <v>140725293.59</v>
       </c>
       <c r="G171" s="46">
-        <f t="shared" si="34"/>
-        <v>4.0468214641217637E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.7059272730876192E-2</v>
       </c>
       <c r="H171" s="46">
-        <f t="shared" si="35"/>
-        <v>2.9870322466666668E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.6860336066666665E-2</v>
       </c>
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
       <c r="K171" s="47"/>
       <c r="L171" s="5">
-        <f>AVERAGE($F$109:F171)</f>
-        <v>110717717.83666673</v>
+        <f>AVERAGE($F$132:F171)</f>
+        <v>93463354.878500015</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="36">
-        <v>42836</v>
+        <v>42801</v>
       </c>
       <c r="B172" s="37">
         <f t="shared" si="15"/>
-        <v>225799.02000000014</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C172" s="37">
-        <f t="shared" si="32"/>
-        <v>349838.24999999988</v>
+        <f t="shared" si="10"/>
+        <v>190570.48000000021</v>
       </c>
       <c r="D172" s="37">
-        <f t="shared" si="32"/>
-        <v>4504932</v>
+        <f t="shared" si="10"/>
+        <v>2874989</v>
       </c>
       <c r="E172" s="37">
-        <f t="shared" si="33"/>
-        <v>4155093.75</v>
+        <f t="shared" si="19"/>
+        <v>2684418.5199999996</v>
       </c>
       <c r="F172" s="37">
-        <v>140725317.59</v>
+        <v>140725294.59</v>
       </c>
       <c r="G172" s="46">
-        <f t="shared" si="34"/>
-        <v>3.7370458772967699E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.8371693002589092E-2</v>
       </c>
       <c r="H172" s="46">
-        <f t="shared" si="35"/>
-        <v>2.7700625E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.7896123466666664E-2</v>
       </c>
       <c r="I172" s="37"/>
       <c r="J172" s="37"/>
       <c r="K172" s="47"/>
       <c r="L172" s="5">
-        <f>AVERAGE($F$109:F172)</f>
-        <v>111186586.58281256</v>
+        <f>AVERAGE($F$132:F172)</f>
+        <v>94616085.115365863</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="36">
-        <v>42837</v>
+        <v>42802</v>
       </c>
       <c r="B173" s="37">
         <f t="shared" si="15"/>
-        <v>226786.12000000011</v>
+        <v>145249.8400000002</v>
       </c>
       <c r="C173" s="37">
-        <f t="shared" si="32"/>
-        <v>352834.67999999993</v>
+        <f t="shared" ref="C173:D192" si="22">C44-C$2</f>
+        <v>195517.64000000013</v>
       </c>
       <c r="D173" s="37">
-        <f t="shared" si="32"/>
-        <v>4724738</v>
+        <f t="shared" si="22"/>
+        <v>3160576</v>
       </c>
       <c r="E173" s="37">
-        <f t="shared" si="33"/>
-        <v>4371903.32</v>
+        <f t="shared" si="19"/>
+        <v>2965058.36</v>
       </c>
       <c r="F173" s="37">
-        <v>140725318.59</v>
+        <v>140725295.59</v>
       </c>
       <c r="G173" s="46">
-        <f t="shared" si="34"/>
-        <v>3.9160364019288532E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.0978338916794412E-2</v>
       </c>
       <c r="H173" s="46">
-        <f t="shared" si="35"/>
-        <v>2.9146022133333335E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.9767055733333334E-2</v>
       </c>
       <c r="I173" s="37"/>
       <c r="J173" s="37"/>
       <c r="K173" s="47"/>
       <c r="L173" s="5">
-        <f>AVERAGE($F$109:F173)</f>
-        <v>111641028.61369237</v>
+        <f>AVERAGE($F$132:F173)</f>
+        <v>95713923.460000008</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="36">
-        <v>42838</v>
+        <v>42803</v>
       </c>
       <c r="B174" s="37">
-        <f t="shared" ref="B174:B179" si="36">B68-$B$2</f>
-        <v>227755.70000000007</v>
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
       </c>
       <c r="C174" s="37">
-        <f t="shared" si="32"/>
-        <v>355872.19999999995</v>
+        <f t="shared" si="22"/>
+        <v>199889.82000000007</v>
       </c>
       <c r="D174" s="37">
-        <f t="shared" si="32"/>
-        <v>4724738</v>
+        <f t="shared" si="22"/>
+        <v>3239519</v>
       </c>
       <c r="E174" s="37">
-        <f t="shared" si="33"/>
-        <v>4368865.8</v>
+        <f t="shared" si="19"/>
+        <v>3039629.1799999997</v>
       </c>
       <c r="F174" s="37">
-        <v>140725319.59</v>
+        <v>140725296.59</v>
       </c>
       <c r="G174" s="46">
-        <f t="shared" si="34"/>
-        <v>3.8979296460698004E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.1413881805482456E-2</v>
       </c>
       <c r="H174" s="46">
-        <f t="shared" si="35"/>
-        <v>2.9125771999999998E-2</v>
+        <f>E174/150000000</f>
+        <v>2.0264194533333332E-2</v>
       </c>
       <c r="I174" s="37"/>
       <c r="J174" s="37"/>
       <c r="K174" s="47"/>
       <c r="L174" s="5">
-        <f>AVERAGE($F$109:F174)</f>
-        <v>112081699.68909097</v>
+        <f>AVERAGE($F$132:F174)</f>
+        <v>96760699.579302341</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="36">
-        <v>42839</v>
+        <v>42804</v>
       </c>
       <c r="B175" s="37">
-        <f t="shared" si="36"/>
-        <v>228624.04000000004</v>
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
       </c>
       <c r="C175" s="37">
-        <f t="shared" ref="C175:D179" si="37">C69-C$2</f>
-        <v>358294.57999999996</v>
+        <f t="shared" si="22"/>
+        <v>204595.81000000006</v>
       </c>
       <c r="D175" s="37">
-        <f t="shared" si="37"/>
-        <v>4705759</v>
+        <f t="shared" si="22"/>
+        <v>3405616</v>
       </c>
       <c r="E175" s="37">
-        <f t="shared" ref="E175:E179" si="38">D175-C175</f>
-        <v>4347464.42</v>
+        <f t="shared" ref="E175:E179" si="23">D175-C175</f>
+        <v>3201020.19</v>
       </c>
       <c r="F175" s="37">
-        <v>140725320.59</v>
+        <v>140725297.59</v>
       </c>
       <c r="G175" s="46">
-        <f t="shared" ref="G175:G179" si="39">E175/L175</f>
-        <v>3.864096256622359E-2</v>
+        <f t="shared" ref="G175:G179" si="24">E175/L175</f>
+        <v>3.2743695053805921E-2</v>
       </c>
       <c r="H175" s="46">
-        <f t="shared" ref="H175:H179" si="40">E175/150000000</f>
-        <v>2.8983096133333334E-2</v>
+        <f t="shared" ref="H175:H179" si="25">E175/150000000</f>
+        <v>2.1340134600000001E-2</v>
       </c>
       <c r="I175" s="37"/>
       <c r="J175" s="37"/>
       <c r="K175" s="47"/>
       <c r="L175" s="5">
-        <f>AVERAGE($F$109:F175)</f>
-        <v>112509216.4189553</v>
+        <f>AVERAGE($F$132:F175)</f>
+        <v>97759894.988636389</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="36">
-        <v>42842</v>
+        <v>42807</v>
       </c>
       <c r="B176" s="37">
-        <f t="shared" si="36"/>
-        <v>228624.04000000004</v>
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
       </c>
       <c r="C176" s="37">
-        <f t="shared" si="37"/>
-        <v>361256.06999999983</v>
+        <f t="shared" si="22"/>
+        <v>214215.82000000007</v>
       </c>
       <c r="D176" s="37">
-        <f t="shared" si="37"/>
-        <v>4742042</v>
+        <f t="shared" si="22"/>
+        <v>3791053</v>
       </c>
       <c r="E176" s="37">
-        <f t="shared" si="38"/>
-        <v>4380785.93</v>
+        <f t="shared" si="23"/>
+        <v>3576837.1799999997</v>
       </c>
       <c r="F176" s="37">
-        <v>140725321.59</v>
+        <v>140725298.59</v>
       </c>
       <c r="G176" s="46">
-        <f t="shared" si="39"/>
-        <v>3.8794054020707465E-2</v>
+        <f>E176/L176</f>
+        <v>3.6234095244210542E-2</v>
       </c>
       <c r="H176" s="46">
-        <f t="shared" si="40"/>
-        <v>2.920523953333333E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.3845581199999997E-2</v>
       </c>
       <c r="I176" s="37"/>
       <c r="J176" s="37"/>
       <c r="K176" s="47"/>
       <c r="L176" s="5">
-        <f>AVERAGE($F$109:F176)</f>
-        <v>112924159.14205889</v>
+        <f>AVERAGE($F$132:F176)</f>
+        <v>98714681.735333353</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="36">
-        <v>42843</v>
+        <v>42808</v>
       </c>
       <c r="B177" s="37">
-        <f t="shared" si="36"/>
-        <v>228853.76000000001</v>
+        <f t="shared" si="15"/>
+        <v>145249.8400000002</v>
       </c>
       <c r="C177" s="37">
-        <f t="shared" si="37"/>
-        <v>362603.66999999993</v>
+        <f t="shared" si="22"/>
+        <v>217907.59000000008</v>
       </c>
       <c r="D177" s="37">
-        <f t="shared" si="37"/>
-        <v>4847762</v>
+        <f t="shared" si="22"/>
+        <v>3622399</v>
       </c>
       <c r="E177" s="37">
-        <f t="shared" si="38"/>
-        <v>4485158.33</v>
+        <f t="shared" si="23"/>
+        <v>3404491.41</v>
       </c>
       <c r="F177" s="37">
-        <v>140725322.59</v>
+        <v>140725299.59</v>
       </c>
       <c r="G177" s="46">
-        <f t="shared" si="39"/>
-        <v>3.9577112068211615E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.4172049146044679E-2</v>
       </c>
       <c r="H177" s="46">
-        <f t="shared" si="40"/>
-        <v>2.9901055533333335E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.2696609400000001E-2</v>
       </c>
       <c r="I177" s="37"/>
       <c r="J177" s="37"/>
       <c r="K177" s="47"/>
       <c r="L177" s="5">
-        <f>AVERAGE($F$109:F177)</f>
-        <v>113327074.5543479</v>
+        <f>AVERAGE($F$132:F177)</f>
+        <v>99627956.036521763</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="36">
-        <v>42844</v>
+        <v>42809</v>
       </c>
       <c r="B178" s="37">
-        <f t="shared" si="36"/>
-        <v>229073.47999999998</v>
+        <f t="shared" si="15"/>
+        <v>145483.17000000016</v>
       </c>
       <c r="C178" s="37">
-        <f t="shared" si="37"/>
-        <v>366710.1</v>
+        <f t="shared" si="22"/>
+        <v>223250.06000000006</v>
       </c>
       <c r="D178" s="37">
-        <f t="shared" si="37"/>
-        <v>4893507</v>
+        <f t="shared" si="22"/>
+        <v>3641666</v>
       </c>
       <c r="E178" s="37">
-        <f t="shared" si="38"/>
-        <v>4526796.9000000004</v>
+        <f t="shared" si="23"/>
+        <v>3418415.94</v>
       </c>
       <c r="F178" s="37">
-        <v>140725323.59</v>
+        <v>140725300.59</v>
       </c>
       <c r="G178" s="46">
-        <f t="shared" si="39"/>
-        <v>3.980704785322231E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.4013287655381107E-2</v>
       </c>
       <c r="H178" s="46">
-        <f t="shared" si="40"/>
-        <v>3.0178646000000003E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.2789439599999999E-2</v>
       </c>
       <c r="I178" s="37"/>
       <c r="J178" s="37"/>
       <c r="K178" s="47"/>
       <c r="L178" s="5">
-        <f>AVERAGE($F$109:F178)</f>
-        <v>113718478.11200006</v>
+        <f>AVERAGE($F$132:F178)</f>
+        <v>100502367.62276599</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="36">
-        <v>42845</v>
+        <v>42810</v>
       </c>
       <c r="B179" s="37">
-        <f t="shared" si="36"/>
-        <v>231005.54999999993</v>
+        <f t="shared" si="15"/>
+        <v>149466.50000000012</v>
       </c>
       <c r="C179" s="37">
-        <f t="shared" si="37"/>
-        <v>368148.69999999995</v>
+        <f t="shared" si="22"/>
+        <v>232225.03000000003</v>
       </c>
       <c r="D179" s="37">
-        <f t="shared" si="37"/>
-        <v>5161164</v>
+        <f t="shared" si="22"/>
+        <v>3677614</v>
       </c>
       <c r="E179" s="37">
-        <f t="shared" si="38"/>
-        <v>4793015.3</v>
+        <f t="shared" si="23"/>
+        <v>3445388.9699999997</v>
       </c>
       <c r="F179" s="37">
-        <v>140725324.59</v>
+        <v>140725301.59</v>
       </c>
       <c r="G179" s="46">
-        <f t="shared" si="39"/>
-        <v>4.2007566581378268E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.3998196433347887E-2</v>
       </c>
       <c r="H179" s="46">
-        <f t="shared" si="40"/>
-        <v>3.1953435333333335E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.2969259799999999E-2</v>
       </c>
       <c r="I179" s="37"/>
       <c r="J179" s="37"/>
       <c r="K179" s="47"/>
       <c r="L179" s="5">
-        <f>AVERAGE($F$109:F179)</f>
-        <v>114098856.23140852</v>
+        <f>AVERAGE($F$132:F179)</f>
+        <v>101340345.41375004</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="36">
-        <v>42846</v>
+        <v>42811</v>
       </c>
       <c r="B180" s="37">
-        <f>B74-$B$2</f>
-        <v>232240.86</v>
+        <f t="shared" si="15"/>
+        <v>149466.50000000012</v>
       </c>
       <c r="C180" s="37">
-        <f t="shared" ref="C180:D180" si="41">C74-C$2</f>
-        <v>372441.18000000005</v>
+        <f t="shared" si="22"/>
+        <v>250381.39999999991</v>
       </c>
       <c r="D180" s="37">
-        <f t="shared" si="41"/>
-        <v>5023064</v>
+        <f t="shared" si="22"/>
+        <v>4179637</v>
       </c>
       <c r="E180" s="37">
-        <f t="shared" ref="E180:E184" si="42">D180-C180</f>
-        <v>4650622.82</v>
+        <f t="shared" ref="E180:E183" si="26">D180-C180</f>
+        <v>3929255.6</v>
       </c>
       <c r="F180" s="37">
-        <v>140725325.59</v>
+        <v>140725302.59</v>
       </c>
       <c r="G180" s="46">
-        <f t="shared" ref="G180:G184" si="43">E180/L180</f>
-        <v>4.062791057876753E-2</v>
+        <f t="shared" ref="G180:G184" si="27">E180/L180</f>
+        <v>3.846776102311724E-2</v>
       </c>
       <c r="H180" s="46">
-        <f t="shared" ref="H180:H184" si="44">E180/150000000</f>
-        <v>3.1004152133333334E-2</v>
+        <f t="shared" ref="H180:H184" si="28">E180/150000000</f>
+        <v>2.6195037333333334E-2</v>
       </c>
       <c r="I180" s="37"/>
       <c r="J180" s="37"/>
       <c r="K180" s="47"/>
       <c r="L180" s="5">
-        <f>AVERAGE($F$109:F180)</f>
-        <v>114468668.3058334</v>
+        <f>AVERAGE($F$132:F180)</f>
+        <v>102144120.05000004</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" s="36">
-        <v>42849</v>
+        <v>42814</v>
       </c>
       <c r="B181" s="37">
-        <f>B75-$B$2</f>
-        <v>232240.86</v>
+        <f t="shared" si="15"/>
+        <v>153295.10000000009</v>
       </c>
       <c r="C181" s="37">
-        <f t="shared" ref="C181:D181" si="45">C75-C$2</f>
-        <v>375722.50999999989</v>
+        <f t="shared" si="22"/>
+        <v>253390.87</v>
       </c>
       <c r="D181" s="37">
-        <f t="shared" si="45"/>
-        <v>4617942</v>
+        <f t="shared" si="22"/>
+        <v>4116818</v>
       </c>
       <c r="E181" s="37">
-        <f t="shared" si="42"/>
-        <v>4242219.49</v>
+        <f t="shared" si="26"/>
+        <v>3863427.13</v>
       </c>
       <c r="F181" s="37">
-        <v>140725326.59</v>
+        <v>140725303.59</v>
       </c>
       <c r="G181" s="46">
-        <f t="shared" si="43"/>
-        <v>3.6944008542629164E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.7539709575252989E-2</v>
       </c>
       <c r="H181" s="46">
-        <f t="shared" si="44"/>
-        <v>2.8281463266666668E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.5756180866666666E-2</v>
       </c>
       <c r="I181" s="37"/>
       <c r="J181" s="37"/>
       <c r="K181" s="47"/>
       <c r="L181" s="5">
-        <f>AVERAGE($F$109:F181)</f>
-        <v>114828348.55630144</v>
+        <f>AVERAGE($F$132:F181)</f>
+        <v>102915743.72080004</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="36">
-        <v>42850</v>
+        <v>42815</v>
       </c>
       <c r="B182" s="37">
-        <f>B76-$B$2</f>
-        <v>233938.36</v>
+        <f t="shared" si="15"/>
+        <v>156475.51000000013</v>
       </c>
       <c r="C182" s="37">
-        <f t="shared" ref="C182:D182" si="46">C76-C$2</f>
-        <v>379667.52999999991</v>
+        <f t="shared" si="22"/>
+        <v>263433.27999999991</v>
       </c>
       <c r="D182" s="37">
-        <f t="shared" si="46"/>
-        <v>4876083</v>
+        <f t="shared" si="22"/>
+        <v>4153717</v>
       </c>
       <c r="E182" s="37">
-        <f t="shared" si="42"/>
-        <v>4496415.47</v>
+        <f t="shared" si="26"/>
+        <v>3890283.72</v>
       </c>
       <c r="F182" s="37">
-        <v>140725327.59</v>
+        <v>140725304.59</v>
       </c>
       <c r="G182" s="46">
-        <f t="shared" si="43"/>
-        <v>3.9038735318507163E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.7530313239902295E-2</v>
       </c>
       <c r="H182" s="46">
-        <f t="shared" si="44"/>
-        <v>2.9976103133333331E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.59352248E-2</v>
       </c>
       <c r="I182" s="37"/>
       <c r="J182" s="37"/>
       <c r="K182" s="47"/>
       <c r="L182" s="5">
-        <f>AVERAGE($F$109:F182)</f>
-        <v>115178307.73243251</v>
+        <f>AVERAGE($F$132:F182)</f>
+        <v>103657107.6594118</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="36">
-        <v>42851</v>
+        <v>42816</v>
       </c>
       <c r="B183" s="37">
-        <f>B77-$B$2</f>
-        <v>236234.89</v>
+        <f t="shared" si="15"/>
+        <v>159321.35000000009</v>
       </c>
       <c r="C183" s="37">
-        <f t="shared" ref="C183:D183" si="47">C77-C$2</f>
-        <v>386182.74999999988</v>
+        <f t="shared" si="22"/>
+        <v>271395.34999999998</v>
       </c>
       <c r="D183" s="37">
-        <f t="shared" si="47"/>
-        <v>4968484</v>
+        <f t="shared" si="22"/>
+        <v>4284706</v>
       </c>
       <c r="E183" s="37">
-        <f t="shared" si="42"/>
-        <v>4582301.25</v>
+        <f t="shared" si="26"/>
+        <v>4013310.65</v>
       </c>
       <c r="F183" s="37">
-        <v>140725328.59</v>
+        <v>140725305.59</v>
       </c>
       <c r="G183" s="46">
-        <f t="shared" si="43"/>
-        <v>3.9667101006467358E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.8452738139712853E-2</v>
       </c>
       <c r="H183" s="46">
-        <f t="shared" si="44"/>
-        <v>3.0548675000000001E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.6755404333333333E-2</v>
       </c>
       <c r="I183" s="37"/>
       <c r="J183" s="37"/>
       <c r="K183" s="47"/>
       <c r="L183" s="5">
-        <f>AVERAGE($F$109:F183)</f>
-        <v>115518934.67720006</v>
+        <f>AVERAGE($F$132:F183)</f>
+        <v>104369957.61961542</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="36">
-        <v>42852</v>
+        <v>42817</v>
       </c>
       <c r="B184" s="37">
-        <f>B78-$B$2</f>
-        <v>246502.40000000002</v>
+        <f t="shared" si="15"/>
+        <v>161619.26000000013</v>
       </c>
       <c r="C184" s="37">
-        <f t="shared" ref="C184:D184" si="48">C78-C$2</f>
-        <v>390633.12999999989</v>
+        <f t="shared" si="22"/>
+        <v>279089.95999999996</v>
       </c>
       <c r="D184" s="37">
-        <f t="shared" si="48"/>
-        <v>5041490</v>
+        <f t="shared" si="22"/>
+        <v>4348849</v>
       </c>
       <c r="E184" s="37">
-        <f t="shared" si="42"/>
-        <v>4650856.87</v>
+        <f>D184-C184</f>
+        <v>4069759.04</v>
       </c>
       <c r="F184" s="37">
-        <v>140725329.59</v>
+        <v>140725306.59</v>
       </c>
       <c r="G184" s="46">
-        <f t="shared" si="43"/>
-        <v>4.0145298855577494E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.8738983203955392E-2</v>
       </c>
       <c r="H184" s="46">
-        <f t="shared" si="44"/>
-        <v>3.1005712466666668E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.7131726933333333E-2</v>
       </c>
       <c r="I184" s="37"/>
       <c r="J184" s="37"/>
       <c r="K184" s="47"/>
       <c r="L184" s="5">
-        <f>AVERAGE($F$109:F184)</f>
-        <v>115850597.76815796</v>
+        <f>AVERAGE($F$132:F184)</f>
+        <v>105055907.60018872</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="36">
-        <v>42853</v>
+        <v>42818</v>
       </c>
       <c r="B185" s="37">
-        <f t="shared" ref="B185:B189" si="49">B79-$B$2</f>
-        <v>251023.27000000002</v>
+        <f t="shared" si="15"/>
+        <v>164000.51</v>
       </c>
       <c r="C185" s="37">
-        <f t="shared" ref="C185:D185" si="50">C79-C$2</f>
-        <v>393879.83999999997</v>
+        <f t="shared" si="22"/>
+        <v>287233.21999999997</v>
       </c>
       <c r="D185" s="37">
-        <f t="shared" si="50"/>
-        <v>5018850</v>
+        <f t="shared" si="22"/>
+        <v>4410829</v>
       </c>
       <c r="E185" s="37">
-        <f t="shared" ref="E185:E188" si="51">D185-C185</f>
-        <v>4624970.16</v>
+        <f t="shared" ref="E185:E192" si="29">D185-C185</f>
+        <v>4123595.7800000003</v>
       </c>
       <c r="F185" s="37">
-        <v>140725330.59</v>
+        <v>140725307.59</v>
       </c>
       <c r="G185" s="46">
-        <f t="shared" ref="G185:G188" si="52">E185/L185</f>
-        <v>3.9810837564588919E-2</v>
+        <f t="shared" ref="G185:G192" si="30">E185/L185</f>
+        <v>3.9006187781125974E-2</v>
       </c>
       <c r="H185" s="46">
-        <f t="shared" ref="H185:H188" si="53">E185/150000000</f>
-        <v>3.08331344E-2</v>
+        <f t="shared" ref="H185:H192" si="31">E185/150000000</f>
+        <v>2.7490638533333334E-2</v>
       </c>
       <c r="I185" s="37"/>
       <c r="J185" s="37"/>
       <c r="K185" s="47"/>
       <c r="L185" s="5">
-        <f>AVERAGE($F$109:F185)</f>
-        <v>116173646.2463637</v>
+        <f>AVERAGE($F$132:F185)</f>
+        <v>105716452.04444449</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="36">
-        <v>42857</v>
+        <v>42821</v>
       </c>
       <c r="B186" s="37">
-        <f t="shared" si="49"/>
-        <v>255331.62</v>
+        <f t="shared" si="15"/>
+        <v>165874.26</v>
       </c>
       <c r="C186" s="37">
-        <f t="shared" ref="C186:D186" si="54">C80-C$2</f>
-        <v>395474.11</v>
+        <f t="shared" si="22"/>
+        <v>293461.26</v>
       </c>
       <c r="D186" s="37">
-        <f t="shared" si="54"/>
-        <v>4937340</v>
+        <f t="shared" si="22"/>
+        <v>4278909</v>
       </c>
       <c r="E186" s="37">
-        <f t="shared" si="51"/>
-        <v>4541865.8899999997</v>
+        <f t="shared" si="29"/>
+        <v>3985447.74</v>
       </c>
       <c r="F186" s="37">
-        <v>140725331.59</v>
+        <v>140725308.59</v>
       </c>
       <c r="G186" s="46">
-        <f t="shared" si="52"/>
-        <v>3.8989851726318886E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.7473777070746915E-2</v>
       </c>
       <c r="H186" s="46">
-        <f t="shared" si="53"/>
-        <v>3.0279105933333331E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.6569651600000001E-2</v>
       </c>
       <c r="I186" s="37"/>
       <c r="J186" s="37"/>
       <c r="K186" s="47"/>
       <c r="L186" s="5">
-        <f>AVERAGE($F$109:F186)</f>
-        <v>116488411.44307698</v>
+        <f>AVERAGE($F$132:F186)</f>
+        <v>106352976.70890914</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="36">
-        <v>42858</v>
+        <v>42822</v>
       </c>
       <c r="B187" s="37">
-        <f t="shared" si="49"/>
-        <v>257715.65000000002</v>
+        <f t="shared" si="15"/>
+        <v>169851.34000000008</v>
       </c>
       <c r="C187" s="37">
-        <f t="shared" ref="C187:D187" si="55">C81-C$2</f>
-        <v>397726.37999999989</v>
+        <f t="shared" si="22"/>
+        <v>299513.01</v>
       </c>
       <c r="D187" s="37">
-        <f t="shared" si="55"/>
-        <v>5001708</v>
+        <f t="shared" si="22"/>
+        <v>4260577</v>
       </c>
       <c r="E187" s="37">
-        <f t="shared" si="51"/>
-        <v>4603981.62</v>
+        <f t="shared" si="29"/>
+        <v>3961063.99</v>
       </c>
       <c r="F187" s="37">
-        <v>140725332.59</v>
+        <v>140725309.59</v>
       </c>
       <c r="G187" s="46">
-        <f t="shared" si="52"/>
-        <v>3.9419268155402379E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.7030790501131929E-2</v>
       </c>
       <c r="H187" s="46">
-        <f t="shared" si="53"/>
-        <v>3.0693210800000002E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.6407093266666667E-2</v>
       </c>
       <c r="I187" s="37"/>
       <c r="J187" s="37"/>
       <c r="K187" s="47"/>
       <c r="L187" s="5">
-        <f>AVERAGE($F$109:F187)</f>
-        <v>116795207.9132912</v>
+        <f>AVERAGE($F$132:F187)</f>
+        <v>106966768.36750005</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="36">
-        <v>42859</v>
+        <v>42823</v>
       </c>
       <c r="B188" s="37">
-        <f t="shared" si="49"/>
-        <v>260237.59999999998</v>
+        <f t="shared" si="15"/>
+        <v>173324.34000000008</v>
       </c>
       <c r="C188" s="37">
-        <f t="shared" ref="C188:D189" si="56">C82-C$2</f>
-        <v>400975.64</v>
+        <f t="shared" si="22"/>
+        <v>302491.28999999992</v>
       </c>
       <c r="D188" s="37">
-        <f t="shared" si="56"/>
-        <v>4826868</v>
+        <f t="shared" si="22"/>
+        <v>4381646</v>
       </c>
       <c r="E188" s="37">
-        <f t="shared" si="51"/>
-        <v>4425892.3600000003</v>
+        <f t="shared" si="29"/>
+        <v>4079154.71</v>
       </c>
       <c r="F188" s="37">
-        <v>140725333.59</v>
+        <v>140725310.59</v>
       </c>
       <c r="G188" s="46">
-        <f t="shared" si="52"/>
-        <v>3.7797664417276403E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.7924802378106033E-2</v>
       </c>
       <c r="H188" s="46">
-        <f t="shared" si="53"/>
-        <v>2.9505949066666669E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.7194364733333334E-2</v>
       </c>
       <c r="I188" s="37"/>
       <c r="J188" s="37"/>
       <c r="K188" s="47"/>
       <c r="L188" s="5">
-        <f>AVERAGE($F$109:F188)</f>
-        <v>117094334.48425007</v>
+        <f>AVERAGE($F$132:F188)</f>
+        <v>107559023.49421057</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="36">
-        <v>42860</v>
+        <v>42824</v>
       </c>
       <c r="B189" s="37">
-        <f t="shared" si="49"/>
-        <v>260237.59999999998</v>
+        <f t="shared" si="15"/>
+        <v>182213.34000000008</v>
       </c>
       <c r="C189" s="37">
-        <f t="shared" si="56"/>
-        <v>406287.19999999995</v>
+        <f t="shared" si="22"/>
+        <v>306087.78999999992</v>
       </c>
       <c r="D189" s="37">
-        <f t="shared" si="56"/>
-        <v>5054198</v>
+        <f t="shared" si="22"/>
+        <v>4152576</v>
       </c>
       <c r="E189" s="37">
-        <f t="shared" ref="E189" si="57">D189-C189</f>
-        <v>4647910.8</v>
+        <f t="shared" si="29"/>
+        <v>3846488.21</v>
       </c>
       <c r="F189" s="37">
-        <v>140725334.59</v>
+        <v>140725311.59</v>
       </c>
       <c r="G189" s="46">
-        <f t="shared" ref="G189" si="58">E189/L189</f>
-        <v>3.9595077959969083E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.557253082605058E-2</v>
       </c>
       <c r="H189" s="46">
-        <f t="shared" ref="H189" si="59">E189/150000000</f>
-        <v>3.0986072E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.5643254733333332E-2</v>
       </c>
       <c r="I189" s="37"/>
       <c r="J189" s="37"/>
       <c r="K189" s="47"/>
       <c r="L189" s="5">
-        <f>AVERAGE($F$109:F189)</f>
-        <v>117386075.22629637</v>
+        <f>AVERAGE($F$132:F189)</f>
+        <v>108130856.04758626</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="46"/>
-      <c r="H190" s="46"/>
+      <c r="A190" s="36">
+        <v>42825</v>
+      </c>
+      <c r="B190" s="37">
+        <f t="shared" si="15"/>
+        <v>210532.22000000009</v>
+      </c>
+      <c r="C190" s="37">
+        <f t="shared" si="22"/>
+        <v>330657.13</v>
+      </c>
+      <c r="D190" s="37">
+        <f t="shared" si="22"/>
+        <v>4531653</v>
+      </c>
+      <c r="E190" s="37">
+        <f t="shared" si="29"/>
+        <v>4200995.87</v>
+      </c>
+      <c r="F190" s="37">
+        <v>140725312.59</v>
+      </c>
+      <c r="G190" s="46">
+        <f t="shared" si="30"/>
+        <v>3.8653553006465308E-2</v>
+      </c>
+      <c r="H190" s="46">
+        <f t="shared" si="31"/>
+        <v>2.8006639133333334E-2</v>
+      </c>
       <c r="I190" s="37"/>
       <c r="J190" s="37"/>
       <c r="K190" s="47"/>
-      <c r="L190" s="5"/>
+      <c r="L190" s="5">
+        <f>AVERAGE($F$132:F190)</f>
+        <v>108683304.46355937</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A191" s="36"/>
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="46"/>
-      <c r="H191" s="46"/>
+      <c r="A191" s="36">
+        <v>42830</v>
+      </c>
+      <c r="B191" s="37">
+        <f t="shared" si="15"/>
+        <v>213542.33000000007</v>
+      </c>
+      <c r="C191" s="37">
+        <f t="shared" si="22"/>
+        <v>335566.49</v>
+      </c>
+      <c r="D191" s="37">
+        <f t="shared" si="22"/>
+        <v>4607254</v>
+      </c>
+      <c r="E191" s="37">
+        <f t="shared" si="29"/>
+        <v>4271687.51</v>
+      </c>
+      <c r="F191" s="37">
+        <v>140725313.59</v>
+      </c>
+      <c r="G191" s="46">
+        <f t="shared" si="30"/>
+        <v>3.9111807614233371E-2</v>
+      </c>
+      <c r="H191" s="46">
+        <f t="shared" si="31"/>
+        <v>2.8477916733333331E-2</v>
+      </c>
       <c r="I191" s="37"/>
       <c r="J191" s="37"/>
       <c r="K191" s="47"/>
-      <c r="L191" s="5"/>
+      <c r="L191" s="5">
+        <f>AVERAGE($F$132:F191)</f>
+        <v>109217337.94900006</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
+      <c r="A192" s="36">
+        <v>42831</v>
+      </c>
+      <c r="B192" s="37">
+        <f t="shared" si="15"/>
+        <v>221941.09000000008</v>
+      </c>
+      <c r="C192" s="37">
+        <f t="shared" si="22"/>
+        <v>340138.04000000004</v>
+      </c>
+      <c r="D192" s="37">
+        <f t="shared" si="22"/>
+        <v>4750855</v>
+      </c>
+      <c r="E192" s="37">
+        <f t="shared" si="29"/>
+        <v>4410716.96</v>
+      </c>
+      <c r="F192" s="37">
+        <v>140725314.59</v>
+      </c>
+      <c r="G192" s="46">
+        <f t="shared" si="30"/>
+        <v>4.0194675311075838E-2</v>
+      </c>
+      <c r="H192" s="46">
+        <f t="shared" si="31"/>
+        <v>2.9404779733333334E-2</v>
+      </c>
       <c r="I192" s="37"/>
       <c r="J192" s="37"/>
       <c r="K192" s="47"/>
-      <c r="L192" s="5"/>
+      <c r="L192" s="5">
+        <f>AVERAGE($F$132:F192)</f>
+        <v>109733862.15622957</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A193" s="36"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="46"/>
-      <c r="H193" s="46"/>
+      <c r="A193" s="36">
+        <v>42832</v>
+      </c>
+      <c r="B193" s="37">
+        <f t="shared" si="15"/>
+        <v>223269.85000000009</v>
+      </c>
+      <c r="C193" s="37">
+        <f t="shared" ref="C193:D212" si="32">C64-C$2</f>
+        <v>344676.25</v>
+      </c>
+      <c r="D193" s="37">
+        <f t="shared" si="32"/>
+        <v>4747833</v>
+      </c>
+      <c r="E193" s="37">
+        <f t="shared" ref="E193:E197" si="33">D193-C193</f>
+        <v>4403156.75</v>
+      </c>
+      <c r="F193" s="37">
+        <v>140725315.59</v>
+      </c>
+      <c r="G193" s="46">
+        <f t="shared" ref="G193:G197" si="34">E193/L193</f>
+        <v>3.9943826425403506E-2</v>
+      </c>
+      <c r="H193" s="46">
+        <f t="shared" ref="H193:H197" si="35">E193/150000000</f>
+        <v>2.9354378333333334E-2</v>
+      </c>
       <c r="I193" s="37"/>
       <c r="J193" s="37"/>
       <c r="K193" s="47"/>
-      <c r="L193" s="5"/>
+      <c r="L193" s="5">
+        <f>AVERAGE($F$132:F193)</f>
+        <v>110233724.30838716</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A194" s="36"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="37"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
+      <c r="A194" s="36">
+        <v>42835</v>
+      </c>
+      <c r="B194" s="37">
+        <f t="shared" si="15"/>
+        <v>225799.02000000014</v>
+      </c>
+      <c r="C194" s="37">
+        <f t="shared" si="32"/>
+        <v>345620.62999999989</v>
+      </c>
+      <c r="D194" s="37">
+        <f t="shared" si="32"/>
+        <v>4826169</v>
+      </c>
+      <c r="E194" s="37">
+        <f t="shared" si="33"/>
+        <v>4480548.37</v>
+      </c>
+      <c r="F194" s="37">
+        <v>140725316.59</v>
+      </c>
+      <c r="G194" s="46">
+        <f t="shared" si="34"/>
+        <v>4.0468214641217637E-2</v>
+      </c>
+      <c r="H194" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9870322466666668E-2</v>
+      </c>
       <c r="I194" s="37"/>
       <c r="J194" s="37"/>
       <c r="K194" s="47"/>
-      <c r="L194" s="5"/>
+      <c r="L194" s="5">
+        <f>AVERAGE($F$132:F194)</f>
+        <v>110717717.83666673</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A195" s="36"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
+      <c r="A195" s="36">
+        <v>42836</v>
+      </c>
+      <c r="B195" s="37">
+        <f t="shared" si="15"/>
+        <v>225799.02000000014</v>
+      </c>
+      <c r="C195" s="37">
+        <f t="shared" si="32"/>
+        <v>349838.24999999988</v>
+      </c>
+      <c r="D195" s="37">
+        <f t="shared" si="32"/>
+        <v>4504932</v>
+      </c>
+      <c r="E195" s="37">
+        <f t="shared" si="33"/>
+        <v>4155093.75</v>
+      </c>
+      <c r="F195" s="37">
+        <v>140725317.59</v>
+      </c>
+      <c r="G195" s="46">
+        <f t="shared" si="34"/>
+        <v>3.7370458772967699E-2</v>
+      </c>
+      <c r="H195" s="46">
+        <f t="shared" si="35"/>
+        <v>2.7700625E-2</v>
+      </c>
       <c r="I195" s="37"/>
       <c r="J195" s="37"/>
       <c r="K195" s="47"/>
-      <c r="L195" s="5"/>
+      <c r="L195" s="5">
+        <f>AVERAGE($F$132:F195)</f>
+        <v>111186586.58281256</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A196" s="36"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="46"/>
+      <c r="A196" s="36">
+        <v>42837</v>
+      </c>
+      <c r="B196" s="37">
+        <f t="shared" si="15"/>
+        <v>226786.12000000011</v>
+      </c>
+      <c r="C196" s="37">
+        <f t="shared" si="32"/>
+        <v>352834.67999999993</v>
+      </c>
+      <c r="D196" s="37">
+        <f t="shared" si="32"/>
+        <v>4724738</v>
+      </c>
+      <c r="E196" s="37">
+        <f t="shared" si="33"/>
+        <v>4371903.32</v>
+      </c>
+      <c r="F196" s="37">
+        <v>140725318.59</v>
+      </c>
+      <c r="G196" s="46">
+        <f t="shared" si="34"/>
+        <v>3.9160364019288532E-2</v>
+      </c>
+      <c r="H196" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9146022133333335E-2</v>
+      </c>
       <c r="I196" s="37"/>
       <c r="J196" s="37"/>
       <c r="K196" s="47"/>
-      <c r="L196" s="5"/>
+      <c r="L196" s="5">
+        <f>AVERAGE($F$132:F196)</f>
+        <v>111641028.61369237</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A197" s="36"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="37"/>
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
+      <c r="A197" s="36">
+        <v>42838</v>
+      </c>
+      <c r="B197" s="37">
+        <f>B68-$B$2</f>
+        <v>227755.70000000007</v>
+      </c>
+      <c r="C197" s="37">
+        <f t="shared" si="32"/>
+        <v>355872.19999999995</v>
+      </c>
+      <c r="D197" s="37">
+        <f t="shared" si="32"/>
+        <v>4724738</v>
+      </c>
+      <c r="E197" s="37">
+        <f t="shared" si="33"/>
+        <v>4368865.8</v>
+      </c>
+      <c r="F197" s="37">
+        <v>140725319.59</v>
+      </c>
+      <c r="G197" s="46">
+        <f t="shared" si="34"/>
+        <v>3.8979296460698004E-2</v>
+      </c>
+      <c r="H197" s="46">
+        <f t="shared" si="35"/>
+        <v>2.9125771999999998E-2</v>
+      </c>
       <c r="I197" s="37"/>
       <c r="J197" s="37"/>
       <c r="K197" s="47"/>
-      <c r="L197" s="5"/>
+      <c r="L197" s="5">
+        <f>AVERAGE($F$132:F197)</f>
+        <v>112081699.68909097</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A198" s="36"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="37"/>
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
+      <c r="A198" s="36">
+        <v>42839</v>
+      </c>
+      <c r="B198" s="37">
+        <f>B69-$B$2</f>
+        <v>228624.04000000004</v>
+      </c>
+      <c r="C198" s="37">
+        <f t="shared" si="32"/>
+        <v>358294.57999999996</v>
+      </c>
+      <c r="D198" s="37">
+        <f t="shared" si="32"/>
+        <v>4705759</v>
+      </c>
+      <c r="E198" s="37">
+        <f t="shared" ref="E198:E202" si="36">D198-C198</f>
+        <v>4347464.42</v>
+      </c>
+      <c r="F198" s="37">
+        <v>140725320.59</v>
+      </c>
+      <c r="G198" s="46">
+        <f t="shared" ref="G198:G202" si="37">E198/L198</f>
+        <v>3.864096256622359E-2</v>
+      </c>
+      <c r="H198" s="46">
+        <f t="shared" ref="H198:H202" si="38">E198/150000000</f>
+        <v>2.8983096133333334E-2</v>
+      </c>
       <c r="I198" s="37"/>
       <c r="J198" s="37"/>
       <c r="K198" s="47"/>
-      <c r="L198" s="5"/>
+      <c r="L198" s="5">
+        <f>AVERAGE($F$132:F198)</f>
+        <v>112509216.4189553</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A199" s="36"/>
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="37"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="46"/>
+      <c r="A199" s="36">
+        <v>42842</v>
+      </c>
+      <c r="B199" s="37">
+        <f>B70-$B$2</f>
+        <v>228624.04000000004</v>
+      </c>
+      <c r="C199" s="37">
+        <f t="shared" si="32"/>
+        <v>361256.06999999983</v>
+      </c>
+      <c r="D199" s="37">
+        <f t="shared" si="32"/>
+        <v>4742042</v>
+      </c>
+      <c r="E199" s="37">
+        <f t="shared" si="36"/>
+        <v>4380785.93</v>
+      </c>
+      <c r="F199" s="37">
+        <v>140725321.59</v>
+      </c>
+      <c r="G199" s="46">
+        <f t="shared" si="37"/>
+        <v>3.8794054020707465E-2</v>
+      </c>
+      <c r="H199" s="46">
+        <f t="shared" si="38"/>
+        <v>2.920523953333333E-2</v>
+      </c>
       <c r="I199" s="37"/>
       <c r="J199" s="37"/>
       <c r="K199" s="47"/>
-      <c r="L199" s="5"/>
+      <c r="L199" s="5">
+        <f>AVERAGE($F$132:F199)</f>
+        <v>112924159.14205889</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A200" s="36"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="37"/>
-      <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="46"/>
-      <c r="H200" s="46"/>
+      <c r="A200" s="36">
+        <v>42843</v>
+      </c>
+      <c r="B200" s="37">
+        <f>B71-$B$2</f>
+        <v>228853.76000000001</v>
+      </c>
+      <c r="C200" s="37">
+        <f t="shared" si="32"/>
+        <v>362603.66999999993</v>
+      </c>
+      <c r="D200" s="37">
+        <f t="shared" si="32"/>
+        <v>4847762</v>
+      </c>
+      <c r="E200" s="37">
+        <f t="shared" si="36"/>
+        <v>4485158.33</v>
+      </c>
+      <c r="F200" s="37">
+        <v>140725322.59</v>
+      </c>
+      <c r="G200" s="46">
+        <f t="shared" si="37"/>
+        <v>3.9577112068211615E-2</v>
+      </c>
+      <c r="H200" s="46">
+        <f t="shared" si="38"/>
+        <v>2.9901055533333335E-2</v>
+      </c>
       <c r="I200" s="37"/>
       <c r="J200" s="37"/>
       <c r="K200" s="47"/>
-      <c r="L200" s="5"/>
+      <c r="L200" s="5">
+        <f>AVERAGE($F$132:F200)</f>
+        <v>113327074.5543479</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A201" s="36"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="46"/>
+      <c r="A201" s="36">
+        <v>42844</v>
+      </c>
+      <c r="B201" s="37">
+        <f>B72-$B$2</f>
+        <v>229073.47999999998</v>
+      </c>
+      <c r="C201" s="37">
+        <f t="shared" si="32"/>
+        <v>366710.1</v>
+      </c>
+      <c r="D201" s="37">
+        <f t="shared" si="32"/>
+        <v>4893507</v>
+      </c>
+      <c r="E201" s="37">
+        <f t="shared" si="36"/>
+        <v>4526796.9000000004</v>
+      </c>
+      <c r="F201" s="37">
+        <v>140725323.59</v>
+      </c>
+      <c r="G201" s="46">
+        <f t="shared" si="37"/>
+        <v>3.980704785322231E-2</v>
+      </c>
+      <c r="H201" s="46">
+        <f t="shared" si="38"/>
+        <v>3.0178646000000003E-2</v>
+      </c>
       <c r="I201" s="37"/>
       <c r="J201" s="37"/>
       <c r="K201" s="47"/>
-      <c r="L201" s="5"/>
+      <c r="L201" s="5">
+        <f>AVERAGE($F$132:F201)</f>
+        <v>113718478.11200006</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A202" s="36"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="37"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="46"/>
-      <c r="H202" s="46"/>
+      <c r="A202" s="36">
+        <v>42845</v>
+      </c>
+      <c r="B202" s="37">
+        <f>B73-$B$2</f>
+        <v>231005.54999999993</v>
+      </c>
+      <c r="C202" s="37">
+        <f t="shared" si="32"/>
+        <v>368148.69999999995</v>
+      </c>
+      <c r="D202" s="37">
+        <f t="shared" si="32"/>
+        <v>5161164</v>
+      </c>
+      <c r="E202" s="37">
+        <f t="shared" si="36"/>
+        <v>4793015.3</v>
+      </c>
+      <c r="F202" s="37">
+        <v>140725324.59</v>
+      </c>
+      <c r="G202" s="46">
+        <f t="shared" si="37"/>
+        <v>4.2007566581378268E-2</v>
+      </c>
+      <c r="H202" s="46">
+        <f t="shared" si="38"/>
+        <v>3.1953435333333335E-2</v>
+      </c>
       <c r="I202" s="37"/>
       <c r="J202" s="37"/>
       <c r="K202" s="47"/>
-      <c r="L202" s="5"/>
+      <c r="L202" s="5">
+        <f>AVERAGE($F$132:F202)</f>
+        <v>114098856.23140852</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A203" s="36"/>
-      <c r="C203" s="45"/>
-      <c r="E203" s="35"/>
-      <c r="I203" s="11"/>
+      <c r="A203" s="36">
+        <v>42846</v>
+      </c>
+      <c r="B203" s="37">
+        <f>B74-$B$2</f>
+        <v>232240.86</v>
+      </c>
+      <c r="C203" s="37">
+        <f t="shared" si="32"/>
+        <v>372441.18000000005</v>
+      </c>
+      <c r="D203" s="37">
+        <f t="shared" si="32"/>
+        <v>5023064</v>
+      </c>
+      <c r="E203" s="37">
+        <f t="shared" ref="E203:E207" si="39">D203-C203</f>
+        <v>4650622.82</v>
+      </c>
+      <c r="F203" s="37">
+        <v>140725325.59</v>
+      </c>
+      <c r="G203" s="46">
+        <f t="shared" ref="G203:G207" si="40">E203/L203</f>
+        <v>4.062791057876753E-2</v>
+      </c>
+      <c r="H203" s="46">
+        <f t="shared" ref="H203:H207" si="41">E203/150000000</f>
+        <v>3.1004152133333334E-2</v>
+      </c>
+      <c r="I203" s="37"/>
       <c r="J203" s="37"/>
+      <c r="K203" s="47"/>
+      <c r="L203" s="5">
+        <f>AVERAGE($F$132:F203)</f>
+        <v>114468668.3058334</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A204" s="36"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="5"/>
-      <c r="I204" s="11"/>
+      <c r="A204" s="36">
+        <v>42849</v>
+      </c>
+      <c r="B204" s="37">
+        <f>B75-$B$2</f>
+        <v>232240.86</v>
+      </c>
+      <c r="C204" s="37">
+        <f t="shared" si="32"/>
+        <v>375722.50999999989</v>
+      </c>
+      <c r="D204" s="37">
+        <f t="shared" si="32"/>
+        <v>4617942</v>
+      </c>
+      <c r="E204" s="37">
+        <f t="shared" si="39"/>
+        <v>4242219.49</v>
+      </c>
+      <c r="F204" s="37">
+        <v>140725326.59</v>
+      </c>
+      <c r="G204" s="46">
+        <f t="shared" si="40"/>
+        <v>3.6944008542629164E-2</v>
+      </c>
+      <c r="H204" s="46">
+        <f t="shared" si="41"/>
+        <v>2.8281463266666668E-2</v>
+      </c>
+      <c r="I204" s="37"/>
       <c r="J204" s="37"/>
+      <c r="K204" s="47"/>
+      <c r="L204" s="5">
+        <f>AVERAGE($F$132:F204)</f>
+        <v>114828348.55630144</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="5"/>
-      <c r="I205" s="11"/>
+      <c r="A205" s="36">
+        <v>42850</v>
+      </c>
+      <c r="B205" s="37">
+        <f>B76-$B$2</f>
+        <v>233938.36</v>
+      </c>
+      <c r="C205" s="37">
+        <f t="shared" si="32"/>
+        <v>379667.52999999991</v>
+      </c>
+      <c r="D205" s="37">
+        <f t="shared" si="32"/>
+        <v>4876083</v>
+      </c>
+      <c r="E205" s="37">
+        <f t="shared" si="39"/>
+        <v>4496415.47</v>
+      </c>
+      <c r="F205" s="37">
+        <v>140725327.59</v>
+      </c>
+      <c r="G205" s="46">
+        <f t="shared" si="40"/>
+        <v>3.9038735318507163E-2</v>
+      </c>
+      <c r="H205" s="46">
+        <f t="shared" si="41"/>
+        <v>2.9976103133333331E-2</v>
+      </c>
+      <c r="I205" s="37"/>
       <c r="J205" s="37"/>
+      <c r="K205" s="47"/>
+      <c r="L205" s="5">
+        <f>AVERAGE($F$132:F205)</f>
+        <v>115178307.73243251</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A206" s="36"/>
-      <c r="D206" s="36"/>
-      <c r="E206" s="5"/>
-      <c r="I206" s="11"/>
+      <c r="A206" s="36">
+        <v>42851</v>
+      </c>
+      <c r="B206" s="37">
+        <f>B77-$B$2</f>
+        <v>236234.89</v>
+      </c>
+      <c r="C206" s="37">
+        <f t="shared" si="32"/>
+        <v>386182.74999999988</v>
+      </c>
+      <c r="D206" s="37">
+        <f t="shared" si="32"/>
+        <v>4968484</v>
+      </c>
+      <c r="E206" s="37">
+        <f t="shared" si="39"/>
+        <v>4582301.25</v>
+      </c>
+      <c r="F206" s="37">
+        <v>140725328.59</v>
+      </c>
+      <c r="G206" s="46">
+        <f t="shared" si="40"/>
+        <v>3.9667101006467358E-2</v>
+      </c>
+      <c r="H206" s="46">
+        <f t="shared" si="41"/>
+        <v>3.0548675000000001E-2</v>
+      </c>
+      <c r="I206" s="37"/>
       <c r="J206" s="37"/>
+      <c r="K206" s="47"/>
+      <c r="L206" s="5">
+        <f>AVERAGE($F$132:F206)</f>
+        <v>115518934.67720006</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A207" s="36"/>
-      <c r="D207" s="36"/>
-      <c r="E207" s="5"/>
-      <c r="I207" s="11"/>
+      <c r="A207" s="36">
+        <v>42852</v>
+      </c>
+      <c r="B207" s="37">
+        <f>B78-$B$2</f>
+        <v>246502.40000000002</v>
+      </c>
+      <c r="C207" s="37">
+        <f t="shared" si="32"/>
+        <v>390633.12999999989</v>
+      </c>
+      <c r="D207" s="37">
+        <f t="shared" si="32"/>
+        <v>5041490</v>
+      </c>
+      <c r="E207" s="37">
+        <f t="shared" si="39"/>
+        <v>4650856.87</v>
+      </c>
+      <c r="F207" s="37">
+        <v>140725329.59</v>
+      </c>
+      <c r="G207" s="46">
+        <f t="shared" si="40"/>
+        <v>4.0145298855577494E-2</v>
+      </c>
+      <c r="H207" s="46">
+        <f t="shared" si="41"/>
+        <v>3.1005712466666668E-2</v>
+      </c>
+      <c r="I207" s="37"/>
       <c r="J207" s="37"/>
+      <c r="K207" s="47"/>
+      <c r="L207" s="5">
+        <f>AVERAGE($F$132:F207)</f>
+        <v>115850597.76815796</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D208" s="36"/>
-      <c r="E208" s="5"/>
-      <c r="I208" s="11"/>
+      <c r="A208" s="36">
+        <v>42853</v>
+      </c>
+      <c r="B208" s="37">
+        <f>B79-$B$2</f>
+        <v>251023.27000000002</v>
+      </c>
+      <c r="C208" s="37">
+        <f t="shared" si="32"/>
+        <v>393879.83999999997</v>
+      </c>
+      <c r="D208" s="37">
+        <f t="shared" si="32"/>
+        <v>5018850</v>
+      </c>
+      <c r="E208" s="37">
+        <f t="shared" ref="E208:E211" si="42">D208-C208</f>
+        <v>4624970.16</v>
+      </c>
+      <c r="F208" s="37">
+        <v>140725330.59</v>
+      </c>
+      <c r="G208" s="46">
+        <f t="shared" ref="G208:G211" si="43">E208/L208</f>
+        <v>3.9810837564588919E-2</v>
+      </c>
+      <c r="H208" s="46">
+        <f t="shared" ref="H208:H211" si="44">E208/150000000</f>
+        <v>3.08331344E-2</v>
+      </c>
+      <c r="I208" s="37"/>
       <c r="J208" s="37"/>
-    </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C216" s="36">
-        <v>42852</v>
+      <c r="K208" s="47"/>
+      <c r="L208" s="5">
+        <f>AVERAGE($F$132:F208)</f>
+        <v>116173646.2463637</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A209" s="36">
+        <v>42857</v>
+      </c>
+      <c r="B209" s="37">
+        <f>B80-$B$2</f>
+        <v>255331.62</v>
+      </c>
+      <c r="C209" s="37">
+        <f t="shared" si="32"/>
+        <v>395474.11</v>
+      </c>
+      <c r="D209" s="37">
+        <f t="shared" si="32"/>
+        <v>4937340</v>
+      </c>
+      <c r="E209" s="37">
+        <f t="shared" si="42"/>
+        <v>4541865.8899999997</v>
+      </c>
+      <c r="F209" s="37">
+        <v>140725331.59</v>
+      </c>
+      <c r="G209" s="46">
+        <f t="shared" si="43"/>
+        <v>3.8989851726318886E-2</v>
+      </c>
+      <c r="H209" s="46">
+        <f t="shared" si="44"/>
+        <v>3.0279105933333331E-2</v>
+      </c>
+      <c r="I209" s="37"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="47"/>
+      <c r="L209" s="5">
+        <f>AVERAGE($F$132:F209)</f>
+        <v>116488411.44307698</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A210" s="36">
+        <v>42858</v>
+      </c>
+      <c r="B210" s="37">
+        <f>B81-$B$2</f>
+        <v>257715.65000000002</v>
+      </c>
+      <c r="C210" s="37">
+        <f t="shared" si="32"/>
+        <v>397726.37999999989</v>
+      </c>
+      <c r="D210" s="37">
+        <f t="shared" si="32"/>
+        <v>5001708</v>
+      </c>
+      <c r="E210" s="37">
+        <f t="shared" si="42"/>
+        <v>4603981.62</v>
+      </c>
+      <c r="F210" s="37">
+        <v>140725332.59</v>
+      </c>
+      <c r="G210" s="46">
+        <f t="shared" si="43"/>
+        <v>3.9419268155402379E-2</v>
+      </c>
+      <c r="H210" s="46">
+        <f t="shared" si="44"/>
+        <v>3.0693210800000002E-2</v>
+      </c>
+      <c r="I210" s="37"/>
+      <c r="J210" s="37"/>
+      <c r="K210" s="47"/>
+      <c r="L210" s="5">
+        <f>AVERAGE($F$132:F210)</f>
+        <v>116795207.9132912</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A211" s="36">
+        <v>42859</v>
+      </c>
+      <c r="B211" s="37">
+        <f>B82-$B$2</f>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C211" s="37">
+        <f t="shared" si="32"/>
+        <v>400975.64</v>
+      </c>
+      <c r="D211" s="37">
+        <f t="shared" si="32"/>
+        <v>4826868</v>
+      </c>
+      <c r="E211" s="37">
+        <f t="shared" si="42"/>
+        <v>4425892.3600000003</v>
+      </c>
+      <c r="F211" s="37">
+        <v>140725333.59</v>
+      </c>
+      <c r="G211" s="46">
+        <f t="shared" si="43"/>
+        <v>3.7797664417276403E-2</v>
+      </c>
+      <c r="H211" s="46">
+        <f t="shared" si="44"/>
+        <v>2.9505949066666669E-2</v>
+      </c>
+      <c r="I211" s="37"/>
+      <c r="J211" s="37"/>
+      <c r="K211" s="47"/>
+      <c r="L211" s="5">
+        <f>AVERAGE($F$132:F211)</f>
+        <v>117094334.48425007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A212" s="36">
+        <v>42860</v>
+      </c>
+      <c r="B212" s="37">
+        <f>B83-$B$2</f>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C212" s="37">
+        <f t="shared" si="32"/>
+        <v>406287.19999999995</v>
+      </c>
+      <c r="D212" s="37">
+        <f t="shared" si="32"/>
+        <v>5054198</v>
+      </c>
+      <c r="E212" s="37">
+        <f t="shared" ref="E212" si="45">D212-C212</f>
+        <v>4647910.8</v>
+      </c>
+      <c r="F212" s="37">
+        <v>140725334.59</v>
+      </c>
+      <c r="G212" s="46">
+        <f t="shared" ref="G212" si="46">E212/L212</f>
+        <v>3.9595077959969083E-2</v>
+      </c>
+      <c r="H212" s="46">
+        <f t="shared" ref="H212" si="47">E212/150000000</f>
+        <v>3.0986072E-2</v>
+      </c>
+      <c r="I212" s="37"/>
+      <c r="J212" s="37"/>
+      <c r="K212" s="47"/>
+      <c r="L212" s="5">
+        <f>AVERAGE($F$132:F212)</f>
+        <v>117386075.22629637</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A213" s="36">
+        <v>42863</v>
+      </c>
+      <c r="B213" s="37">
+        <f>B84-$B$2</f>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C213" s="37">
+        <f>C84-C$2</f>
+        <v>411651.92000000004</v>
+      </c>
+      <c r="D213" s="37">
+        <f>D84-D$2</f>
+        <v>5086409</v>
+      </c>
+      <c r="E213" s="37">
+        <f t="shared" ref="E213:E217" si="48">D213-C213</f>
+        <v>4674757.08</v>
+      </c>
+      <c r="F213" s="37">
+        <v>140725335.59</v>
+      </c>
+      <c r="G213" s="46">
+        <f t="shared" ref="G213:G217" si="49">E213/L213</f>
+        <v>3.9727451829459699E-2</v>
+      </c>
+      <c r="H213" s="46">
+        <f t="shared" ref="H213:H217" si="50">E213/150000000</f>
+        <v>3.11650472E-2</v>
+      </c>
+      <c r="I213" s="37"/>
+      <c r="J213" s="37"/>
+      <c r="K213" s="47"/>
+      <c r="L213" s="5">
+        <f>AVERAGE($F$132:F213)</f>
+        <v>117670700.35268299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A214" s="36">
+        <v>42864</v>
+      </c>
+      <c r="B214" s="37">
+        <f>B85-$B$2</f>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C214" s="37">
+        <f>C85-C$2</f>
+        <v>413393.9</v>
+      </c>
+      <c r="D214" s="37">
+        <f>D85-D$2</f>
+        <v>4949920</v>
+      </c>
+      <c r="E214" s="37">
+        <f t="shared" si="48"/>
+        <v>4536526.0999999996</v>
+      </c>
+      <c r="F214" s="37">
+        <v>140725336.59</v>
+      </c>
+      <c r="G214" s="46">
+        <f t="shared" si="49"/>
+        <v>3.8461933531616629E-2</v>
+      </c>
+      <c r="H214" s="46">
+        <f t="shared" si="50"/>
+        <v>3.0243507333333332E-2</v>
+      </c>
+      <c r="I214" s="37"/>
+      <c r="J214" s="37"/>
+      <c r="K214" s="47"/>
+      <c r="L214" s="5">
+        <f>AVERAGE($F$132:F214)</f>
+        <v>117948467.05433743</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A215" s="36">
+        <v>42865</v>
+      </c>
+      <c r="B215" s="37">
+        <f>B86-$B$2</f>
+        <v>260237.59999999998</v>
+      </c>
+      <c r="C215" s="37">
+        <f>C86-C$2</f>
+        <v>416772.41000000003</v>
+      </c>
+      <c r="D215" s="37">
+        <f>D86-D$2</f>
+        <v>5158695</v>
+      </c>
+      <c r="E215" s="37">
+        <f t="shared" si="48"/>
+        <v>4741922.59</v>
+      </c>
+      <c r="F215" s="37">
+        <v>140725337.59</v>
+      </c>
+      <c r="G215" s="46">
+        <f t="shared" si="49"/>
+        <v>4.0111130275748107E-2</v>
+      </c>
+      <c r="H215" s="46">
+        <f t="shared" si="50"/>
+        <v>3.1612817266666662E-2</v>
+      </c>
+      <c r="I215" s="37"/>
+      <c r="J215" s="37"/>
+      <c r="K215" s="47"/>
+      <c r="L215" s="5">
+        <f>AVERAGE($F$132:F215)</f>
+        <v>118219620.27500007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A216" s="36">
+        <v>42866</v>
+      </c>
+      <c r="B216" s="37">
+        <f>B87-$B$2</f>
+        <v>261802.87</v>
+      </c>
+      <c r="C216" s="37">
+        <f>C87-C$2</f>
+        <v>421018.15999999992</v>
       </c>
       <c r="D216" s="37">
-        <v>4650856.87</v>
-      </c>
-    </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C217" s="36">
-        <v>42853</v>
+        <f>D87-D$2</f>
+        <v>5164789</v>
+      </c>
+      <c r="E216" s="37">
+        <f t="shared" si="48"/>
+        <v>4743770.84</v>
+      </c>
+      <c r="F216" s="37">
+        <v>140725338.59</v>
+      </c>
+      <c r="G216" s="46">
+        <f t="shared" si="49"/>
+        <v>4.003709435991374E-2</v>
+      </c>
+      <c r="H216" s="46">
+        <f t="shared" si="50"/>
+        <v>3.1625138933333331E-2</v>
+      </c>
+      <c r="I216" s="37"/>
+      <c r="J216" s="37"/>
+      <c r="K216" s="47"/>
+      <c r="L216" s="5">
+        <f>AVERAGE($F$132:F216)</f>
+        <v>118484393.43164714</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A217" s="36">
+        <v>42867</v>
+      </c>
+      <c r="B217" s="37">
+        <f>B88-$B$2</f>
+        <v>264875.07999999996</v>
+      </c>
+      <c r="C217" s="37">
+        <f>C88-C$2</f>
+        <v>434204.64999999991</v>
       </c>
       <c r="D217" s="37">
-        <v>4624970.16</v>
-      </c>
-      <c r="E217" s="5">
-        <f>D217-$D$216</f>
-        <v>-25886.709999999963</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C218" s="36">
-        <v>42857</v>
+        <f>D88-D$2</f>
+        <v>5655248</v>
+      </c>
+      <c r="E217" s="37">
+        <f t="shared" si="48"/>
+        <v>5221043.3499999996</v>
+      </c>
+      <c r="F217" s="37">
+        <v>140725339.59</v>
+      </c>
+      <c r="G217" s="46">
+        <f t="shared" si="49"/>
+        <v>4.3969269351073516E-2</v>
+      </c>
+      <c r="H217" s="46">
+        <f t="shared" si="50"/>
+        <v>3.4806955666666667E-2</v>
+      </c>
+      <c r="I217" s="37"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="47"/>
+      <c r="L217" s="5">
+        <f>AVERAGE($F$132:F217)</f>
+        <v>118743009.08465123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A218" s="36">
+        <v>42870</v>
+      </c>
+      <c r="B218" s="37">
+        <f>B89-$B$2</f>
+        <v>267498.40999999992</v>
+      </c>
+      <c r="C218" s="37">
+        <f t="shared" ref="C218:D222" si="51">C89-C$2</f>
+        <v>439045.14</v>
       </c>
       <c r="D218" s="37">
-        <v>4541865.8899999997</v>
-      </c>
-      <c r="E218" s="5">
-        <f t="shared" ref="E218:E219" si="60">D218-$D$216</f>
-        <v>-108990.98000000045</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C219" s="36">
-        <v>42858</v>
+        <f t="shared" si="51"/>
+        <v>5776544</v>
+      </c>
+      <c r="E218" s="37">
+        <f t="shared" ref="E218:E222" si="52">D218-C218</f>
+        <v>5337498.8600000003</v>
+      </c>
+      <c r="F218" s="37">
+        <v>140725340.59</v>
+      </c>
+      <c r="G218" s="46">
+        <f t="shared" ref="G218:G222" si="53">E218/L218</f>
+        <v>4.4854560095447735E-2</v>
+      </c>
+      <c r="H218" s="46">
+        <f t="shared" ref="H218:H222" si="54">E218/150000000</f>
+        <v>3.5583325733333337E-2</v>
+      </c>
+      <c r="I218" s="37"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="47"/>
+      <c r="L218" s="5">
+        <f>AVERAGE($F$132:F218)</f>
+        <v>118995679.56172422</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A219" s="36">
+        <v>42871</v>
+      </c>
+      <c r="B219" s="37">
+        <f>B90-$B$2</f>
+        <v>271125.08999999997</v>
+      </c>
+      <c r="C219" s="37">
+        <f t="shared" si="51"/>
+        <v>443218.07999999996</v>
       </c>
       <c r="D219" s="37">
-        <v>4603981.62</v>
-      </c>
-      <c r="E219" s="5">
+        <f t="shared" si="51"/>
+        <v>5647408</v>
+      </c>
+      <c r="E219" s="37">
+        <f t="shared" si="52"/>
+        <v>5204189.92</v>
+      </c>
+      <c r="F219" s="37">
+        <v>140725341.59</v>
+      </c>
+      <c r="G219" s="46">
+        <f t="shared" si="53"/>
+        <v>4.3643711148164926E-2</v>
+      </c>
+      <c r="H219" s="46">
+        <f t="shared" si="54"/>
+        <v>3.4694599466666663E-2</v>
+      </c>
+      <c r="I219" s="37"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="47"/>
+      <c r="L219" s="5">
+        <f>AVERAGE($F$132:F219)</f>
+        <v>119242607.53931826</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A220" s="36">
+        <v>42872</v>
+      </c>
+      <c r="B220" s="37">
+        <f>B91-$B$2</f>
+        <v>275463.56999999995</v>
+      </c>
+      <c r="C220" s="37">
+        <f t="shared" si="51"/>
+        <v>445783.49</v>
+      </c>
+      <c r="D220" s="37">
+        <f t="shared" si="51"/>
+        <v>5689595</v>
+      </c>
+      <c r="E220" s="37">
+        <f t="shared" si="52"/>
+        <v>5243811.51</v>
+      </c>
+      <c r="F220" s="37">
+        <v>140725342.59</v>
+      </c>
+      <c r="G220" s="46">
+        <f t="shared" si="53"/>
+        <v>4.388714889653423E-2</v>
+      </c>
+      <c r="H220" s="46">
+        <f t="shared" si="54"/>
+        <v>3.4958743399999999E-2</v>
+      </c>
+      <c r="I220" s="37"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="47"/>
+      <c r="L220" s="5">
+        <f>AVERAGE($F$132:F220)</f>
+        <v>119483986.58483154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A221" s="36">
+        <v>42873</v>
+      </c>
+      <c r="B221" s="37">
+        <f>B92-$B$2</f>
+        <v>281731.48</v>
+      </c>
+      <c r="C221" s="37">
+        <f t="shared" si="51"/>
+        <v>449421.79000000004</v>
+      </c>
+      <c r="D221" s="37">
+        <f t="shared" si="51"/>
+        <v>5545693</v>
+      </c>
+      <c r="E221" s="37">
+        <f t="shared" si="52"/>
+        <v>5096271.21</v>
+      </c>
+      <c r="F221" s="37">
+        <v>140725343.59</v>
+      </c>
+      <c r="G221" s="46">
+        <f t="shared" si="53"/>
+        <v>4.2568252081717196E-2</v>
+      </c>
+      <c r="H221" s="46">
+        <f t="shared" si="54"/>
+        <v>3.3975141399999999E-2</v>
+      </c>
+      <c r="I221" s="37"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="47"/>
+      <c r="L221" s="5">
+        <f>AVERAGE($F$132:F221)</f>
+        <v>119720001.66266674</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A222" s="36">
+        <v>42874</v>
+      </c>
+      <c r="B222" s="37">
+        <f>B93-$B$2</f>
+        <v>286833.08999999997</v>
+      </c>
+      <c r="C222" s="37">
+        <f t="shared" si="51"/>
+        <v>451998.4800000001</v>
+      </c>
+      <c r="D222" s="37">
+        <f t="shared" si="51"/>
+        <v>5732008</v>
+      </c>
+      <c r="E222" s="37">
+        <f t="shared" si="52"/>
+        <v>5280009.5199999996</v>
+      </c>
+      <c r="F222" s="37">
+        <v>140725344.59</v>
+      </c>
+      <c r="G222" s="46">
+        <f t="shared" si="53"/>
+        <v>4.4018115900511079E-2</v>
+      </c>
+      <c r="H222" s="46">
+        <f t="shared" si="54"/>
+        <v>3.520006346666666E-2</v>
+      </c>
+      <c r="I222" s="37"/>
+      <c r="J222" s="37"/>
+      <c r="K222" s="47"/>
+      <c r="L222" s="5">
+        <f>AVERAGE($F$132:F222)</f>
+        <v>119950829.60692316</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A223" s="36">
+        <v>42877</v>
+      </c>
+      <c r="B223" s="37">
+        <f>B94-$B$2</f>
+        <v>289624.74</v>
+      </c>
+      <c r="C223" s="37">
+        <f>C94-C$2</f>
+        <v>455199.49</v>
+      </c>
+      <c r="D223" s="37">
+        <f>D94-D$2</f>
+        <v>5862338</v>
+      </c>
+      <c r="E223" s="37">
+        <f t="shared" ref="E223:E227" si="55">D223-C223</f>
+        <v>5407138.5099999998</v>
+      </c>
+      <c r="F223" s="37">
+        <v>140725345.59</v>
+      </c>
+      <c r="G223" s="46">
+        <f t="shared" ref="G223:G227" si="56">E223/L223</f>
+        <v>4.499325767179306E-2</v>
+      </c>
+      <c r="H223" s="46">
+        <f t="shared" ref="H223:H227" si="57">E223/150000000</f>
+        <v>3.6047590066666663E-2</v>
+      </c>
+      <c r="I223" s="37"/>
+      <c r="J223" s="37"/>
+      <c r="K223" s="47"/>
+      <c r="L223" s="5">
+        <f>AVERAGE($F$132:F223)</f>
+        <v>120176639.56326094</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A224" s="36">
+        <v>42878</v>
+      </c>
+      <c r="B224" s="37">
+        <f>B95-$B$2</f>
+        <v>290174.59999999998</v>
+      </c>
+      <c r="C224" s="37">
+        <f>C95-C$2</f>
+        <v>463492.6100000001</v>
+      </c>
+      <c r="D224" s="37">
+        <f>D95-D$2</f>
+        <v>6232734</v>
+      </c>
+      <c r="E224" s="37">
+        <f t="shared" si="55"/>
+        <v>5769241.3899999997</v>
+      </c>
+      <c r="F224" s="37">
+        <v>140725346.59</v>
+      </c>
+      <c r="G224" s="46">
+        <f t="shared" si="56"/>
+        <v>4.7918245099173168E-2</v>
+      </c>
+      <c r="H224" s="46">
+        <f t="shared" si="57"/>
+        <v>3.8461609266666662E-2</v>
+      </c>
+      <c r="I224" s="37"/>
+      <c r="J224" s="37"/>
+      <c r="K224" s="47"/>
+      <c r="L224" s="5">
+        <f>AVERAGE($F$132:F224)</f>
+        <v>120397593.40225814</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A225" s="36">
+        <v>42879</v>
+      </c>
+      <c r="B225" s="37">
+        <f>B96-$B$2</f>
+        <v>290174.59999999998</v>
+      </c>
+      <c r="C225" s="37">
+        <f>C96-C$2</f>
+        <v>468493.27999999991</v>
+      </c>
+      <c r="D225" s="37">
+        <f>D96-D$2</f>
+        <v>6257461</v>
+      </c>
+      <c r="E225" s="37">
+        <f t="shared" si="55"/>
+        <v>5788967.7199999997</v>
+      </c>
+      <c r="F225" s="37">
+        <v>140725347.59</v>
+      </c>
+      <c r="G225" s="46">
+        <f t="shared" si="56"/>
+        <v>4.7995880297972186E-2</v>
+      </c>
+      <c r="H225" s="46">
+        <f t="shared" si="57"/>
+        <v>3.8593118133333333E-2</v>
+      </c>
+      <c r="I225" s="37"/>
+      <c r="J225" s="37"/>
+      <c r="K225" s="47"/>
+      <c r="L225" s="5">
+        <f>AVERAGE($F$132:F225)</f>
+        <v>120613846.10638306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A226" s="36">
+        <v>42880</v>
+      </c>
+      <c r="B226" s="37">
+        <f>B97-$B$2</f>
+        <v>301089.66999999993</v>
+      </c>
+      <c r="C226" s="37">
+        <f>C97-C$2</f>
+        <v>483520.75</v>
+      </c>
+      <c r="D226" s="37">
+        <f>D97-D$2</f>
+        <v>6524946</v>
+      </c>
+      <c r="E226" s="37">
+        <f t="shared" si="55"/>
+        <v>6041425.25</v>
+      </c>
+      <c r="F226" s="37">
+        <v>140725348.59</v>
+      </c>
+      <c r="G226" s="46">
+        <f t="shared" si="56"/>
+        <v>5.0001224437864471E-2</v>
+      </c>
+      <c r="H226" s="46">
+        <f t="shared" si="57"/>
+        <v>4.0276168333333334E-2</v>
+      </c>
+      <c r="I226" s="37"/>
+      <c r="J226" s="37"/>
+      <c r="K226" s="47"/>
+      <c r="L226" s="5">
+        <f>AVERAGE($F$132:F226)</f>
+        <v>120825546.1325264</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A227" s="36">
+        <v>42881</v>
+      </c>
+      <c r="B227" s="37">
+        <f>B98-$B$2</f>
+        <v>306263.66999999993</v>
+      </c>
+      <c r="C227" s="37">
+        <f>C98-C$2</f>
+        <v>490763.58999999985</v>
+      </c>
+      <c r="D227" s="37">
+        <f>D98-D$2</f>
+        <v>6555010</v>
+      </c>
+      <c r="E227" s="37">
+        <f t="shared" si="55"/>
+        <v>6064246.4100000001</v>
+      </c>
+      <c r="F227" s="37">
+        <v>140725349.59</v>
+      </c>
+      <c r="G227" s="46">
+        <f t="shared" si="56"/>
+        <v>5.0104142172063833E-2</v>
+      </c>
+      <c r="H227" s="46">
+        <f t="shared" si="57"/>
+        <v>4.0428309400000001E-2</v>
+      </c>
+      <c r="I227" s="37"/>
+      <c r="J227" s="37"/>
+      <c r="K227" s="47"/>
+      <c r="L227" s="5">
+        <f>AVERAGE($F$132:F227)</f>
+        <v>121032835.75187509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A228" s="36">
+        <v>42886</v>
+      </c>
+      <c r="B228" s="37">
+        <f t="shared" ref="B228:B235" si="58">B99-$B$2</f>
+        <v>313518.73</v>
+      </c>
+      <c r="C228" s="37">
+        <f t="shared" ref="C228:D228" si="59">C99-C$2</f>
+        <v>496561.5</v>
+      </c>
+      <c r="D228" s="37">
+        <f t="shared" si="59"/>
+        <v>6604051</v>
+      </c>
+      <c r="E228" s="37">
+        <f t="shared" ref="E228:E235" si="60">D228-C228</f>
+        <v>6107489.5</v>
+      </c>
+      <c r="F228" s="37">
+        <v>140725350.59</v>
+      </c>
+      <c r="G228" s="46">
+        <f t="shared" ref="G228:G235" si="61">E228/L228</f>
+        <v>5.0376925893173753E-2</v>
+      </c>
+      <c r="H228" s="46">
+        <f t="shared" ref="H228:H235" si="62">E228/150000000</f>
+        <v>4.0716596666666667E-2</v>
+      </c>
+      <c r="I228" s="37"/>
+      <c r="J228" s="37"/>
+      <c r="K228" s="47"/>
+      <c r="L228" s="5">
+        <f>AVERAGE($F$132:F228)</f>
+        <v>121235851.36876297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A229" s="36">
+        <v>42887</v>
+      </c>
+      <c r="B229" s="37">
+        <f t="shared" si="58"/>
+        <v>332172.16000000003</v>
+      </c>
+      <c r="C229" s="37">
+        <f t="shared" ref="C229:D229" si="63">C100-C$2</f>
+        <v>503124.45999999996</v>
+      </c>
+      <c r="D229" s="37">
+        <f t="shared" si="63"/>
+        <v>6790433</v>
+      </c>
+      <c r="E229" s="37">
         <f t="shared" si="60"/>
-        <v>-46875.25</v>
-      </c>
-    </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C220" s="36">
-        <v>42859</v>
-      </c>
-      <c r="D220" s="37">
-        <v>4425892.3600000003</v>
-      </c>
-      <c r="E220" s="5">
-        <f>D220-$D$216</f>
-        <v>-224964.50999999978</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C221" s="36">
-        <v>42860</v>
-      </c>
-      <c r="D221" s="37">
-        <v>4647910.8</v>
-      </c>
-      <c r="E221" s="5">
-        <f>D221-$D$216</f>
-        <v>-2946.070000000298</v>
+        <v>6287308.54</v>
+      </c>
+      <c r="F229" s="37">
+        <v>140725351.59</v>
+      </c>
+      <c r="G229" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1775211753431694E-2</v>
+      </c>
+      <c r="H229" s="46">
+        <f t="shared" si="62"/>
+        <v>4.1915390266666665E-2</v>
+      </c>
+      <c r="I229" s="37"/>
+      <c r="J229" s="37"/>
+      <c r="K229" s="47"/>
+      <c r="L229" s="5">
+        <f>AVERAGE($F$132:F229)</f>
+        <v>121434723.82000008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A230" s="36">
+        <v>42888</v>
+      </c>
+      <c r="B230" s="37">
+        <f t="shared" si="58"/>
+        <v>332571.68000000005</v>
+      </c>
+      <c r="C230" s="37">
+        <f t="shared" ref="C230:D230" si="64">C101-C$2</f>
+        <v>510599.04999999981</v>
+      </c>
+      <c r="D230" s="37">
+        <f t="shared" si="64"/>
+        <v>6765429</v>
+      </c>
+      <c r="E230" s="37">
+        <f t="shared" si="60"/>
+        <v>6254829.9500000002</v>
+      </c>
+      <c r="F230" s="37">
+        <v>140725352.59</v>
+      </c>
+      <c r="G230" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1425237340393663E-2</v>
+      </c>
+      <c r="H230" s="46">
+        <f t="shared" si="62"/>
+        <v>4.1698866333333334E-2</v>
+      </c>
+      <c r="I230" s="37"/>
+      <c r="J230" s="37"/>
+      <c r="K230" s="47"/>
+      <c r="L230" s="5">
+        <f>AVERAGE($F$132:F230)</f>
+        <v>121629578.6560607</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A231" s="36">
+        <v>42891</v>
+      </c>
+      <c r="B231" s="37">
+        <f t="shared" si="58"/>
+        <v>334119.78000000003</v>
+      </c>
+      <c r="C231" s="37">
+        <f t="shared" ref="C231:D231" si="65">C102-C$2</f>
+        <v>514345.94999999995</v>
+      </c>
+      <c r="D231" s="37">
+        <f t="shared" si="65"/>
+        <v>6760869</v>
+      </c>
+      <c r="E231" s="37">
+        <f t="shared" si="60"/>
+        <v>6246523.0499999998</v>
+      </c>
+      <c r="F231" s="37">
+        <v>140725353.59</v>
+      </c>
+      <c r="G231" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1276436915468245E-2</v>
+      </c>
+      <c r="H231" s="46">
+        <f t="shared" si="62"/>
+        <v>4.1643487E-2</v>
+      </c>
+      <c r="I231" s="37"/>
+      <c r="J231" s="37"/>
+      <c r="K231" s="47"/>
+      <c r="L231" s="5">
+        <f>AVERAGE($F$132:F231)</f>
+        <v>121820536.40540008</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A232" s="36">
+        <v>42892</v>
+      </c>
+      <c r="B232" s="37">
+        <f t="shared" si="58"/>
+        <v>335263.06000000006</v>
+      </c>
+      <c r="C232" s="37">
+        <f t="shared" ref="C232:D232" si="66">C103-C$2</f>
+        <v>516713.74</v>
+      </c>
+      <c r="D232" s="37">
+        <f t="shared" si="66"/>
+        <v>6773988</v>
+      </c>
+      <c r="E232" s="37">
+        <f t="shared" si="60"/>
+        <v>6257274.2599999998</v>
+      </c>
+      <c r="F232" s="37">
+        <v>140725354.59</v>
+      </c>
+      <c r="G232" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1285890991777244E-2</v>
+      </c>
+      <c r="H232" s="46">
+        <f t="shared" si="62"/>
+        <v>4.1715161733333332E-2</v>
+      </c>
+      <c r="I232" s="37"/>
+      <c r="J232" s="37"/>
+      <c r="K232" s="47"/>
+      <c r="L232" s="5">
+        <f>AVERAGE($F$132:F232)</f>
+        <v>122007712.82306939</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A233" s="36">
+        <v>42893</v>
+      </c>
+      <c r="B233" s="37">
+        <f t="shared" si="58"/>
+        <v>335263.06000000006</v>
+      </c>
+      <c r="C233" s="37">
+        <f t="shared" ref="C233:D233" si="67">C104-C$2</f>
+        <v>519981.75</v>
+      </c>
+      <c r="D233" s="37">
+        <f t="shared" si="67"/>
+        <v>6858834</v>
+      </c>
+      <c r="E233" s="37">
+        <f t="shared" si="60"/>
+        <v>6338852.25</v>
+      </c>
+      <c r="F233" s="37">
+        <v>140725355.59</v>
+      </c>
+      <c r="G233" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1876495671351733E-2</v>
+      </c>
+      <c r="H233" s="46">
+        <f t="shared" si="62"/>
+        <v>4.2259014999999997E-2</v>
+      </c>
+      <c r="I233" s="37"/>
+      <c r="J233" s="37"/>
+      <c r="K233" s="47"/>
+      <c r="L233" s="5">
+        <f>AVERAGE($F$132:F233)</f>
+        <v>122191219.12470597</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A234" s="36">
+        <v>42894</v>
+      </c>
+      <c r="B234" s="37">
+        <f t="shared" si="58"/>
+        <v>340799.91000000003</v>
+      </c>
+      <c r="C234" s="37">
+        <f t="shared" ref="C234:D234" si="68">C105-C$2</f>
+        <v>524622.87000000011</v>
+      </c>
+      <c r="D234" s="37">
+        <f t="shared" si="68"/>
+        <v>6860884</v>
+      </c>
+      <c r="E234" s="37">
+        <f t="shared" si="60"/>
+        <v>6336261.1299999999</v>
+      </c>
+      <c r="F234" s="37">
+        <v>140725356.59</v>
+      </c>
+      <c r="G234" s="46">
+        <f t="shared" si="61"/>
+        <v>5.1779038588252224E-2</v>
+      </c>
+      <c r="H234" s="46">
+        <f t="shared" si="62"/>
+        <v>4.2241740866666669E-2</v>
+      </c>
+      <c r="I234" s="37"/>
+      <c r="J234" s="37"/>
+      <c r="K234" s="47"/>
+      <c r="L234" s="5">
+        <f>AVERAGE($F$132:F234)</f>
+        <v>122371162.2068933</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A235" s="36">
+        <v>42895</v>
+      </c>
+      <c r="B235" s="37">
+        <f t="shared" si="58"/>
+        <v>340799.91000000003</v>
+      </c>
+      <c r="C235" s="37">
+        <f t="shared" ref="C235:D235" si="69">C106-C$2</f>
+        <v>529263.99</v>
+      </c>
+      <c r="D235" s="37">
+        <f t="shared" si="69"/>
+        <v>6956320</v>
+      </c>
+      <c r="E235" s="37">
+        <f t="shared" si="60"/>
+        <v>6427056.0099999998</v>
+      </c>
+      <c r="F235" s="37">
+        <v>140725357.59</v>
+      </c>
+      <c r="G235" s="46">
+        <f t="shared" si="61"/>
+        <v>5.2445365372909933E-2</v>
+      </c>
+      <c r="H235" s="46">
+        <f>E235/150000000</f>
+        <v>4.2847040066666668E-2</v>
+      </c>
+      <c r="I235" s="37"/>
+      <c r="J235" s="37"/>
+      <c r="K235" s="47"/>
+      <c r="L235" s="5">
+        <f>AVERAGE($F$132:F235)</f>
+        <v>122547644.85480778</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B236" s="37"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="37"/>
+      <c r="E236" s="37"/>
+      <c r="F236" s="37"/>
+      <c r="G236" s="46"/>
+      <c r="H236" s="46"/>
+      <c r="I236" s="37"/>
+      <c r="J236" s="37"/>
+      <c r="K236" s="47"/>
+      <c r="L236" s="5"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B237" s="37"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="46"/>
+      <c r="H237" s="46"/>
+      <c r="I237" s="37"/>
+      <c r="J237" s="37"/>
+      <c r="K237" s="47"/>
+      <c r="L237" s="5"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B238" s="37"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="37"/>
+      <c r="E238" s="37"/>
+      <c r="F238" s="37"/>
+      <c r="G238" s="46"/>
+      <c r="H238" s="46"/>
+      <c r="I238" s="37"/>
+      <c r="J238" s="37"/>
+      <c r="K238" s="47"/>
+      <c r="L238" s="5"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B239" s="37"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="37"/>
+      <c r="F239" s="37"/>
+      <c r="G239" s="46"/>
+      <c r="H239" s="46"/>
+      <c r="I239" s="37"/>
+      <c r="J239" s="37"/>
+      <c r="K239" s="47"/>
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A240" s="36"/>
+      <c r="B240" s="37"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="37"/>
+      <c r="E240" s="37"/>
+      <c r="F240" s="37"/>
+      <c r="G240" s="46"/>
+      <c r="H240" s="46"/>
+      <c r="I240" s="37"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="47"/>
+      <c r="L240" s="5"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A241" s="36"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="37"/>
+      <c r="E241" s="37"/>
+      <c r="F241" s="37"/>
+      <c r="G241" s="46"/>
+      <c r="H241" s="46"/>
+      <c r="I241" s="37"/>
+      <c r="J241" s="37"/>
+      <c r="K241" s="47"/>
+      <c r="L241" s="5"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A242" s="36"/>
+      <c r="B242" s="37"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="37"/>
+      <c r="E242" s="37"/>
+      <c r="F242" s="37"/>
+      <c r="G242" s="46"/>
+      <c r="H242" s="46"/>
+      <c r="I242" s="37"/>
+      <c r="J242" s="37"/>
+      <c r="K242" s="47"/>
+      <c r="L242" s="5"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A243" s="36"/>
+      <c r="B243" s="37"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="37"/>
+      <c r="E243" s="37"/>
+      <c r="F243" s="37"/>
+      <c r="G243" s="46"/>
+      <c r="H243" s="46"/>
+      <c r="I243" s="37"/>
+      <c r="J243" s="37"/>
+      <c r="K243" s="47"/>
+      <c r="L243" s="5"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A244" s="36"/>
+      <c r="B244" s="37"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="37"/>
+      <c r="E244" s="37"/>
+      <c r="F244" s="37"/>
+      <c r="G244" s="46"/>
+      <c r="H244" s="46"/>
+      <c r="I244" s="37"/>
+      <c r="J244" s="37"/>
+      <c r="K244" s="47"/>
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A245" s="36"/>
+      <c r="B245" s="37"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="37"/>
+      <c r="F245" s="37"/>
+      <c r="G245" s="46"/>
+      <c r="H245" s="46"/>
+      <c r="I245" s="37"/>
+      <c r="J245" s="37"/>
+      <c r="K245" s="47"/>
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A246" s="36"/>
+      <c r="B246" s="37"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="37"/>
+      <c r="F246" s="37"/>
+      <c r="G246" s="46"/>
+      <c r="H246" s="46"/>
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+      <c r="K246" s="47"/>
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A247" s="36"/>
+      <c r="B247" s="37"/>
+      <c r="C247" s="37"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="37"/>
+      <c r="F247" s="37"/>
+      <c r="G247" s="46"/>
+      <c r="H247" s="46"/>
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+      <c r="K247" s="47"/>
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A248" s="36"/>
+      <c r="B248" s="37"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="37"/>
+      <c r="E248" s="37"/>
+      <c r="F248" s="37"/>
+      <c r="G248" s="46"/>
+      <c r="H248" s="46"/>
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+      <c r="K248" s="47"/>
+      <c r="L248" s="5"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A249" s="36"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="37"/>
+      <c r="F249" s="37"/>
+      <c r="G249" s="46"/>
+      <c r="H249" s="46"/>
+      <c r="I249" s="37"/>
+      <c r="J249" s="37"/>
+      <c r="K249" s="47"/>
+      <c r="L249" s="5"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A250" s="36"/>
+      <c r="C250" s="45"/>
+      <c r="E250" s="35"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="37"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A251" s="36"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="5"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="37"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A252" s="36"/>
+      <c r="D252" s="36"/>
+      <c r="E252" s="5"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="37"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A253" s="36"/>
+      <c r="D253" s="36"/>
+      <c r="E253" s="5"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="37"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A254" s="36"/>
+      <c r="D254" s="36"/>
+      <c r="E254" s="5"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="37"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A255" s="36"/>
+      <c r="D255" s="36"/>
+      <c r="E255" s="5"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="37"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A256" s="36"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" s="36"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" s="36"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" s="36"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C263" s="36">
+        <v>42881</v>
+      </c>
+      <c r="D263" s="37">
+        <v>6064246.4100000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C264" s="36">
+        <v>42886</v>
+      </c>
+      <c r="D264" s="37">
+        <v>6107489.5</v>
+      </c>
+      <c r="E264" s="5">
+        <f>D264-$D$263</f>
+        <v>43243.089999999851</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C265" s="36">
+        <v>42887</v>
+      </c>
+      <c r="D265" s="37">
+        <v>6287308.54</v>
+      </c>
+      <c r="E265" s="5">
+        <f t="shared" ref="E265:E266" si="70">D265-$D$263</f>
+        <v>223062.12999999989</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C266" s="36">
+        <v>42888</v>
+      </c>
+      <c r="D266" s="37">
+        <v>6254829.9500000002</v>
+      </c>
+      <c r="E266" s="5">
+        <f t="shared" si="70"/>
+        <v>190583.54000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C267" s="36">
+        <v>42891</v>
+      </c>
+      <c r="D267" s="37">
+        <v>6246523.0499999998</v>
+      </c>
+      <c r="E267" s="5">
+        <f>D267-$D$263</f>
+        <v>182276.63999999966</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C268" s="36">
+        <v>42892</v>
+      </c>
+      <c r="D268" s="37">
+        <v>6257274.2599999998</v>
+      </c>
+      <c r="E268" s="5">
+        <f>D268-$D$263</f>
+        <v>193027.84999999963</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C269" s="36">
+        <v>42893</v>
+      </c>
+      <c r="D269" s="37">
+        <v>6338852.25</v>
+      </c>
+      <c r="E269" s="5">
+        <f t="shared" ref="E269:E271" si="71">D269-$D$263</f>
+        <v>274605.83999999985</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C270" s="36">
+        <v>42894</v>
+      </c>
+      <c r="D270" s="37">
+        <v>6336261.1299999999</v>
+      </c>
+      <c r="E270" s="5">
+        <f t="shared" si="71"/>
+        <v>272014.71999999974</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C271" s="36">
+        <v>42895</v>
+      </c>
+      <c r="D271" s="37">
+        <v>6427056.0099999998</v>
+      </c>
+      <c r="E271" s="5">
+        <f t="shared" si="71"/>
+        <v>362809.59999999963</v>
       </c>
     </row>
   </sheetData>
